--- a/AutoLoader/Contents/Support/房间名称分类处理.xlsx
+++ b/AutoLoader/Contents/Support/房间名称分类处理.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files\Autodesk\ApplicationPlugins\ThMEPPlugin.bundle\Contents\Support\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="房间名称处理" sheetId="1" r:id="rId1"/>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="462">
   <si>
     <t>一级</t>
   </si>
@@ -1333,62 +1338,89 @@
     <t>无燃气餐饮</t>
   </si>
   <si>
+    <t>零售</t>
+  </si>
+  <si>
+    <t>超市</t>
+  </si>
+  <si>
+    <t>私有区域；感烟火灾探测器；疏散指示；疏散照明</t>
+  </si>
+  <si>
+    <t>营业厅</t>
+  </si>
+  <si>
+    <t>观演建筑</t>
+  </si>
+  <si>
+    <t>电影院</t>
+  </si>
+  <si>
+    <t>观众厅</t>
+  </si>
+  <si>
+    <t>观众休息厅</t>
+  </si>
+  <si>
+    <t>放映设备间</t>
+  </si>
+  <si>
+    <t>剧院</t>
+  </si>
+  <si>
+    <t>剧场</t>
+  </si>
+  <si>
+    <t>音乐厅</t>
+  </si>
+  <si>
+    <t>排演厅</t>
+  </si>
+  <si>
+    <t>化妆室</t>
+  </si>
+  <si>
+    <t>其他空间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>电餐</t>
-  </si>
-  <si>
-    <t>零售</t>
-  </si>
-  <si>
-    <t>超市</t>
-  </si>
-  <si>
-    <t>私有区域；感烟火灾探测器；疏散指示；疏散照明</t>
-  </si>
-  <si>
-    <t>营业厅</t>
-  </si>
-  <si>
-    <t>观演建筑</t>
-  </si>
-  <si>
-    <t>电影院</t>
-  </si>
-  <si>
-    <t>观众厅</t>
-  </si>
-  <si>
-    <t>观众休息厅</t>
-  </si>
-  <si>
-    <t>放映设备间</t>
-  </si>
-  <si>
-    <t>剧院</t>
-  </si>
-  <si>
-    <t>剧场</t>
-  </si>
-  <si>
-    <t>音乐厅</t>
-  </si>
-  <si>
-    <t>排演厅</t>
-  </si>
-  <si>
-    <t>化妆室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游泳池</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>溜冰场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑雪场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>溜冰、冰场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑雪、雪场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游泳、泳池</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地库配电间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1397,169 +1429,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="9"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1569,192 +1458,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1762,253 +1471,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2019,70 +1486,38 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="00336699"/>
+      <color rgb="FF336699"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2340,37 +1775,37 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F295"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F298"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="20.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="23.5" style="4" customWidth="1"/>
     <col min="4" max="4" width="20.625" style="1" customWidth="1"/>
     <col min="5" max="5" width="50.625" style="2" customWidth="1"/>
     <col min="6" max="6" width="66.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -2383,13 +1818,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:6">
-      <c r="B3" s="1" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -2397,8 +1832,8 @@
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="3:6">
-      <c r="C4" s="1" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C4" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -2411,8 +1846,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="3:6">
-      <c r="C5" s="1" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C5" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -2422,15 +1857,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="3:6">
-      <c r="C6" s="1" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C6" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="4:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D7" s="1" t="s">
         <v>17</v>
       </c>
@@ -2438,7 +1873,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="4:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D8" s="1" t="s">
         <v>19</v>
       </c>
@@ -2446,7 +1881,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="4:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D9" s="1" t="s">
         <v>20</v>
       </c>
@@ -2457,8 +1892,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="3:6">
-      <c r="C10" s="1" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C10" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -2471,8 +1906,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="3:6">
-      <c r="C11" s="1" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C11" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -2485,40 +1920,40 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="3:6">
-      <c r="C12" s="1" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C12" s="4" t="s">
         <v>27</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="3:6">
-      <c r="C13" s="1" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C13" s="4" t="s">
         <v>28</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="3:6">
-      <c r="C14" s="1" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C14" s="4" t="s">
         <v>29</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="3:6">
-      <c r="C15" s="1" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C15" s="4" t="s">
         <v>30</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="3:6">
-      <c r="C16" s="2" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C16" s="5" t="s">
         <v>31</v>
       </c>
       <c r="E16" s="2" t="s">
@@ -2528,8 +1963,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="3:6">
-      <c r="C17" s="1" t="s">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C17" s="4" t="s">
         <v>33</v>
       </c>
       <c r="E17" s="2" t="s">
@@ -2539,8 +1974,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="3:6">
-      <c r="C18" s="1" t="s">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C18" s="4" t="s">
         <v>35</v>
       </c>
       <c r="E18" s="2" t="s">
@@ -2550,7 +1985,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="4:6">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D19" s="1" t="s">
         <v>37</v>
       </c>
@@ -2558,7 +1993,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="4:6">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D20" s="1" t="s">
         <v>38</v>
       </c>
@@ -2566,16 +2001,16 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="3:6">
-      <c r="C21" s="1" t="s">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C21" s="4" t="s">
         <v>39</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="3:6">
-      <c r="C22" s="1" t="s">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C22" s="4" t="s">
         <v>40</v>
       </c>
       <c r="E22" s="2" t="s">
@@ -2585,8 +2020,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="3:6">
-      <c r="C23" s="1" t="s">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C23" s="4" t="s">
         <v>42</v>
       </c>
       <c r="E23" s="2" t="s">
@@ -2596,16 +2031,16 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="2:6">
-      <c r="B24" s="1" t="s">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B24" s="4" t="s">
         <v>45</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="3:6">
-      <c r="C25" s="3" t="s">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C25" s="4" t="s">
         <v>47</v>
       </c>
       <c r="E25" s="2" t="s">
@@ -2615,7 +2050,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="4:6">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D26" s="1" t="s">
         <v>50</v>
       </c>
@@ -2623,7 +2058,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="4:6">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D27" s="1" t="s">
         <v>52</v>
       </c>
@@ -2634,7 +2069,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="4:6">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D28" s="1" t="s">
         <v>54</v>
       </c>
@@ -2645,7 +2080,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="4:6">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D29" s="1" t="s">
         <v>56</v>
       </c>
@@ -2653,8 +2088,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="3:6">
-      <c r="C30" s="3" t="s">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C30" s="4" t="s">
         <v>57</v>
       </c>
       <c r="E30" s="2" t="s">
@@ -2664,7 +2099,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="4:6">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D31" s="1" t="s">
         <v>60</v>
       </c>
@@ -2675,7 +2110,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="32" spans="4:6">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D32" s="1" t="s">
         <v>62</v>
       </c>
@@ -2686,7 +2121,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="4:6">
+    <row r="33" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D33" s="1" t="s">
         <v>64</v>
       </c>
@@ -2697,7 +2132,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="4:6">
+    <row r="34" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D34" s="1" t="s">
         <v>67</v>
       </c>
@@ -2708,7 +2143,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="35" spans="4:6">
+    <row r="35" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D35" s="1" t="s">
         <v>69</v>
       </c>
@@ -2719,8 +2154,8 @@
         <v>66</v>
       </c>
     </row>
-    <row r="36" spans="3:6">
-      <c r="C36" s="1" t="s">
+    <row r="36" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C36" s="4" t="s">
         <v>71</v>
       </c>
       <c r="E36" s="2" t="s">
@@ -2730,7 +2165,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="37" spans="4:6">
+    <row r="37" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D37" s="1" t="s">
         <v>73</v>
       </c>
@@ -2738,7 +2173,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="38" spans="4:6">
+    <row r="38" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D38" s="1" t="s">
         <v>74</v>
       </c>
@@ -2749,15 +2184,15 @@
         <v>66</v>
       </c>
     </row>
-    <row r="39" spans="3:6">
-      <c r="C39" s="1" t="s">
+    <row r="39" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C39" s="4" t="s">
         <v>76</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="40" spans="4:6">
+    <row r="40" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D40" s="1" t="s">
         <v>77</v>
       </c>
@@ -2765,7 +2200,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="41" spans="4:6">
+    <row r="41" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D41" s="1" t="s">
         <v>78</v>
       </c>
@@ -2773,24 +2208,24 @@
         <v>66</v>
       </c>
     </row>
-    <row r="42" spans="3:6">
-      <c r="C42" s="1" t="s">
+    <row r="42" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C42" s="4" t="s">
         <v>79</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="43" spans="3:6">
-      <c r="C43" s="1" t="s">
+    <row r="43" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C43" s="4" t="s">
         <v>81</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="44" spans="3:6">
-      <c r="C44" s="1" t="s">
+    <row r="44" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C44" s="4" t="s">
         <v>82</v>
       </c>
       <c r="E44" s="2" t="s">
@@ -2800,16 +2235,16 @@
         <v>51</v>
       </c>
     </row>
-    <row r="45" spans="3:6">
-      <c r="C45" s="1" t="s">
+    <row r="45" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C45" s="4" t="s">
         <v>84</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="46" spans="3:6">
-      <c r="C46" s="1" t="s">
+    <row r="46" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C46" s="4" t="s">
         <v>85</v>
       </c>
       <c r="E46" s="2" t="s">
@@ -2819,8 +2254,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="47" spans="3:6">
-      <c r="C47" s="1" t="s">
+    <row r="47" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C47" s="4" t="s">
         <v>87</v>
       </c>
       <c r="E47" s="2" t="s">
@@ -2830,16 +2265,16 @@
         <v>51</v>
       </c>
     </row>
-    <row r="48" spans="3:6">
-      <c r="C48" s="1" t="s">
+    <row r="48" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C48" s="4" t="s">
         <v>89</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="49" spans="3:6">
-      <c r="C49" s="1" t="s">
+    <row r="49" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C49" s="4" t="s">
         <v>90</v>
       </c>
       <c r="E49" s="2" t="s">
@@ -2849,7 +2284,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="4:6">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D50" s="1" t="s">
         <v>92</v>
       </c>
@@ -2860,7 +2295,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="4:6">
+    <row r="51" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D51" s="1" t="s">
         <v>94</v>
       </c>
@@ -2871,7 +2306,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="52" spans="4:6">
+    <row r="52" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D52" s="1" t="s">
         <v>96</v>
       </c>
@@ -2879,7 +2314,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="53" spans="4:6">
+    <row r="53" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D53" s="1" t="s">
         <v>97</v>
       </c>
@@ -2890,16 +2325,16 @@
         <v>80</v>
       </c>
     </row>
-    <row r="54" spans="2:6">
-      <c r="B54" s="4" t="s">
+    <row r="54" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B54" s="3" t="s">
         <v>99</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="3:6">
-      <c r="C55" s="1" t="s">
+    <row r="55" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C55" s="4" t="s">
         <v>101</v>
       </c>
       <c r="E55" s="2" t="s">
@@ -2909,7 +2344,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="56" spans="4:6">
+    <row r="56" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D56" s="1" t="s">
         <v>104</v>
       </c>
@@ -2920,7 +2355,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="57" spans="4:6">
+    <row r="57" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D57" s="1" t="s">
         <v>106</v>
       </c>
@@ -2931,7 +2366,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="58" spans="4:6">
+    <row r="58" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D58" s="1" t="s">
         <v>108</v>
       </c>
@@ -2942,7 +2377,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="59" spans="4:6">
+    <row r="59" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D59" s="1" t="s">
         <v>110</v>
       </c>
@@ -2953,7 +2388,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="60" spans="4:6">
+    <row r="60" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D60" s="1" t="s">
         <v>112</v>
       </c>
@@ -2961,7 +2396,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="61" spans="4:6">
+    <row r="61" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D61" s="1" t="s">
         <v>113</v>
       </c>
@@ -2969,7 +2404,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="62" spans="4:6">
+    <row r="62" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D62" s="1" t="s">
         <v>114</v>
       </c>
@@ -2977,7 +2412,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="63" spans="4:6">
+    <row r="63" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D63" s="1" t="s">
         <v>115</v>
       </c>
@@ -2985,7 +2420,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="64" spans="4:6">
+    <row r="64" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D64" s="1" t="s">
         <v>116</v>
       </c>
@@ -2993,7 +2428,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="65" spans="4:6">
+    <row r="65" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D65" s="1" t="s">
         <v>117</v>
       </c>
@@ -3001,7 +2436,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="66" spans="4:6">
+    <row r="66" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D66" s="1" t="s">
         <v>118</v>
       </c>
@@ -3012,7 +2447,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="67" spans="4:6">
+    <row r="67" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D67" s="1" t="s">
         <v>120</v>
       </c>
@@ -3023,8 +2458,8 @@
         <v>103</v>
       </c>
     </row>
-    <row r="68" spans="3:6">
-      <c r="C68" s="1" t="s">
+    <row r="68" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C68" s="4" t="s">
         <v>122</v>
       </c>
       <c r="E68" s="2" t="s">
@@ -3034,8 +2469,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="69" spans="3:6">
-      <c r="C69" s="1" t="s">
+    <row r="69" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C69" s="4" t="s">
         <v>124</v>
       </c>
       <c r="E69" s="2" t="s">
@@ -3045,16 +2480,16 @@
         <v>16</v>
       </c>
     </row>
-    <row r="70" spans="3:6">
-      <c r="C70" s="1" t="s">
+    <row r="70" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C70" s="4" t="s">
         <v>126</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="71" spans="4:6">
-      <c r="D71" s="1" t="s">
+    <row r="71" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D71" s="6" t="s">
         <v>127</v>
       </c>
       <c r="E71" s="2" t="s">
@@ -3064,7 +2499,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="72" spans="4:6">
+    <row r="72" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D72" s="1" t="s">
         <v>130</v>
       </c>
@@ -3075,7 +2510,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="73" ht="28.5" spans="4:6">
+    <row r="73" spans="2:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="D73" s="1" t="s">
         <v>133</v>
       </c>
@@ -3086,7 +2521,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="74" spans="4:6">
+    <row r="74" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D74" s="1" t="s">
         <v>135</v>
       </c>
@@ -3097,7 +2532,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="75" spans="4:6">
+    <row r="75" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D75" s="1" t="s">
         <v>138</v>
       </c>
@@ -3108,8 +2543,8 @@
         <v>137</v>
       </c>
     </row>
-    <row r="76" spans="3:6">
-      <c r="C76" s="1" t="s">
+    <row r="76" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C76" s="4" t="s">
         <v>140</v>
       </c>
       <c r="E76" s="2" t="s">
@@ -3119,7 +2554,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="77" spans="4:6">
+    <row r="77" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D77" s="1" t="s">
         <v>142</v>
       </c>
@@ -3130,7 +2565,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="78" spans="4:6">
+    <row r="78" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D78" s="1" t="s">
         <v>144</v>
       </c>
@@ -3141,7 +2576,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="79" ht="28.5" spans="4:6">
+    <row r="79" spans="2:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="D79" s="1" t="s">
         <v>146</v>
       </c>
@@ -3152,7 +2587,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="80" spans="2:6">
+    <row r="80" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B80" s="4" t="s">
         <v>148</v>
       </c>
@@ -3163,8 +2598,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="81" spans="3:6">
-      <c r="C81" s="1" t="s">
+    <row r="81" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C81" s="4" t="s">
         <v>150</v>
       </c>
       <c r="E81" s="2" t="s">
@@ -3174,7 +2609,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="82" spans="4:6">
+    <row r="82" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D82" s="1" t="s">
         <v>153</v>
       </c>
@@ -3182,7 +2617,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="83" spans="4:6">
+    <row r="83" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D83" s="1" t="s">
         <v>154</v>
       </c>
@@ -3193,7 +2628,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="84" spans="4:6">
+    <row r="84" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D84" s="1" t="s">
         <v>156</v>
       </c>
@@ -3201,7 +2636,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="85" spans="4:6">
+    <row r="85" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D85" s="1" t="s">
         <v>157</v>
       </c>
@@ -3209,15 +2644,15 @@
         <v>152</v>
       </c>
     </row>
-    <row r="86" spans="3:6">
-      <c r="C86" s="1" t="s">
+    <row r="86" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C86" s="4" t="s">
         <v>158</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="87" spans="4:6">
+    <row r="87" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D87" s="1" t="s">
         <v>160</v>
       </c>
@@ -3225,8 +2660,8 @@
         <v>159</v>
       </c>
     </row>
-    <row r="88" spans="3:6">
-      <c r="C88" s="1" t="s">
+    <row r="88" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C88" s="4" t="s">
         <v>161</v>
       </c>
       <c r="E88" s="2" t="s">
@@ -3236,8 +2671,8 @@
         <v>159</v>
       </c>
     </row>
-    <row r="89" spans="3:6">
-      <c r="C89" s="1" t="s">
+    <row r="89" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C89" s="4" t="s">
         <v>163</v>
       </c>
       <c r="E89" s="2" t="s">
@@ -3247,8 +2682,8 @@
         <v>152</v>
       </c>
     </row>
-    <row r="90" spans="3:6">
-      <c r="C90" s="1" t="s">
+    <row r="90" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C90" s="4" t="s">
         <v>165</v>
       </c>
       <c r="E90" s="2" t="s">
@@ -3258,7 +2693,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="91" spans="4:6">
+    <row r="91" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D91" s="1" t="s">
         <v>167</v>
       </c>
@@ -3266,64 +2701,64 @@
         <v>152</v>
       </c>
     </row>
-    <row r="92" spans="3:6">
-      <c r="C92" s="1" t="s">
+    <row r="92" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C92" s="4" t="s">
         <v>168</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="93" spans="3:6">
-      <c r="C93" s="1" t="s">
+    <row r="93" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C93" s="4" t="s">
         <v>169</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="94" spans="3:6">
-      <c r="C94" s="1" t="s">
+    <row r="94" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C94" s="4" t="s">
         <v>170</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="95" spans="3:6">
-      <c r="C95" s="1" t="s">
+    <row r="95" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C95" s="4" t="s">
         <v>171</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="96" spans="3:6">
-      <c r="C96" s="1" t="s">
+    <row r="96" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C96" s="4" t="s">
         <v>172</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="97" spans="3:6">
-      <c r="C97" s="1" t="s">
+    <row r="97" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C97" s="4" t="s">
         <v>173</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="98" spans="3:6">
-      <c r="C98" s="1" t="s">
+    <row r="98" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C98" s="4" t="s">
         <v>174</v>
       </c>
       <c r="F98" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="99" spans="3:6">
-      <c r="C99" s="1" t="s">
+    <row r="99" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C99" s="4" t="s">
         <v>175</v>
       </c>
       <c r="E99" s="2" t="s">
@@ -3333,8 +2768,8 @@
         <v>152</v>
       </c>
     </row>
-    <row r="100" spans="3:6">
-      <c r="C100" s="1" t="s">
+    <row r="100" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C100" s="4" t="s">
         <v>177</v>
       </c>
       <c r="E100" s="2" t="s">
@@ -3344,7 +2779,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="101" spans="4:6">
+    <row r="101" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D101" s="1" t="s">
         <v>179</v>
       </c>
@@ -3352,8 +2787,8 @@
         <v>152</v>
       </c>
     </row>
-    <row r="102" spans="3:6">
-      <c r="C102" s="1" t="s">
+    <row r="102" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C102" s="4" t="s">
         <v>180</v>
       </c>
       <c r="E102" s="2" t="s">
@@ -3363,7 +2798,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="103" spans="4:6">
+    <row r="103" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D103" s="1" t="s">
         <v>182</v>
       </c>
@@ -3371,7 +2806,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="104" spans="4:6">
+    <row r="104" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D104" s="1" t="s">
         <v>183</v>
       </c>
@@ -3379,15 +2814,15 @@
         <v>159</v>
       </c>
     </row>
-    <row r="105" spans="3:6">
-      <c r="C105" s="1" t="s">
+    <row r="105" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C105" s="4" t="s">
         <v>184</v>
       </c>
       <c r="F105" s="1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="106" spans="4:6">
+    <row r="106" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D106" s="1" t="s">
         <v>186</v>
       </c>
@@ -3395,7 +2830,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="107" spans="4:6">
+    <row r="107" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D107" s="1" t="s">
         <v>187</v>
       </c>
@@ -3403,7 +2838,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="108" spans="4:6">
+    <row r="108" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D108" s="1" t="s">
         <v>188</v>
       </c>
@@ -3411,7 +2846,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="109" spans="4:6">
+    <row r="109" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D109" s="1" t="s">
         <v>189</v>
       </c>
@@ -3419,87 +2854,87 @@
         <v>16</v>
       </c>
     </row>
-    <row r="110" spans="2:6">
-      <c r="B110" s="1" t="s">
+    <row r="110" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B110" s="4" t="s">
         <v>190</v>
       </c>
       <c r="F110" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="111" spans="3:6">
-      <c r="C111" s="1" t="s">
+    <row r="111" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C111" s="4" t="s">
         <v>191</v>
       </c>
       <c r="F111" s="1" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="112" spans="3:6">
-      <c r="C112" s="1" t="s">
+    <row r="112" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C112" s="4" t="s">
         <v>193</v>
       </c>
       <c r="F112" s="1" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="113" spans="3:6">
-      <c r="C113" s="1" t="s">
+    <row r="113" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C113" s="4" t="s">
         <v>194</v>
       </c>
       <c r="F113" s="1" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="114" spans="2:6">
-      <c r="B114" s="1" t="s">
+    <row r="114" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B114" s="4" t="s">
         <v>195</v>
       </c>
       <c r="F114" s="1" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="115" spans="3:6">
-      <c r="C115" s="1" t="s">
+    <row r="115" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C115" s="4" t="s">
         <v>196</v>
       </c>
       <c r="F115" s="1" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="116" spans="3:6">
-      <c r="C116" s="1" t="s">
+    <row r="116" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C116" s="4" t="s">
         <v>197</v>
       </c>
       <c r="F116" s="1" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="117" spans="2:6">
-      <c r="B117" s="1" t="s">
+    <row r="117" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B117" s="3" t="s">
         <v>198</v>
       </c>
       <c r="F117" s="1" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="118" spans="3:6">
-      <c r="C118" s="1" t="s">
+    <row r="118" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C118" s="4" t="s">
         <v>199</v>
       </c>
       <c r="F118" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="119" spans="3:6">
-      <c r="C119" s="1" t="s">
+    <row r="119" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C119" s="4" t="s">
         <v>200</v>
       </c>
       <c r="F119" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="120" ht="57" spans="4:6">
+    <row r="120" spans="2:6" ht="57" x14ac:dyDescent="0.2">
       <c r="D120" s="1" t="s">
         <v>201</v>
       </c>
@@ -3510,16 +2945,16 @@
         <v>203</v>
       </c>
     </row>
-    <row r="121" spans="3:6">
-      <c r="C121" s="1" t="s">
+    <row r="121" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C121" s="4" t="s">
         <v>204</v>
       </c>
       <c r="F121" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="122" spans="3:6">
-      <c r="C122" s="1" t="s">
+    <row r="122" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C122" s="4" t="s">
         <v>205</v>
       </c>
       <c r="E122" s="2" t="s">
@@ -3529,8 +2964,8 @@
         <v>203</v>
       </c>
     </row>
-    <row r="123" ht="57" spans="3:6">
-      <c r="C123" s="1" t="s">
+    <row r="123" spans="2:6" ht="57" x14ac:dyDescent="0.2">
+      <c r="C123" s="4" t="s">
         <v>207</v>
       </c>
       <c r="E123" s="2" t="s">
@@ -3540,8 +2975,8 @@
         <v>203</v>
       </c>
     </row>
-    <row r="124" spans="3:6">
-      <c r="C124" s="1" t="s">
+    <row r="124" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C124" s="4" t="s">
         <v>209</v>
       </c>
       <c r="E124" s="2" t="s">
@@ -3551,15 +2986,15 @@
         <v>203</v>
       </c>
     </row>
-    <row r="125" spans="3:6">
-      <c r="C125" s="1" t="s">
+    <row r="125" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C125" s="4" t="s">
         <v>211</v>
       </c>
       <c r="F125" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="126" spans="4:6">
+    <row r="126" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D126" s="1" t="s">
         <v>212</v>
       </c>
@@ -3570,7 +3005,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="127" spans="4:6">
+    <row r="127" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D127" s="1" t="s">
         <v>214</v>
       </c>
@@ -3581,7 +3016,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="128" spans="4:6">
+    <row r="128" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D128" s="1" t="s">
         <v>216</v>
       </c>
@@ -3592,7 +3027,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="129" ht="28.5" spans="1:6">
+    <row r="129" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A129" s="4" t="s">
         <v>218</v>
       </c>
@@ -3603,31 +3038,34 @@
         <v>220</v>
       </c>
     </row>
-    <row r="130" spans="2:6">
-      <c r="B130" s="1" t="s">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B130" s="3" t="s">
         <v>221</v>
       </c>
       <c r="F130" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="131" spans="3:6">
-      <c r="C131" s="1" t="s">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C131" s="4" t="s">
         <v>222</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>461</v>
       </c>
       <c r="F131" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="132" spans="3:6">
-      <c r="C132" s="1" t="s">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C132" s="4" t="s">
         <v>223</v>
       </c>
       <c r="F132" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="133" spans="4:6">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D133" s="1" t="s">
         <v>224</v>
       </c>
@@ -3638,7 +3076,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="134" spans="4:6">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D134" s="1" t="s">
         <v>226</v>
       </c>
@@ -3649,8 +3087,8 @@
         <v>203</v>
       </c>
     </row>
-    <row r="135" spans="3:6">
-      <c r="C135" s="1" t="s">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C135" s="4" t="s">
         <v>228</v>
       </c>
       <c r="E135" s="2" t="s">
@@ -3660,7 +3098,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="136" spans="4:6">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D136" s="1" t="s">
         <v>230</v>
       </c>
@@ -3668,15 +3106,15 @@
         <v>203</v>
       </c>
     </row>
-    <row r="137" spans="3:6">
-      <c r="C137" s="1" t="s">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C137" s="4" t="s">
         <v>231</v>
       </c>
       <c r="F137" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="138" spans="4:6">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D138" s="1" t="s">
         <v>232</v>
       </c>
@@ -3687,8 +3125,8 @@
         <v>203</v>
       </c>
     </row>
-    <row r="139" ht="42.75" spans="3:6">
-      <c r="C139" s="1" t="s">
+    <row r="139" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="C139" s="4" t="s">
         <v>234</v>
       </c>
       <c r="E139" s="2" t="s">
@@ -3698,24 +3136,24 @@
         <v>203</v>
       </c>
     </row>
-    <row r="140" spans="3:6">
-      <c r="C140" s="1" t="s">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C140" s="4" t="s">
         <v>236</v>
       </c>
       <c r="F140" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="141" spans="3:6">
-      <c r="C141" s="1" t="s">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C141" s="4" t="s">
         <v>237</v>
       </c>
       <c r="F141" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="142" spans="2:6">
-      <c r="B142" s="1" t="s">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B142" s="3" t="s">
         <v>238</v>
       </c>
       <c r="E142" s="2" t="s">
@@ -3725,8 +3163,8 @@
         <v>46</v>
       </c>
     </row>
-    <row r="143" spans="3:6">
-      <c r="C143" s="1" t="s">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C143" s="4" t="s">
         <v>240</v>
       </c>
       <c r="E143" s="2" t="s">
@@ -3736,16 +3174,16 @@
         <v>152</v>
       </c>
     </row>
-    <row r="144" spans="3:6">
-      <c r="C144" s="1" t="s">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C144" s="4" t="s">
         <v>242</v>
       </c>
       <c r="F144" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="145" spans="3:6">
-      <c r="C145" s="1" t="s">
+    <row r="145" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C145" s="4" t="s">
         <v>243</v>
       </c>
       <c r="E145" s="2" t="s">
@@ -3755,8 +3193,8 @@
         <v>152</v>
       </c>
     </row>
-    <row r="146" ht="28.5" spans="3:6">
-      <c r="C146" s="1" t="s">
+    <row r="146" spans="2:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="C146" s="4" t="s">
         <v>245</v>
       </c>
       <c r="E146" s="2" t="s">
@@ -3766,16 +3204,16 @@
         <v>152</v>
       </c>
     </row>
-    <row r="147" spans="3:6">
-      <c r="C147" s="1" t="s">
+    <row r="147" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C147" s="4" t="s">
         <v>247</v>
       </c>
       <c r="F147" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="148" spans="3:6">
-      <c r="C148" s="1" t="s">
+    <row r="148" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C148" s="4" t="s">
         <v>248</v>
       </c>
       <c r="E148" s="2" t="s">
@@ -3785,32 +3223,32 @@
         <v>152</v>
       </c>
     </row>
-    <row r="149" spans="2:6">
-      <c r="B149" s="1" t="s">
+    <row r="149" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B149" s="4" t="s">
         <v>250</v>
       </c>
       <c r="F149" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="150" spans="2:6">
-      <c r="B150" s="1" t="s">
+    <row r="150" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B150" s="4" t="s">
         <v>251</v>
       </c>
       <c r="F150" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="151" spans="2:6">
-      <c r="B151" s="1" t="s">
+    <row r="151" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B151" s="4" t="s">
         <v>252</v>
       </c>
       <c r="F151" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="152" spans="2:6">
-      <c r="B152" s="1" t="s">
+    <row r="152" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B152" s="4" t="s">
         <v>253</v>
       </c>
       <c r="E152" s="2" t="s">
@@ -3820,16 +3258,16 @@
         <v>152</v>
       </c>
     </row>
-    <row r="153" spans="2:6">
-      <c r="B153" s="1" t="s">
+    <row r="153" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B153" s="4" t="s">
         <v>255</v>
       </c>
       <c r="F153" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="154" spans="3:6">
-      <c r="C154" s="1" t="s">
+    <row r="154" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C154" s="4" t="s">
         <v>256</v>
       </c>
       <c r="E154" s="2" t="s">
@@ -3839,7 +3277,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="155" spans="4:6">
+    <row r="155" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D155" s="1" t="s">
         <v>258</v>
       </c>
@@ -3850,7 +3288,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="156" spans="4:6">
+    <row r="156" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D156" s="1" t="s">
         <v>260</v>
       </c>
@@ -3861,7 +3299,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="157" spans="4:6">
+    <row r="157" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D157" s="1" t="s">
         <v>262</v>
       </c>
@@ -3869,7 +3307,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="158" spans="4:6">
+    <row r="158" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D158" s="1" t="s">
         <v>263</v>
       </c>
@@ -3877,7 +3315,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="159" spans="4:6">
+    <row r="159" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D159" s="1" t="s">
         <v>264</v>
       </c>
@@ -3885,15 +3323,15 @@
         <v>152</v>
       </c>
     </row>
-    <row r="160" spans="3:6">
-      <c r="C160" s="1" t="s">
+    <row r="160" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C160" s="4" t="s">
         <v>265</v>
       </c>
       <c r="F160" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="161" spans="4:6">
+    <row r="161" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D161" s="1" t="s">
         <v>266</v>
       </c>
@@ -3901,7 +3339,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="162" spans="4:6">
+    <row r="162" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D162" s="1" t="s">
         <v>267</v>
       </c>
@@ -3909,7 +3347,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="163" spans="4:6">
+    <row r="163" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D163" s="1" t="s">
         <v>268</v>
       </c>
@@ -3917,7 +3355,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="164" spans="4:6">
+    <row r="164" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D164" s="1" t="s">
         <v>269</v>
       </c>
@@ -3925,8 +3363,8 @@
         <v>152</v>
       </c>
     </row>
-    <row r="165" spans="3:6">
-      <c r="C165" s="1" t="s">
+    <row r="165" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C165" s="4" t="s">
         <v>270</v>
       </c>
       <c r="E165" s="2" t="s">
@@ -3936,8 +3374,8 @@
         <v>152</v>
       </c>
     </row>
-    <row r="166" spans="3:6">
-      <c r="C166" s="1" t="s">
+    <row r="166" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C166" s="4" t="s">
         <v>272</v>
       </c>
       <c r="E166" s="2" t="s">
@@ -3947,8 +3385,8 @@
         <v>152</v>
       </c>
     </row>
-    <row r="167" spans="3:6">
-      <c r="C167" s="1" t="s">
+    <row r="167" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C167" s="4" t="s">
         <v>274</v>
       </c>
       <c r="E167" s="2" t="s">
@@ -3958,71 +3396,71 @@
         <v>152</v>
       </c>
     </row>
-    <row r="168" spans="2:6">
-      <c r="B168" s="1" t="s">
+    <row r="168" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B168" s="4" t="s">
         <v>276</v>
       </c>
       <c r="F168" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="169" spans="3:6">
-      <c r="C169" s="1" t="s">
+    <row r="169" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C169" s="4" t="s">
         <v>277</v>
       </c>
       <c r="F169" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="170" spans="3:6">
-      <c r="C170" s="1" t="s">
+    <row r="170" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C170" s="4" t="s">
         <v>278</v>
       </c>
       <c r="F170" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="171" spans="3:6">
-      <c r="C171" s="1" t="s">
+    <row r="171" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C171" s="4" t="s">
         <v>279</v>
       </c>
       <c r="F171" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="172" spans="3:6">
-      <c r="C172" s="1" t="s">
+    <row r="172" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C172" s="4" t="s">
         <v>280</v>
       </c>
       <c r="F172" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="173" spans="3:6">
-      <c r="C173" s="1" t="s">
+    <row r="173" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C173" s="4" t="s">
         <v>281</v>
       </c>
       <c r="F173" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="174" spans="3:6">
-      <c r="C174" s="1" t="s">
+    <row r="174" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C174" s="4" t="s">
         <v>282</v>
       </c>
       <c r="F174" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="175" spans="3:6">
-      <c r="C175" s="1" t="s">
+    <row r="175" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C175" s="4" t="s">
         <v>283</v>
       </c>
       <c r="F175" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="176" spans="4:6">
+    <row r="176" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D176" s="1" t="s">
         <v>284</v>
       </c>
@@ -4030,7 +3468,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="177" spans="4:6">
+    <row r="177" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D177" s="1" t="s">
         <v>285</v>
       </c>
@@ -4038,7 +3476,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="178" spans="4:6">
+    <row r="178" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D178" s="1" t="s">
         <v>286</v>
       </c>
@@ -4046,15 +3484,15 @@
         <v>152</v>
       </c>
     </row>
-    <row r="179" spans="3:6">
-      <c r="C179" s="1" t="s">
+    <row r="179" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C179" s="4" t="s">
         <v>287</v>
       </c>
       <c r="F179" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="180" spans="4:6">
+    <row r="180" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D180" s="1" t="s">
         <v>288</v>
       </c>
@@ -4062,32 +3500,32 @@
         <v>152</v>
       </c>
     </row>
-    <row r="181" spans="2:6">
-      <c r="B181" s="1" t="s">
+    <row r="181" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B181" s="4" t="s">
         <v>289</v>
       </c>
       <c r="F181" s="1" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="182" spans="3:6">
-      <c r="C182" s="1" t="s">
+    <row r="182" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C182" s="4" t="s">
         <v>291</v>
       </c>
       <c r="F182" s="1" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="183" spans="3:6">
-      <c r="C183" s="1" t="s">
+    <row r="183" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C183" s="4" t="s">
         <v>293</v>
       </c>
       <c r="F183" s="1" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="184" spans="3:6">
-      <c r="C184" s="1" t="s">
+    <row r="184" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C184" s="4" t="s">
         <v>294</v>
       </c>
       <c r="E184" s="2" t="s">
@@ -4097,72 +3535,72 @@
         <v>292</v>
       </c>
     </row>
-    <row r="185" spans="3:6">
-      <c r="C185" s="1" t="s">
+    <row r="185" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C185" s="4" t="s">
         <v>296</v>
       </c>
       <c r="F185" s="1" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="186" spans="3:6">
-      <c r="C186" s="1" t="s">
+    <row r="186" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C186" s="4" t="s">
         <v>297</v>
       </c>
       <c r="F186" s="1" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="187" spans="3:6">
-      <c r="C187" s="1" t="s">
+    <row r="187" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C187" s="4" t="s">
         <v>298</v>
       </c>
       <c r="F187" s="1" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="188" spans="3:6">
-      <c r="C188" s="1" t="s">
+    <row r="188" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C188" s="4" t="s">
         <v>299</v>
       </c>
       <c r="F188" s="1" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="189" spans="2:6">
-      <c r="B189" s="1" t="s">
+    <row r="189" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B189" s="4" t="s">
         <v>300</v>
       </c>
       <c r="F189" s="1" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="190" spans="3:6">
-      <c r="C190" s="1" t="s">
+    <row r="190" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C190" s="4" t="s">
         <v>301</v>
       </c>
       <c r="F190" s="1" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="191" spans="3:6">
-      <c r="C191" s="1" t="s">
+    <row r="191" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C191" s="4" t="s">
         <v>302</v>
       </c>
       <c r="F191" s="1" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="192" spans="3:6">
-      <c r="C192" s="1" t="s">
+    <row r="192" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C192" s="4" t="s">
         <v>303</v>
       </c>
       <c r="F192" s="1" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="193" spans="3:6">
-      <c r="C193" s="1" t="s">
+    <row r="193" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C193" s="4" t="s">
         <v>304</v>
       </c>
       <c r="E193" s="2" t="s">
@@ -4172,16 +3610,16 @@
         <v>292</v>
       </c>
     </row>
-    <row r="194" spans="2:6">
-      <c r="B194" s="1" t="s">
+    <row r="194" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B194" s="4" t="s">
         <v>306</v>
       </c>
       <c r="F194" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="195" spans="3:6">
-      <c r="C195" s="1" t="s">
+    <row r="195" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C195" s="4" t="s">
         <v>307</v>
       </c>
       <c r="E195" s="2" t="s">
@@ -4191,8 +3629,8 @@
         <v>152</v>
       </c>
     </row>
-    <row r="196" spans="3:6">
-      <c r="C196" s="1" t="s">
+    <row r="196" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C196" s="4" t="s">
         <v>309</v>
       </c>
       <c r="E196" s="2" t="s">
@@ -4202,8 +3640,8 @@
         <v>152</v>
       </c>
     </row>
-    <row r="197" spans="3:6">
-      <c r="C197" s="1" t="s">
+    <row r="197" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C197" s="4" t="s">
         <v>311</v>
       </c>
       <c r="E197" s="2" t="s">
@@ -4213,7 +3651,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="198" spans="4:6">
+    <row r="198" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D198" s="1" t="s">
         <v>313</v>
       </c>
@@ -4224,7 +3662,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="199" ht="28.5" spans="4:6">
+    <row r="199" spans="2:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="D199" s="1" t="s">
         <v>315</v>
       </c>
@@ -4235,7 +3673,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="200" spans="4:6">
+    <row r="200" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D200" s="1" t="s">
         <v>317</v>
       </c>
@@ -4246,8 +3684,8 @@
         <v>152</v>
       </c>
     </row>
-    <row r="201" spans="3:6">
-      <c r="C201" s="1" t="s">
+    <row r="201" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C201" s="4" t="s">
         <v>319</v>
       </c>
       <c r="E201" s="2" t="s">
@@ -4257,8 +3695,8 @@
         <v>152</v>
       </c>
     </row>
-    <row r="202" spans="3:6">
-      <c r="C202" s="1" t="s">
+    <row r="202" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C202" s="4" t="s">
         <v>321</v>
       </c>
       <c r="E202" s="2" t="s">
@@ -4268,8 +3706,8 @@
         <v>152</v>
       </c>
     </row>
-    <row r="203" spans="2:6">
-      <c r="B203" s="1" t="s">
+    <row r="203" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B203" s="4" t="s">
         <v>323</v>
       </c>
       <c r="E203" s="2" t="s">
@@ -4279,7 +3717,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="204" spans="4:6">
+    <row r="204" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D204" s="1" t="s">
         <v>325</v>
       </c>
@@ -4287,7 +3725,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="205" spans="4:6">
+    <row r="205" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D205" s="1" t="s">
         <v>326</v>
       </c>
@@ -4295,8 +3733,8 @@
         <v>292</v>
       </c>
     </row>
-    <row r="206" spans="3:6">
-      <c r="C206" s="1" t="s">
+    <row r="206" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C206" s="4" t="s">
         <v>327</v>
       </c>
       <c r="E206" s="2" t="s">
@@ -4306,8 +3744,8 @@
         <v>292</v>
       </c>
     </row>
-    <row r="207" spans="3:6">
-      <c r="C207" s="1" t="s">
+    <row r="207" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C207" s="4" t="s">
         <v>329</v>
       </c>
       <c r="E207" s="2" t="s">
@@ -4317,8 +3755,8 @@
         <v>292</v>
       </c>
     </row>
-    <row r="208" spans="3:6">
-      <c r="C208" s="1" t="s">
+    <row r="208" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C208" s="4" t="s">
         <v>331</v>
       </c>
       <c r="E208" s="2" t="s">
@@ -4328,8 +3766,8 @@
         <v>292</v>
       </c>
     </row>
-    <row r="209" spans="2:6">
-      <c r="B209" s="1" t="s">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B209" s="4" t="s">
         <v>333</v>
       </c>
       <c r="E209" s="2" t="s">
@@ -4339,8 +3777,8 @@
         <v>159</v>
       </c>
     </row>
-    <row r="210" spans="2:6">
-      <c r="B210" s="1" t="s">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B210" s="4" t="s">
         <v>335</v>
       </c>
       <c r="E210" s="2" t="s">
@@ -4350,16 +3788,16 @@
         <v>152</v>
       </c>
     </row>
-    <row r="211" spans="3:6">
-      <c r="C211" s="1" t="s">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C211" s="4" t="s">
         <v>337</v>
       </c>
       <c r="F211" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="212" spans="3:6">
-      <c r="C212" s="1" t="s">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C212" s="4" t="s">
         <v>338</v>
       </c>
       <c r="E212" s="2" t="s">
@@ -4369,8 +3807,8 @@
         <v>152</v>
       </c>
     </row>
-    <row r="213" spans="3:6">
-      <c r="C213" s="1" t="s">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C213" s="4" t="s">
         <v>340</v>
       </c>
       <c r="E213" s="2" t="s">
@@ -4380,8 +3818,8 @@
         <v>152</v>
       </c>
     </row>
-    <row r="214" spans="3:6">
-      <c r="C214" s="1" t="s">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C214" s="4" t="s">
         <v>342</v>
       </c>
       <c r="E214" s="2" t="s">
@@ -4391,8 +3829,8 @@
         <v>152</v>
       </c>
     </row>
-    <row r="215" spans="3:6">
-      <c r="C215" s="1" t="s">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C215" s="4" t="s">
         <v>344</v>
       </c>
       <c r="E215" s="2" t="s">
@@ -4402,7 +3840,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="216" spans="4:6">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D216" s="1" t="s">
         <v>346</v>
       </c>
@@ -4413,7 +3851,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="217" spans="4:6">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D217" s="1" t="s">
         <v>348</v>
       </c>
@@ -4424,7 +3862,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="218" spans="4:6">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D218" s="1" t="s">
         <v>350</v>
       </c>
@@ -4435,7 +3873,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="219" spans="4:6">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D219" s="1" t="s">
         <v>352</v>
       </c>
@@ -4446,38 +3884,38 @@
         <v>152</v>
       </c>
     </row>
-    <row r="220" spans="1:6">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F220" s="1"/>
     </row>
-    <row r="221" spans="2:6">
-      <c r="B221" s="1" t="s">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B221" s="4" t="s">
         <v>355</v>
       </c>
       <c r="F221" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="222" spans="3:6">
-      <c r="C222" s="1" t="s">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C222" s="4" t="s">
         <v>356</v>
       </c>
       <c r="F222" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="223" spans="3:6">
-      <c r="C223" s="1" t="s">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C223" s="4" t="s">
         <v>357</v>
       </c>
       <c r="F223" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="224" spans="2:6">
-      <c r="B224" s="1" t="s">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B224" s="4" t="s">
         <v>358</v>
       </c>
       <c r="E224" s="2" t="s">
@@ -4487,16 +3925,16 @@
         <v>46</v>
       </c>
     </row>
-    <row r="225" spans="3:6">
-      <c r="C225" s="1" t="s">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C225" s="4" t="s">
         <v>360</v>
       </c>
       <c r="F225" s="1" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="226" spans="3:6">
-      <c r="C226" s="1" t="s">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C226" s="4" t="s">
         <v>362</v>
       </c>
       <c r="E226" s="2" t="s">
@@ -4506,8 +3944,8 @@
         <v>152</v>
       </c>
     </row>
-    <row r="227" spans="2:6">
-      <c r="B227" s="1" t="s">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B227" s="4" t="s">
         <v>364</v>
       </c>
       <c r="E227" s="2" t="s">
@@ -4517,24 +3955,24 @@
         <v>46</v>
       </c>
     </row>
-    <row r="228" spans="3:6">
-      <c r="C228" s="1" t="s">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C228" s="4" t="s">
         <v>366</v>
       </c>
       <c r="F228" s="1" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="229" spans="3:6">
-      <c r="C229" s="1" t="s">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C229" s="4" t="s">
         <v>367</v>
       </c>
       <c r="F229" s="1" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="230" spans="3:6">
-      <c r="C230" s="1" t="s">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C230" s="4" t="s">
         <v>368</v>
       </c>
       <c r="E230" s="2" t="s">
@@ -4544,14 +3982,14 @@
         <v>152</v>
       </c>
     </row>
-    <row r="231" spans="1:6">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
         <v>370</v>
       </c>
       <c r="F231" s="1"/>
     </row>
-    <row r="232" spans="2:6">
-      <c r="B232" s="1" t="s">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B232" s="4" t="s">
         <v>371</v>
       </c>
       <c r="E232" s="2" t="s">
@@ -4561,16 +3999,16 @@
         <v>46</v>
       </c>
     </row>
-    <row r="233" spans="3:6">
-      <c r="C233" s="1" t="s">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C233" s="4" t="s">
         <v>373</v>
       </c>
       <c r="F233" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="234" spans="3:6">
-      <c r="C234" s="1" t="s">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C234" s="4" t="s">
         <v>374</v>
       </c>
       <c r="E234" s="2" t="s">
@@ -4580,56 +4018,56 @@
         <v>152</v>
       </c>
     </row>
-    <row r="235" spans="3:6">
-      <c r="C235" s="1" t="s">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C235" s="4" t="s">
         <v>376</v>
       </c>
       <c r="F235" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="236" spans="3:6">
-      <c r="C236" s="1" t="s">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C236" s="4" t="s">
         <v>377</v>
       </c>
       <c r="F236" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="237" spans="2:6">
-      <c r="B237" s="1" t="s">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B237" s="4" t="s">
         <v>378</v>
       </c>
       <c r="F237" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="238" spans="3:6">
-      <c r="C238" s="1" t="s">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C238" s="4" t="s">
         <v>379</v>
       </c>
       <c r="F238" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="239" spans="3:6">
-      <c r="C239" s="1" t="s">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C239" s="4" t="s">
         <v>380</v>
       </c>
       <c r="F239" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="240" spans="2:6">
-      <c r="B240" s="1" t="s">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B240" s="4" t="s">
         <v>381</v>
       </c>
       <c r="F240" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="241" spans="3:6">
-      <c r="C241" s="1" t="s">
+    <row r="241" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C241" s="4" t="s">
         <v>382</v>
       </c>
       <c r="E241" s="2" t="s">
@@ -4639,7 +4077,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="242" spans="4:6">
+    <row r="242" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D242" s="1" t="s">
         <v>384</v>
       </c>
@@ -4647,7 +4085,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="243" spans="4:6">
+    <row r="243" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D243" s="1" t="s">
         <v>385</v>
       </c>
@@ -4655,7 +4093,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="244" spans="4:6">
+    <row r="244" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D244" s="1" t="s">
         <v>386</v>
       </c>
@@ -4663,8 +4101,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="245" spans="3:6">
-      <c r="C245" s="1" t="s">
+    <row r="245" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C245" s="4" t="s">
         <v>387</v>
       </c>
       <c r="E245" s="2" t="s">
@@ -4674,15 +4112,15 @@
         <v>49</v>
       </c>
     </row>
-    <row r="246" spans="3:6">
-      <c r="C246" s="1" t="s">
+    <row r="246" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C246" s="4" t="s">
         <v>389</v>
       </c>
       <c r="F246" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="247" spans="3:6">
+    <row r="247" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C247" s="4" t="s">
         <v>390</v>
       </c>
@@ -4693,7 +4131,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="248" spans="4:6">
+    <row r="248" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D248" s="1" t="s">
         <v>393</v>
       </c>
@@ -4701,7 +4139,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="249" spans="4:6">
+    <row r="249" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D249" s="1" t="s">
         <v>395</v>
       </c>
@@ -4709,7 +4147,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="250" spans="4:6">
+    <row r="250" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D250" s="1" t="s">
         <v>396</v>
       </c>
@@ -4717,7 +4155,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="251" spans="4:6">
+    <row r="251" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D251" s="1" t="s">
         <v>397</v>
       </c>
@@ -4728,7 +4166,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="252" spans="4:6">
+    <row r="252" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D252" s="1" t="s">
         <v>399</v>
       </c>
@@ -4736,7 +4174,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="253" spans="4:6">
+    <row r="253" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D253" s="1" t="s">
         <v>400</v>
       </c>
@@ -4747,12 +4185,12 @@
         <v>394</v>
       </c>
     </row>
-    <row r="254" spans="2:2">
-      <c r="B254" s="1" t="s">
+    <row r="254" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B254" s="4" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="255" spans="3:6">
+    <row r="255" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C255" s="4" t="s">
         <v>403</v>
       </c>
@@ -4760,7 +4198,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="256" spans="4:6">
+    <row r="256" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D256" s="1" t="s">
         <v>405</v>
       </c>
@@ -4771,7 +4209,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="257" spans="4:6">
+    <row r="257" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D257" s="1" t="s">
         <v>407</v>
       </c>
@@ -4782,7 +4220,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="258" spans="4:6">
+    <row r="258" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D258" s="1" t="s">
         <v>409</v>
       </c>
@@ -4790,7 +4228,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="259" spans="4:6">
+    <row r="259" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D259" s="1" t="s">
         <v>410</v>
       </c>
@@ -4798,7 +4236,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="260" spans="4:6">
+    <row r="260" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D260" s="1" t="s">
         <v>411</v>
       </c>
@@ -4806,7 +4244,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="261" spans="4:6">
+    <row r="261" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D261" s="1" t="s">
         <v>412</v>
       </c>
@@ -4814,7 +4252,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="262" spans="4:6">
+    <row r="262" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D262" s="1" t="s">
         <v>413</v>
       </c>
@@ -4825,17 +4263,17 @@
         <v>192</v>
       </c>
     </row>
-    <row r="263" spans="2:2">
-      <c r="B263" s="1" t="s">
+    <row r="263" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B263" s="4" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="264" spans="3:3">
-      <c r="C264" s="1" t="s">
+    <row r="264" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C264" s="4" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="265" spans="4:6">
+    <row r="265" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D265" s="1" t="s">
         <v>417</v>
       </c>
@@ -4846,7 +4284,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="266" spans="4:6">
+    <row r="266" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D266" s="1" t="s">
         <v>420</v>
       </c>
@@ -4854,7 +4292,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="267" spans="4:6">
+    <row r="267" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D267" s="1" t="s">
         <v>421</v>
       </c>
@@ -4862,7 +4300,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="268" spans="4:6">
+    <row r="268" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D268" s="1" t="s">
         <v>422</v>
       </c>
@@ -4873,7 +4311,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="269" spans="4:6">
+    <row r="269" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D269" s="1" t="s">
         <v>424</v>
       </c>
@@ -4884,7 +4322,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="270" spans="4:6">
+    <row r="270" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D270" s="1" t="s">
         <v>426</v>
       </c>
@@ -4892,7 +4330,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="271" spans="4:6">
+    <row r="271" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D271" s="1" t="s">
         <v>427</v>
       </c>
@@ -4900,12 +4338,12 @@
         <v>419</v>
       </c>
     </row>
-    <row r="272" spans="3:3">
-      <c r="C272" s="1" t="s">
+    <row r="272" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C272" s="4" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="273" spans="4:6">
+    <row r="273" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D273" s="1" t="s">
         <v>428</v>
       </c>
@@ -4913,7 +4351,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="274" spans="4:6">
+    <row r="274" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D274" s="1" t="s">
         <v>429</v>
       </c>
@@ -4921,45 +4359,45 @@
         <v>419</v>
       </c>
     </row>
-    <row r="275" spans="3:6">
-      <c r="C275" s="1" t="s">
+    <row r="275" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C275" s="4" t="s">
         <v>430</v>
       </c>
       <c r="F275" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="276" spans="3:6">
-      <c r="C276" s="1" t="s">
+    <row r="276" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C276" s="4" t="s">
         <v>431</v>
       </c>
       <c r="F276" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="277" spans="3:6">
-      <c r="C277" s="1" t="s">
+    <row r="277" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C277" s="4" t="s">
         <v>432</v>
       </c>
       <c r="F277" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="278" spans="3:6">
-      <c r="C278" s="1" t="s">
+    <row r="278" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C278" s="4" t="s">
         <v>433</v>
       </c>
       <c r="F278" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="279" spans="2:2">
-      <c r="B279" s="1" t="s">
+    <row r="279" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B279" s="4" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="280" spans="3:6">
-      <c r="C280" s="1" t="s">
+    <row r="280" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C280" s="4" t="s">
         <v>435</v>
       </c>
       <c r="E280" s="2" t="s">
@@ -4969,7 +4407,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="281" spans="4:6">
+    <row r="281" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D281" s="1" t="s">
         <v>437</v>
       </c>
@@ -4977,122 +4415,149 @@
         <v>419</v>
       </c>
     </row>
-    <row r="282" spans="4:6">
+    <row r="282" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D282" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="E282" s="2" t="s">
-        <v>439</v>
+      <c r="E282" s="7" t="s">
+        <v>454</v>
       </c>
       <c r="F282" s="1" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="283" spans="3:6">
-      <c r="C283" s="1" t="s">
-        <v>440</v>
+    <row r="283" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C283" s="4" t="s">
+        <v>439</v>
       </c>
       <c r="F283" s="1" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="284" spans="3:6">
-      <c r="C284" s="1" t="s">
+    <row r="284" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C284" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="F284" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="F284" s="1" t="s">
+    </row>
+    <row r="285" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C285" s="4" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="285" spans="3:6">
-      <c r="C285" s="1" t="s">
+      <c r="F285" s="1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="286" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B286" s="4" t="s">
         <v>443</v>
       </c>
-      <c r="F285" s="1" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="286" spans="2:6">
-      <c r="B286" s="1" t="s">
+      <c r="F286" s="1"/>
+    </row>
+    <row r="287" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C287" s="4" t="s">
         <v>444</v>
-      </c>
-      <c r="F286" s="1"/>
-    </row>
-    <row r="287" spans="3:6">
-      <c r="C287" s="1" t="s">
-        <v>445</v>
       </c>
       <c r="F287" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="288" spans="4:6">
+    <row r="288" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D288" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F288" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="289" spans="4:6">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D289" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F289" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="290" spans="4:6">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D290" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="F290" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C291" s="4" t="s">
         <v>448</v>
-      </c>
-      <c r="F290" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="291" spans="3:6">
-      <c r="C291" s="1" t="s">
-        <v>449</v>
       </c>
       <c r="F291" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="292" spans="4:6">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D292" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F292" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="293" spans="4:6">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D293" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F293" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="294" spans="4:6">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D294" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F294" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="295" spans="4:6">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D295" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="F295" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A296" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="F295" s="1" t="s">
-        <v>152</v>
+      <c r="D296" s="8" t="s">
+        <v>455</v>
+      </c>
+      <c r="E296" s="7" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D297" s="8" t="s">
+        <v>456</v>
+      </c>
+      <c r="E297" s="7" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D298" s="8" t="s">
+        <v>457</v>
+      </c>
+      <c r="E298" s="7" t="s">
+        <v>459</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/AutoLoader/Contents/Support/房间名称分类处理.xlsx
+++ b/AutoLoader/Contents/Support/房间名称分类处理.xlsx
@@ -9,12 +9,15 @@
   <sheets>
     <sheet name="房间名称处理" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">房间名称处理!$A$1:$I$313</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="524">
   <si>
     <t>一级</t>
   </si>
@@ -37,7 +40,10 @@
     <t>LPD</t>
   </si>
   <si>
-    <t>疏散照明判据</t>
+    <t>疏散照明设置判据</t>
+  </si>
+  <si>
+    <t>暖通房间功能标签</t>
   </si>
   <si>
     <t>通用</t>
@@ -70,24 +76,30 @@
     <t>室外平台</t>
   </si>
   <si>
+    <t>上人平台</t>
+  </si>
+  <si>
+    <t>公共区域；室外安全区域；非火灾探测区域</t>
+  </si>
+  <si>
+    <t>不上人平台</t>
+  </si>
+  <si>
     <t>公共区域；非火灾探测区域</t>
   </si>
   <si>
-    <t>上人平台</t>
-  </si>
-  <si>
-    <t>公共区域；室外安全区域；非火灾探测区域</t>
-  </si>
-  <si>
-    <t>不上人平台</t>
-  </si>
-  <si>
     <t>设备平台</t>
   </si>
   <si>
     <t>室外机平台</t>
   </si>
   <si>
+    <t>直升飞机停机坪</t>
+  </si>
+  <si>
+    <t>*停机坪</t>
+  </si>
+  <si>
     <t>天桥</t>
   </si>
   <si>
@@ -196,7 +208,7 @@
     <t>前室</t>
   </si>
   <si>
-    <t>楼梯间前室，封闭前室，*前室</t>
+    <t>楼梯间前室，封闭前室，*前室*</t>
   </si>
   <si>
     <t>公共区域；感烟火灾探测器；疏散指示；疏散照明；必须布置广播</t>
@@ -205,19 +217,19 @@
     <t>扩大前室</t>
   </si>
   <si>
-    <t>扩大合用前室，*扩大前室</t>
+    <t>扩大合用前室，*扩大前室*</t>
   </si>
   <si>
     <t>防烟前室</t>
   </si>
   <si>
-    <t>防烟楼梯间前室，*防烟前室</t>
+    <t>防烟楼梯间前室，*防烟前室*</t>
   </si>
   <si>
     <t>消防电梯前室</t>
   </si>
   <si>
-    <t>消防前室，*消防电梯前室</t>
+    <t>消防前室，*消防电梯前室*</t>
   </si>
   <si>
     <t>公共区域；感烟火灾探测器；疏散指示；疏散照明</t>
@@ -226,13 +238,13 @@
     <t>电梯前室</t>
   </si>
   <si>
-    <t>*电梯前室</t>
+    <t>*电梯前室*</t>
   </si>
   <si>
     <t>合用前室</t>
   </si>
   <si>
-    <t>共用前室，*合用前室</t>
+    <t>共用前室，*合用前室*</t>
   </si>
   <si>
     <t>走道</t>
@@ -295,24 +307,30 @@
     <t>公共卫生间</t>
   </si>
   <si>
-    <t>公共厕所；公厕</t>
+    <t>公共厕所，公厕，卫生间</t>
+  </si>
+  <si>
+    <t>卫生间</t>
   </si>
   <si>
     <t>男卫</t>
   </si>
   <si>
-    <t>男厕；男卫生间</t>
+    <t>*男厕，*男卫生间</t>
   </si>
   <si>
     <t>女卫</t>
   </si>
   <si>
-    <t>女厕</t>
+    <t>*女厕，*女卫生间</t>
   </si>
   <si>
     <t>清洁间</t>
   </si>
   <si>
+    <t>*清洁间</t>
+  </si>
+  <si>
     <t>拖把池间</t>
   </si>
   <si>
@@ -457,19 +475,22 @@
     <t>通风井</t>
   </si>
   <si>
-    <t>送风井，排风井，排油烟井，烟井</t>
+    <t>送风井，排风井，排油烟井，烟井，*风口，*送风</t>
   </si>
   <si>
     <t>防排烟井</t>
   </si>
   <si>
-    <t>排烟井，补风井，加压送风井，正压送风井，加压风井，正压风井</t>
+    <t>排烟井，补风井，加压送风井，正压送风井，加压风井，正压风井，*补风，*排烟，*正压，*加压</t>
   </si>
   <si>
     <t>存储房间</t>
   </si>
   <si>
-    <t>贮藏间，储藏等基本功能空间，储藏空间</t>
+    <t>贮藏间，储藏等基本功能空间，储藏空间，储藏</t>
+  </si>
+  <si>
+    <t>储藏间</t>
   </si>
   <si>
     <t>库房</t>
@@ -502,6 +523,9 @@
     <t>公共区域；感温火灾探测器；正常照明</t>
   </si>
   <si>
+    <t>油箱间</t>
+  </si>
+  <si>
     <t>地下油库</t>
   </si>
   <si>
@@ -514,7 +538,7 @@
     <t>储物间</t>
   </si>
   <si>
-    <t>*储藏室</t>
+    <t>*储藏室，*工具间</t>
   </si>
   <si>
     <t>气瓶间</t>
@@ -619,6 +643,9 @@
     <t>调度中心</t>
   </si>
   <si>
+    <t>办公</t>
+  </si>
+  <si>
     <t>监控中心</t>
   </si>
   <si>
@@ -718,6 +745,9 @@
     <t>*变压器室</t>
   </si>
   <si>
+    <t>变配电所</t>
+  </si>
+  <si>
     <t>油浸变压器室</t>
   </si>
   <si>
@@ -748,6 +778,9 @@
     <t>电子信息设备用房</t>
   </si>
   <si>
+    <t>弱电机房</t>
+  </si>
+  <si>
     <t>网络通信机房</t>
   </si>
   <si>
@@ -757,6 +790,9 @@
     <t>有线电视机房</t>
   </si>
   <si>
+    <t>卫星电视</t>
+  </si>
+  <si>
     <t>无线覆盖机房</t>
   </si>
   <si>
@@ -799,13 +835,16 @@
     <t>水泵机房</t>
   </si>
   <si>
-    <t>地下式井泵房，半地下式井泵房，*泵房，*水泵房</t>
+    <t>地下式井泵房，半地下式井泵房，冷却水泵房，空调水迸发，*泵房，*水泵房</t>
+  </si>
+  <si>
+    <t>清水泵房</t>
   </si>
   <si>
     <t>消防水泵房</t>
   </si>
   <si>
-    <t>*消防水泵房，*消防泵房</t>
+    <t>*消防水泵房，*消防泵房，*消防增压设备间</t>
   </si>
   <si>
     <t>给水泵房</t>
@@ -841,19 +880,28 @@
     <t>雨水回收机房</t>
   </si>
   <si>
-    <t>*雨水回收机房，*雨水回用机房，*雨水机房</t>
+    <t>*雨水回收机房，*雨水回用机房，*雨水机房，*雨水回收间</t>
   </si>
   <si>
     <t>隔油机房</t>
   </si>
   <si>
-    <t>*隔油间，*隔油池间</t>
+    <t>*隔油间，*隔油池间，*隔油处理间</t>
+  </si>
+  <si>
+    <t>隔油处理间</t>
   </si>
   <si>
     <t>污水提升机房</t>
   </si>
   <si>
-    <t>污水提升泵房，*提升泵房</t>
+    <t>污水提升泵房，*提升泵房，污水提升间，污水处理间，*污水*</t>
+  </si>
+  <si>
+    <t>污水提升间</t>
+  </si>
+  <si>
+    <t>报警阀间</t>
   </si>
   <si>
     <t>水处理房间</t>
@@ -895,6 +943,9 @@
     <t>细粉类水处理药剂车间</t>
   </si>
   <si>
+    <t>设备间</t>
+  </si>
+  <si>
     <t>燃气机房</t>
   </si>
   <si>
@@ -910,6 +961,9 @@
     <t>燃气增压间</t>
   </si>
   <si>
+    <t>燃气间</t>
+  </si>
+  <si>
     <t>调压间</t>
   </si>
   <si>
@@ -943,7 +997,7 @@
     <t>燃气调压间</t>
   </si>
   <si>
-    <t>*调压间</t>
+    <t>*调压间，*燃气表间，*燃气调压间</t>
   </si>
   <si>
     <t>暖通机房</t>
@@ -988,7 +1042,13 @@
     <t>换热机房</t>
   </si>
   <si>
-    <t>*换热站，热力小室，热力入口间</t>
+    <t>*换热站，*热交换间，*热交换</t>
+  </si>
+  <si>
+    <t>热交换间</t>
+  </si>
+  <si>
+    <t>热力小室，热力入口间</t>
   </si>
   <si>
     <t>制冷机房</t>
@@ -1003,6 +1063,9 @@
     <t>*锅炉房，燃烧设备间</t>
   </si>
   <si>
+    <t>锅炉房</t>
+  </si>
+  <si>
     <t>独立锅炉房</t>
   </si>
   <si>
@@ -1039,6 +1102,18 @@
     <t>垃圾房</t>
   </si>
   <si>
+    <t>湿垃圾房</t>
+  </si>
+  <si>
+    <t>干垃圾房</t>
+  </si>
+  <si>
+    <t>*干垃圾</t>
+  </si>
+  <si>
+    <t>*湿垃圾</t>
+  </si>
+  <si>
     <t>独立垃圾收集存储间</t>
   </si>
   <si>
@@ -1108,6 +1183,9 @@
     <t>停车库，车库，I类汽车库，II类汽车库，机动车库</t>
   </si>
   <si>
+    <t>机动车库</t>
+  </si>
+  <si>
     <t>地下车库</t>
   </si>
   <si>
@@ -1156,6 +1234,9 @@
     <t>儿童游乐厅</t>
   </si>
   <si>
+    <t>儿童游乐</t>
+  </si>
+  <si>
     <t>儿童游憩区</t>
   </si>
   <si>
@@ -1282,7 +1363,7 @@
     <t>普通办公室</t>
   </si>
   <si>
-    <t>办公</t>
+    <t>*办公</t>
   </si>
   <si>
     <t>私有区域；感烟火灾探测器；疏散指示；疏散照明面积判断</t>
@@ -1306,6 +1387,9 @@
     <t>复印</t>
   </si>
   <si>
+    <t>茶水间</t>
+  </si>
+  <si>
     <t>文件整理室</t>
   </si>
   <si>
@@ -1318,6 +1402,12 @@
     <t>视频会议室</t>
   </si>
   <si>
+    <t>商务会客室</t>
+  </si>
+  <si>
+    <t>多功能厅</t>
+  </si>
+  <si>
     <t>接待室</t>
   </si>
   <si>
@@ -1327,42 +1417,99 @@
     <t>服务大厅</t>
   </si>
   <si>
-    <t>茶水间</t>
+    <t>*餐厅</t>
+  </si>
+  <si>
+    <t>*开水间</t>
   </si>
   <si>
     <t>商店建筑</t>
   </si>
   <si>
-    <t>*商业</t>
-  </si>
-  <si>
     <t>餐饮</t>
   </si>
   <si>
     <t>*餐饮</t>
   </si>
   <si>
+    <t>中餐</t>
+  </si>
+  <si>
     <t>燃气餐饮</t>
   </si>
   <si>
+    <t>*中餐，*美食广场</t>
+  </si>
+  <si>
     <t>私有区域；感烟火灾探测器；可燃气体探测器；疏散指示；疏散照明面积判断</t>
   </si>
   <si>
     <t>无燃气餐饮</t>
   </si>
   <si>
-    <t>电餐</t>
+    <t>*电餐，*西餐，*轻餐</t>
+  </si>
+  <si>
+    <t>西餐</t>
   </si>
   <si>
     <t>零售</t>
   </si>
   <si>
+    <t>*百货，商铺，*商业</t>
+  </si>
+  <si>
+    <t>商铺</t>
+  </si>
+  <si>
     <t>超市</t>
   </si>
   <si>
     <t>营业厅</t>
   </si>
   <si>
+    <t>浴室</t>
+  </si>
+  <si>
+    <t>母婴室</t>
+  </si>
+  <si>
+    <t>冰场</t>
+  </si>
+  <si>
+    <t>儿童攀爬游乐</t>
+  </si>
+  <si>
+    <t>*儿童娱乐</t>
+  </si>
+  <si>
+    <t>儿童娱乐</t>
+  </si>
+  <si>
+    <t>健身</t>
+  </si>
+  <si>
+    <t>*健身房，*健身区，*健身区域</t>
+  </si>
+  <si>
+    <t>健身房</t>
+  </si>
+  <si>
+    <t>电玩游戏厅</t>
+  </si>
+  <si>
+    <t>*游戏厅，*电玩室</t>
+  </si>
+  <si>
+    <t>游戏厅</t>
+  </si>
+  <si>
+    <t>早教</t>
+  </si>
+  <si>
+    <t>*早教</t>
+  </si>
+  <si>
     <t>观演建筑</t>
   </si>
   <si>
@@ -1372,10 +1519,37 @@
     <t>观众厅</t>
   </si>
   <si>
+    <t>*观众厅，*影厅</t>
+  </si>
+  <si>
+    <t>影院观众厅</t>
+  </si>
+  <si>
     <t>观众休息厅</t>
   </si>
   <si>
+    <t>*影院大堂</t>
+  </si>
+  <si>
+    <t>影院大堂</t>
+  </si>
+  <si>
+    <t>VIP休息室</t>
+  </si>
+  <si>
     <t>放映设备间</t>
+  </si>
+  <si>
+    <t>*放映间，*放映机房，*放映室</t>
+  </si>
+  <si>
+    <t>放映室</t>
+  </si>
+  <si>
+    <t>影院售卖区</t>
+  </si>
+  <si>
+    <t>*售票厅</t>
   </si>
   <si>
     <t>剧院</t>
@@ -1422,44 +1596,44 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="36">
-    <numFmt numFmtId="176" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;"/>
     <numFmt numFmtId="6" formatCode="&quot;￥&quot;#,##0;[Red]&quot;￥&quot;\-#,##0"/>
     <numFmt numFmtId="23" formatCode="\$#,##0_);\(\$#,##0\)"/>
-    <numFmt numFmtId="177" formatCode="#\ ??/??"/>
-    <numFmt numFmtId="178" formatCode="mmmm\-yy"/>
     <numFmt numFmtId="5" formatCode="&quot;￥&quot;#,##0;&quot;￥&quot;\-#,##0"/>
+    <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
+    <numFmt numFmtId="176" formatCode="yy/m/d"/>
+    <numFmt numFmtId="177" formatCode="#\ ?/?"/>
+    <numFmt numFmtId="178" formatCode="\¥#,##0.00;[Red]\¥\-#,##0.00"/>
+    <numFmt numFmtId="179" formatCode="m/d"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="8" formatCode="&quot;￥&quot;#,##0.00;[Red]&quot;￥&quot;\-#,##0.00"/>
     <numFmt numFmtId="24" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
-    <numFmt numFmtId="179" formatCode="h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="180" formatCode="mmmmm\-yy"/>
-    <numFmt numFmtId="181" formatCode="#\ ?/?"/>
-    <numFmt numFmtId="182" formatCode="\¥#,##0;[Red]\¥\-#,##0"/>
-    <numFmt numFmtId="8" formatCode="&quot;￥&quot;#,##0.00;[Red]&quot;￥&quot;\-#,##0.00"/>
-    <numFmt numFmtId="183" formatCode="[$-804]aaa"/>
-    <numFmt numFmtId="184" formatCode="[DBNum1][$-804]m&quot;月&quot;d&quot;日&quot;"/>
-    <numFmt numFmtId="185" formatCode="yy/m/d"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="181" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;"/>
+    <numFmt numFmtId="182" formatCode="[$-804]aaa"/>
+    <numFmt numFmtId="183" formatCode="[DBNum1]上午/下午h&quot;时&quot;mm&quot;分&quot;"/>
+    <numFmt numFmtId="184" formatCode="mmmm\-yy"/>
+    <numFmt numFmtId="185" formatCode="yyyy/m/d\ h:mm\ AM/PM"/>
     <numFmt numFmtId="186" formatCode="#\ ??"/>
-    <numFmt numFmtId="187" formatCode="[$-804]aaaa"/>
-    <numFmt numFmtId="188" formatCode="m/d"/>
-    <numFmt numFmtId="189" formatCode="mm/dd/yy"/>
-    <numFmt numFmtId="190" formatCode="[DBNum1]上午/下午h&quot;时&quot;mm&quot;分&quot;"/>
-    <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
-    <numFmt numFmtId="191" formatCode="dd\-mmm\-yy"/>
-    <numFmt numFmtId="192" formatCode="[DBNum1]h&quot;时&quot;mm&quot;分&quot;"/>
-    <numFmt numFmtId="193" formatCode="\¥#,##0.00;\¥\-#,##0.00"/>
+    <numFmt numFmtId="187" formatCode="dd\-mmm\-yy"/>
+    <numFmt numFmtId="188" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;"/>
+    <numFmt numFmtId="189" formatCode="mmmmm"/>
+    <numFmt numFmtId="190" formatCode="mmmmm\-yy"/>
+    <numFmt numFmtId="191" formatCode="h:mm\ AM/PM"/>
+    <numFmt numFmtId="192" formatCode="#\ ??/??"/>
+    <numFmt numFmtId="193" formatCode="[DBNum1]h&quot;时&quot;mm&quot;分&quot;"/>
     <numFmt numFmtId="194" formatCode="\¥#,##0;\¥\-#,##0"/>
-    <numFmt numFmtId="195" formatCode="mmmmm"/>
+    <numFmt numFmtId="195" formatCode="[DBNum1][$-804]m&quot;月&quot;d&quot;日&quot;"/>
+    <numFmt numFmtId="196" formatCode="\¥#,##0;[Red]\¥\-#,##0"/>
+    <numFmt numFmtId="197" formatCode="mm/dd/yy"/>
+    <numFmt numFmtId="198" formatCode="\¥#,##0.00;\¥\-#,##0.00"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
+    <numFmt numFmtId="199" formatCode="[$-804]aaaa"/>
+    <numFmt numFmtId="25" formatCode="\$#,##0.00_);\(\$#,##0.00\)"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="196" formatCode="yyyy/m/d\ h:mm\ AM/PM"/>
-    <numFmt numFmtId="197" formatCode="h:mm\ AM/PM"/>
-    <numFmt numFmtId="25" formatCode="\$#,##0.00_);\(\$#,##0.00\)"/>
-    <numFmt numFmtId="198" formatCode="\¥#,##0.00;[Red]\¥\-#,##0.00"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="199" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;"/>
-    <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1469,22 +1643,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -1498,9 +1672,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1514,40 +1710,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1562,14 +1727,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1582,16 +1747,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1606,13 +1764,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1621,13 +1802,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1639,13 +1904,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1657,145 +1976,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1807,13 +1988,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1827,11 +2002,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1862,6 +2052,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1881,37 +2086,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1927,175 +2102,176 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2422,98 +2598,101 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H300"/>
+  <dimension ref="A1:I319"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A272" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B296" sqref="B296"/>
+      <selection pane="bottomLeft" activeCell="E297" sqref="E297"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="23.5" style="2" customWidth="1"/>
+    <col min="1" max="2" width="20.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="20.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="50.625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="66.375" customWidth="1"/>
-    <col min="7" max="7" width="12.25" customWidth="1"/>
-    <col min="8" max="8" width="12.375" customWidth="1"/>
+    <col min="5" max="5" width="50.625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="66.375" style="3" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="12.25" style="3" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="17.125" style="3" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="17.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="E3" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="3:6">
-      <c r="C4" s="2" t="s">
-        <v>11</v>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="E4" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="F4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="3:6">
-      <c r="C5" s="2" t="s">
-        <v>15</v>
+      <c r="C5" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="3:6">
-      <c r="C6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="1" t="s">
+    </row>
+    <row r="6" spans="3:8">
+      <c r="C6" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
     </row>
     <row r="7" spans="4:6">
       <c r="D7" s="1" t="s">
@@ -2528,2734 +2707,3269 @@
         <v>21</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="4:6">
       <c r="D9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="3" t="s">
         <v>23</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="3:6">
-      <c r="C10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="3" t="s">
+    <row r="10" spans="4:6">
+      <c r="D10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="E10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="1"/>
     </row>
     <row r="11" spans="3:6">
-      <c r="C11" s="2" t="s">
-        <v>26</v>
+      <c r="C11" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="3" t="s">
         <v>27</v>
       </c>
+      <c r="E11" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="F11" s="1" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="3:6">
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="D12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="3:6">
-      <c r="C13" s="2" t="s">
-        <v>31</v>
+      <c r="C13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="3:6">
-      <c r="C14" s="2" t="s">
-        <v>32</v>
+      <c r="C14" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="3:6">
-      <c r="C15" s="2" t="s">
-        <v>33</v>
+      <c r="C15" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="3:6">
-      <c r="C16" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>35</v>
+      <c r="C16" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="3:6">
       <c r="C17" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17" s="3" t="s">
         <v>37</v>
       </c>
+      <c r="E17" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="F17" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6">
+      <c r="C18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="3:6">
-      <c r="C18" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="4:6">
-      <c r="D19" s="1" t="s">
-        <v>40</v>
+    <row r="19" spans="3:6">
+      <c r="C19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="4:6">
       <c r="D20" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="3:6">
-      <c r="C21" s="2" t="s">
-        <v>42</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="4:6">
+      <c r="D21" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="F21" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6">
+      <c r="C22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="3:6">
-      <c r="C22" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
     <row r="23" spans="3:6">
-      <c r="C23" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E23" s="3" t="s">
+      <c r="C23" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="E23" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="F23" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6">
-      <c r="B24" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6">
+      <c r="C24" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="3:6">
-      <c r="C25" s="2" t="s">
+      <c r="E24" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="F24" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F25" s="1" t="s">
+    </row>
+    <row r="25" spans="2:6">
+      <c r="B25" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="26" spans="4:6">
-      <c r="D26" s="1" t="s">
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="3:6">
+      <c r="C26" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="E26" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="F26" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="4:6">
       <c r="D27" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E27" s="3" t="s">
         <v>55</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="4:6">
       <c r="D28" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="29" spans="4:6">
       <c r="D29" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="30" spans="3:6">
-      <c r="C30" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="4:6">
+      <c r="D30" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="31" spans="4:6">
-      <c r="D31" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="3:6">
+      <c r="C31" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="E31" s="2" t="s">
         <v>63</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="4:6">
       <c r="D32" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E32" s="3" t="s">
         <v>65</v>
       </c>
+      <c r="E32" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="F32" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="4:6">
       <c r="D33" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E33" s="3" t="s">
         <v>67</v>
       </c>
+      <c r="E33" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="F33" s="1" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="4:6">
       <c r="D34" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="E34" s="2" t="s">
         <v>70</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35" spans="4:6">
       <c r="D35" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F35" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E35" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="36" spans="3:6">
-      <c r="C36" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E36" s="3" t="s">
+    </row>
+    <row r="36" spans="4:6">
+      <c r="D36" s="1" t="s">
         <v>74</v>
       </c>
+      <c r="E36" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="F36" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="37" spans="4:6">
-      <c r="D37" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="3:9">
+      <c r="C37" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>53</v>
+        <v>71</v>
+      </c>
+      <c r="I37" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="38" spans="4:6">
       <c r="D38" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="39" spans="3:6">
-      <c r="C39" s="2" t="s">
-        <v>78</v>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" spans="4:6">
+      <c r="D39" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>80</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="40" spans="4:6">
-      <c r="D40" s="1" t="s">
-        <v>79</v>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" spans="3:6">
+      <c r="C40" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="41" spans="4:6">
       <c r="D41" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="42" spans="3:6">
-      <c r="C42" s="2" t="s">
-        <v>81</v>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42" spans="4:6">
+      <c r="D42" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
     </row>
     <row r="43" spans="3:6">
-      <c r="C43" s="2" t="s">
-        <v>83</v>
+      <c r="C43" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="44" spans="3:6">
-      <c r="C44" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E44" s="3" t="s">
+      <c r="C44" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F44" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F44" s="1" t="s">
-        <v>53</v>
-      </c>
     </row>
     <row r="45" spans="3:6">
-      <c r="C45" s="2" t="s">
-        <v>86</v>
+      <c r="C45" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="3:6">
-      <c r="C46" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>88</v>
+      <c r="C46" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="47" spans="3:6">
-      <c r="C47" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E47" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="47" spans="3:9">
+      <c r="C47" s="1" t="s">
         <v>90</v>
       </c>
+      <c r="E47" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="F47" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="48" spans="3:6">
-      <c r="C48" s="2" t="s">
-        <v>91</v>
+        <v>56</v>
+      </c>
+      <c r="I47" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="48" spans="3:9">
+      <c r="C48" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="49" spans="3:6">
-      <c r="C49" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I48" t="s">
         <v>92</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="F49" s="1"/>
-    </row>
-    <row r="50" spans="4:6">
-      <c r="D50" s="1" t="s">
+    </row>
+    <row r="49" spans="3:9">
+      <c r="C49" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E50" s="3" t="s">
+      <c r="F49" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I49" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="50" spans="3:9">
+      <c r="C50" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="F50" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="51" spans="4:6">
+      <c r="E50" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F50" s="1"/>
+      <c r="I50" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="51" spans="4:9">
       <c r="D51" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E51" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I51" t="s">
         <v>97</v>
       </c>
-      <c r="F51" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="52" spans="4:6">
+    </row>
+    <row r="52" spans="4:9">
       <c r="D52" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>101</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="53" spans="4:6">
+        <v>22</v>
+      </c>
+      <c r="I52" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="53" spans="4:9">
       <c r="D53" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="54" spans="2:6">
-      <c r="B54" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="F54" s="1"/>
-    </row>
-    <row r="55" spans="3:6">
-      <c r="C55" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I53" t="s">
         <v>102</v>
       </c>
-      <c r="E55" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="F55" s="1" t="s">
+    </row>
+    <row r="54" spans="4:9">
+      <c r="D54" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="56" spans="4:6">
-      <c r="D56" s="1" t="s">
+      <c r="E54" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E56" s="3" t="s">
+      <c r="F54" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I54" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6">
+      <c r="B55" s="1" t="s">
         <v>106</v>
       </c>
+      <c r="F55" s="1"/>
+    </row>
+    <row r="56" spans="3:6">
+      <c r="C56" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="F56" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="57" spans="4:6">
       <c r="D57" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>108</v>
+        <v>110</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>111</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="58" spans="4:6">
       <c r="D58" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F58" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="59" spans="4:6">
       <c r="D59" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>112</v>
+        <v>114</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>115</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="60" spans="4:6">
       <c r="D60" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>117</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="61" spans="4:6">
       <c r="D61" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="62" spans="4:6">
       <c r="D62" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="63" spans="4:6">
       <c r="D63" s="1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="64" spans="4:6">
       <c r="D64" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="65" spans="4:6">
       <c r="D65" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="66" spans="4:6">
       <c r="D66" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="67" spans="4:6">
       <c r="D67" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>122</v>
+        <v>124</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>125</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="68" spans="3:6">
-      <c r="C68" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>124</v>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="68" spans="4:6">
+      <c r="D68" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>127</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
     </row>
     <row r="69" spans="3:6">
-      <c r="C69" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>127</v>
+      <c r="C69" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>129</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="70" spans="3:6">
-      <c r="C70" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F70" s="1"/>
-    </row>
-    <row r="71" spans="4:6">
-      <c r="D71" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="E71" s="3" t="s">
+      <c r="C70" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F70" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="F71" s="1" t="s">
-        <v>131</v>
-      </c>
+    </row>
+    <row r="71" spans="3:6">
+      <c r="C71" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F71" s="1"/>
     </row>
     <row r="72" spans="4:6">
       <c r="D72" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>135</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="73" ht="28.5" spans="4:6">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="73" spans="4:6">
       <c r="D73" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>138</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="74" spans="4:6">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="74" ht="28.5" spans="4:6">
       <c r="D74" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="E74" s="3" t="s">
-        <v>138</v>
+        <v>140</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>141</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
     </row>
     <row r="75" spans="4:6">
       <c r="D75" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E75" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>143</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="76" spans="3:6">
-      <c r="C76" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="F76" s="1"/>
-    </row>
-    <row r="77" spans="4:6">
-      <c r="D77" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="E77" s="3" t="s">
+    </row>
+    <row r="76" spans="4:6">
+      <c r="D76" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="F77" s="1" t="s">
-        <v>125</v>
-      </c>
+      <c r="E76" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="77" spans="3:6">
+      <c r="C77" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F77" s="1"/>
     </row>
     <row r="78" spans="4:6">
       <c r="D78" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="E78" s="3" t="s">
-        <v>147</v>
+        <v>149</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>150</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="79" ht="28.5" spans="4:6">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="79" spans="4:6">
       <c r="D79" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="E79" s="3" t="s">
-        <v>149</v>
+        <v>151</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>152</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="80" spans="2:6">
-      <c r="B80" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="F80" s="1"/>
-    </row>
-    <row r="81" spans="3:6">
-      <c r="C81" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E81" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="80" ht="28.5" spans="4:6">
+      <c r="D80" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="F81" s="1" t="s">
+      <c r="E80" s="2" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="82" spans="4:6">
-      <c r="D82" s="1" t="s">
+      <c r="F80" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="81" spans="2:9">
+      <c r="B81" s="1" t="s">
         <v>155</v>
       </c>
+      <c r="E81" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F81" s="1"/>
+      <c r="I81" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="82" spans="3:9">
+      <c r="C82" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>159</v>
+      </c>
       <c r="F82" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="83" spans="4:6">
+        <v>160</v>
+      </c>
+      <c r="I82" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="83" spans="4:9">
       <c r="D83" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="E83" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="I83" t="s">
         <v>157</v>
       </c>
-      <c r="F83" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="84" spans="4:6">
+    </row>
+    <row r="84" spans="4:9">
       <c r="D84" s="1" t="s">
-        <v>158</v>
+        <v>162</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="85" spans="4:6">
+        <v>160</v>
+      </c>
+      <c r="I84" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="85" spans="4:9">
       <c r="D85" s="1" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="86" spans="3:6">
-      <c r="C86" s="2" t="s">
-        <v>160</v>
+        <v>160</v>
+      </c>
+      <c r="I85" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="86" spans="4:9">
+      <c r="D86" s="1" t="s">
+        <v>165</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="87" spans="4:6">
-      <c r="D87" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
+      </c>
+      <c r="I86" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="87" spans="3:9">
+      <c r="C87" s="1" t="s">
+        <v>166</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="88" spans="3:6">
-      <c r="C88" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="E88" s="3" t="s">
-        <v>164</v>
+        <v>167</v>
+      </c>
+      <c r="I87" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="88" spans="4:9">
+      <c r="D88" s="1" t="s">
+        <v>169</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="89" spans="3:6">
-      <c r="C89" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
+      </c>
+      <c r="I88" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="89" spans="3:9">
+      <c r="C89" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>171</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="90" spans="3:6">
-      <c r="C90" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="E90" s="3" t="s">
+      <c r="I89" s="5" t="s">
         <v>168</v>
       </c>
+    </row>
+    <row r="90" spans="3:9">
+      <c r="C90" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>173</v>
+      </c>
       <c r="F90" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="91" spans="4:6">
-      <c r="D91" s="1" t="s">
-        <v>169</v>
+        <v>160</v>
+      </c>
+      <c r="I90" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="91" spans="3:9">
+      <c r="C91" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>175</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="92" spans="3:6">
-      <c r="C92" s="2" t="s">
-        <v>170</v>
+        <v>160</v>
+      </c>
+      <c r="I91" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="92" spans="4:9">
+      <c r="D92" s="1" t="s">
+        <v>176</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>154</v>
+        <v>160</v>
+      </c>
+      <c r="I92" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="93" spans="3:6">
-      <c r="C93" s="2" t="s">
-        <v>171</v>
+      <c r="C93" s="1" t="s">
+        <v>177</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="94" spans="3:6">
-      <c r="C94" s="2" t="s">
-        <v>172</v>
+      <c r="C94" s="1" t="s">
+        <v>178</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="95" spans="3:6">
-      <c r="C95" s="2" t="s">
-        <v>173</v>
+      <c r="C95" s="1" t="s">
+        <v>179</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="96" spans="3:6">
-      <c r="C96" s="2" t="s">
-        <v>174</v>
+      <c r="C96" s="1" t="s">
+        <v>180</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="97" spans="3:6">
-      <c r="C97" s="2" t="s">
-        <v>175</v>
+      <c r="C97" s="1" t="s">
+        <v>181</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="98" spans="3:6">
-      <c r="C98" s="2" t="s">
-        <v>176</v>
+      <c r="C98" s="1" t="s">
+        <v>182</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="99" spans="3:6">
-      <c r="C99" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="E99" s="3" t="s">
-        <v>178</v>
+      <c r="C99" s="1" t="s">
+        <v>183</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="100" spans="3:6">
-      <c r="C100" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>180</v>
+        <v>167</v>
+      </c>
+    </row>
+    <row r="100" spans="3:9">
+      <c r="C100" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>185</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="101" spans="4:6">
-      <c r="D101" s="1" t="s">
-        <v>181</v>
+        <v>160</v>
+      </c>
+      <c r="I100" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="101" spans="3:9">
+      <c r="C101" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>187</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="102" spans="3:6">
-      <c r="C102" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>183</v>
+        <v>160</v>
+      </c>
+      <c r="I101" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="102" spans="4:6">
+      <c r="D102" s="1" t="s">
+        <v>188</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="103" spans="4:6">
-      <c r="D103" s="1" t="s">
-        <v>184</v>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="103" spans="3:6">
+      <c r="C103" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>190</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
     </row>
     <row r="104" spans="4:6">
       <c r="D104" s="1" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="105" spans="3:6">
-      <c r="C105" s="2" t="s">
-        <v>186</v>
+        <v>167</v>
+      </c>
+    </row>
+    <row r="105" spans="4:6">
+      <c r="D105" s="1" t="s">
+        <v>192</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="106" spans="4:6">
-      <c r="D106" s="1" t="s">
-        <v>187</v>
+        <v>167</v>
+      </c>
+    </row>
+    <row r="106" spans="3:6">
+      <c r="C106" s="1" t="s">
+        <v>193</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>18</v>
+        <v>130</v>
       </c>
     </row>
     <row r="107" spans="4:6">
       <c r="D107" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="108" spans="4:6">
       <c r="D108" s="1" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="109" spans="4:6">
       <c r="D109" s="1" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="110" spans="2:6">
-      <c r="B110" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="F110" s="1"/>
-    </row>
-    <row r="111" spans="3:6">
-      <c r="C111" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="F111" s="1" t="s">
-        <v>193</v>
-      </c>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="110" spans="4:6">
+      <c r="D110" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="111" spans="2:6">
+      <c r="B111" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="F111" s="1"/>
     </row>
     <row r="112" spans="3:6">
-      <c r="C112" s="2" t="s">
-        <v>194</v>
+      <c r="C112" s="1" t="s">
+        <v>199</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
     </row>
     <row r="113" spans="3:6">
-      <c r="C113" s="2" t="s">
-        <v>195</v>
+      <c r="C113" s="1" t="s">
+        <v>201</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="114" spans="2:6">
-      <c r="B114" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="F114" s="1"/>
-    </row>
-    <row r="115" spans="3:6">
-      <c r="C115" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="F115" s="1" t="s">
-        <v>193</v>
-      </c>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="114" spans="3:6">
+      <c r="C114" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="115" spans="2:6">
+      <c r="B115" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F115" s="1"/>
     </row>
     <row r="116" spans="3:6">
-      <c r="C116" s="2" t="s">
-        <v>198</v>
+      <c r="C116" s="1" t="s">
+        <v>204</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="117" spans="2:6">
-      <c r="B117" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="F117" s="1"/>
-    </row>
-    <row r="118" spans="3:6">
-      <c r="C118" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="F118" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="119" spans="3:6">
-      <c r="C119" s="2" t="s">
-        <v>201</v>
+    </row>
+    <row r="117" spans="3:6">
+      <c r="C117" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="118" spans="2:6">
+      <c r="B118" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F118" s="1"/>
+    </row>
+    <row r="119" spans="3:9">
+      <c r="C119" s="1" t="s">
+        <v>207</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="120" ht="57" spans="4:6">
-      <c r="D120" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="E120" s="3" t="s">
-        <v>203</v>
+        <v>160</v>
+      </c>
+      <c r="I119" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="120" spans="3:9">
+      <c r="C120" s="1" t="s">
+        <v>209</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="121" spans="3:6">
-      <c r="C121" s="2" t="s">
-        <v>205</v>
+        <v>160</v>
+      </c>
+      <c r="I120" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="121" ht="57" spans="4:9">
+      <c r="D121" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>211</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="122" spans="3:6">
-      <c r="C122" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="E122" s="3" t="s">
-        <v>207</v>
+        <v>212</v>
+      </c>
+      <c r="I121" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="122" spans="3:9">
+      <c r="C122" s="1" t="s">
+        <v>213</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="123" ht="57" spans="3:6">
-      <c r="C123" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="I122" t="s">
         <v>208</v>
       </c>
-      <c r="E123" s="3" t="s">
-        <v>209</v>
+    </row>
+    <row r="123" spans="3:9">
+      <c r="C123" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>215</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="124" spans="3:6">
-      <c r="C124" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="E124" s="3" t="s">
-        <v>211</v>
+        <v>212</v>
+      </c>
+      <c r="I123" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="124" ht="57" spans="3:9">
+      <c r="C124" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>217</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="125" spans="3:6">
-      <c r="C125" s="2" t="s">
         <v>212</v>
       </c>
+      <c r="I124" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="125" spans="3:9">
+      <c r="C125" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>219</v>
+      </c>
       <c r="F125" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="126" spans="4:6">
-      <c r="D126" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="E126" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
+      </c>
+      <c r="I125" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="126" spans="3:9">
+      <c r="C126" s="1" t="s">
+        <v>220</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="127" spans="4:6">
+        <v>221</v>
+      </c>
+      <c r="I126" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="127" spans="4:9">
       <c r="D127" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="E127" s="3" t="s">
-        <v>217</v>
+        <v>222</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>223</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="128" spans="4:6">
+        <v>212</v>
+      </c>
+      <c r="I127" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="128" spans="4:9">
       <c r="D128" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="E128" s="3" t="s">
-        <v>219</v>
+        <v>224</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="129" ht="28.5" spans="1:6">
-      <c r="A129" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="E129" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="I128" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="129" spans="4:9">
+      <c r="D129" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="I129" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="130" ht="28.5" spans="1:6">
+      <c r="A130" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="131" spans="2:6">
+      <c r="B131" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="F131" s="1"/>
+    </row>
+    <row r="132" spans="3:9">
+      <c r="C132" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="I132" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="133" spans="3:9">
+      <c r="C133" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="I133" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="134" spans="4:9">
+      <c r="D134" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="I134" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="135" spans="4:9">
+      <c r="D135" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="I135" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="136" spans="3:9">
+      <c r="C136" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="I136" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="137" spans="4:9">
+      <c r="D137" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="I137" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="138" spans="3:9">
+      <c r="C138" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="I138" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="139" spans="4:9">
+      <c r="D139" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="I139" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="140" ht="42.75" spans="3:9">
+      <c r="C140" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="F140" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="I140" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="141" spans="3:9">
+      <c r="C141" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="I141" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="142" spans="3:9">
+      <c r="C142" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="I142" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="143" spans="2:9">
+      <c r="B143" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="F143" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="F129" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="130" spans="2:6">
-      <c r="B130" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="F130" s="1"/>
-    </row>
-    <row r="131" spans="3:6">
-      <c r="C131" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="E131" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="F131" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="132" spans="3:6">
-      <c r="C132" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="F132" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="133" spans="4:6">
-      <c r="D133" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="E133" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="F133" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="134" spans="4:6">
-      <c r="D134" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="E134" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="F134" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="135" spans="3:6">
-      <c r="C135" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="E135" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="F135" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="136" spans="4:6">
-      <c r="D136" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="F136" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="137" spans="3:6">
-      <c r="C137" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="F137" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="138" spans="4:6">
-      <c r="D138" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="E138" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="F138" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="139" ht="42.75" spans="3:6">
-      <c r="C139" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="E139" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="F139" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="140" spans="3:6">
-      <c r="C140" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="F140" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="141" spans="3:6">
-      <c r="C141" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="F141" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="142" spans="2:6">
-      <c r="B142" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="E142" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="F142" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="143" spans="3:6">
-      <c r="C143" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="E143" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="F143" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="144" spans="3:6">
-      <c r="C144" s="2" t="s">
-        <v>246</v>
+      <c r="I143" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="144" spans="3:9">
+      <c r="C144" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>255</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="145" spans="3:6">
-      <c r="C145" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="E145" s="3" t="s">
-        <v>248</v>
+        <v>160</v>
+      </c>
+      <c r="I144" s="5" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="145" spans="3:9">
+      <c r="C145" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>257</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="146" ht="42.75" spans="3:6">
-      <c r="C146" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="E146" s="3" t="s">
-        <v>250</v>
+        <v>160</v>
+      </c>
+      <c r="I145" s="5" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="146" spans="3:9">
+      <c r="C146" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>259</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="147" spans="3:6">
-      <c r="C147" s="2" t="s">
-        <v>251</v>
+        <v>160</v>
+      </c>
+      <c r="I146" s="5" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="147" ht="42.75" spans="3:9">
+      <c r="C147" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>261</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="148" spans="3:6">
-      <c r="C148" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="E148" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="I147" s="5" t="s">
         <v>253</v>
       </c>
+    </row>
+    <row r="148" spans="3:9">
+      <c r="C148" s="1" t="s">
+        <v>262</v>
+      </c>
       <c r="F148" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="149" spans="2:6">
-      <c r="B149" s="2" t="s">
-        <v>254</v>
+        <v>160</v>
+      </c>
+      <c r="I148" s="5" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="149" spans="3:9">
+      <c r="C149" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>264</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>154</v>
+        <v>160</v>
+      </c>
+      <c r="I149" s="5" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="150" spans="2:6">
-      <c r="B150" s="2" t="s">
-        <v>255</v>
+      <c r="B150" s="1" t="s">
+        <v>265</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="151" spans="2:6">
-      <c r="B151" s="2" t="s">
-        <v>256</v>
+      <c r="B151" s="1" t="s">
+        <v>266</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="152" spans="2:6">
-      <c r="B152" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="E152" s="3" t="s">
-        <v>258</v>
+      <c r="B152" s="1" t="s">
+        <v>267</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="153" spans="2:6">
-      <c r="B153" s="2" t="s">
-        <v>259</v>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="153" spans="2:9">
+      <c r="B153" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>269</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="154" spans="3:6">
-      <c r="C154" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="E154" s="3" t="s">
-        <v>261</v>
+        <v>160</v>
+      </c>
+      <c r="I153" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="154" spans="2:6">
+      <c r="B154" s="1" t="s">
+        <v>270</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="155" spans="4:6">
-      <c r="D155" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="E155" s="3" t="s">
-        <v>263</v>
+        <v>221</v>
+      </c>
+    </row>
+    <row r="155" ht="28.5" spans="3:9">
+      <c r="C155" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="E155" s="6" t="s">
+        <v>272</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="156" spans="4:6">
+        <v>221</v>
+      </c>
+      <c r="I155" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="156" spans="4:9">
       <c r="D156" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="E156" s="3" t="s">
-        <v>265</v>
+        <v>274</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>275</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="157" spans="4:6">
+        <v>212</v>
+      </c>
+      <c r="I156" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="157" spans="4:9">
       <c r="D157" s="1" t="s">
-        <v>266</v>
+        <v>276</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>277</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="158" spans="4:6">
+        <v>160</v>
+      </c>
+      <c r="I157" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="158" spans="4:9">
       <c r="D158" s="1" t="s">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="159" spans="4:6">
+        <v>160</v>
+      </c>
+      <c r="I158" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="159" spans="4:9">
       <c r="D159" s="1" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="160" spans="3:6">
-      <c r="C160" s="2" t="s">
-        <v>269</v>
+        <v>212</v>
+      </c>
+      <c r="I159" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="160" spans="4:9">
+      <c r="D160" s="1" t="s">
+        <v>280</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="161" spans="4:6">
-      <c r="D161" s="1" t="s">
-        <v>270</v>
+        <v>160</v>
+      </c>
+      <c r="I160" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="161" spans="3:9">
+      <c r="C161" s="1" t="s">
+        <v>281</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="162" spans="4:6">
+        <v>221</v>
+      </c>
+      <c r="I161" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="162" spans="4:9">
       <c r="D162" s="1" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="163" spans="4:6">
+        <v>167</v>
+      </c>
+      <c r="I162" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="163" spans="4:9">
       <c r="D163" s="1" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="164" spans="4:6">
+        <v>160</v>
+      </c>
+      <c r="I163" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="164" spans="4:9">
       <c r="D164" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="F164" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="I164" t="s">
         <v>273</v>
       </c>
-      <c r="F164" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="165" spans="3:6">
-      <c r="C165" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="E165" s="3" t="s">
-        <v>275</v>
+    </row>
+    <row r="165" spans="4:9">
+      <c r="D165" s="1" t="s">
+        <v>285</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="166" spans="3:6">
-      <c r="C166" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="E166" s="3" t="s">
-        <v>277</v>
+        <v>160</v>
+      </c>
+      <c r="I165" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="166" spans="3:9">
+      <c r="C166" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="E166" s="6" t="s">
+        <v>287</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="167" spans="3:6">
-      <c r="C167" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="E167" s="3" t="s">
-        <v>279</v>
+        <v>160</v>
+      </c>
+      <c r="I166" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="167" spans="3:9">
+      <c r="C167" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>289</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="168" spans="2:6">
-      <c r="B168" s="2" t="s">
-        <v>280</v>
+        <v>160</v>
+      </c>
+      <c r="I167" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="168" ht="28.5" spans="3:9">
+      <c r="C168" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="E168" s="6" t="s">
+        <v>292</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="169" spans="3:6">
-      <c r="C169" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="F169" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="170" spans="3:6">
-      <c r="C170" s="2" t="s">
-        <v>282</v>
+        <v>160</v>
+      </c>
+      <c r="I168" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="169" spans="3:9">
+      <c r="C169" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="E169" s="7"/>
+      <c r="F169" s="1"/>
+      <c r="I169" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="170" spans="2:6">
+      <c r="B170" s="1" t="s">
+        <v>295</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>154</v>
+        <v>221</v>
       </c>
     </row>
     <row r="171" spans="3:6">
-      <c r="C171" s="2" t="s">
-        <v>283</v>
+      <c r="C171" s="1" t="s">
+        <v>296</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="172" spans="3:6">
-      <c r="C172" s="2" t="s">
-        <v>284</v>
+      <c r="C172" s="1" t="s">
+        <v>297</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="173" spans="3:6">
-      <c r="C173" s="2" t="s">
-        <v>285</v>
+      <c r="C173" s="1" t="s">
+        <v>298</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="174" spans="3:6">
-      <c r="C174" s="2" t="s">
-        <v>286</v>
+      <c r="C174" s="1" t="s">
+        <v>299</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="175" spans="3:6">
-      <c r="C175" s="2" t="s">
-        <v>287</v>
+      <c r="C175" s="1" t="s">
+        <v>300</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="176" spans="4:6">
-      <c r="D176" s="1" t="s">
-        <v>288</v>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="176" spans="3:6">
+      <c r="C176" s="1" t="s">
+        <v>301</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="177" spans="4:6">
-      <c r="D177" s="1" t="s">
-        <v>289</v>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="177" spans="3:6">
+      <c r="C177" s="1" t="s">
+        <v>302</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="178" spans="4:6">
       <c r="D178" s="1" t="s">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="179" spans="3:6">
-      <c r="C179" s="2" t="s">
-        <v>291</v>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="179" spans="4:6">
+      <c r="D179" s="1" t="s">
+        <v>304</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="180" spans="4:6">
       <c r="D180" s="1" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="181" spans="2:6">
-      <c r="B181" s="2" t="s">
-        <v>293</v>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="181" spans="3:6">
+      <c r="C181" s="1" t="s">
+        <v>306</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="182" spans="3:6">
-      <c r="C182" s="2" t="s">
-        <v>295</v>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="182" spans="4:6">
+      <c r="D182" s="1" t="s">
+        <v>307</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>296</v>
+        <v>160</v>
       </c>
     </row>
     <row r="183" spans="3:6">
-      <c r="C183" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="F183" s="1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="184" spans="3:6">
-      <c r="C184" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="E184" s="3" t="s">
-        <v>299</v>
+      <c r="C183" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="F183" s="1"/>
+    </row>
+    <row r="184" spans="2:6">
+      <c r="B184" s="1" t="s">
+        <v>309</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>296</v>
+        <v>310</v>
       </c>
     </row>
     <row r="185" spans="3:6">
-      <c r="C185" s="2" t="s">
-        <v>300</v>
+      <c r="C185" s="1" t="s">
+        <v>311</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="186" spans="3:6">
-      <c r="C186" s="2" t="s">
-        <v>301</v>
+        <v>312</v>
+      </c>
+    </row>
+    <row r="186" spans="3:9">
+      <c r="C186" s="1" t="s">
+        <v>313</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="187" spans="3:6">
-      <c r="C187" s="2" t="s">
-        <v>302</v>
+        <v>312</v>
+      </c>
+      <c r="I186" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="187" spans="3:9">
+      <c r="C187" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>316</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="188" spans="3:6">
-      <c r="C188" s="2" t="s">
-        <v>303</v>
+        <v>312</v>
+      </c>
+      <c r="I187" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="188" spans="3:9">
+      <c r="C188" s="1" t="s">
+        <v>317</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="189" spans="2:6">
-      <c r="B189" s="2" t="s">
-        <v>304</v>
+        <v>312</v>
+      </c>
+      <c r="I188" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="189" spans="3:9">
+      <c r="C189" s="1" t="s">
+        <v>318</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="190" spans="3:6">
-      <c r="C190" s="2" t="s">
-        <v>305</v>
+        <v>312</v>
+      </c>
+      <c r="I189" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="190" spans="3:9">
+      <c r="C190" s="1" t="s">
+        <v>319</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="191" spans="3:6">
-      <c r="C191" s="2" t="s">
-        <v>306</v>
+        <v>312</v>
+      </c>
+      <c r="I190" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="191" spans="3:9">
+      <c r="C191" s="1" t="s">
+        <v>320</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="192" spans="3:6">
-      <c r="C192" s="2" t="s">
-        <v>307</v>
+        <v>312</v>
+      </c>
+      <c r="I191" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="192" spans="2:6">
+      <c r="B192" s="1" t="s">
+        <v>321</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="193" spans="3:6">
-      <c r="C193" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="E193" s="3" t="s">
-        <v>309</v>
+        <v>312</v>
+      </c>
+    </row>
+    <row r="193" spans="3:9">
+      <c r="C193" s="1" t="s">
+        <v>322</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="194" spans="2:6">
-      <c r="B194" s="2" t="s">
-        <v>310</v>
+        <v>312</v>
+      </c>
+      <c r="I193" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="194" spans="3:9">
+      <c r="C194" s="1" t="s">
+        <v>323</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>213</v>
+        <v>312</v>
+      </c>
+      <c r="I194" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="195" spans="3:6">
-      <c r="C195" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="E195" s="3" t="s">
+      <c r="C195" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="F195" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="F195" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="196" spans="3:6">
-      <c r="C196" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="E196" s="3" t="s">
+    </row>
+    <row r="196" spans="3:9">
+      <c r="C196" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="E196" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="F196" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="I196" t="s">
         <v>314</v>
       </c>
-      <c r="F196" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="197" spans="3:6">
-      <c r="C197" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="E197" s="3" t="s">
-        <v>316</v>
+    </row>
+    <row r="197" spans="2:6">
+      <c r="B197" s="1" t="s">
+        <v>327</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="198" spans="4:6">
-      <c r="D198" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="E198" s="3" t="s">
-        <v>318</v>
+        <v>221</v>
+      </c>
+    </row>
+    <row r="198" spans="3:6">
+      <c r="C198" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="E198" s="2" t="s">
+        <v>329</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="199" ht="28.5" spans="4:6">
-      <c r="D199" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="E199" s="3" t="s">
-        <v>320</v>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="199" spans="3:6">
+      <c r="C199" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="E199" s="2" t="s">
+        <v>331</v>
       </c>
       <c r="F199" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="200" spans="4:6">
-      <c r="D200" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="E200" s="3" t="s">
-        <v>322</v>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="200" spans="3:6">
+      <c r="C200" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="E200" s="2" t="s">
+        <v>333</v>
       </c>
       <c r="F200" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="201" spans="3:6">
-      <c r="C201" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="E201" s="3" t="s">
-        <v>324</v>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="201" spans="4:6">
+      <c r="D201" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="E201" s="2" t="s">
+        <v>335</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="202" spans="3:6">
-      <c r="C202" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="E202" s="3" t="s">
-        <v>326</v>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="202" ht="28.5" spans="4:6">
+      <c r="D202" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="E202" s="2" t="s">
+        <v>337</v>
       </c>
       <c r="F202" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="203" spans="2:6">
-      <c r="B203" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="E203" s="3" t="s">
-        <v>328</v>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="203" spans="4:6">
+      <c r="D203" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="E203" s="2" t="s">
+        <v>339</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="204" spans="4:6">
-      <c r="D204" s="1" t="s">
-        <v>329</v>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="204" spans="3:9">
+      <c r="C204" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="E204" s="2" t="s">
+        <v>341</v>
       </c>
       <c r="F204" s="1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="205" spans="4:6">
-      <c r="D205" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="F205" s="1" t="s">
-        <v>296</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="I204" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="205" spans="3:6">
+      <c r="C205" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="F205" s="1"/>
     </row>
     <row r="206" spans="3:6">
-      <c r="C206" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="E206" s="3" t="s">
-        <v>332</v>
+      <c r="C206" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="E206" s="2" t="s">
+        <v>345</v>
       </c>
       <c r="F206" s="1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="207" spans="3:6">
-      <c r="C207" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="E207" s="3" t="s">
-        <v>334</v>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="207" spans="2:9">
+      <c r="B207" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="E207" s="2" t="s">
+        <v>347</v>
       </c>
       <c r="F207" s="1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="208" spans="3:6">
-      <c r="C208" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="E208" s="3" t="s">
-        <v>336</v>
+        <v>312</v>
+      </c>
+      <c r="I207" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="208" spans="4:6">
+      <c r="D208" s="1" t="s">
+        <v>349</v>
       </c>
       <c r="F208" s="1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="209" spans="2:6">
-      <c r="B209" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="E209" s="3" t="s">
-        <v>338</v>
+        <v>312</v>
+      </c>
+    </row>
+    <row r="209" spans="4:6">
+      <c r="D209" s="1" t="s">
+        <v>350</v>
       </c>
       <c r="F209" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="210" spans="2:6">
-      <c r="B210" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="E210" s="3" t="s">
-        <v>340</v>
+        <v>312</v>
+      </c>
+    </row>
+    <row r="210" spans="3:6">
+      <c r="C210" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="E210" s="2" t="s">
+        <v>352</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>154</v>
+        <v>312</v>
       </c>
     </row>
     <row r="211" spans="3:6">
-      <c r="C211" s="2" t="s">
-        <v>341</v>
+      <c r="C211" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="E211" s="2" t="s">
+        <v>354</v>
       </c>
       <c r="F211" s="1" t="s">
-        <v>154</v>
+        <v>312</v>
       </c>
     </row>
     <row r="212" spans="3:6">
-      <c r="C212" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="E212" s="3" t="s">
-        <v>343</v>
+      <c r="C212" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="E212" s="2" t="s">
+        <v>356</v>
       </c>
       <c r="F212" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="213" spans="3:6">
-      <c r="C213" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="E213" s="3" t="s">
-        <v>345</v>
+        <v>312</v>
+      </c>
+    </row>
+    <row r="213" spans="2:6">
+      <c r="B213" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="E213" s="2" t="s">
+        <v>358</v>
       </c>
       <c r="F213" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="214" spans="3:6">
-      <c r="C214" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="E214" s="3" t="s">
-        <v>347</v>
+        <v>167</v>
+      </c>
+    </row>
+    <row r="214" spans="2:9">
+      <c r="B214" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="E214" s="2" t="s">
+        <v>360</v>
       </c>
       <c r="F214" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="215" spans="3:6">
-      <c r="C215" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="E215" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="F215" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="216" spans="4:6">
-      <c r="D216" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="E216" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="F216" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="217" spans="4:6">
-      <c r="D217" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="E217" s="3" t="s">
-        <v>353</v>
+        <v>160</v>
+      </c>
+      <c r="I214" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="215" spans="3:9">
+      <c r="C215" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="E215" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="F215" s="1"/>
+      <c r="I215" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="216" spans="3:9">
+      <c r="C216" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="E216" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="F216" s="1"/>
+      <c r="I216" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="217" spans="3:6">
+      <c r="C217" s="1" t="s">
+        <v>365</v>
       </c>
       <c r="F217" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="218" spans="4:6">
-      <c r="D218" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="E218" s="3" t="s">
-        <v>355</v>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="218" spans="3:6">
+      <c r="C218" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="E218" s="2" t="s">
+        <v>367</v>
       </c>
       <c r="F218" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="219" spans="4:6">
-      <c r="D219" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="E219" s="3" t="s">
-        <v>357</v>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="219" spans="3:6">
+      <c r="C219" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="E219" s="2" t="s">
+        <v>369</v>
       </c>
       <c r="F219" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6">
-      <c r="A220" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="F220" s="1"/>
-    </row>
-    <row r="221" spans="2:6">
-      <c r="B221" s="2" t="s">
-        <v>359</v>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="220" spans="3:6">
+      <c r="C220" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="E220" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="F220" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="221" spans="3:6">
+      <c r="C221" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="E221" s="2" t="s">
+        <v>373</v>
       </c>
       <c r="F221" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="222" spans="3:6">
-      <c r="C222" s="2" t="s">
-        <v>360</v>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="222" spans="4:6">
+      <c r="D222" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="E222" s="2" t="s">
+        <v>375</v>
       </c>
       <c r="F222" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="223" spans="4:6">
+      <c r="D223" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="E223" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="F223" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="224" spans="4:6">
+      <c r="D224" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="E224" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="F224" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="225" spans="4:6">
+      <c r="D225" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="E225" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="F225" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6">
+      <c r="A226" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="F226" s="1"/>
+    </row>
+    <row r="227" spans="2:6">
+      <c r="B227" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="F227" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="228" spans="3:6">
+      <c r="C228" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="F228" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="223" spans="3:6">
-      <c r="C223" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="F223" s="1" t="s">
+    <row r="229" spans="3:6">
+      <c r="C229" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="F229" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="224" spans="2:6">
-      <c r="B224" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="E224" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="F224" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="225" spans="3:6">
-      <c r="C225" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="F225" s="1" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="226" spans="3:6">
-      <c r="C226" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="E226" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="F226" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="227" spans="2:6">
-      <c r="B227" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="E227" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="F227" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="228" spans="3:6">
-      <c r="C228" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="F228" s="1" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="229" spans="3:6">
-      <c r="C229" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="F229" s="1" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="230" spans="3:6">
-      <c r="C230" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="E230" s="3" t="s">
-        <v>373</v>
+    <row r="230" spans="2:9">
+      <c r="B230" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="E230" s="2" t="s">
+        <v>387</v>
       </c>
       <c r="F230" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="231" spans="1:6">
-      <c r="A231" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="F231" s="1"/>
-    </row>
-    <row r="232" spans="2:6">
-      <c r="B232" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="E232" s="3" t="s">
-        <v>376</v>
+        <v>221</v>
+      </c>
+      <c r="I230" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="231" spans="3:9">
+      <c r="C231" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="F231" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="I231" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="232" spans="3:6">
+      <c r="C232" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="E232" s="2" t="s">
+        <v>392</v>
       </c>
       <c r="F232" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="233" spans="3:6">
-      <c r="C233" s="2" t="s">
-        <v>377</v>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="233" spans="2:9">
+      <c r="B233" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="E233" s="2" t="s">
+        <v>394</v>
       </c>
       <c r="F233" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="234" spans="3:6">
-      <c r="C234" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="E234" s="3" t="s">
-        <v>379</v>
+        <v>221</v>
+      </c>
+      <c r="I233" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="234" spans="3:9">
+      <c r="C234" s="1" t="s">
+        <v>395</v>
       </c>
       <c r="F234" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="235" spans="3:6">
-      <c r="C235" s="2" t="s">
-        <v>380</v>
+        <v>390</v>
+      </c>
+      <c r="I234" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="235" spans="3:9">
+      <c r="C235" s="1" t="s">
+        <v>396</v>
       </c>
       <c r="F235" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="236" spans="3:6">
-      <c r="C236" s="2" t="s">
-        <v>381</v>
+        <v>390</v>
+      </c>
+      <c r="I235" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="236" spans="3:9">
+      <c r="C236" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="E236" s="2" t="s">
+        <v>398</v>
       </c>
       <c r="F236" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="237" spans="2:6">
-      <c r="B237" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="F237" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="238" spans="3:6">
-      <c r="C238" s="2" t="s">
-        <v>383</v>
+        <v>160</v>
+      </c>
+      <c r="I236" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6">
+      <c r="A237" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="F237" s="1"/>
+    </row>
+    <row r="238" spans="2:6">
+      <c r="B238" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="E238" s="2" t="s">
+        <v>401</v>
       </c>
       <c r="F238" s="1" t="s">
-        <v>154</v>
+        <v>221</v>
       </c>
     </row>
     <row r="239" spans="3:6">
-      <c r="C239" s="2" t="s">
-        <v>384</v>
+      <c r="C239" s="1" t="s">
+        <v>402</v>
       </c>
       <c r="F239" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="240" spans="2:6">
-      <c r="B240" s="2" t="s">
-        <v>385</v>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="240" spans="3:9">
+      <c r="C240" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="E240" s="2" t="s">
+        <v>404</v>
       </c>
       <c r="F240" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="241" spans="3:6">
-      <c r="C241" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="E241" s="3" t="s">
-        <v>387</v>
+        <v>160</v>
+      </c>
+      <c r="I240" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="241" spans="3:9">
+      <c r="C241" s="1" t="s">
+        <v>406</v>
       </c>
       <c r="F241" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="242" spans="4:6">
-      <c r="D242" s="1" t="s">
-        <v>388</v>
+        <v>160</v>
+      </c>
+      <c r="I241" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="242" spans="3:6">
+      <c r="C242" s="1" t="s">
+        <v>407</v>
       </c>
       <c r="F242" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="243" spans="4:6">
-      <c r="D243" s="1" t="s">
-        <v>389</v>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="243" spans="2:6">
+      <c r="B243" s="1" t="s">
+        <v>408</v>
       </c>
       <c r="F243" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="244" spans="4:6">
-      <c r="D244" s="1" t="s">
-        <v>390</v>
+        <v>221</v>
+      </c>
+    </row>
+    <row r="244" spans="3:6">
+      <c r="C244" s="1" t="s">
+        <v>409</v>
       </c>
       <c r="F244" s="1" t="s">
-        <v>53</v>
+        <v>160</v>
       </c>
     </row>
     <row r="245" spans="3:6">
-      <c r="C245" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="E245" s="3" t="s">
-        <v>392</v>
+      <c r="C245" s="1" t="s">
+        <v>410</v>
       </c>
       <c r="F245" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="246" spans="3:6">
-      <c r="C246" s="2" t="s">
-        <v>393</v>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="246" spans="2:6">
+      <c r="B246" s="1" t="s">
+        <v>411</v>
       </c>
       <c r="F246" s="1" t="s">
-        <v>154</v>
+        <v>221</v>
       </c>
     </row>
     <row r="247" spans="3:6">
-      <c r="C247" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="E247" s="3" t="s">
-        <v>395</v>
+      <c r="C247" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="E247" s="2" t="s">
+        <v>413</v>
       </c>
       <c r="F247" s="1" t="s">
-        <v>396</v>
+        <v>221</v>
       </c>
     </row>
     <row r="248" spans="4:6">
       <c r="D248" s="1" t="s">
-        <v>397</v>
+        <v>414</v>
       </c>
       <c r="F248" s="1" t="s">
-        <v>398</v>
+        <v>160</v>
       </c>
     </row>
     <row r="249" spans="4:6">
       <c r="D249" s="1" t="s">
-        <v>399</v>
+        <v>415</v>
       </c>
       <c r="F249" s="1" t="s">
-        <v>398</v>
+        <v>160</v>
       </c>
     </row>
     <row r="250" spans="4:6">
       <c r="D250" s="1" t="s">
-        <v>400</v>
+        <v>416</v>
       </c>
       <c r="F250" s="1" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="251" spans="4:6">
-      <c r="D251" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="E251" s="3" t="s">
-        <v>402</v>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="251" spans="3:6">
+      <c r="C251" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="E251" s="2" t="s">
+        <v>418</v>
       </c>
       <c r="F251" s="1" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="252" spans="4:6">
-      <c r="D252" s="1" t="s">
-        <v>403</v>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="252" spans="3:6">
+      <c r="C252" s="1" t="s">
+        <v>419</v>
       </c>
       <c r="F252" s="1" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="253" spans="4:6">
-      <c r="D253" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="E253" s="3" t="s">
-        <v>405</v>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="253" spans="3:6">
+      <c r="C253" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="E253" s="2" t="s">
+        <v>421</v>
       </c>
       <c r="F253" s="1" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="254" spans="2:2">
-      <c r="B254" s="2" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="255" spans="3:6">
-      <c r="C255" s="2" t="s">
-        <v>407</v>
+        <v>422</v>
+      </c>
+    </row>
+    <row r="254" spans="4:6">
+      <c r="D254" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="F254" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="255" spans="4:6">
+      <c r="D255" s="1" t="s">
+        <v>425</v>
       </c>
       <c r="F255" s="1" t="s">
-        <v>408</v>
+        <v>424</v>
       </c>
     </row>
     <row r="256" spans="4:6">
       <c r="D256" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="E256" s="3" t="s">
-        <v>410</v>
+        <v>426</v>
       </c>
       <c r="F256" s="1" t="s">
-        <v>398</v>
+        <v>424</v>
       </c>
     </row>
     <row r="257" spans="4:6">
       <c r="D257" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="E257" s="3" t="s">
-        <v>412</v>
+        <v>427</v>
+      </c>
+      <c r="E257" s="2" t="s">
+        <v>428</v>
       </c>
       <c r="F257" s="1" t="s">
-        <v>398</v>
+        <v>424</v>
       </c>
     </row>
     <row r="258" spans="4:6">
       <c r="D258" s="1" t="s">
-        <v>413</v>
+        <v>429</v>
       </c>
       <c r="F258" s="1" t="s">
-        <v>398</v>
+        <v>424</v>
       </c>
     </row>
     <row r="259" spans="4:6">
       <c r="D259" s="1" t="s">
-        <v>414</v>
+        <v>430</v>
+      </c>
+      <c r="E259" s="2" t="s">
+        <v>431</v>
       </c>
       <c r="F259" s="1" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="260" spans="4:6">
-      <c r="D260" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="F260" s="1" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="261" spans="4:6">
-      <c r="D261" s="1" t="s">
-        <v>416</v>
+        <v>424</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1">
+      <c r="A260" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="261" spans="2:6">
+      <c r="B261" s="1" t="s">
+        <v>433</v>
       </c>
       <c r="F261" s="1" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="262" spans="4:6">
-      <c r="D262" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="E262" s="3" t="s">
-        <v>418</v>
+        <v>434</v>
+      </c>
+    </row>
+    <row r="262" spans="3:6">
+      <c r="C262" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="E262" s="2" t="s">
+        <v>436</v>
       </c>
       <c r="F262" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="263" spans="2:2">
-      <c r="B263" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="264" spans="3:3">
-      <c r="C264" s="2" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="265" spans="4:8">
-      <c r="D265" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="E265" s="3" t="s">
-        <v>422</v>
+        <v>424</v>
+      </c>
+    </row>
+    <row r="263" spans="3:6">
+      <c r="C263" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="E263" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="F263" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="264" spans="3:6">
+      <c r="C264" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="F264" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="265" spans="3:6">
+      <c r="C265" s="1" t="s">
+        <v>440</v>
       </c>
       <c r="F265" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="H265">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="266" spans="3:6">
+      <c r="C266" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="F266" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="267" spans="3:6">
+      <c r="C267" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="F267" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="268" spans="3:6">
+      <c r="C268" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="E268" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="F268" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1">
+      <c r="A269" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="270" spans="2:9">
+      <c r="B270" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="I270" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="271" spans="3:9">
+      <c r="C271" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="E271" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="F271" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="H271" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="266" spans="4:8">
-      <c r="D266" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="F266" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="H266">
+      <c r="I271" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="272" spans="3:9">
+      <c r="C272" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="F272" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="H272" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="267" spans="4:8">
-      <c r="D267" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="F267" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="H267">
+      <c r="I272" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="273" spans="3:9">
+      <c r="C273" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="F273" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="H273" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="268" spans="4:8">
-      <c r="D268" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="E268" s="3" t="s">
-        <v>427</v>
-      </c>
-      <c r="F268" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="H268">
+      <c r="I273" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="274" spans="3:9">
+      <c r="C274" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="E274" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="F274" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="H274" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="269" spans="4:8">
-      <c r="D269" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="E269" s="3" t="s">
-        <v>429</v>
-      </c>
-      <c r="F269" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="H269">
+      <c r="I274" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="275" spans="3:9">
+      <c r="C275" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="E275" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="F275" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="H275" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="270" spans="4:8">
-      <c r="D270" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="F270" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="H270">
+      <c r="I275" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="276" spans="3:8">
+      <c r="C276" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="F276" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="H276" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="271" spans="4:8">
-      <c r="D271" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="F271" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="H271">
+    <row r="277" spans="3:9">
+      <c r="C277" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="F277" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="H277" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="272" spans="3:3">
-      <c r="C272" s="2" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="273" spans="4:8">
-      <c r="D273" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="F273" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="H273">
+      <c r="I277" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="278" spans="2:9">
+      <c r="B278" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="I278" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="279" spans="3:9">
+      <c r="C279" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="F279" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="H279" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="274" spans="4:8">
-      <c r="D274" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="F274" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="H274">
+      <c r="I279" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="280" spans="3:9">
+      <c r="C280" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F280" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="H280" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="275" spans="3:6">
-      <c r="C275" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="F275" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="276" spans="3:6">
-      <c r="C276" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="F276" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="277" spans="3:6">
-      <c r="C277" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="F277" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="278" spans="3:6">
-      <c r="C278" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="F278" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="279" spans="2:5">
-      <c r="B279" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="E279" s="3" t="s">
+      <c r="I280" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="281" spans="3:9">
+      <c r="C281" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="F281" s="1"/>
+      <c r="I281" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="282" spans="3:9">
+      <c r="C282" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="F282" s="1"/>
+      <c r="I282" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="283" spans="2:9">
+      <c r="B283" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="F283" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I283" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="284" spans="2:6">
+      <c r="B284" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="F284" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="285" spans="2:9">
+      <c r="B285" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="F285" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I285" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="286" spans="2:9">
+      <c r="B286" s="1" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="280" spans="3:8">
-      <c r="C280" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="E280" s="3" t="s">
-        <v>441</v>
-      </c>
-      <c r="F280" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="H280">
+      <c r="E286" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="F286" s="1"/>
+      <c r="I286" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="287" spans="2:9">
+      <c r="B287" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="E287" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="F287" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I287" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1">
+      <c r="A288" s="1" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="289" spans="2:9">
+      <c r="B289" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="E289" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="F289" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="H289" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="281" spans="4:8">
-      <c r="D281" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="F281" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="H281">
+      <c r="I289" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="290" spans="3:9">
+      <c r="C290" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="E290" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="F290" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="H290" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="282" spans="4:8">
-      <c r="D282" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="E282" s="8" t="s">
-        <v>445</v>
-      </c>
-      <c r="F282" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="H282">
+      <c r="I290" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="291" spans="3:9">
+      <c r="C291" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="E291" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="F291" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="H291" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="283" spans="3:8">
-      <c r="C283" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="F283" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="H283">
+      <c r="I291" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="292" spans="2:9">
+      <c r="B292" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="E292" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="F292" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="H292" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="284" spans="3:8">
-      <c r="C284" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="F284" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="H284">
+      <c r="I292" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="293" spans="2:9">
+      <c r="B293" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="F293" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="H293" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="285" spans="3:8">
-      <c r="C285" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="F285" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="H285">
+      <c r="I293" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="294" spans="2:9">
+      <c r="B294" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="F294" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="H294" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="286" spans="2:6">
-      <c r="B286" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="F286" s="1"/>
-    </row>
-    <row r="287" spans="3:6">
-      <c r="C287" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="F287" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="288" spans="4:6">
-      <c r="D288" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="F288" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="289" spans="4:6">
-      <c r="D289" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="F289" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="290" spans="4:6">
-      <c r="D290" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="F290" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="291" spans="3:6">
-      <c r="C291" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="F291" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="292" spans="4:6">
-      <c r="D292" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="F292" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="293" spans="4:6">
-      <c r="D293" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="F293" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="294" spans="4:6">
-      <c r="D294" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="F294" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="295" spans="4:6">
-      <c r="D295" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="F295" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="296" spans="2:6">
-      <c r="B296" s="2" t="s">
-        <v>459</v>
+      <c r="I294" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="295" spans="2:9">
+      <c r="B295" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="F295" s="1"/>
+      <c r="I295" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="296" spans="2:9">
+      <c r="B296" s="1" t="s">
+        <v>484</v>
       </c>
       <c r="F296" s="1"/>
-    </row>
-    <row r="297" spans="3:6">
-      <c r="C297" s="2" t="s">
-        <v>460</v>
+      <c r="I296" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="297" spans="2:9">
+      <c r="B297" s="1" t="s">
+        <v>485</v>
       </c>
       <c r="F297" s="1"/>
-    </row>
-    <row r="298" spans="4:6">
-      <c r="D298" s="7" t="s">
-        <v>461</v>
-      </c>
-      <c r="E298" s="8" t="s">
-        <v>462</v>
-      </c>
-      <c r="F298" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="299" spans="4:6">
-      <c r="D299" s="7" t="s">
-        <v>463</v>
-      </c>
-      <c r="E299" s="8" t="s">
-        <v>464</v>
-      </c>
-      <c r="F299" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="300" spans="4:6">
-      <c r="D300" s="7" t="s">
-        <v>465</v>
-      </c>
-      <c r="E300" s="8" t="s">
-        <v>466</v>
-      </c>
-      <c r="F300" s="1" t="s">
-        <v>68</v>
+      <c r="I297" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="298" spans="2:9">
+      <c r="B298" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="E298" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="F298" s="1"/>
+      <c r="I298" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="299" spans="2:9">
+      <c r="B299" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="E299" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="F299" s="1"/>
+      <c r="I299" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="300" spans="2:9">
+      <c r="B300" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="E300" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="F300" s="1"/>
+      <c r="I300" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="301" spans="2:9">
+      <c r="B301" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="E301" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="F301" s="1"/>
+      <c r="I301" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6">
+      <c r="A302" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="F302" s="1"/>
+    </row>
+    <row r="303" spans="2:6">
+      <c r="B303" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="F303" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="304" spans="3:9">
+      <c r="C304" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="E304" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="F304" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I304" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="305" spans="3:9">
+      <c r="C305" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="E305" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="F305" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I305" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="306" spans="3:9">
+      <c r="C306" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="F306" s="1"/>
+      <c r="I306" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="307" spans="3:9">
+      <c r="C307" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="E307" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="F307" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="I307" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="308" spans="3:9">
+      <c r="C308" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="E308" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="F308" s="1"/>
+      <c r="I308" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="309" spans="2:6">
+      <c r="B309" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="F309" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="310" spans="3:6">
+      <c r="C310" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="F310" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="311" spans="3:6">
+      <c r="C311" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="F311" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="312" spans="3:6">
+      <c r="C312" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="F312" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="313" spans="3:6">
+      <c r="C313" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="F313" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="314" spans="6:6">
+      <c r="F314" s="1"/>
+    </row>
+    <row r="315" spans="1:6">
+      <c r="A315" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="F315" s="1"/>
+    </row>
+    <row r="316" spans="2:6">
+      <c r="B316" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="F316" s="1"/>
+    </row>
+    <row r="317" spans="3:6">
+      <c r="C317" s="8" t="s">
+        <v>518</v>
+      </c>
+      <c r="E317" s="9" t="s">
+        <v>519</v>
+      </c>
+      <c r="F317" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="318" spans="3:6">
+      <c r="C318" s="8" t="s">
+        <v>520</v>
+      </c>
+      <c r="E318" s="9" t="s">
+        <v>521</v>
+      </c>
+      <c r="F318" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="319" spans="3:6">
+      <c r="C319" s="8" t="s">
+        <v>522</v>
+      </c>
+      <c r="E319" s="9" t="s">
+        <v>523</v>
+      </c>
+      <c r="F319" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
+  <autoFilter ref="A1:I313">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
   <headerFooter/>
@@ -5269,10 +5983,10 @@
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <woProps xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <woSheetsProps>
-    <woSheetProps sheetStid="1" interlineOnOff="0" interlineColor="0" isDbSheet="0"/>
+    <woSheetProps sheetStid="1" interlineOnOff="0" interlineColor="0" isDbSheet="0" isDashBoardSheet="0"/>
   </woSheetsProps>
   <woBookProps>
-    <bookSettings isFilterShared="1" isAutoUpdatePaused="0" filterType="conn" isMergeTasksAutoUpdate="0"/>
+    <bookSettings isFilterShared="1" isAutoUpdatePaused="0" filterType="conn" isMergeTasksAutoUpdate="0" isInserPicAsAttachment="0"/>
   </woBookProps>
 </woProps>
 </file>

--- a/AutoLoader/Contents/Support/房间名称分类处理.xlsx
+++ b/AutoLoader/Contents/Support/房间名称分类处理.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA\Git\ThMEPEngine\AutoLoader\Contents\Support\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="房间名称处理" sheetId="1" r:id="rId1"/>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="469">
   <si>
     <t>一级</t>
   </si>
@@ -196,9 +201,6 @@
     <t>前室</t>
   </si>
   <si>
-    <t>楼梯间前室，封闭前室，*前室</t>
-  </si>
-  <si>
     <t>公共区域；感烟火灾探测器；疏散指示；疏散照明；必须布置广播</t>
   </si>
   <si>
@@ -1415,51 +1417,25 @@
   </si>
   <si>
     <t>滑雪，雪场</t>
+  </si>
+  <si>
+    <t>公共区域；感烟火灾探测器；感温火灾探测器；疏散照明；疏散指示；正常照明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共区域；感烟火灾探测器；疏散照明；疏散指示；正常照明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>楼梯间前室，封闭前室，*前室*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="36">
-    <numFmt numFmtId="176" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;"/>
-    <numFmt numFmtId="6" formatCode="&quot;￥&quot;#,##0;[Red]&quot;￥&quot;\-#,##0"/>
-    <numFmt numFmtId="23" formatCode="\$#,##0_);\(\$#,##0\)"/>
-    <numFmt numFmtId="177" formatCode="#\ ??/??"/>
-    <numFmt numFmtId="178" formatCode="mmmm\-yy"/>
-    <numFmt numFmtId="5" formatCode="&quot;￥&quot;#,##0;&quot;￥&quot;\-#,##0"/>
-    <numFmt numFmtId="24" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
-    <numFmt numFmtId="179" formatCode="h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="180" formatCode="mmmmm\-yy"/>
-    <numFmt numFmtId="181" formatCode="#\ ?/?"/>
-    <numFmt numFmtId="182" formatCode="\¥#,##0;[Red]\¥\-#,##0"/>
-    <numFmt numFmtId="8" formatCode="&quot;￥&quot;#,##0.00;[Red]&quot;￥&quot;\-#,##0.00"/>
-    <numFmt numFmtId="183" formatCode="[$-804]aaa"/>
-    <numFmt numFmtId="184" formatCode="[DBNum1][$-804]m&quot;月&quot;d&quot;日&quot;"/>
-    <numFmt numFmtId="185" formatCode="yy/m/d"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="186" formatCode="#\ ??"/>
-    <numFmt numFmtId="187" formatCode="[$-804]aaaa"/>
-    <numFmt numFmtId="188" formatCode="m/d"/>
-    <numFmt numFmtId="189" formatCode="mm/dd/yy"/>
-    <numFmt numFmtId="190" formatCode="[DBNum1]上午/下午h&quot;时&quot;mm&quot;分&quot;"/>
-    <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
-    <numFmt numFmtId="191" formatCode="dd\-mmm\-yy"/>
-    <numFmt numFmtId="192" formatCode="[DBNum1]h&quot;时&quot;mm&quot;分&quot;"/>
-    <numFmt numFmtId="193" formatCode="\¥#,##0.00;\¥\-#,##0.00"/>
-    <numFmt numFmtId="194" formatCode="\¥#,##0;\¥\-#,##0"/>
-    <numFmt numFmtId="195" formatCode="mmmmm"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="196" formatCode="yyyy/m/d\ h:mm\ AM/PM"/>
-    <numFmt numFmtId="197" formatCode="h:mm\ AM/PM"/>
-    <numFmt numFmtId="25" formatCode="\$#,##0.00_);\(\$#,##0.00\)"/>
-    <numFmt numFmtId="198" formatCode="\¥#,##0.00;[Red]\¥\-#,##0.00"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="199" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;"/>
-    <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1468,151 +1444,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1631,194 +1469,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1826,251 +1478,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2099,66 +1509,22 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="00336699"/>
+      <color rgb="FF336699"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2416,21 +1782,20 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H300"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A272" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="B296" sqref="B296"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="20.625" style="2" customWidth="1"/>
@@ -2442,7 +1807,7 @@
     <col min="8" max="8" width="12.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2468,12 +1833,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:6">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
@@ -2482,7 +1847,7 @@
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="3:6">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
@@ -2496,7 +1861,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="3:6">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C5" s="2" t="s">
         <v>15</v>
       </c>
@@ -2507,7 +1872,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="3:6">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C6" s="2" t="s">
         <v>17</v>
       </c>
@@ -2515,7 +1880,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="4:6">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D7" s="1" t="s">
         <v>19</v>
       </c>
@@ -2523,7 +1888,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="4:6">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D8" s="1" t="s">
         <v>21</v>
       </c>
@@ -2531,7 +1896,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="4:6">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D9" s="1" t="s">
         <v>22</v>
       </c>
@@ -2542,7 +1907,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="3:6">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C10" s="2" t="s">
         <v>24</v>
       </c>
@@ -2556,7 +1921,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="3:6">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C11" s="2" t="s">
         <v>26</v>
       </c>
@@ -2570,7 +1935,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="3:6">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C12" s="2" t="s">
         <v>29</v>
       </c>
@@ -2581,7 +1946,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="3:6">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C13" s="2" t="s">
         <v>31</v>
       </c>
@@ -2589,7 +1954,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="3:6">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C14" s="2" t="s">
         <v>32</v>
       </c>
@@ -2597,7 +1962,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="3:6">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C15" s="2" t="s">
         <v>33</v>
       </c>
@@ -2605,7 +1970,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="3:6">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C16" s="5" t="s">
         <v>34</v>
       </c>
@@ -2616,7 +1981,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="3:6">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C17" s="2" t="s">
         <v>36</v>
       </c>
@@ -2627,7 +1992,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="3:6">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C18" s="2" t="s">
         <v>38</v>
       </c>
@@ -2638,7 +2003,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="4:6">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D19" s="1" t="s">
         <v>40</v>
       </c>
@@ -2646,7 +2011,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="4:6">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D20" s="1" t="s">
         <v>41</v>
       </c>
@@ -2654,7 +2019,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="3:6">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C21" s="2" t="s">
         <v>42</v>
       </c>
@@ -2662,7 +2027,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="3:6">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C22" s="2" t="s">
         <v>43</v>
       </c>
@@ -2673,7 +2038,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="3:6">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C23" s="2" t="s">
         <v>45</v>
       </c>
@@ -2684,13 +2049,13 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="2:6">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
         <v>48</v>
       </c>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="3:6">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C25" s="2" t="s">
         <v>49</v>
       </c>
@@ -2701,7 +2066,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="4:6">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D26" s="1" t="s">
         <v>52</v>
       </c>
@@ -2709,7 +2074,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="4:6">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D27" s="1" t="s">
         <v>54</v>
       </c>
@@ -2720,7 +2085,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="4:6">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D28" s="1" t="s">
         <v>56</v>
       </c>
@@ -2731,7 +2096,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="4:6">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D29" s="1" t="s">
         <v>58</v>
       </c>
@@ -2739,2534 +2104,2543 @@
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="3:6">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C30" s="2" t="s">
         <v>59</v>
       </c>
       <c r="E30" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F30" s="1" t="s">
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D31" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="31" spans="4:6">
-      <c r="D31" s="1" t="s">
+      <c r="E31" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>63</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="4:6">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D32" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E32" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="4:6">
+    <row r="33" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D33" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E33" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="F33" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F33" s="1" t="s">
+    </row>
+    <row r="34" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D34" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="34" spans="4:6">
-      <c r="D34" s="1" t="s">
+      <c r="E34" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="F34" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D35" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F34" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="35" spans="4:6">
-      <c r="D35" s="1" t="s">
+      <c r="E35" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="F35" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C36" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F35" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="36" spans="3:6">
-      <c r="C36" s="2" t="s">
+      <c r="E36" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="F36" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D37" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="37" spans="4:6">
-      <c r="D37" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="38" spans="4:6">
+    <row r="38" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D38" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E38" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="F38" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C39" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="F38" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="39" spans="3:6">
-      <c r="C39" s="2" t="s">
+      <c r="F39" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D40" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F39" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="40" spans="4:6">
-      <c r="D40" s="1" t="s">
+      <c r="F40" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D41" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="F40" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="41" spans="4:6">
-      <c r="D41" s="1" t="s">
+      <c r="F41" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="42" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C42" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F41" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="42" spans="3:6">
-      <c r="C42" s="2" t="s">
+      <c r="F42" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="F42" s="1" t="s">
+    </row>
+    <row r="43" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C43" s="2" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="43" spans="3:6">
-      <c r="C43" s="2" t="s">
+      <c r="F43" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="44" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C44" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="F43" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="44" spans="3:6">
-      <c r="C44" s="2" t="s">
+      <c r="E44" s="3" t="s">
         <v>84</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>85</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="45" spans="3:6">
+    <row r="45" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C45" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="46" spans="3:6">
+    <row r="46" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C46" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E46" s="3" t="s">
         <v>87</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>88</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="47" spans="3:6">
+    <row r="47" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C47" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E47" s="3" t="s">
         <v>89</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>90</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="48" spans="3:6">
+    <row r="48" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C48" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C49" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="F48" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="49" spans="3:6">
-      <c r="C49" s="2" t="s">
+      <c r="E49" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="E49" s="3" t="s">
+      <c r="F49" s="1"/>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D50" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F49" s="1"/>
-    </row>
-    <row r="50" spans="4:6">
-      <c r="D50" s="1" t="s">
+      <c r="E50" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>95</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="51" spans="4:6">
+    <row r="51" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D51" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E51" s="3" t="s">
         <v>96</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>97</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="52" spans="4:6">
+    <row r="52" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D52" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D53" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="F52" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="53" spans="4:6">
-      <c r="D53" s="1" t="s">
+      <c r="E53" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="E53" s="1" t="s">
+      <c r="F53" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B54" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="F53" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="54" spans="2:6">
-      <c r="B54" s="4" t="s">
+      <c r="F54" s="1"/>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C55" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="F54" s="1"/>
-    </row>
-    <row r="55" spans="3:6">
-      <c r="C55" s="2" t="s">
+      <c r="E55" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="E55" s="3" t="s">
+      <c r="F55" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F55" s="1" t="s">
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D56" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="56" spans="4:6">
-      <c r="D56" s="1" t="s">
+      <c r="E56" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="E56" s="3" t="s">
+      <c r="F56" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D57" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="F56" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="57" spans="4:6">
-      <c r="D57" s="1" t="s">
+      <c r="E57" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E57" s="3" t="s">
+      <c r="F57" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D58" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="F57" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="58" spans="4:6">
-      <c r="D58" s="1" t="s">
+      <c r="E58" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="E58" s="3" t="s">
+      <c r="F58" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D59" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="F58" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="59" spans="4:6">
-      <c r="D59" s="1" t="s">
+      <c r="E59" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="E59" s="3" t="s">
+      <c r="F59" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D60" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="F59" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="60" spans="4:6">
-      <c r="D60" s="1" t="s">
+      <c r="F60" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D61" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="F60" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="61" spans="4:6">
-      <c r="D61" s="1" t="s">
+      <c r="F61" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D62" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="F61" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="62" spans="4:6">
-      <c r="D62" s="1" t="s">
+      <c r="F62" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D63" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="F62" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="63" spans="4:6">
-      <c r="D63" s="1" t="s">
+      <c r="F63" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D64" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="F63" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="64" spans="4:6">
-      <c r="D64" s="1" t="s">
+      <c r="F64" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D65" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="F64" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="65" spans="4:6">
-      <c r="D65" s="1" t="s">
+      <c r="F65" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D66" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F65" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="66" spans="4:6">
-      <c r="D66" s="1" t="s">
+      <c r="E66" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="E66" s="3" t="s">
+      <c r="F66" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D67" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="F66" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="67" spans="4:6">
-      <c r="D67" s="1" t="s">
+      <c r="E67" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="E67" s="3" t="s">
+      <c r="F67" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C68" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="F67" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="68" spans="3:6">
-      <c r="C68" s="2" t="s">
+      <c r="E68" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="E68" s="3" t="s">
+      <c r="F68" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="F68" s="1" t="s">
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C69" s="2" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="69" spans="3:6">
-      <c r="C69" s="2" t="s">
+      <c r="E69" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="E69" s="3" t="s">
+      <c r="F69" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C70" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="F69" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="70" spans="3:6">
-      <c r="C70" s="2" t="s">
+      <c r="F70" s="1"/>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D71" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="F70" s="1"/>
-    </row>
-    <row r="71" spans="4:6">
-      <c r="D71" s="6" t="s">
+      <c r="E71" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="E71" s="3" t="s">
+      <c r="F71" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="F71" s="1" t="s">
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D72" s="1" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="72" spans="4:6">
-      <c r="D72" s="1" t="s">
+      <c r="E72" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="E72" s="3" t="s">
+      <c r="F72" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="F72" s="1" t="s">
+    </row>
+    <row r="73" spans="2:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="D73" s="1" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="73" ht="28.5" spans="4:6">
-      <c r="D73" s="1" t="s">
+      <c r="E73" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="E73" s="3" t="s">
+      <c r="F73" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D74" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="F73" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="74" spans="4:6">
-      <c r="D74" s="1" t="s">
+      <c r="E74" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="E74" s="3" t="s">
+      <c r="F74" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="F74" s="1" t="s">
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D75" s="1" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="75" spans="4:6">
-      <c r="D75" s="1" t="s">
+      <c r="E75" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="E75" s="3" t="s">
+      <c r="F75" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C76" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="F75" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="76" spans="3:6">
-      <c r="C76" s="2" t="s">
+      <c r="E76" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="E76" s="3" t="s">
+      <c r="F76" s="1"/>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D77" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="F76" s="1"/>
-    </row>
-    <row r="77" spans="4:6">
-      <c r="D77" s="1" t="s">
+      <c r="E77" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="E77" s="3" t="s">
+      <c r="F77" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D78" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="F77" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="78" spans="4:6">
-      <c r="D78" s="1" t="s">
+      <c r="E78" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="E78" s="3" t="s">
+      <c r="F78" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="79" spans="2:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="D79" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="F78" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="79" ht="28.5" spans="4:6">
-      <c r="D79" s="1" t="s">
+      <c r="E79" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="E79" s="3" t="s">
+      <c r="F79" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B80" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="F79" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="80" spans="2:6">
-      <c r="B80" s="2" t="s">
+      <c r="E80" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="E80" s="3" t="s">
+      <c r="F80" s="1"/>
+    </row>
+    <row r="81" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C81" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="F80" s="1"/>
-    </row>
-    <row r="81" spans="3:6">
-      <c r="C81" s="2" t="s">
+      <c r="E81" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="E81" s="3" t="s">
-        <v>153</v>
-      </c>
       <c r="F81" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="82" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D82" s="1" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="82" spans="4:6">
-      <c r="D82" s="1" t="s">
+      <c r="F82" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="83" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D83" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F82" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="83" spans="4:6">
-      <c r="D83" s="1" t="s">
+      <c r="E83" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="E83" s="3" t="s">
+      <c r="F83" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="84" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D84" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="F83" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="84" spans="4:6">
-      <c r="D84" s="1" t="s">
+      <c r="F84" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="85" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D85" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="F84" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="85" spans="4:6">
-      <c r="D85" s="1" t="s">
+      <c r="F85" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="86" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C86" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="F85" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="86" spans="3:6">
-      <c r="C86" s="2" t="s">
+      <c r="F86" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="F86" s="1" t="s">
+    </row>
+    <row r="87" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D87" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="87" spans="4:6">
-      <c r="D87" s="1" t="s">
+      <c r="F87" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="88" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C88" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="F87" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="88" spans="3:6">
-      <c r="C88" s="2" t="s">
+      <c r="E88" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="E88" s="3" t="s">
+      <c r="F88" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="89" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C89" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="F88" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="89" spans="3:6">
-      <c r="C89" s="2" t="s">
+      <c r="E89" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="E89" s="3" t="s">
+      <c r="F89" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="90" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C90" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="F89" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="90" spans="3:6">
-      <c r="C90" s="2" t="s">
+      <c r="E90" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="E90" s="3" t="s">
+      <c r="F90" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="91" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D91" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="F90" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="91" spans="4:6">
-      <c r="D91" s="1" t="s">
+      <c r="F91" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="92" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C92" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="F91" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="92" spans="3:6">
-      <c r="C92" s="2" t="s">
+      <c r="F92" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="93" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C93" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="F92" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="93" spans="3:6">
-      <c r="C93" s="2" t="s">
+      <c r="F93" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="94" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C94" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="F93" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="94" spans="3:6">
-      <c r="C94" s="2" t="s">
+      <c r="F94" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="95" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C95" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="F94" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="95" spans="3:6">
-      <c r="C95" s="2" t="s">
+      <c r="F95" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="96" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C96" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="F95" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="96" spans="3:6">
-      <c r="C96" s="2" t="s">
+      <c r="F96" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="97" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C97" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="F96" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="97" spans="3:6">
-      <c r="C97" s="2" t="s">
+      <c r="F97" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="98" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C98" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="F97" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="98" spans="3:6">
-      <c r="C98" s="2" t="s">
+      <c r="F98" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="99" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C99" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="F98" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="99" spans="3:6">
-      <c r="C99" s="2" t="s">
+      <c r="E99" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="E99" s="3" t="s">
+      <c r="F99" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="100" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C100" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="F99" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="100" spans="3:6">
-      <c r="C100" s="2" t="s">
+      <c r="E100" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="E100" s="3" t="s">
+      <c r="F100" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="101" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D101" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="F100" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="101" spans="4:6">
-      <c r="D101" s="1" t="s">
+      <c r="F101" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="102" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C102" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="F101" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="102" spans="3:6">
-      <c r="C102" s="2" t="s">
+      <c r="E102" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="E102" s="3" t="s">
+      <c r="F102" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="103" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D103" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="F102" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="103" spans="4:6">
-      <c r="D103" s="1" t="s">
+      <c r="F103" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="104" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D104" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="F103" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="104" spans="4:6">
-      <c r="D104" s="1" t="s">
+      <c r="F104" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="105" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C105" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="F104" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="105" spans="3:6">
-      <c r="C105" s="2" t="s">
+      <c r="F105" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="106" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D106" s="1" t="s">
         <v>186</v>
-      </c>
-      <c r="F105" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="106" spans="4:6">
-      <c r="D106" s="1" t="s">
-        <v>187</v>
       </c>
       <c r="F106" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="107" spans="4:6">
+    <row r="107" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D107" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F107" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="108" spans="4:6">
+    <row r="108" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D108" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F108" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="109" spans="4:6">
+    <row r="109" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D109" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F109" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="110" spans="2:6">
+    <row r="110" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B110" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F110" s="1"/>
+    </row>
+    <row r="111" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C111" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="F110" s="1"/>
-    </row>
-    <row r="111" spans="3:6">
-      <c r="C111" s="2" t="s">
+      <c r="F111" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="F111" s="1" t="s">
+    </row>
+    <row r="112" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C112" s="2" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="112" spans="3:6">
-      <c r="C112" s="2" t="s">
+      <c r="F112" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="113" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C113" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="F112" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="113" spans="3:6">
-      <c r="C113" s="2" t="s">
+      <c r="F113" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="114" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B114" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="F113" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="114" spans="2:6">
-      <c r="B114" s="2" t="s">
+      <c r="F114" s="1"/>
+    </row>
+    <row r="115" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C115" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="F114" s="1"/>
-    </row>
-    <row r="115" spans="3:6">
-      <c r="C115" s="2" t="s">
+      <c r="F115" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="116" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C116" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="F115" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="116" spans="3:6">
-      <c r="C116" s="2" t="s">
+      <c r="F116" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="117" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B117" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="F116" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="117" spans="2:6">
-      <c r="B117" s="4" t="s">
+      <c r="F117" s="1"/>
+    </row>
+    <row r="118" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C118" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="F117" s="1"/>
-    </row>
-    <row r="118" spans="3:6">
-      <c r="C118" s="2" t="s">
+      <c r="F118" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="119" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C119" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="F118" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="119" spans="3:6">
-      <c r="C119" s="2" t="s">
+      <c r="F119" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="120" spans="2:6" ht="57" x14ac:dyDescent="0.2">
+      <c r="D120" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="F119" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="120" ht="57" spans="4:6">
-      <c r="D120" s="1" t="s">
+      <c r="E120" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="E120" s="3" t="s">
+      <c r="F120" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="121" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C121" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F121" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="F120" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="121" spans="3:6">
-      <c r="C121" s="2" t="s">
+    </row>
+    <row r="122" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C122" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="F121" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="122" spans="3:6">
-      <c r="C122" s="2" t="s">
+      <c r="E122" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="E122" s="3" t="s">
+      <c r="F122" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="123" spans="2:6" ht="57" x14ac:dyDescent="0.2">
+      <c r="C123" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="F122" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="123" ht="57" spans="3:6">
-      <c r="C123" s="2" t="s">
+      <c r="E123" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="E123" s="3" t="s">
+      <c r="F123" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="124" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C124" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="F123" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="124" spans="3:6">
-      <c r="C124" s="2" t="s">
+      <c r="E124" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="E124" s="3" t="s">
+      <c r="F124" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="125" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C125" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="F124" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="125" spans="3:6">
-      <c r="C125" s="2" t="s">
+      <c r="F125" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="F125" s="1" t="s">
+    </row>
+    <row r="126" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D126" s="1" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="126" spans="4:6">
-      <c r="D126" s="1" t="s">
+      <c r="E126" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="E126" s="3" t="s">
+      <c r="F126" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="127" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D127" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F126" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="127" spans="4:6">
-      <c r="D127" s="1" t="s">
+      <c r="E127" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="E127" s="3" t="s">
+      <c r="F127" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="128" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D128" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="F127" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="128" spans="4:6">
-      <c r="D128" s="1" t="s">
+      <c r="E128" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="E128" s="3" t="s">
+      <c r="F128" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A129" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="F128" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="129" ht="28.5" spans="1:6">
-      <c r="A129" s="2" t="s">
+      <c r="E129" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="E129" s="3" t="s">
+      <c r="F129" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="F129" s="1" t="s">
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B130" s="4" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="130" spans="2:6">
-      <c r="B130" s="4" t="s">
+      <c r="F130" s="1"/>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C131" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="F130" s="1"/>
-    </row>
-    <row r="131" spans="3:6">
-      <c r="C131" s="2" t="s">
+      <c r="E131" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="E131" s="3" t="s">
+      <c r="F131" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C132" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="F131" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="132" spans="3:6">
-      <c r="C132" s="2" t="s">
+      <c r="F132" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D133" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="F132" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="133" spans="4:6">
-      <c r="D133" s="1" t="s">
+      <c r="E133" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="E133" s="3" t="s">
+      <c r="F133" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D134" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E134" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="F134" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="F133" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="134" spans="4:6">
-      <c r="D134" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="E134" s="3" t="s">
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C135" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="F134" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="135" spans="3:6">
-      <c r="C135" s="2" t="s">
+      <c r="E135" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="E135" s="3" t="s">
+      <c r="F135" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D136" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="F135" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="136" spans="4:6">
-      <c r="D136" s="1" t="s">
+      <c r="F136" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C137" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="F136" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="137" spans="3:6">
-      <c r="C137" s="2" t="s">
+      <c r="F137" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D138" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="F137" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="138" spans="4:6">
-      <c r="D138" s="1" t="s">
+      <c r="E138" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="E138" s="3" t="s">
+      <c r="F138" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="C139" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="F138" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="139" ht="42.75" spans="3:6">
-      <c r="C139" s="2" t="s">
+      <c r="E139" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="E139" s="3" t="s">
+      <c r="F139" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C140" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="F139" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="140" spans="3:6">
-      <c r="C140" s="2" t="s">
+      <c r="F140" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C141" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="F140" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="141" spans="3:6">
-      <c r="C141" s="2" t="s">
+      <c r="F141" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B142" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="F141" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="142" spans="2:6">
-      <c r="B142" s="4" t="s">
+      <c r="E142" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="E142" s="3" t="s">
+      <c r="F142" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C143" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="F142" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="143" spans="3:6">
-      <c r="C143" s="2" t="s">
+      <c r="E143" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="E143" s="3" t="s">
+      <c r="F143" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C144" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="F143" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="144" spans="3:6">
-      <c r="C144" s="2" t="s">
+      <c r="F144" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="145" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C145" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="F144" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="145" spans="3:6">
-      <c r="C145" s="2" t="s">
+      <c r="E145" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="E145" s="3" t="s">
+      <c r="F145" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="146" spans="2:6" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="C146" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="F145" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="146" ht="42.75" spans="3:6">
-      <c r="C146" s="2" t="s">
+      <c r="E146" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="E146" s="3" t="s">
+      <c r="F146" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="147" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C147" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="F146" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="147" spans="3:6">
-      <c r="C147" s="2" t="s">
+      <c r="F147" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="148" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C148" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="F147" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="148" spans="3:6">
-      <c r="C148" s="2" t="s">
+      <c r="E148" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="E148" s="3" t="s">
+      <c r="F148" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="149" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B149" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="F148" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="149" spans="2:6">
-      <c r="B149" s="2" t="s">
+      <c r="F149" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="150" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B150" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="F149" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="150" spans="2:6">
-      <c r="B150" s="2" t="s">
+      <c r="F150" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="151" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B151" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="F150" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="151" spans="2:6">
-      <c r="B151" s="2" t="s">
+      <c r="F151" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="152" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B152" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="F151" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="152" spans="2:6">
-      <c r="B152" s="2" t="s">
+      <c r="E152" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="E152" s="3" t="s">
+      <c r="F152" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="153" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B153" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="F152" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="153" spans="2:6">
-      <c r="B153" s="2" t="s">
+      <c r="F153" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="154" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C154" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="F153" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="154" spans="3:6">
-      <c r="C154" s="2" t="s">
+      <c r="E154" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="E154" s="3" t="s">
+      <c r="F154" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="155" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D155" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="F154" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="155" spans="4:6">
-      <c r="D155" s="1" t="s">
+      <c r="E155" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="E155" s="3" t="s">
+      <c r="F155" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="156" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D156" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="F155" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="156" spans="4:6">
-      <c r="D156" s="1" t="s">
+      <c r="E156" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="E156" s="3" t="s">
+      <c r="F156" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="157" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D157" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="F156" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="157" spans="4:6">
-      <c r="D157" s="1" t="s">
+      <c r="F157" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="158" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D158" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="F157" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="158" spans="4:6">
-      <c r="D158" s="1" t="s">
+      <c r="F158" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="159" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D159" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="F158" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="159" spans="4:6">
-      <c r="D159" s="1" t="s">
+      <c r="F159" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="160" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C160" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="F159" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="160" spans="3:6">
-      <c r="C160" s="2" t="s">
+      <c r="F160" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="161" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D161" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="F160" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="161" spans="4:6">
-      <c r="D161" s="1" t="s">
+      <c r="F161" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="162" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D162" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="F161" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="162" spans="4:6">
-      <c r="D162" s="1" t="s">
+      <c r="F162" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="163" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D163" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="F162" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="163" spans="4:6">
-      <c r="D163" s="1" t="s">
+      <c r="F163" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="164" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D164" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="F163" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="164" spans="4:6">
-      <c r="D164" s="1" t="s">
+      <c r="F164" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="165" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C165" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="F164" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="165" spans="3:6">
-      <c r="C165" s="2" t="s">
+      <c r="E165" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="E165" s="3" t="s">
+      <c r="F165" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="166" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C166" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="F165" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="166" spans="3:6">
-      <c r="C166" s="2" t="s">
+      <c r="E166" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="E166" s="3" t="s">
+      <c r="F166" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="167" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C167" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="F166" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="167" spans="3:6">
-      <c r="C167" s="2" t="s">
+      <c r="E167" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="E167" s="3" t="s">
+      <c r="F167" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="168" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B168" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="F167" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="168" spans="2:6">
-      <c r="B168" s="2" t="s">
+      <c r="F168" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="169" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C169" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="F168" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="169" spans="3:6">
-      <c r="C169" s="2" t="s">
+      <c r="F169" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="170" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C170" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="F169" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="170" spans="3:6">
-      <c r="C170" s="2" t="s">
+      <c r="F170" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="171" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C171" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="F170" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="171" spans="3:6">
-      <c r="C171" s="2" t="s">
+      <c r="F171" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="172" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C172" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="F171" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="172" spans="3:6">
-      <c r="C172" s="2" t="s">
+      <c r="F172" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="173" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C173" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="F172" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="173" spans="3:6">
-      <c r="C173" s="2" t="s">
+      <c r="F173" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="174" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C174" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="F173" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="174" spans="3:6">
-      <c r="C174" s="2" t="s">
+      <c r="F174" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="175" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C175" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="F174" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="175" spans="3:6">
-      <c r="C175" s="2" t="s">
+      <c r="F175" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="176" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D176" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="F175" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="176" spans="4:6">
-      <c r="D176" s="1" t="s">
+      <c r="F176" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="177" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D177" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="F176" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="177" spans="4:6">
-      <c r="D177" s="1" t="s">
+      <c r="F177" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="178" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D178" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="F177" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="178" spans="4:6">
-      <c r="D178" s="1" t="s">
+      <c r="F178" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="179" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C179" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="F178" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="179" spans="3:6">
-      <c r="C179" s="2" t="s">
+      <c r="F179" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="180" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D180" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="F179" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="180" spans="4:6">
-      <c r="D180" s="1" t="s">
+      <c r="F180" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="181" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B181" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="F180" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="181" spans="2:6">
-      <c r="B181" s="2" t="s">
+      <c r="F181" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="F181" s="1" t="s">
+    </row>
+    <row r="182" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C182" s="2" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="182" spans="3:6">
-      <c r="C182" s="2" t="s">
+      <c r="F182" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="F182" s="1" t="s">
+    </row>
+    <row r="183" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C183" s="2" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="183" spans="3:6">
-      <c r="C183" s="2" t="s">
+      <c r="F183" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="184" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C184" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="F183" s="1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="184" spans="3:6">
-      <c r="C184" s="2" t="s">
+      <c r="E184" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="E184" s="3" t="s">
+      <c r="F184" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="185" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C185" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="F184" s="1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="185" spans="3:6">
-      <c r="C185" s="2" t="s">
+      <c r="F185" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="186" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C186" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="F185" s="1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="186" spans="3:6">
-      <c r="C186" s="2" t="s">
+      <c r="F186" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="187" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C187" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="F186" s="1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="187" spans="3:6">
-      <c r="C187" s="2" t="s">
+      <c r="F187" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="188" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C188" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="F187" s="1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="188" spans="3:6">
-      <c r="C188" s="2" t="s">
+      <c r="F188" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="189" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B189" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="F188" s="1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="189" spans="2:6">
-      <c r="B189" s="2" t="s">
+      <c r="F189" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="190" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C190" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="F189" s="1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="190" spans="3:6">
-      <c r="C190" s="2" t="s">
+      <c r="F190" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="191" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C191" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="F190" s="1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="191" spans="3:6">
-      <c r="C191" s="2" t="s">
+      <c r="F191" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="192" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C192" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="F191" s="1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="192" spans="3:6">
-      <c r="C192" s="2" t="s">
+      <c r="F192" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="193" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C193" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="F192" s="1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="193" spans="3:6">
-      <c r="C193" s="2" t="s">
+      <c r="E193" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="E193" s="3" t="s">
+      <c r="F193" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="194" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B194" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="F193" s="1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="194" spans="2:6">
-      <c r="B194" s="2" t="s">
+      <c r="F194" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="195" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C195" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="F194" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="195" spans="3:6">
-      <c r="C195" s="2" t="s">
+      <c r="E195" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="E195" s="3" t="s">
+      <c r="F195" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="196" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C196" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="F195" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="196" spans="3:6">
-      <c r="C196" s="2" t="s">
+      <c r="E196" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="E196" s="3" t="s">
+      <c r="F196" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="197" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C197" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="F196" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="197" spans="3:6">
-      <c r="C197" s="2" t="s">
+      <c r="E197" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="E197" s="3" t="s">
+      <c r="F197" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="198" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D198" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="F197" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="198" spans="4:6">
-      <c r="D198" s="1" t="s">
+      <c r="E198" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="E198" s="3" t="s">
+      <c r="F198" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="199" spans="2:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="D199" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="F198" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="199" ht="28.5" spans="4:6">
-      <c r="D199" s="1" t="s">
+      <c r="E199" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="E199" s="3" t="s">
+      <c r="F199" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="200" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D200" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="F199" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="200" spans="4:6">
-      <c r="D200" s="1" t="s">
+      <c r="E200" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="E200" s="3" t="s">
+      <c r="F200" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="201" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C201" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="F200" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="201" spans="3:6">
-      <c r="C201" s="2" t="s">
+      <c r="E201" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="E201" s="3" t="s">
+      <c r="F201" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="202" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C202" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="F201" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="202" spans="3:6">
-      <c r="C202" s="2" t="s">
+      <c r="E202" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="E202" s="3" t="s">
+      <c r="F202" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="203" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B203" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="F202" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="203" spans="2:6">
-      <c r="B203" s="2" t="s">
+      <c r="E203" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="E203" s="3" t="s">
+      <c r="F203" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="204" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D204" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="F203" s="1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="204" spans="4:6">
-      <c r="D204" s="1" t="s">
+      <c r="F204" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="205" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D205" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="F204" s="1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="205" spans="4:6">
-      <c r="D205" s="1" t="s">
+      <c r="F205" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="206" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C206" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="F205" s="1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="206" spans="3:6">
-      <c r="C206" s="2" t="s">
+      <c r="E206" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="E206" s="3" t="s">
+      <c r="F206" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="207" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C207" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="F206" s="1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="207" spans="3:6">
-      <c r="C207" s="2" t="s">
+      <c r="E207" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="E207" s="3" t="s">
+      <c r="F207" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="208" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C208" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="F207" s="1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="208" spans="3:6">
-      <c r="C208" s="2" t="s">
+      <c r="E208" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="E208" s="3" t="s">
+      <c r="F208" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B209" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="F208" s="1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="209" spans="2:6">
-      <c r="B209" s="2" t="s">
+      <c r="E209" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="E209" s="3" t="s">
+      <c r="F209" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B210" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="F209" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="210" spans="2:6">
-      <c r="B210" s="2" t="s">
+      <c r="E210" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="E210" s="3" t="s">
+      <c r="F210" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C211" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="F210" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="211" spans="3:6">
-      <c r="C211" s="2" t="s">
+      <c r="F211" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C212" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="F211" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="212" spans="3:6">
-      <c r="C212" s="2" t="s">
+      <c r="E212" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="E212" s="3" t="s">
+      <c r="F212" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C213" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="F212" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="213" spans="3:6">
-      <c r="C213" s="2" t="s">
+      <c r="E213" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="E213" s="3" t="s">
+      <c r="F213" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C214" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="F213" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="214" spans="3:6">
-      <c r="C214" s="2" t="s">
+      <c r="E214" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="E214" s="3" t="s">
+      <c r="F214" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C215" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="F214" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="215" spans="3:6">
-      <c r="C215" s="2" t="s">
+      <c r="E215" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="E215" s="3" t="s">
+      <c r="F215" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D216" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="F215" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="216" spans="4:6">
-      <c r="D216" s="1" t="s">
+      <c r="E216" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="E216" s="3" t="s">
+      <c r="F216" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D217" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="F216" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="217" spans="4:6">
-      <c r="D217" s="1" t="s">
+      <c r="E217" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="E217" s="3" t="s">
+      <c r="F217" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D218" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="F217" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="218" spans="4:6">
-      <c r="D218" s="1" t="s">
+      <c r="E218" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="E218" s="3" t="s">
+      <c r="F218" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D219" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="F218" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="219" spans="4:6">
-      <c r="D219" s="1" t="s">
+      <c r="E219" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="E219" s="3" t="s">
+      <c r="F219" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A220" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="F219" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6">
-      <c r="A220" s="1" t="s">
+      <c r="F220" s="1"/>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B221" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="F220" s="1"/>
-    </row>
-    <row r="221" spans="2:6">
-      <c r="B221" s="2" t="s">
+      <c r="F221" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C222" s="2" t="s">
         <v>359</v>
-      </c>
-      <c r="F221" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="222" spans="3:6">
-      <c r="C222" s="2" t="s">
-        <v>360</v>
       </c>
       <c r="F222" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="223" spans="3:6">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C223" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F223" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="224" spans="2:6">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B224" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="E224" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="E224" s="3" t="s">
+      <c r="F224" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C225" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="F224" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="225" spans="3:6">
-      <c r="C225" s="2" t="s">
+      <c r="F225" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="F225" s="1" t="s">
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C226" s="2" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="226" spans="3:6">
-      <c r="C226" s="2" t="s">
+      <c r="E226" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="E226" s="3" t="s">
+      <c r="F226" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B227" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="F226" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="227" spans="2:6">
-      <c r="B227" s="2" t="s">
+      <c r="E227" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="E227" s="3" t="s">
+      <c r="F227" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C228" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="F227" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="228" spans="3:6">
-      <c r="C228" s="2" t="s">
+      <c r="F228" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C229" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="F228" s="1" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="229" spans="3:6">
-      <c r="C229" s="2" t="s">
+      <c r="F229" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C230" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="F229" s="1" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="230" spans="3:6">
-      <c r="C230" s="2" t="s">
+      <c r="E230" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="E230" s="3" t="s">
+      <c r="F230" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A231" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="F230" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="231" spans="1:6">
-      <c r="A231" s="1" t="s">
+      <c r="F231" s="1"/>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B232" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="F231" s="1"/>
-    </row>
-    <row r="232" spans="2:6">
-      <c r="B232" s="2" t="s">
+      <c r="E232" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="E232" s="3" t="s">
+      <c r="F232" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C233" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="F232" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="233" spans="3:6">
-      <c r="C233" s="2" t="s">
+      <c r="F233" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C234" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="F233" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="234" spans="3:6">
-      <c r="C234" s="2" t="s">
+      <c r="E234" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="E234" s="3" t="s">
+      <c r="F234" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C235" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="F234" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="235" spans="3:6">
-      <c r="C235" s="2" t="s">
+      <c r="F235" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C236" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="F235" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="236" spans="3:6">
-      <c r="C236" s="2" t="s">
+      <c r="F236" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B237" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="F236" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="237" spans="2:6">
-      <c r="B237" s="2" t="s">
+      <c r="F237" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C238" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="F237" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="238" spans="3:6">
-      <c r="C238" s="2" t="s">
+      <c r="F238" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C239" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="F238" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="239" spans="3:6">
-      <c r="C239" s="2" t="s">
+      <c r="F239" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B240" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="F239" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="240" spans="2:6">
-      <c r="B240" s="2" t="s">
+      <c r="F240" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="241" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C241" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="F240" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="241" spans="3:6">
-      <c r="C241" s="2" t="s">
+      <c r="E241" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="E241" s="3" t="s">
+      <c r="F241" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="242" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D242" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="F241" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="242" spans="4:6">
-      <c r="D242" s="1" t="s">
+      <c r="F242" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="243" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D243" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="F242" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="243" spans="4:6">
-      <c r="D243" s="1" t="s">
+      <c r="F243" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="244" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D244" s="1" t="s">
         <v>389</v>
-      </c>
-      <c r="F243" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="244" spans="4:6">
-      <c r="D244" s="1" t="s">
-        <v>390</v>
       </c>
       <c r="F244" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="245" spans="3:6">
+    <row r="245" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C245" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="E245" s="3" t="s">
         <v>391</v>
-      </c>
-      <c r="E245" s="3" t="s">
-        <v>392</v>
       </c>
       <c r="F245" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="246" spans="3:6">
+    <row r="246" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C246" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="F246" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="247" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C247" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="F246" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="247" spans="3:6">
-      <c r="C247" s="2" t="s">
+      <c r="E247" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="E247" s="3" t="s">
+      <c r="F247" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="F247" s="1" t="s">
+    </row>
+    <row r="248" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D248" s="1" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="248" spans="4:6">
-      <c r="D248" s="1" t="s">
+      <c r="F248" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="F248" s="1" t="s">
+    </row>
+    <row r="249" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D249" s="1" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="249" spans="4:6">
-      <c r="D249" s="1" t="s">
+      <c r="F249" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="250" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D250" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="F249" s="1" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="250" spans="4:6">
-      <c r="D250" s="1" t="s">
+      <c r="F250" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="251" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D251" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="F250" s="1" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="251" spans="4:6">
-      <c r="D251" s="1" t="s">
+      <c r="E251" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="E251" s="3" t="s">
+      <c r="F251" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="252" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D252" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="F251" s="1" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="252" spans="4:6">
-      <c r="D252" s="1" t="s">
+      <c r="F252" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="253" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D253" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="F252" s="1" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="253" spans="4:6">
-      <c r="D253" s="1" t="s">
+      <c r="E253" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="E253" s="3" t="s">
+      <c r="F253" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="254" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B254" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="F253" s="1" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="254" spans="2:2">
-      <c r="B254" s="2" t="s">
+    </row>
+    <row r="255" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C255" s="2" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="255" spans="3:6">
-      <c r="C255" s="2" t="s">
+      <c r="F255" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="F255" s="1" t="s">
+    </row>
+    <row r="256" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D256" s="1" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="256" spans="4:6">
-      <c r="D256" s="1" t="s">
+      <c r="E256" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="E256" s="3" t="s">
+      <c r="F256" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="257" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D257" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="F256" s="1" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="257" spans="4:6">
-      <c r="D257" s="1" t="s">
+      <c r="E257" s="3" t="s">
         <v>411</v>
       </c>
-      <c r="E257" s="3" t="s">
+      <c r="F257" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="258" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D258" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="F257" s="1" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="258" spans="4:6">
-      <c r="D258" s="1" t="s">
+      <c r="F258" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="259" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D259" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="F258" s="1" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="259" spans="4:6">
-      <c r="D259" s="1" t="s">
+      <c r="F259" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="260" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D260" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="F259" s="1" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="260" spans="4:6">
-      <c r="D260" s="1" t="s">
+      <c r="F260" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="261" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D261" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="F260" s="1" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="261" spans="4:6">
-      <c r="D261" s="1" t="s">
+      <c r="F261" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="262" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D262" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="F261" s="1" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="262" spans="4:6">
-      <c r="D262" s="1" t="s">
+      <c r="E262" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="E262" s="3" t="s">
+      <c r="F262" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="263" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B263" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="F262" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="263" spans="2:2">
-      <c r="B263" s="2" t="s">
+    </row>
+    <row r="264" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C264" s="2" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="264" spans="3:3">
-      <c r="C264" s="2" t="s">
+    <row r="265" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D265" s="1" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="265" spans="4:8">
-      <c r="D265" s="1" t="s">
+      <c r="E265" s="3" t="s">
         <v>421</v>
       </c>
-      <c r="E265" s="3" t="s">
+      <c r="F265" s="1" t="s">
         <v>422</v>
-      </c>
-      <c r="F265" s="1" t="s">
-        <v>423</v>
       </c>
       <c r="H265">
         <v>400</v>
       </c>
     </row>
-    <row r="266" spans="4:8">
+    <row r="266" spans="2:8" x14ac:dyDescent="0.2">
       <c r="D266" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F266" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H266">
         <v>400</v>
       </c>
     </row>
-    <row r="267" spans="4:8">
+    <row r="267" spans="2:8" x14ac:dyDescent="0.2">
       <c r="D267" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F267" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H267">
         <v>400</v>
       </c>
     </row>
-    <row r="268" spans="4:8">
+    <row r="268" spans="2:8" x14ac:dyDescent="0.2">
       <c r="D268" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="E268" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="E268" s="3" t="s">
-        <v>427</v>
-      </c>
       <c r="F268" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H268">
         <v>400</v>
       </c>
     </row>
-    <row r="269" spans="4:8">
+    <row r="269" spans="2:8" x14ac:dyDescent="0.2">
       <c r="D269" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="E269" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="E269" s="3" t="s">
-        <v>429</v>
-      </c>
       <c r="F269" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H269">
         <v>400</v>
       </c>
     </row>
-    <row r="270" spans="4:8">
+    <row r="270" spans="2:8" x14ac:dyDescent="0.2">
       <c r="D270" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F270" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H270">
         <v>400</v>
       </c>
     </row>
-    <row r="271" spans="4:8">
+    <row r="271" spans="2:8" x14ac:dyDescent="0.2">
       <c r="D271" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F271" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H271">
         <v>400</v>
       </c>
     </row>
-    <row r="272" spans="3:3">
+    <row r="272" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C272" s="2" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="273" spans="4:8">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="273" spans="2:8" x14ac:dyDescent="0.2">
       <c r="D273" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F273" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H273">
         <v>400</v>
       </c>
     </row>
-    <row r="274" spans="4:8">
+    <row r="274" spans="2:8" x14ac:dyDescent="0.2">
       <c r="D274" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F274" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H274">
         <v>400</v>
       </c>
     </row>
-    <row r="275" spans="3:6">
+    <row r="275" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C275" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="F275" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="276" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C276" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="F275" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="276" spans="3:6">
-      <c r="C276" s="2" t="s">
+      <c r="F276" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="277" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C277" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="F276" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="277" spans="3:6">
-      <c r="C277" s="2" t="s">
+      <c r="F277" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="278" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C278" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="F277" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="278" spans="3:6">
-      <c r="C278" s="2" t="s">
+      <c r="F278" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="279" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B279" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="F278" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="279" spans="2:5">
-      <c r="B279" s="2" t="s">
+      <c r="E279" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="E279" s="3" t="s">
+    </row>
+    <row r="280" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C280" s="2" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="280" spans="3:8">
-      <c r="C280" s="2" t="s">
+      <c r="E280" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="E280" s="3" t="s">
-        <v>441</v>
-      </c>
       <c r="F280" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H280">
         <v>200</v>
       </c>
     </row>
-    <row r="281" spans="4:8">
+    <row r="281" spans="2:8" x14ac:dyDescent="0.2">
       <c r="D281" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="F281" s="1" t="s">
         <v>442</v>
-      </c>
-      <c r="F281" s="1" t="s">
-        <v>443</v>
       </c>
       <c r="H281">
         <v>200</v>
       </c>
     </row>
-    <row r="282" spans="4:8">
+    <row r="282" spans="2:8" x14ac:dyDescent="0.2">
       <c r="D282" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="E282" s="8" t="s">
         <v>444</v>
       </c>
-      <c r="E282" s="8" t="s">
-        <v>445</v>
-      </c>
       <c r="F282" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H282">
         <v>200</v>
       </c>
     </row>
-    <row r="283" spans="3:8">
+    <row r="283" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C283" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F283" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H283">
         <v>200</v>
       </c>
     </row>
-    <row r="284" spans="3:8">
+    <row r="284" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C284" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F284" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H284">
         <v>200</v>
       </c>
     </row>
-    <row r="285" spans="3:8">
+    <row r="285" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C285" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F285" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H285">
         <v>200</v>
       </c>
     </row>
-    <row r="286" spans="2:6">
+    <row r="286" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B286" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="F286" s="1"/>
+    </row>
+    <row r="287" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C287" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="F286" s="1"/>
-    </row>
-    <row r="287" spans="3:6">
-      <c r="C287" s="2" t="s">
+      <c r="F287" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="288" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D288" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="F287" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="288" spans="4:6">
-      <c r="D288" s="1" t="s">
+      <c r="F288" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="289" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D289" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="F288" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="289" spans="4:6">
-      <c r="D289" s="1" t="s">
+      <c r="F289" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="290" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D290" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="F289" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="290" spans="4:6">
-      <c r="D290" s="1" t="s">
+      <c r="F290" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="291" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C291" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="F290" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="291" spans="3:6">
-      <c r="C291" s="2" t="s">
+      <c r="F291" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="292" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D292" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="F291" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="292" spans="4:6">
-      <c r="D292" s="1" t="s">
+      <c r="F292" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="293" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D293" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="F292" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="293" spans="4:6">
-      <c r="D293" s="1" t="s">
+      <c r="F293" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="294" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D294" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="F293" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="294" spans="4:6">
-      <c r="D294" s="1" t="s">
+      <c r="F294" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="295" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D295" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="F294" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="295" spans="4:6">
-      <c r="D295" s="1" t="s">
+      <c r="F295" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="296" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B296" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="F295" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="296" spans="2:6">
-      <c r="B296" s="2" t="s">
+      <c r="F296" s="1"/>
+    </row>
+    <row r="297" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C297" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="F296" s="1"/>
-    </row>
-    <row r="297" spans="3:6">
-      <c r="C297" s="2" t="s">
+      <c r="F297" s="1"/>
+    </row>
+    <row r="298" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D298" s="7" t="s">
         <v>460</v>
       </c>
-      <c r="F297" s="1"/>
-    </row>
-    <row r="298" spans="4:6">
-      <c r="D298" s="7" t="s">
+      <c r="E298" s="8" t="s">
         <v>461</v>
       </c>
-      <c r="E298" s="8" t="s">
+      <c r="F298" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="299" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D299" s="7" t="s">
         <v>462</v>
       </c>
-      <c r="F298" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="299" spans="4:6">
-      <c r="D299" s="7" t="s">
+      <c r="E299" s="8" t="s">
         <v>463</v>
       </c>
-      <c r="E299" s="8" t="s">
+      <c r="F299" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="300" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D300" s="7" t="s">
         <v>464</v>
       </c>
-      <c r="F299" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="300" spans="4:6">
-      <c r="D300" s="7" t="s">
+      <c r="E300" s="8" t="s">
         <v>465</v>
       </c>
-      <c r="E300" s="8" t="s">
-        <v>466</v>
-      </c>
       <c r="F300" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="1"/>
+  <pixelatorList sheetStid="2"/>
+</pixelators>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
+  <rangeList sheetStid="1" master=""/>
+</allowEditUser>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <woProps xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <woSheetsProps>
     <woSheetProps sheetStid="1" interlineOnOff="0" interlineColor="0" isDbSheet="0"/>
@@ -5277,21 +4651,12 @@
 </woProps>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
-  <rangeList sheetStid="1" master=""/>
-</allowEditUser>
-</file>
-
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="1"/>
-  <pixelatorList sheetStid="2"/>
-</pixelators>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -5300,6 +4665,15 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C82605-B75B-4693-9329-32AAD527C692}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
@@ -5308,17 +4682,8 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>

--- a/AutoLoader/Contents/Support/房间名称分类处理.xlsx
+++ b/AutoLoader/Contents/Support/房间名称分类处理.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2045" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2044" uniqueCount="542">
   <si>
     <t>一级</t>
   </si>
@@ -481,7 +481,7 @@
     <t>*强电间，强电，电井，*强电井</t>
   </si>
   <si>
-    <t>公共区域；感烟火灾探测器；正常照明；消防广播无需考虑；声光手报无需考虑</t>
+    <t>公共区域；感烟火灾探测器；消防广播无需考虑；声光手报无需考虑</t>
   </si>
   <si>
     <t>弱电井</t>
@@ -676,6 +676,9 @@
     <t>调度中心</t>
   </si>
   <si>
+    <t>公共区域；感烟火灾探测器；机房照明；消防广播需要保护；声光手报需要保护</t>
+  </si>
+  <si>
     <t>办公</t>
   </si>
   <si>
@@ -688,7 +691,7 @@
     <t>安保中心，安保控制室，消控安保监控中心，消控室兼安保监控中心，消控安保中心，消控室兼安保中心，消控室兼安保控制室，消控安保控制室，消控安保监控室，消控室兼安保监控室</t>
   </si>
   <si>
-    <t>公共区域；感烟火灾探测器；疏散照明；疏散指示；正常照明；消防广播需要保护；声光手报需要保护</t>
+    <t>公共区域；感烟火灾探测器；疏散照明；疏散指示；机房照明；消防广播需要保护；声光手报需要保护</t>
   </si>
   <si>
     <t>中央控制室</t>
@@ -760,7 +763,7 @@
     <t>低压配电间</t>
   </si>
   <si>
-    <t>公共区域；感烟火灾探测器；感温火灾探测器；疏散照明；疏散指示；正常照明；消防广播需要保护；声光手报需要保护</t>
+    <t>公共区域；感烟火灾探测器；感温火灾探测器；疏散照明；疏散指示；机房照明；消防广播需要保护；声光手报需要保护</t>
   </si>
   <si>
     <t>高压配电室</t>
@@ -898,6 +901,9 @@
     <t>优质饮用水设备间</t>
   </si>
   <si>
+    <t>公共区域；感温火灾探测器；机房照明；消防广播需要保护；声光手报需要保护</t>
+  </si>
+  <si>
     <t>臭氧发生器间</t>
   </si>
   <si>
@@ -985,7 +991,7 @@
     <t>重油加热器间</t>
   </si>
   <si>
-    <t>公共区域；可燃气体探测器；正常照明；防爆；消防广播需要保护；声光手报需要保护</t>
+    <t>公共区域；可燃气体探测器；机房照明；防爆；消防广播需要保护；声光手报需要保护</t>
   </si>
   <si>
     <t>燃气增压间</t>
@@ -1456,7 +1462,7 @@
     <t>餐厅</t>
   </si>
   <si>
-    <t>*餐厅</t>
+    <t>*餐厅，*食堂，*饭堂</t>
   </si>
   <si>
     <t>中餐</t>
@@ -1501,7 +1507,7 @@
     <t>零售</t>
   </si>
   <si>
-    <t>*百货，商铺，*商业</t>
+    <t>*百货，商铺，*商业,，*商铺</t>
   </si>
   <si>
     <t>商铺</t>
@@ -1585,7 +1591,7 @@
     <t>*放映间，*放映机房，*放映室</t>
   </si>
   <si>
-    <t>公共区域；感烟火灾探测器；正常照明；消防广播允许布置；声光手报需要保护</t>
+    <t>公共区域；感烟火灾探测器；机房照明；消防广播允许布置；声光手报需要保护</t>
   </si>
   <si>
     <t>放映室</t>
@@ -1645,41 +1651,41 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="36">
     <numFmt numFmtId="176" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;"/>
-    <numFmt numFmtId="6" formatCode="&quot;￥&quot;#,##0;[Red]&quot;￥&quot;\-#,##0"/>
-    <numFmt numFmtId="177" formatCode="\¥#,##0.00;[Red]\¥\-#,##0.00"/>
     <numFmt numFmtId="23" formatCode="\$#,##0_);\(\$#,##0\)"/>
+    <numFmt numFmtId="177" formatCode="#\ ??/??"/>
     <numFmt numFmtId="178" formatCode="mmmm\-yy"/>
     <numFmt numFmtId="5" formatCode="&quot;￥&quot;#,##0;&quot;￥&quot;\-#,##0"/>
+    <numFmt numFmtId="179" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;"/>
+    <numFmt numFmtId="180" formatCode="[$-804]aaa"/>
+    <numFmt numFmtId="181" formatCode="mmmmm"/>
+    <numFmt numFmtId="182" formatCode="\¥#,##0;[Red]\¥\-#,##0"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="183" formatCode="[DBNum1]上午/下午h&quot;时&quot;mm&quot;分&quot;"/>
+    <numFmt numFmtId="184" formatCode="[DBNum1][$-804]m&quot;月&quot;d&quot;日&quot;"/>
+    <numFmt numFmtId="185" formatCode="[$-804]aaaa"/>
+    <numFmt numFmtId="186" formatCode="\¥#,##0.00;[Red]\¥\-#,##0.00"/>
+    <numFmt numFmtId="187" formatCode="\¥#,##0.00;\¥\-#,##0.00"/>
+    <numFmt numFmtId="188" formatCode="yyyy/m/d\ h:mm\ AM/PM"/>
+    <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
+    <numFmt numFmtId="189" formatCode="yy/m/d"/>
+    <numFmt numFmtId="6" formatCode="&quot;￥&quot;#,##0;[Red]&quot;￥&quot;\-#,##0"/>
+    <numFmt numFmtId="190" formatCode="#\ ?/?"/>
+    <numFmt numFmtId="191" formatCode="dd\-mmm\-yy"/>
+    <numFmt numFmtId="25" formatCode="\$#,##0.00_);\(\$#,##0.00\)"/>
+    <numFmt numFmtId="192" formatCode="\¥#,##0;\¥\-#,##0"/>
+    <numFmt numFmtId="193" formatCode="mm/dd/yy"/>
+    <numFmt numFmtId="194" formatCode="mmmmm\-yy"/>
+    <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
+    <numFmt numFmtId="195" formatCode="m/d"/>
+    <numFmt numFmtId="8" formatCode="&quot;￥&quot;#,##0.00;[Red]&quot;￥&quot;\-#,##0.00"/>
+    <numFmt numFmtId="196" formatCode="h:mm\ AM/PM"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="197" formatCode="[DBNum1]h&quot;时&quot;mm&quot;分&quot;"/>
+    <numFmt numFmtId="198" formatCode="h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="199" formatCode="#\ ??"/>
     <numFmt numFmtId="24" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
-    <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
-    <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
-    <numFmt numFmtId="25" formatCode="\$#,##0.00_);\(\$#,##0.00\)"/>
-    <numFmt numFmtId="179" formatCode="h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="180" formatCode="h:mm\ AM/PM"/>
-    <numFmt numFmtId="181" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;"/>
-    <numFmt numFmtId="182" formatCode="[DBNum1]上午/下午h&quot;时&quot;mm&quot;分&quot;"/>
-    <numFmt numFmtId="183" formatCode="[DBNum1][$-804]m&quot;月&quot;d&quot;日&quot;"/>
-    <numFmt numFmtId="8" formatCode="&quot;￥&quot;#,##0.00;[Red]&quot;￥&quot;\-#,##0.00"/>
-    <numFmt numFmtId="184" formatCode="yyyy/m/d\ h:mm\ AM/PM"/>
-    <numFmt numFmtId="185" formatCode="mm/dd/yy"/>
-    <numFmt numFmtId="186" formatCode="mmmmm"/>
-    <numFmt numFmtId="187" formatCode="m/d"/>
-    <numFmt numFmtId="188" formatCode="mmmmm\-yy"/>
-    <numFmt numFmtId="189" formatCode="yy/m/d"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="190" formatCode="[DBNum1]h&quot;时&quot;mm&quot;分&quot;"/>
-    <numFmt numFmtId="191" formatCode="#\ ?/?"/>
-    <numFmt numFmtId="192" formatCode="[$-804]aaa"/>
-    <numFmt numFmtId="193" formatCode="\¥#,##0;\¥\-#,##0"/>
-    <numFmt numFmtId="194" formatCode="dd\-mmm\-yy"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="195" formatCode="\¥#,##0;[Red]\¥\-#,##0"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="196" formatCode="#\ ??/??"/>
-    <numFmt numFmtId="197" formatCode="\¥#,##0.00;\¥\-#,##0.00"/>
-    <numFmt numFmtId="198" formatCode="[$-804]aaaa"/>
-    <numFmt numFmtId="199" formatCode="#\ ??"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1704,6 +1710,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -1717,32 +1730,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1763,10 +1753,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1794,9 +1785,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1810,10 +1823,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1826,22 +1840,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1874,43 +1880,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1934,31 +1934,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1976,7 +1952,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1988,31 +1994,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2024,25 +2030,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2059,8 +2065,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2130,6 +2136,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2144,160 +2159,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2671,7 +2677,7 @@
   <dimension ref="A1:P318"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="O1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A298" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="O306" sqref="O306"/>
     </sheetView>
@@ -2685,9 +2691,10 @@
     <col min="6" max="6" width="66.375" style="3" customWidth="1"/>
     <col min="7" max="7" width="12.25" style="4" customWidth="1"/>
     <col min="8" max="8" width="12.3583333333333" customWidth="1"/>
-    <col min="11" max="12" width="10.875" customWidth="1"/>
-    <col min="13" max="13" width="14.025" customWidth="1"/>
-    <col min="16" max="16" width="9" style="5"/>
+    <col min="9" max="10" width="9" style="5"/>
+    <col min="11" max="12" width="10.875" style="5" customWidth="1"/>
+    <col min="13" max="13" width="14.025" style="5" customWidth="1"/>
+    <col min="14" max="16" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -2715,25 +2722,25 @@
       <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" s="9" t="s">
         <v>14</v>
       </c>
       <c r="P1" s="9" t="s">
@@ -2753,8 +2760,8 @@
         <v>18</v>
       </c>
       <c r="F3" s="2"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
     </row>
     <row r="4" ht="28.5" spans="3:16">
       <c r="C4" s="1" t="s">
@@ -2769,10 +2776,10 @@
       <c r="F4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="I4" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="9" t="s">
         <v>23</v>
       </c>
       <c r="O4" s="9" t="s">
@@ -2792,10 +2799,10 @@
       <c r="F5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="I5" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="9" t="s">
         <v>23</v>
       </c>
       <c r="O5" s="9" t="s">
@@ -2808,10 +2815,10 @@
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
-      <c r="I6" s="7" t="s">
+      <c r="I6" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="J6" s="7" t="s">
+      <c r="J6" s="9" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2822,10 +2829,10 @@
       <c r="F7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I7" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="J7" s="9" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2836,10 +2843,10 @@
       <c r="F8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="I8" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="J8" s="7" t="s">
+      <c r="J8" s="9" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2853,10 +2860,10 @@
       <c r="F9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="I9" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="J9" s="7" t="s">
+      <c r="J9" s="9" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2870,10 +2877,10 @@
       <c r="F10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="I10" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="J10" s="7" t="s">
+      <c r="J10" s="9" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2890,10 +2897,10 @@
       <c r="F11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I11" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="I11" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" s="9" t="s">
         <v>23</v>
       </c>
       <c r="O11" s="9" t="s">
@@ -2913,10 +2920,10 @@
       <c r="F12" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="I12" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J12" s="7" t="s">
+      <c r="I12" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" s="9" t="s">
         <v>23</v>
       </c>
       <c r="O12" s="9" t="s">
@@ -2933,10 +2940,10 @@
       <c r="F13" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I13" s="7" t="s">
+      <c r="I13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="J13" s="7" t="s">
+      <c r="J13" s="9" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2947,10 +2954,10 @@
       <c r="F14" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I14" s="7" t="s">
+      <c r="I14" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="J14" s="7" t="s">
+      <c r="J14" s="9" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2961,10 +2968,10 @@
       <c r="F15" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I15" s="7" t="s">
+      <c r="I15" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="J15" s="7" t="s">
+      <c r="J15" s="9" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2975,10 +2982,10 @@
       <c r="F16" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I16" s="7" t="s">
+      <c r="I16" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="J16" s="7" t="s">
+      <c r="J16" s="9" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2992,10 +2999,10 @@
       <c r="F17" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I17" s="7" t="s">
+      <c r="I17" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="J17" s="7" t="s">
+      <c r="J17" s="9" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3009,10 +3016,10 @@
       <c r="F18" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="I18" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="I18" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J18" s="9" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3026,10 +3033,10 @@
       <c r="F19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I19" s="7" t="s">
+      <c r="I19" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="J19" s="7" t="s">
+      <c r="J19" s="9" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3040,10 +3047,10 @@
       <c r="F20" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I20" s="7" t="s">
+      <c r="I20" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="J20" s="7" t="s">
+      <c r="J20" s="9" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3054,10 +3061,10 @@
       <c r="F21" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I21" s="7" t="s">
+      <c r="I21" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="J21" s="7" t="s">
+      <c r="J21" s="9" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3068,10 +3075,10 @@
       <c r="F22" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="I22" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="I22" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J22" s="9" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3085,10 +3092,10 @@
       <c r="F23" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I23" s="7" t="s">
+      <c r="I23" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="J23" s="7" t="s">
+      <c r="J23" s="9" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3102,10 +3109,10 @@
       <c r="F24" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="I24" s="7" t="s">
+      <c r="I24" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="J24" s="7" t="s">
+      <c r="J24" s="9" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3114,8 +3121,8 @@
         <v>62</v>
       </c>
       <c r="F25" s="2"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
     </row>
     <row r="26" ht="28.5" spans="3:16">
       <c r="C26" s="1" t="s">
@@ -3127,10 +3134,10 @@
       <c r="F26" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="I26" s="7" t="s">
+      <c r="I26" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="J26" s="7" t="s">
+      <c r="J26" s="9" t="s">
         <v>67</v>
       </c>
       <c r="K26" s="9" t="s">
@@ -3153,10 +3160,10 @@
       <c r="F27" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="I27" s="7" t="s">
+      <c r="I27" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="J27" s="7" t="s">
+      <c r="J27" s="9" t="s">
         <v>67</v>
       </c>
       <c r="K27" s="9" t="s">
@@ -3182,10 +3189,10 @@
       <c r="F28" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="I28" s="7" t="s">
+      <c r="I28" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="J28" s="7" t="s">
+      <c r="J28" s="9" t="s">
         <v>67</v>
       </c>
       <c r="K28" s="9" t="s">
@@ -3211,10 +3218,10 @@
       <c r="F29" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="I29" s="7" t="s">
+      <c r="I29" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="J29" s="7" t="s">
+      <c r="J29" s="9" t="s">
         <v>67</v>
       </c>
       <c r="K29" s="9" t="s">
@@ -3237,10 +3244,10 @@
       <c r="F30" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="I30" s="7" t="s">
+      <c r="I30" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="J30" s="7" t="s">
+      <c r="J30" s="9" t="s">
         <v>67</v>
       </c>
       <c r="K30" s="9" t="s">
@@ -3266,10 +3273,10 @@
       <c r="F31" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="I31" s="7" t="s">
+      <c r="I31" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="J31" s="7" t="s">
+      <c r="J31" s="9" t="s">
         <v>23</v>
       </c>
       <c r="K31" s="9" t="s">
@@ -3292,10 +3299,10 @@
       <c r="F32" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="I32" s="7" t="s">
+      <c r="I32" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="J32" s="7" t="s">
+      <c r="J32" s="9" t="s">
         <v>23</v>
       </c>
       <c r="K32" s="9" t="s">
@@ -3321,10 +3328,10 @@
       <c r="F33" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="I33" s="7" t="s">
+      <c r="I33" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="J33" s="7" t="s">
+      <c r="J33" s="9" t="s">
         <v>23</v>
       </c>
       <c r="K33" s="9" t="s">
@@ -3350,10 +3357,10 @@
       <c r="F34" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="I34" s="7" t="s">
+      <c r="I34" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="J34" s="7" t="s">
+      <c r="J34" s="9" t="s">
         <v>23</v>
       </c>
       <c r="K34" s="9" t="s">
@@ -3377,10 +3384,10 @@
       <c r="F35" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="I35" s="7" t="s">
+      <c r="I35" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="J35" s="7" t="s">
+      <c r="J35" s="9" t="s">
         <v>23</v>
       </c>
       <c r="K35" s="9" t="s">
@@ -3404,10 +3411,10 @@
       <c r="F36" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="I36" s="7" t="s">
+      <c r="I36" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="J36" s="7" t="s">
+      <c r="J36" s="9" t="s">
         <v>23</v>
       </c>
       <c r="K36" s="9" t="s">
@@ -3434,10 +3441,10 @@
       <c r="H37" t="s">
         <v>87</v>
       </c>
-      <c r="I37" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J37" s="7" t="s">
+      <c r="I37" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J37" s="9" t="s">
         <v>23</v>
       </c>
       <c r="K37" s="9" t="s">
@@ -3457,10 +3464,10 @@
       <c r="F38" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="I38" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J38" s="7" t="s">
+      <c r="I38" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J38" s="9" t="s">
         <v>23</v>
       </c>
       <c r="K38" s="9" t="s">
@@ -3486,10 +3493,10 @@
       <c r="F39" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="I39" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J39" s="7" t="s">
+      <c r="I39" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J39" s="9" t="s">
         <v>23</v>
       </c>
       <c r="K39" s="9" t="s">
@@ -3510,10 +3517,10 @@
       <c r="F40" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="I40" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J40" s="7" t="s">
+      <c r="I40" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J40" s="9" t="s">
         <v>23</v>
       </c>
       <c r="K40" s="9" t="s">
@@ -3534,10 +3541,10 @@
       <c r="F41" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="I41" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J41" s="7" t="s">
+      <c r="I41" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J41" s="9" t="s">
         <v>23</v>
       </c>
       <c r="K41" s="9" t="s">
@@ -3558,10 +3565,10 @@
       <c r="F42" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="I42" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J42" s="7" t="s">
+      <c r="I42" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J42" s="9" t="s">
         <v>23</v>
       </c>
       <c r="K42" s="9" t="s">
@@ -3582,10 +3589,10 @@
       <c r="F43" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="I43" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J43" s="7" t="s">
+      <c r="I43" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J43" s="9" t="s">
         <v>23</v>
       </c>
       <c r="K43" s="9" t="s">
@@ -3602,10 +3609,10 @@
       <c r="F44" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="I44" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J44" s="7" t="s">
+      <c r="I44" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J44" s="9" t="s">
         <v>23</v>
       </c>
       <c r="K44" s="9" t="s">
@@ -3622,10 +3629,10 @@
       <c r="F45" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="I45" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J45" s="7" t="s">
+      <c r="I45" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J45" s="9" t="s">
         <v>23</v>
       </c>
       <c r="K45" s="9" t="s">
@@ -3639,10 +3646,10 @@
       <c r="F46" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="I46" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J46" s="7" t="s">
+      <c r="I46" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J46" s="9" t="s">
         <v>23</v>
       </c>
       <c r="K46" s="9" t="s">
@@ -3662,10 +3669,10 @@
       <c r="H47" t="s">
         <v>102</v>
       </c>
-      <c r="I47" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J47" s="7" t="s">
+      <c r="I47" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J47" s="9" t="s">
         <v>23</v>
       </c>
       <c r="K47" s="9" t="s">
@@ -3682,10 +3689,10 @@
       <c r="H48" t="s">
         <v>104</v>
       </c>
-      <c r="I48" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J48" s="7" t="s">
+      <c r="I48" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J48" s="9" t="s">
         <v>23</v>
       </c>
       <c r="K48" s="9" t="s">
@@ -3703,10 +3710,10 @@
       <c r="H49" t="s">
         <v>108</v>
       </c>
-      <c r="I49" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J49" s="7" t="s">
+      <c r="I49" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J49" s="9" t="s">
         <v>67</v>
       </c>
       <c r="P49" s="9"/>
@@ -3724,10 +3731,10 @@
       <c r="H50" t="s">
         <v>108</v>
       </c>
-      <c r="I50" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J50" s="7" t="s">
+      <c r="I50" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J50" s="9" t="s">
         <v>67</v>
       </c>
       <c r="P50" s="9"/>
@@ -3745,10 +3752,10 @@
       <c r="H51" t="s">
         <v>108</v>
       </c>
-      <c r="I51" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J51" s="7" t="s">
+      <c r="I51" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J51" s="9" t="s">
         <v>67</v>
       </c>
       <c r="P51" s="9"/>
@@ -3766,10 +3773,10 @@
       <c r="H52" t="s">
         <v>114</v>
       </c>
-      <c r="I52" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J52" s="7" t="s">
+      <c r="I52" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J52" s="9" t="s">
         <v>67</v>
       </c>
       <c r="K52" s="9" t="s">
@@ -3789,10 +3796,10 @@
       <c r="H53" t="s">
         <v>114</v>
       </c>
-      <c r="I53" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J53" s="7" t="s">
+      <c r="I53" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J53" s="9" t="s">
         <v>67</v>
       </c>
       <c r="K53" s="9" t="s">
@@ -3804,10 +3811,10 @@
         <v>119</v>
       </c>
       <c r="F54" s="2"/>
-      <c r="I54" s="7" t="s">
+      <c r="I54" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="J54" s="7" t="s">
+      <c r="J54" s="9" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3821,10 +3828,10 @@
       <c r="F55" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="I55" s="7" t="s">
+      <c r="I55" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="J55" s="7" t="s">
+      <c r="J55" s="9" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3838,10 +3845,10 @@
       <c r="F56" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="I56" s="7" t="s">
+      <c r="I56" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="J56" s="7" t="s">
+      <c r="J56" s="9" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3855,10 +3862,10 @@
       <c r="F57" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="I57" s="7" t="s">
+      <c r="I57" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="J57" s="7" t="s">
+      <c r="J57" s="9" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3872,10 +3879,10 @@
       <c r="F58" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="I58" s="7" t="s">
+      <c r="I58" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="J58" s="7" t="s">
+      <c r="J58" s="9" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3889,10 +3896,10 @@
       <c r="F59" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="I59" s="7" t="s">
+      <c r="I59" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="J59" s="7" t="s">
+      <c r="J59" s="9" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3903,10 +3910,10 @@
       <c r="F60" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="I60" s="7" t="s">
+      <c r="I60" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="J60" s="7" t="s">
+      <c r="J60" s="9" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3917,10 +3924,10 @@
       <c r="F61" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="I61" s="7" t="s">
+      <c r="I61" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="J61" s="7" t="s">
+      <c r="J61" s="9" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3931,10 +3938,10 @@
       <c r="F62" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="I62" s="7" t="s">
+      <c r="I62" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="J62" s="7" t="s">
+      <c r="J62" s="9" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3945,10 +3952,10 @@
       <c r="F63" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="I63" s="7" t="s">
+      <c r="I63" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="J63" s="7" t="s">
+      <c r="J63" s="9" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3959,10 +3966,10 @@
       <c r="F64" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="I64" s="7" t="s">
+      <c r="I64" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="J64" s="7" t="s">
+      <c r="J64" s="9" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3973,10 +3980,10 @@
       <c r="F65" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="I65" s="7" t="s">
+      <c r="I65" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="J65" s="7" t="s">
+      <c r="J65" s="9" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3990,10 +3997,10 @@
       <c r="F66" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="I66" s="7" t="s">
+      <c r="I66" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="J66" s="7" t="s">
+      <c r="J66" s="9" t="s">
         <v>28</v>
       </c>
     </row>
@@ -4007,10 +4014,10 @@
       <c r="F67" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="I67" s="7" t="s">
+      <c r="I67" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="J67" s="7" t="s">
+      <c r="J67" s="9" t="s">
         <v>28</v>
       </c>
     </row>
@@ -4024,10 +4031,10 @@
       <c r="F68" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="I68" s="7" t="s">
+      <c r="I68" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="J68" s="7" t="s">
+      <c r="J68" s="9" t="s">
         <v>28</v>
       </c>
     </row>
@@ -4041,10 +4048,10 @@
       <c r="F69" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="I69" s="7" t="s">
+      <c r="I69" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="J69" s="7" t="s">
+      <c r="J69" s="9" t="s">
         <v>28</v>
       </c>
     </row>
@@ -4053,10 +4060,10 @@
         <v>144</v>
       </c>
       <c r="F70" s="2"/>
-      <c r="I70" s="7" t="s">
+      <c r="I70" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="J70" s="7" t="s">
+      <c r="J70" s="9" t="s">
         <v>28</v>
       </c>
     </row>
@@ -4070,10 +4077,10 @@
       <c r="F71" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="I71" s="7" t="s">
+      <c r="I71" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="J71" s="7" t="s">
+      <c r="J71" s="9" t="s">
         <v>28</v>
       </c>
     </row>
@@ -4087,10 +4094,10 @@
       <c r="F72" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="I72" s="7" t="s">
+      <c r="I72" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="J72" s="7" t="s">
+      <c r="J72" s="9" t="s">
         <v>28</v>
       </c>
       <c r="M72" s="9" t="s">
@@ -4107,10 +4114,10 @@
       <c r="F73" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="I73" s="7" t="s">
+      <c r="I73" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="J73" s="7" t="s">
+      <c r="J73" s="9" t="s">
         <v>28</v>
       </c>
     </row>
@@ -4124,10 +4131,10 @@
       <c r="F74" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="I74" s="7" t="s">
+      <c r="I74" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="J74" s="7" t="s">
+      <c r="J74" s="9" t="s">
         <v>28</v>
       </c>
       <c r="K74" s="9" t="s">
@@ -4147,10 +4154,10 @@
       <c r="F75" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="I75" s="7" t="s">
+      <c r="I75" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="J75" s="7" t="s">
+      <c r="J75" s="9" t="s">
         <v>28</v>
       </c>
       <c r="K75" s="9" t="s">
@@ -4168,10 +4175,10 @@
         <v>158</v>
       </c>
       <c r="F76" s="2"/>
-      <c r="I76" s="7" t="s">
+      <c r="I76" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="J76" s="7" t="s">
+      <c r="J76" s="9" t="s">
         <v>28</v>
       </c>
     </row>
@@ -4185,10 +4192,10 @@
       <c r="F77" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="I77" s="7" t="s">
+      <c r="I77" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="J77" s="7" t="s">
+      <c r="J77" s="9" t="s">
         <v>28</v>
       </c>
     </row>
@@ -4202,10 +4209,10 @@
       <c r="F78" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="I78" s="7" t="s">
+      <c r="I78" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="J78" s="7" t="s">
+      <c r="J78" s="9" t="s">
         <v>28</v>
       </c>
     </row>
@@ -4219,10 +4226,10 @@
       <c r="F79" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="I79" s="7" t="s">
+      <c r="I79" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="J79" s="7" t="s">
+      <c r="J79" s="9" t="s">
         <v>28</v>
       </c>
     </row>
@@ -4237,10 +4244,10 @@
       <c r="H80" t="s">
         <v>167</v>
       </c>
-      <c r="I80" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J80" s="7" t="s">
+      <c r="I80" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J80" s="9" t="s">
         <v>67</v>
       </c>
     </row>
@@ -4257,10 +4264,10 @@
       <c r="H81" t="s">
         <v>167</v>
       </c>
-      <c r="I81" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J81" s="7" t="s">
+      <c r="I81" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J81" s="9" t="s">
         <v>67</v>
       </c>
       <c r="K81" s="9" t="s">
@@ -4280,10 +4287,10 @@
       <c r="H82" t="s">
         <v>167</v>
       </c>
-      <c r="I82" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J82" s="7" t="s">
+      <c r="I82" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J82" s="9" t="s">
         <v>67</v>
       </c>
       <c r="K82" s="9" t="s">
@@ -4306,10 +4313,10 @@
       <c r="H83" t="s">
         <v>167</v>
       </c>
-      <c r="I83" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J83" s="7" t="s">
+      <c r="I83" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J83" s="9" t="s">
         <v>67</v>
       </c>
       <c r="K83" s="9" t="s">
@@ -4329,10 +4336,10 @@
       <c r="H84" t="s">
         <v>167</v>
       </c>
-      <c r="I84" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J84" s="7" t="s">
+      <c r="I84" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J84" s="9" t="s">
         <v>67</v>
       </c>
       <c r="K84" s="9" t="s">
@@ -4352,10 +4359,10 @@
       <c r="H85" t="s">
         <v>167</v>
       </c>
-      <c r="I85" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J85" s="7" t="s">
+      <c r="I85" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J85" s="9" t="s">
         <v>67</v>
       </c>
       <c r="K85" s="9" t="s">
@@ -4375,10 +4382,10 @@
       <c r="H86" t="s">
         <v>178</v>
       </c>
-      <c r="I86" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J86" s="7" t="s">
+      <c r="I86" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J86" s="9" t="s">
         <v>67</v>
       </c>
       <c r="K86" s="9" t="s">
@@ -4398,10 +4405,10 @@
       <c r="H87" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="I87" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J87" s="7" t="s">
+      <c r="I87" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J87" s="9" t="s">
         <v>67</v>
       </c>
       <c r="K87" s="9" t="s">
@@ -4424,10 +4431,10 @@
       <c r="H88" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="I88" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J88" s="7" t="s">
+      <c r="I88" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J88" s="9" t="s">
         <v>67</v>
       </c>
       <c r="K88" s="9" t="s">
@@ -4450,10 +4457,10 @@
       <c r="H89" t="s">
         <v>167</v>
       </c>
-      <c r="I89" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J89" s="7" t="s">
+      <c r="I89" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J89" s="9" t="s">
         <v>67</v>
       </c>
       <c r="K89" s="9" t="s">
@@ -4476,10 +4483,10 @@
       <c r="H90" t="s">
         <v>184</v>
       </c>
-      <c r="I90" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J90" s="7" t="s">
+      <c r="I90" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J90" s="9" t="s">
         <v>67</v>
       </c>
       <c r="K90" s="9" t="s">
@@ -4499,10 +4506,10 @@
       <c r="H91" t="s">
         <v>184</v>
       </c>
-      <c r="I91" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J91" s="7" t="s">
+      <c r="I91" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J91" s="9" t="s">
         <v>67</v>
       </c>
       <c r="K91" s="9" t="s">
@@ -4519,10 +4526,10 @@
       <c r="F92" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="I92" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J92" s="7" t="s">
+      <c r="I92" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J92" s="9" t="s">
         <v>67</v>
       </c>
       <c r="K92" s="9" t="s">
@@ -4539,10 +4546,10 @@
       <c r="F93" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="I93" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J93" s="7" t="s">
+      <c r="I93" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J93" s="9" t="s">
         <v>67</v>
       </c>
       <c r="K93" s="9" t="s">
@@ -4559,10 +4566,10 @@
       <c r="F94" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="I94" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J94" s="7" t="s">
+      <c r="I94" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J94" s="9" t="s">
         <v>67</v>
       </c>
       <c r="K94" s="9" t="s">
@@ -4579,10 +4586,10 @@
       <c r="F95" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="I95" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J95" s="7" t="s">
+      <c r="I95" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J95" s="9" t="s">
         <v>67</v>
       </c>
       <c r="K95" s="9" t="s">
@@ -4599,10 +4606,10 @@
       <c r="F96" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="I96" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J96" s="7" t="s">
+      <c r="I96" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J96" s="9" t="s">
         <v>67</v>
       </c>
       <c r="K96" s="9" t="s">
@@ -4619,10 +4626,10 @@
       <c r="F97" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="I97" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J97" s="7" t="s">
+      <c r="I97" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J97" s="9" t="s">
         <v>67</v>
       </c>
       <c r="K97" s="9" t="s">
@@ -4639,10 +4646,10 @@
       <c r="F98" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="I98" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J98" s="7" t="s">
+      <c r="I98" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J98" s="9" t="s">
         <v>67</v>
       </c>
       <c r="K98" s="9" t="s">
@@ -4665,10 +4672,10 @@
       <c r="H99" t="s">
         <v>167</v>
       </c>
-      <c r="I99" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J99" s="7" t="s">
+      <c r="I99" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J99" s="9" t="s">
         <v>67</v>
       </c>
       <c r="K99" s="9" t="s">
@@ -4691,10 +4698,10 @@
       <c r="H100" t="s">
         <v>167</v>
       </c>
-      <c r="I100" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J100" s="7" t="s">
+      <c r="I100" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J100" s="9" t="s">
         <v>67</v>
       </c>
       <c r="K100" s="9" t="s">
@@ -4711,10 +4718,10 @@
       <c r="F101" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="I101" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J101" s="7" t="s">
+      <c r="I101" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J101" s="9" t="s">
         <v>67</v>
       </c>
       <c r="K101" s="9" t="s">
@@ -4734,10 +4741,10 @@
       <c r="F102" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="I102" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J102" s="7" t="s">
+      <c r="I102" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J102" s="9" t="s">
         <v>67</v>
       </c>
       <c r="K102" s="9" t="s">
@@ -4754,10 +4761,10 @@
       <c r="F103" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="I103" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J103" s="7" t="s">
+      <c r="I103" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J103" s="9" t="s">
         <v>67</v>
       </c>
       <c r="K103" s="9" t="s">
@@ -4774,10 +4781,10 @@
       <c r="F104" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="I104" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J104" s="7" t="s">
+      <c r="I104" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J104" s="9" t="s">
         <v>67</v>
       </c>
       <c r="K104" s="9" t="s">
@@ -4794,10 +4801,10 @@
       <c r="F105" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="I105" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J105" s="7" t="s">
+      <c r="I105" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J105" s="9" t="s">
         <v>67</v>
       </c>
     </row>
@@ -4808,10 +4815,10 @@
       <c r="F106" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="I106" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J106" s="7" t="s">
+      <c r="I106" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J106" s="9" t="s">
         <v>67</v>
       </c>
     </row>
@@ -4822,10 +4829,10 @@
       <c r="F107" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="I107" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J107" s="7" t="s">
+      <c r="I107" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J107" s="9" t="s">
         <v>67</v>
       </c>
     </row>
@@ -4836,10 +4843,10 @@
       <c r="F108" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="I108" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J108" s="7" t="s">
+      <c r="I108" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J108" s="9" t="s">
         <v>67</v>
       </c>
     </row>
@@ -4850,10 +4857,10 @@
       <c r="F109" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="I109" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J109" s="7" t="s">
+      <c r="I109" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J109" s="9" t="s">
         <v>67</v>
       </c>
     </row>
@@ -4862,10 +4869,10 @@
         <v>209</v>
       </c>
       <c r="F110" s="2"/>
-      <c r="I110" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J110" s="7" t="s">
+      <c r="I110" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J110" s="9" t="s">
         <v>67</v>
       </c>
     </row>
@@ -4876,10 +4883,10 @@
       <c r="F111" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="I111" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J111" s="7" t="s">
+      <c r="I111" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J111" s="9" t="s">
         <v>67</v>
       </c>
       <c r="K111" s="9" t="s">
@@ -4893,10 +4900,10 @@
       <c r="F112" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="I112" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J112" s="7" t="s">
+      <c r="I112" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J112" s="9" t="s">
         <v>67</v>
       </c>
       <c r="K112" s="9" t="s">
@@ -4910,10 +4917,10 @@
       <c r="F113" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="I113" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J113" s="7" t="s">
+      <c r="I113" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J113" s="9" t="s">
         <v>67</v>
       </c>
       <c r="K113" s="9" t="s">
@@ -4925,10 +4932,10 @@
         <v>214</v>
       </c>
       <c r="F114" s="2"/>
-      <c r="I114" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J114" s="7" t="s">
+      <c r="I114" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J114" s="9" t="s">
         <v>67</v>
       </c>
     </row>
@@ -4939,10 +4946,10 @@
       <c r="F115" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="I115" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J115" s="7" t="s">
+      <c r="I115" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J115" s="9" t="s">
         <v>67</v>
       </c>
       <c r="K115" s="9" t="s">
@@ -4956,10 +4963,10 @@
       <c r="F116" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="I116" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J116" s="7" t="s">
+      <c r="I116" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J116" s="9" t="s">
         <v>67</v>
       </c>
       <c r="K116" s="9" t="s">
@@ -4971,10 +4978,10 @@
         <v>217</v>
       </c>
       <c r="F117" s="2"/>
-      <c r="I117" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J117" s="7" t="s">
+      <c r="I117" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J117" s="9" t="s">
         <v>67</v>
       </c>
     </row>
@@ -4983,15 +4990,15 @@
         <v>218</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>170</v>
+        <v>219</v>
       </c>
       <c r="H118" t="s">
-        <v>219</v>
-      </c>
-      <c r="I118" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J118" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="I118" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J118" s="9" t="s">
         <v>67</v>
       </c>
       <c r="K118" s="9" t="s">
@@ -5003,18 +5010,18 @@
     </row>
     <row r="119" spans="3:14">
       <c r="C119" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="H119" t="s">
         <v>220</v>
       </c>
-      <c r="F119" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="H119" t="s">
-        <v>219</v>
-      </c>
-      <c r="I119" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J119" s="7" t="s">
+      <c r="I119" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J119" s="9" t="s">
         <v>67</v>
       </c>
       <c r="K119" s="9" t="s">
@@ -5026,21 +5033,21 @@
     </row>
     <row r="120" ht="57" spans="4:16">
       <c r="D120" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H120" t="s">
-        <v>219</v>
-      </c>
-      <c r="I120" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J120" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="I120" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J120" s="9" t="s">
         <v>67</v>
       </c>
       <c r="K120" s="9" t="s">
@@ -5058,18 +5065,18 @@
     </row>
     <row r="121" ht="28.5" spans="3:16">
       <c r="C121" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F121" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="F121" s="2" t="s">
-        <v>223</v>
-      </c>
       <c r="H121" t="s">
-        <v>219</v>
-      </c>
-      <c r="I121" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J121" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="I121" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J121" s="9" t="s">
         <v>67</v>
       </c>
       <c r="K121" s="9" t="s">
@@ -5087,21 +5094,21 @@
     </row>
     <row r="122" ht="28.5" spans="3:16">
       <c r="C122" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H122" t="s">
-        <v>219</v>
-      </c>
-      <c r="I122" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J122" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="I122" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J122" s="9" t="s">
         <v>67</v>
       </c>
       <c r="K122" s="9" t="s">
@@ -5119,21 +5126,21 @@
     </row>
     <row r="123" ht="57" spans="3:16">
       <c r="C123" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H123" t="s">
-        <v>219</v>
-      </c>
-      <c r="I123" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J123" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="I123" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J123" s="9" t="s">
         <v>67</v>
       </c>
       <c r="K123" s="9" t="s">
@@ -5151,21 +5158,21 @@
     </row>
     <row r="124" ht="28.5" spans="3:16">
       <c r="C124" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H124" t="s">
-        <v>219</v>
-      </c>
-      <c r="I124" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J124" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="I124" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J124" s="9" t="s">
         <v>67</v>
       </c>
       <c r="K124" s="9" t="s">
@@ -5183,18 +5190,18 @@
     </row>
     <row r="125" spans="3:15">
       <c r="C125" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H125" t="s">
-        <v>219</v>
-      </c>
-      <c r="I125" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J125" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="I125" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J125" s="9" t="s">
         <v>67</v>
       </c>
       <c r="K125" s="9" t="s">
@@ -5207,21 +5214,21 @@
     </row>
     <row r="126" ht="28.5" spans="4:16">
       <c r="D126" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H126" t="s">
-        <v>219</v>
-      </c>
-      <c r="I126" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J126" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="I126" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J126" s="9" t="s">
         <v>67</v>
       </c>
       <c r="K126" s="9" t="s">
@@ -5239,21 +5246,21 @@
     </row>
     <row r="127" spans="4:14">
       <c r="D127" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>170</v>
+        <v>219</v>
       </c>
       <c r="H127" t="s">
-        <v>219</v>
-      </c>
-      <c r="I127" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J127" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="I127" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J127" s="9" t="s">
         <v>67</v>
       </c>
       <c r="K127" s="9" t="s">
@@ -5265,21 +5272,21 @@
     </row>
     <row r="128" spans="4:14">
       <c r="D128" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>170</v>
+        <v>219</v>
       </c>
       <c r="H128" t="s">
-        <v>219</v>
-      </c>
-      <c r="I128" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J128" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="I128" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J128" s="9" t="s">
         <v>67</v>
       </c>
       <c r="K128" s="9" t="s">
@@ -5291,18 +5298,18 @@
     </row>
     <row r="129" ht="28.5" spans="1:14">
       <c r="A129" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F129" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="I129" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J129" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="I129" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J129" s="9" t="s">
         <v>67</v>
       </c>
       <c r="K129" s="9" t="s">
@@ -5314,33 +5321,33 @@
     </row>
     <row r="130" spans="2:10">
       <c r="B130" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F130" s="2"/>
-      <c r="I130" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J130" s="7" t="s">
+      <c r="I130" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J130" s="9" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="131" ht="28.5" spans="3:16">
       <c r="C131" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E131" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="H131" t="s">
         <v>243</v>
       </c>
-      <c r="F131" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="H131" t="s">
-        <v>242</v>
-      </c>
-      <c r="I131" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J131" s="7" t="s">
+      <c r="I131" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J131" s="9" t="s">
         <v>67</v>
       </c>
       <c r="K131" s="9" t="s">
@@ -5358,18 +5365,18 @@
     </row>
     <row r="132" ht="28.5" spans="3:16">
       <c r="C132" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H132" t="s">
-        <v>242</v>
-      </c>
-      <c r="I132" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J132" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="I132" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J132" s="9" t="s">
         <v>67</v>
       </c>
       <c r="K132" s="9" t="s">
@@ -5387,21 +5394,21 @@
     </row>
     <row r="133" ht="28.5" spans="4:16">
       <c r="D133" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H133" t="s">
-        <v>242</v>
-      </c>
-      <c r="I133" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J133" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="I133" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J133" s="9" t="s">
         <v>67</v>
       </c>
       <c r="K133" s="9" t="s">
@@ -5422,21 +5429,21 @@
     </row>
     <row r="134" ht="28.5" spans="4:16">
       <c r="D134" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="F134" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="E134" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="F134" s="2" t="s">
-        <v>247</v>
-      </c>
       <c r="H134" t="s">
-        <v>242</v>
-      </c>
-      <c r="I134" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J134" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="I134" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J134" s="9" t="s">
         <v>67</v>
       </c>
       <c r="K134" s="9" t="s">
@@ -5457,21 +5464,21 @@
     </row>
     <row r="135" ht="28.5" spans="3:16">
       <c r="C135" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H135" t="s">
-        <v>252</v>
-      </c>
-      <c r="I135" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J135" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="I135" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J135" s="9" t="s">
         <v>67</v>
       </c>
       <c r="K135" s="9" t="s">
@@ -5492,18 +5499,18 @@
     </row>
     <row r="136" ht="28.5" spans="4:16">
       <c r="D136" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="H136" t="s">
         <v>253</v>
       </c>
-      <c r="F136" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="H136" t="s">
-        <v>252</v>
-      </c>
-      <c r="I136" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J136" s="7" t="s">
+      <c r="I136" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J136" s="9" t="s">
         <v>67</v>
       </c>
       <c r="K136" s="9" t="s">
@@ -5524,18 +5531,18 @@
     </row>
     <row r="137" ht="28.5" spans="3:16">
       <c r="C137" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H137" t="s">
-        <v>255</v>
-      </c>
-      <c r="I137" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J137" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="I137" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J137" s="9" t="s">
         <v>67</v>
       </c>
       <c r="K137" s="9" t="s">
@@ -5556,21 +5563,21 @@
     </row>
     <row r="138" ht="28.5" spans="4:16">
       <c r="D138" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E138" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="H138" t="s">
         <v>256</v>
       </c>
-      <c r="F138" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="H138" t="s">
-        <v>255</v>
-      </c>
-      <c r="I138" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J138" s="7" t="s">
+      <c r="I138" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J138" s="9" t="s">
         <v>67</v>
       </c>
       <c r="K138" s="9" t="s">
@@ -5591,21 +5598,21 @@
     </row>
     <row r="139" ht="42.75" spans="3:16">
       <c r="C139" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H139" t="s">
-        <v>252</v>
-      </c>
-      <c r="I139" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J139" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="I139" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J139" s="9" t="s">
         <v>67</v>
       </c>
       <c r="K139" s="9" t="s">
@@ -5623,18 +5630,18 @@
     </row>
     <row r="140" ht="28.5" spans="3:16">
       <c r="C140" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H140" t="s">
-        <v>242</v>
-      </c>
-      <c r="I140" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J140" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="I140" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J140" s="9" t="s">
         <v>67</v>
       </c>
       <c r="K140" s="9" t="s">
@@ -5652,18 +5659,18 @@
     </row>
     <row r="141" ht="28.5" spans="3:16">
       <c r="C141" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H141" t="s">
-        <v>242</v>
-      </c>
-      <c r="I141" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J141" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="I141" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J141" s="9" t="s">
         <v>67</v>
       </c>
       <c r="K141" s="9" t="s">
@@ -5681,21 +5688,21 @@
     </row>
     <row r="142" spans="2:14">
       <c r="B142" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H142" t="s">
-        <v>263</v>
-      </c>
-      <c r="I142" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J142" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="I142" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J142" s="9" t="s">
         <v>67</v>
       </c>
       <c r="K142" s="9" t="s">
@@ -5707,21 +5714,21 @@
     </row>
     <row r="143" spans="3:14">
       <c r="C143" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="H143" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="E143" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="F143" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="H143" s="10" t="s">
-        <v>263</v>
-      </c>
-      <c r="I143" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J143" s="7" t="s">
+      <c r="I143" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J143" s="9" t="s">
         <v>67</v>
       </c>
       <c r="K143" s="9" t="s">
@@ -5733,21 +5740,21 @@
     </row>
     <row r="144" spans="3:14">
       <c r="C144" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>170</v>
+        <v>219</v>
       </c>
       <c r="H144" s="10" t="s">
-        <v>263</v>
-      </c>
-      <c r="I144" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J144" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="I144" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J144" s="9" t="s">
         <v>67</v>
       </c>
       <c r="K144" s="9" t="s">
@@ -5759,21 +5766,21 @@
     </row>
     <row r="145" spans="3:14">
       <c r="C145" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>170</v>
+        <v>219</v>
       </c>
       <c r="H145" s="10" t="s">
-        <v>263</v>
-      </c>
-      <c r="I145" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J145" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="I145" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J145" s="9" t="s">
         <v>67</v>
       </c>
       <c r="K145" s="9" t="s">
@@ -5785,21 +5792,21 @@
     </row>
     <row r="146" ht="42.75" spans="3:14">
       <c r="C146" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>170</v>
+        <v>219</v>
       </c>
       <c r="H146" s="10" t="s">
-        <v>263</v>
-      </c>
-      <c r="I146" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J146" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="I146" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J146" s="9" t="s">
         <v>67</v>
       </c>
       <c r="K146" s="9" t="s">
@@ -5811,18 +5818,18 @@
     </row>
     <row r="147" spans="3:14">
       <c r="C147" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>170</v>
+        <v>219</v>
       </c>
       <c r="H147" s="10" t="s">
-        <v>263</v>
-      </c>
-      <c r="I147" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J147" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="I147" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J147" s="9" t="s">
         <v>67</v>
       </c>
       <c r="K147" s="9" t="s">
@@ -5834,21 +5841,21 @@
     </row>
     <row r="148" spans="3:14">
       <c r="C148" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>170</v>
+        <v>219</v>
       </c>
       <c r="H148" s="10" t="s">
-        <v>263</v>
-      </c>
-      <c r="I148" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J148" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="I148" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J148" s="9" t="s">
         <v>67</v>
       </c>
       <c r="K148" s="9" t="s">
@@ -5860,15 +5867,15 @@
     </row>
     <row r="149" spans="2:14">
       <c r="B149" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="I149" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J149" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="I149" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J149" s="9" t="s">
         <v>67</v>
       </c>
       <c r="K149" s="9" t="s">
@@ -5880,15 +5887,15 @@
     </row>
     <row r="150" spans="2:14">
       <c r="B150" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="I150" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J150" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="I150" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J150" s="9" t="s">
         <v>67</v>
       </c>
       <c r="K150" s="9" t="s">
@@ -5900,15 +5907,15 @@
     </row>
     <row r="151" spans="2:14">
       <c r="B151" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="I151" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J151" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="I151" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J151" s="9" t="s">
         <v>67</v>
       </c>
       <c r="K151" s="9" t="s">
@@ -5920,21 +5927,21 @@
     </row>
     <row r="152" spans="2:14">
       <c r="B152" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E152" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="H152" t="s">
         <v>279</v>
       </c>
-      <c r="F152" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="H152" t="s">
-        <v>278</v>
-      </c>
-      <c r="I152" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J152" s="7" t="s">
+      <c r="I152" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J152" s="9" t="s">
         <v>67</v>
       </c>
       <c r="K152" s="9" t="s">
@@ -5946,15 +5953,15 @@
     </row>
     <row r="153" spans="2:14">
       <c r="B153" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="I153" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J153" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="I153" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J153" s="9" t="s">
         <v>67</v>
       </c>
       <c r="K153" s="9" t="s">
@@ -5964,21 +5971,21 @@
     </row>
     <row r="154" ht="28.5" spans="3:16">
       <c r="C154" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E154" s="11" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>170</v>
+        <v>219</v>
       </c>
       <c r="H154" t="s">
-        <v>283</v>
-      </c>
-      <c r="I154" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J154" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="I154" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J154" s="9" t="s">
         <v>67</v>
       </c>
       <c r="K154" s="9" t="s">
@@ -5996,21 +6003,21 @@
     </row>
     <row r="155" ht="28.5" spans="4:14">
       <c r="D155" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="H155" t="s">
         <v>284</v>
       </c>
-      <c r="E155" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="F155" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="H155" t="s">
-        <v>283</v>
-      </c>
-      <c r="I155" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J155" s="7" t="s">
+      <c r="I155" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J155" s="9" t="s">
         <v>67</v>
       </c>
       <c r="K155" s="9" t="s">
@@ -6022,21 +6029,21 @@
     </row>
     <row r="156" spans="4:14">
       <c r="D156" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>170</v>
+        <v>219</v>
       </c>
       <c r="H156" t="s">
-        <v>283</v>
-      </c>
-      <c r="I156" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J156" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="I156" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J156" s="9" t="s">
         <v>67</v>
       </c>
       <c r="K156" s="9" t="s">
@@ -6048,18 +6055,18 @@
     </row>
     <row r="157" spans="4:14">
       <c r="D157" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>170</v>
+        <v>219</v>
       </c>
       <c r="H157" t="s">
-        <v>283</v>
-      </c>
-      <c r="I157" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J157" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="I157" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J157" s="9" t="s">
         <v>67</v>
       </c>
       <c r="K157" s="9" t="s">
@@ -6071,18 +6078,18 @@
     </row>
     <row r="158" ht="28.5" spans="4:16">
       <c r="D158" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H158" t="s">
-        <v>283</v>
-      </c>
-      <c r="I158" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J158" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="I158" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J158" s="9" t="s">
         <v>67</v>
       </c>
       <c r="K158" s="9" t="s">
@@ -6100,18 +6107,18 @@
     </row>
     <row r="159" spans="4:14">
       <c r="D159" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>170</v>
+        <v>219</v>
       </c>
       <c r="H159" t="s">
-        <v>283</v>
-      </c>
-      <c r="I159" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J159" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="I159" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J159" s="9" t="s">
         <v>67</v>
       </c>
       <c r="K159" s="9" t="s">
@@ -6123,18 +6130,18 @@
     </row>
     <row r="160" spans="3:14">
       <c r="C160" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H160" t="s">
-        <v>283</v>
-      </c>
-      <c r="I160" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J160" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="I160" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J160" s="9" t="s">
         <v>67</v>
       </c>
       <c r="K160" s="9" t="s">
@@ -6146,18 +6153,18 @@
     </row>
     <row r="161" spans="4:14">
       <c r="D161" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>177</v>
+        <v>294</v>
       </c>
       <c r="H161" t="s">
-        <v>283</v>
-      </c>
-      <c r="I161" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J161" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="I161" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J161" s="9" t="s">
         <v>67</v>
       </c>
       <c r="K161" s="9" t="s">
@@ -6169,18 +6176,18 @@
     </row>
     <row r="162" spans="4:14">
       <c r="D162" s="1" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>170</v>
+        <v>219</v>
       </c>
       <c r="H162" t="s">
-        <v>283</v>
-      </c>
-      <c r="I162" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J162" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="I162" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J162" s="9" t="s">
         <v>67</v>
       </c>
       <c r="K162" s="9" t="s">
@@ -6192,18 +6199,18 @@
     </row>
     <row r="163" spans="4:14">
       <c r="D163" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>170</v>
+        <v>219</v>
       </c>
       <c r="H163" t="s">
-        <v>283</v>
-      </c>
-      <c r="I163" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J163" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="I163" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J163" s="9" t="s">
         <v>67</v>
       </c>
       <c r="K163" s="9" t="s">
@@ -6215,18 +6222,18 @@
     </row>
     <row r="164" spans="4:14">
       <c r="D164" s="1" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>170</v>
+        <v>219</v>
       </c>
       <c r="H164" t="s">
-        <v>283</v>
-      </c>
-      <c r="I164" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J164" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="I164" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J164" s="9" t="s">
         <v>67</v>
       </c>
       <c r="K164" s="9" t="s">
@@ -6238,21 +6245,21 @@
     </row>
     <row r="165" spans="3:14">
       <c r="C165" s="1" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E165" s="11" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>170</v>
+        <v>219</v>
       </c>
       <c r="H165" t="s">
-        <v>283</v>
-      </c>
-      <c r="I165" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J165" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="I165" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J165" s="9" t="s">
         <v>67</v>
       </c>
       <c r="K165" s="9" t="s">
@@ -6264,21 +6271,21 @@
     </row>
     <row r="166" spans="3:14">
       <c r="C166" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>170</v>
+        <v>219</v>
       </c>
       <c r="H166" t="s">
-        <v>300</v>
-      </c>
-      <c r="I166" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J166" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="I166" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J166" s="9" t="s">
         <v>67</v>
       </c>
       <c r="K166" s="9" t="s">
@@ -6290,21 +6297,21 @@
     </row>
     <row r="167" ht="28.5" spans="3:14">
       <c r="C167" s="1" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="E167" s="11" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>170</v>
+        <v>219</v>
       </c>
       <c r="H167" t="s">
-        <v>303</v>
-      </c>
-      <c r="I167" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J167" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="I167" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J167" s="9" t="s">
         <v>67</v>
       </c>
       <c r="K167" s="9" t="s">
@@ -6316,18 +6323,18 @@
     </row>
     <row r="168" spans="3:14">
       <c r="C168" s="1" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>170</v>
+        <v>219</v>
       </c>
       <c r="H168" t="s">
-        <v>283</v>
-      </c>
-      <c r="I168" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J168" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="I168" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J168" s="9" t="s">
         <v>67</v>
       </c>
       <c r="K168" s="9" t="s">
@@ -6339,13 +6346,13 @@
     </row>
     <row r="169" spans="2:14">
       <c r="B169" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="F169" s="2"/>
-      <c r="I169" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J169" s="7" t="s">
+      <c r="I169" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J169" s="9" t="s">
         <v>67</v>
       </c>
       <c r="K169" s="9" t="s">
@@ -6357,15 +6364,15 @@
     </row>
     <row r="170" spans="3:14">
       <c r="C170" s="1" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="I170" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J170" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="I170" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J170" s="9" t="s">
         <v>67</v>
       </c>
       <c r="K170" s="9" t="s">
@@ -6377,15 +6384,15 @@
     </row>
     <row r="171" spans="3:14">
       <c r="C171" s="1" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="I171" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J171" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="I171" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J171" s="9" t="s">
         <v>67</v>
       </c>
       <c r="K171" s="9" t="s">
@@ -6397,15 +6404,15 @@
     </row>
     <row r="172" spans="3:14">
       <c r="C172" s="1" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="I172" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J172" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="I172" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J172" s="9" t="s">
         <v>67</v>
       </c>
       <c r="K172" s="9" t="s">
@@ -6417,15 +6424,15 @@
     </row>
     <row r="173" spans="3:14">
       <c r="C173" s="1" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="I173" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J173" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="I173" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J173" s="9" t="s">
         <v>67</v>
       </c>
       <c r="K173" s="9" t="s">
@@ -6437,15 +6444,15 @@
     </row>
     <row r="174" spans="3:14">
       <c r="C174" s="1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="I174" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J174" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="I174" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J174" s="9" t="s">
         <v>67</v>
       </c>
       <c r="K174" s="9" t="s">
@@ -6457,15 +6464,15 @@
     </row>
     <row r="175" spans="3:14">
       <c r="C175" s="1" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="I175" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J175" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="I175" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J175" s="9" t="s">
         <v>67</v>
       </c>
       <c r="K175" s="9" t="s">
@@ -6477,15 +6484,15 @@
     </row>
     <row r="176" spans="3:14">
       <c r="C176" s="1" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="I176" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J176" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="I176" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J176" s="9" t="s">
         <v>67</v>
       </c>
       <c r="K176" s="9" t="s">
@@ -6497,15 +6504,15 @@
     </row>
     <row r="177" spans="4:14">
       <c r="D177" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="I177" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J177" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="I177" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J177" s="9" t="s">
         <v>67</v>
       </c>
       <c r="K177" s="9" t="s">
@@ -6517,15 +6524,15 @@
     </row>
     <row r="178" spans="4:14">
       <c r="D178" s="1" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="I178" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J178" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="I178" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J178" s="9" t="s">
         <v>67</v>
       </c>
       <c r="K178" s="9" t="s">
@@ -6537,15 +6544,15 @@
     </row>
     <row r="179" spans="4:14">
       <c r="D179" s="1" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="I179" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J179" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="I179" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J179" s="9" t="s">
         <v>67</v>
       </c>
       <c r="K179" s="9" t="s">
@@ -6557,15 +6564,15 @@
     </row>
     <row r="180" spans="3:14">
       <c r="C180" s="1" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="I180" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J180" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="I180" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J180" s="9" t="s">
         <v>67</v>
       </c>
       <c r="K180" s="9" t="s">
@@ -6577,15 +6584,15 @@
     </row>
     <row r="181" spans="4:14">
       <c r="D181" s="1" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="I181" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J181" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="I181" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J181" s="9" t="s">
         <v>67</v>
       </c>
       <c r="K181" s="9" t="s">
@@ -6597,15 +6604,15 @@
     </row>
     <row r="182" spans="3:14">
       <c r="C182" s="1" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="I182" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J182" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="I182" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J182" s="9" t="s">
         <v>67</v>
       </c>
       <c r="K182" s="9" t="s">
@@ -6617,15 +6624,15 @@
     </row>
     <row r="183" spans="2:14">
       <c r="B183" s="1" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="I183" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J183" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="I183" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J183" s="9" t="s">
         <v>67</v>
       </c>
       <c r="L183" s="9" t="s">
@@ -6640,15 +6647,15 @@
     </row>
     <row r="184" ht="28.5" spans="3:14">
       <c r="C184" s="1" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="I184" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J184" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="I184" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J184" s="9" t="s">
         <v>67</v>
       </c>
       <c r="L184" s="9" t="s">
@@ -6663,18 +6670,18 @@
     </row>
     <row r="185" ht="28.5" spans="3:14">
       <c r="C185" s="1" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="H185" t="s">
-        <v>324</v>
-      </c>
-      <c r="I185" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J185" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="I185" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J185" s="9" t="s">
         <v>67</v>
       </c>
       <c r="L185" s="9" t="s">
@@ -6689,21 +6696,21 @@
     </row>
     <row r="186" ht="28.5" spans="3:14">
       <c r="C186" s="1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="E186" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="F186" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="H186" t="s">
         <v>326</v>
       </c>
-      <c r="F186" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="H186" t="s">
-        <v>324</v>
-      </c>
-      <c r="I186" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J186" s="7" t="s">
+      <c r="I186" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J186" s="9" t="s">
         <v>67</v>
       </c>
       <c r="L186" s="9" t="s">
@@ -6718,18 +6725,18 @@
     </row>
     <row r="187" ht="28.5" spans="3:14">
       <c r="C187" s="1" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="H187" t="s">
-        <v>324</v>
-      </c>
-      <c r="I187" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J187" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="I187" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J187" s="9" t="s">
         <v>67</v>
       </c>
       <c r="L187" s="9" t="s">
@@ -6744,18 +6751,18 @@
     </row>
     <row r="188" ht="28.5" spans="3:14">
       <c r="C188" s="1" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="H188" t="s">
-        <v>324</v>
-      </c>
-      <c r="I188" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J188" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="I188" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J188" s="9" t="s">
         <v>67</v>
       </c>
       <c r="L188" s="9" t="s">
@@ -6770,18 +6777,18 @@
     </row>
     <row r="189" ht="28.5" spans="3:14">
       <c r="C189" s="1" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="H189" t="s">
-        <v>324</v>
-      </c>
-      <c r="I189" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J189" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="I189" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J189" s="9" t="s">
         <v>67</v>
       </c>
       <c r="L189" s="9" t="s">
@@ -6796,18 +6803,18 @@
     </row>
     <row r="190" ht="28.5" spans="3:14">
       <c r="C190" s="1" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="H190" t="s">
-        <v>324</v>
-      </c>
-      <c r="I190" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J190" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="I190" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J190" s="9" t="s">
         <v>67</v>
       </c>
       <c r="L190" s="9" t="s">
@@ -6822,15 +6829,15 @@
     </row>
     <row r="191" ht="28.5" spans="2:14">
       <c r="B191" s="1" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="I191" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J191" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="I191" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J191" s="9" t="s">
         <v>67</v>
       </c>
       <c r="L191" s="9" t="s">
@@ -6845,18 +6852,18 @@
     </row>
     <row r="192" ht="28.5" spans="3:14">
       <c r="C192" s="1" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="H192" t="s">
-        <v>324</v>
-      </c>
-      <c r="I192" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J192" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="I192" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J192" s="9" t="s">
         <v>67</v>
       </c>
       <c r="L192" s="9" t="s">
@@ -6871,18 +6878,18 @@
     </row>
     <row r="193" ht="28.5" spans="3:14">
       <c r="C193" s="1" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="H193" t="s">
-        <v>324</v>
-      </c>
-      <c r="I193" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J193" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="I193" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J193" s="9" t="s">
         <v>67</v>
       </c>
       <c r="L193" s="9" t="s">
@@ -6897,15 +6904,15 @@
     </row>
     <row r="194" ht="28.5" spans="3:14">
       <c r="C194" s="1" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="I194" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J194" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="I194" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J194" s="9" t="s">
         <v>67</v>
       </c>
       <c r="L194" s="9" t="s">
@@ -6920,21 +6927,21 @@
     </row>
     <row r="195" ht="28.5" spans="3:14">
       <c r="C195" s="1" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="H195" t="s">
-        <v>324</v>
-      </c>
-      <c r="I195" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J195" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="I195" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J195" s="9" t="s">
         <v>67</v>
       </c>
       <c r="L195" s="9" t="s">
@@ -6949,13 +6956,13 @@
     </row>
     <row r="196" spans="2:14">
       <c r="B196" s="1" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="F196" s="2"/>
-      <c r="I196" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J196" s="7" t="s">
+      <c r="I196" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J196" s="9" t="s">
         <v>67</v>
       </c>
       <c r="K196" s="9" t="s">
@@ -6967,18 +6974,18 @@
     </row>
     <row r="197" spans="3:14">
       <c r="C197" s="1" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="I197" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J197" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="I197" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J197" s="9" t="s">
         <v>67</v>
       </c>
       <c r="K197" s="9" t="s">
@@ -6990,18 +6997,18 @@
     </row>
     <row r="198" spans="3:14">
       <c r="C198" s="1" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="I198" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J198" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="I198" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J198" s="9" t="s">
         <v>67</v>
       </c>
       <c r="K198" s="9" t="s">
@@ -7013,18 +7020,18 @@
     </row>
     <row r="199" spans="3:14">
       <c r="C199" s="1" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="I199" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J199" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="I199" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J199" s="9" t="s">
         <v>67</v>
       </c>
       <c r="K199" s="9" t="s">
@@ -7036,18 +7043,18 @@
     </row>
     <row r="200" spans="4:14">
       <c r="D200" s="1" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="I200" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J200" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="I200" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J200" s="9" t="s">
         <v>67</v>
       </c>
       <c r="K200" s="9" t="s">
@@ -7059,18 +7066,18 @@
     </row>
     <row r="201" ht="28.5" spans="4:14">
       <c r="D201" s="1" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="I201" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J201" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="I201" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J201" s="9" t="s">
         <v>67</v>
       </c>
       <c r="K201" s="9" t="s">
@@ -7082,18 +7089,18 @@
     </row>
     <row r="202" spans="4:14">
       <c r="D202" s="1" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="I202" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J202" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="I202" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J202" s="9" t="s">
         <v>67</v>
       </c>
       <c r="K202" s="9" t="s">
@@ -7105,21 +7112,21 @@
     </row>
     <row r="203" spans="3:14">
       <c r="C203" s="1" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>170</v>
+        <v>219</v>
       </c>
       <c r="H203" t="s">
-        <v>352</v>
-      </c>
-      <c r="I203" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J203" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="I203" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J203" s="9" t="s">
         <v>67</v>
       </c>
       <c r="K203" s="9" t="s">
@@ -7131,32 +7138,32 @@
     </row>
     <row r="204" spans="3:10">
       <c r="C204" s="1" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="I204" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J204" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="I204" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J204" s="9" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="205" spans="3:14">
       <c r="C205" s="1" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="I205" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J205" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="I205" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J205" s="9" t="s">
         <v>67</v>
       </c>
       <c r="K205" s="9" t="s">
@@ -7168,21 +7175,21 @@
     </row>
     <row r="206" ht="28.5" spans="2:14">
       <c r="B206" s="1" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="H206" t="s">
-        <v>358</v>
-      </c>
-      <c r="I206" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J206" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="I206" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J206" s="9" t="s">
         <v>67</v>
       </c>
       <c r="M206" s="9" t="s">
@@ -7194,15 +7201,15 @@
     </row>
     <row r="207" ht="28.5" spans="4:14">
       <c r="D207" s="1" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="I207" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J207" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="I207" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J207" s="9" t="s">
         <v>67</v>
       </c>
       <c r="M207" s="9" t="s">
@@ -7214,15 +7221,15 @@
     </row>
     <row r="208" ht="28.5" spans="4:14">
       <c r="D208" s="1" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="F208" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="I208" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J208" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="I208" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J208" s="9" t="s">
         <v>67</v>
       </c>
       <c r="M208" s="9" t="s">
@@ -7234,18 +7241,18 @@
     </row>
     <row r="209" ht="28.5" spans="3:14">
       <c r="C209" s="1" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="F209" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="I209" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J209" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="I209" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J209" s="9" t="s">
         <v>67</v>
       </c>
       <c r="M209" s="9" t="s">
@@ -7257,18 +7264,18 @@
     </row>
     <row r="210" ht="28.5" spans="3:14">
       <c r="C210" s="1" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="I210" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J210" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="I210" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J210" s="9" t="s">
         <v>67</v>
       </c>
       <c r="M210" s="9" t="s">
@@ -7280,18 +7287,18 @@
     </row>
     <row r="211" ht="28.5" spans="3:14">
       <c r="C211" s="1" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="I211" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J211" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="I211" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J211" s="9" t="s">
         <v>67</v>
       </c>
       <c r="M211" s="9" t="s">
@@ -7303,18 +7310,18 @@
     </row>
     <row r="212" spans="2:14">
       <c r="B212" s="1" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="I212" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J212" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="I212" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J212" s="9" t="s">
         <v>67</v>
       </c>
       <c r="M212" s="9" t="s">
@@ -7326,21 +7333,21 @@
     </row>
     <row r="213" spans="2:14">
       <c r="B213" s="1" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="F213" s="2" t="s">
         <v>170</v>
       </c>
       <c r="H213" t="s">
-        <v>371</v>
-      </c>
-      <c r="I213" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J213" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="I213" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J213" s="9" t="s">
         <v>67</v>
       </c>
       <c r="K213" s="9" t="s">
@@ -7352,21 +7359,21 @@
     </row>
     <row r="214" spans="3:14">
       <c r="C214" s="1" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="F214" s="2" t="s">
         <v>170</v>
       </c>
       <c r="H214" t="s">
-        <v>372</v>
-      </c>
-      <c r="I214" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J214" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="I214" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J214" s="9" t="s">
         <v>67</v>
       </c>
       <c r="K214" s="9" t="s">
@@ -7378,21 +7385,21 @@
     </row>
     <row r="215" spans="3:14">
       <c r="C215" s="1" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="F215" s="2" t="s">
         <v>170</v>
       </c>
       <c r="H215" t="s">
-        <v>371</v>
-      </c>
-      <c r="I215" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J215" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="I215" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J215" s="9" t="s">
         <v>67</v>
       </c>
       <c r="K215" s="9" t="s">
@@ -7404,15 +7411,15 @@
     </row>
     <row r="216" spans="3:14">
       <c r="C216" s="1" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="F216" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="I216" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J216" s="7" t="s">
+      <c r="I216" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J216" s="9" t="s">
         <v>67</v>
       </c>
       <c r="K216" s="9" t="s">
@@ -7424,18 +7431,18 @@
     </row>
     <row r="217" spans="3:14">
       <c r="C217" s="1" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="F217" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="I217" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J217" s="7" t="s">
+      <c r="I217" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J217" s="9" t="s">
         <v>67</v>
       </c>
       <c r="K217" s="9" t="s">
@@ -7447,18 +7454,18 @@
     </row>
     <row r="218" spans="3:14">
       <c r="C218" s="1" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="F218" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="I218" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J218" s="7" t="s">
+      <c r="I218" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J218" s="9" t="s">
         <v>67</v>
       </c>
       <c r="K218" s="9" t="s">
@@ -7470,18 +7477,18 @@
     </row>
     <row r="219" spans="3:14">
       <c r="C219" s="1" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="F219" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="I219" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J219" s="7" t="s">
+      <c r="I219" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J219" s="9" t="s">
         <v>67</v>
       </c>
       <c r="K219" s="9" t="s">
@@ -7493,18 +7500,18 @@
     </row>
     <row r="220" spans="3:14">
       <c r="C220" s="1" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="F220" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="I220" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J220" s="7" t="s">
+      <c r="I220" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J220" s="9" t="s">
         <v>67</v>
       </c>
       <c r="K220" s="9" t="s">
@@ -7516,18 +7523,18 @@
     </row>
     <row r="221" spans="4:14">
       <c r="D221" s="1" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="F221" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="I221" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J221" s="7" t="s">
+      <c r="I221" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J221" s="9" t="s">
         <v>67</v>
       </c>
       <c r="K221" s="9" t="s">
@@ -7539,18 +7546,18 @@
     </row>
     <row r="222" spans="4:14">
       <c r="D222" s="1" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="F222" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="I222" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J222" s="7" t="s">
+      <c r="I222" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J222" s="9" t="s">
         <v>67</v>
       </c>
       <c r="K222" s="9" t="s">
@@ -7562,18 +7569,18 @@
     </row>
     <row r="223" spans="4:14">
       <c r="D223" s="1" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="F223" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="I223" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J223" s="7" t="s">
+      <c r="I223" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J223" s="9" t="s">
         <v>67</v>
       </c>
       <c r="K223" s="9" t="s">
@@ -7585,18 +7592,18 @@
     </row>
     <row r="224" spans="4:14">
       <c r="D224" s="1" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="F224" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="I224" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J224" s="7" t="s">
+      <c r="I224" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J224" s="9" t="s">
         <v>67</v>
       </c>
       <c r="K224" s="9" t="s">
@@ -7608,92 +7615,92 @@
     </row>
     <row r="225" spans="1:10">
       <c r="A225" s="1" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="F225" s="2"/>
-      <c r="I225" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J225" s="7" t="s">
+      <c r="I225" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J225" s="9" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="226" ht="28.5" spans="2:10">
       <c r="B226" s="1" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="F226" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I226" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J226" s="7" t="s">
+      <c r="I226" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J226" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="227" ht="28.5" spans="3:10">
       <c r="C227" s="1" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="F227" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I227" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J227" s="7" t="s">
+      <c r="I227" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J227" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="228" ht="28.5" spans="3:10">
       <c r="C228" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="F228" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I228" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J228" s="7" t="s">
+      <c r="I228" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J228" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="229" spans="2:10">
       <c r="B229" s="1" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="F229" s="2" t="s">
         <v>97</v>
       </c>
       <c r="H229" t="s">
-        <v>398</v>
-      </c>
-      <c r="I229" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J229" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="I229" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J229" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="230" spans="3:14">
       <c r="C230" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="F230" s="8" t="s">
         <v>97</v>
       </c>
       <c r="H230" t="s">
-        <v>398</v>
-      </c>
-      <c r="I230" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J230" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="I230" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J230" s="9" t="s">
         <v>23</v>
       </c>
       <c r="K230" s="9" t="s">
@@ -7703,18 +7710,18 @@
     </row>
     <row r="231" spans="3:14">
       <c r="C231" s="1" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="F231" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="I231" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J231" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="I231" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J231" s="9" t="s">
         <v>23</v>
       </c>
       <c r="K231" s="9" t="s">
@@ -7726,38 +7733,38 @@
     </row>
     <row r="232" spans="2:10">
       <c r="B232" s="1" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="F232" s="2" t="s">
         <v>97</v>
       </c>
       <c r="H232" t="s">
-        <v>403</v>
-      </c>
-      <c r="I232" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J232" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="I232" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J232" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="233" spans="3:11">
       <c r="C233" s="1" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="F233" s="8" t="s">
         <v>97</v>
       </c>
       <c r="H233" t="s">
-        <v>403</v>
-      </c>
-      <c r="I233" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J233" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="I233" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J233" s="9" t="s">
         <v>23</v>
       </c>
       <c r="K233" s="9" t="s">
@@ -7766,18 +7773,18 @@
     </row>
     <row r="234" spans="3:11">
       <c r="C234" s="1" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="F234" s="8" t="s">
         <v>97</v>
       </c>
       <c r="H234" t="s">
-        <v>403</v>
-      </c>
-      <c r="I234" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J234" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="I234" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J234" s="9" t="s">
         <v>23</v>
       </c>
       <c r="K234" s="9" t="s">
@@ -7786,21 +7793,21 @@
     </row>
     <row r="235" spans="3:14">
       <c r="C235" s="1" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="F235" s="2" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="H235" t="s">
-        <v>403</v>
-      </c>
-      <c r="I235" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J235" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="I235" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J235" s="9" t="s">
         <v>23</v>
       </c>
       <c r="K235" s="9" t="s">
@@ -7812,23 +7819,23 @@
     </row>
     <row r="236" spans="1:10">
       <c r="A236" s="1" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="F236" s="2"/>
-      <c r="I236" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J236" s="7" t="s">
+      <c r="I236" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J236" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="237" spans="2:14">
       <c r="B237" s="1" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="F237" s="2"/>
-      <c r="I237" s="7"/>
-      <c r="J237" s="7"/>
+      <c r="I237" s="9"/>
+      <c r="J237" s="9"/>
       <c r="K237" s="9" t="s">
         <v>24</v>
       </c>
@@ -7838,18 +7845,18 @@
     </row>
     <row r="238" spans="3:14">
       <c r="C238" s="1" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="F238" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="I238" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J238" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="I238" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J238" s="9" t="s">
         <v>23</v>
       </c>
       <c r="K238" s="9" t="s">
@@ -7861,21 +7868,21 @@
     </row>
     <row r="239" spans="3:14">
       <c r="C239" s="1" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="F239" s="2" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="H239" t="s">
-        <v>415</v>
-      </c>
-      <c r="I239" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J239" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="I239" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J239" s="9" t="s">
         <v>23</v>
       </c>
       <c r="K239" s="9" t="s">
@@ -7887,18 +7894,18 @@
     </row>
     <row r="240" spans="3:14">
       <c r="C240" s="1" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="F240" s="2" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="H240" t="s">
-        <v>415</v>
-      </c>
-      <c r="I240" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J240" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="I240" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J240" s="9" t="s">
         <v>23</v>
       </c>
       <c r="K240" s="9" t="s">
@@ -7910,15 +7917,15 @@
     </row>
     <row r="241" spans="3:14">
       <c r="C241" s="1" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="F241" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="I241" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J241" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="I241" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J241" s="9" t="s">
         <v>67</v>
       </c>
       <c r="K241" s="9" t="s">
@@ -7930,7 +7937,7 @@
     </row>
     <row r="242" spans="2:14">
       <c r="B242" s="1" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="F242" s="2"/>
       <c r="K242" s="9" t="s">
@@ -7942,15 +7949,15 @@
     </row>
     <row r="243" spans="3:14">
       <c r="C243" s="1" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="F243" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="I243" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J243" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="I243" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J243" s="9" t="s">
         <v>23</v>
       </c>
       <c r="K243" s="9" t="s">
@@ -7962,15 +7969,15 @@
     </row>
     <row r="244" spans="3:14">
       <c r="C244" s="1" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="F244" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="I244" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J244" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="I244" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J244" s="9" t="s">
         <v>23</v>
       </c>
       <c r="K244" s="9" t="s">
@@ -7982,7 +7989,7 @@
     </row>
     <row r="245" spans="2:14">
       <c r="B245" s="1" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="F245" s="2"/>
       <c r="K245" s="9" t="s">
@@ -7994,18 +8001,18 @@
     </row>
     <row r="246" spans="3:14">
       <c r="C246" s="1" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="E246" s="2" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="F246" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="I246" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J246" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="I246" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J246" s="9" t="s">
         <v>23</v>
       </c>
       <c r="K246" s="9" t="s">
@@ -8017,15 +8024,15 @@
     </row>
     <row r="247" spans="4:14">
       <c r="D247" s="1" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="F247" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="I247" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J247" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="I247" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J247" s="9" t="s">
         <v>23</v>
       </c>
       <c r="K247" s="9" t="s">
@@ -8037,15 +8044,15 @@
     </row>
     <row r="248" ht="28.5" spans="4:14">
       <c r="D248" s="1" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="F248" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I248" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J248" s="7" t="s">
+      <c r="I248" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J248" s="9" t="s">
         <v>23</v>
       </c>
       <c r="K248" s="9" t="s">
@@ -8057,15 +8064,15 @@
     </row>
     <row r="249" ht="28.5" spans="4:16">
       <c r="D249" s="1" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="F249" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="I249" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J249" s="7" t="s">
+      <c r="I249" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J249" s="9" t="s">
         <v>23</v>
       </c>
       <c r="K249" s="9" t="s">
@@ -8083,18 +8090,18 @@
     </row>
     <row r="250" ht="28.5" spans="3:16">
       <c r="C250" s="1" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="E250" s="2" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="F250" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="I250" s="7" t="s">
+      <c r="I250" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="J250" s="7" t="s">
+      <c r="J250" s="9" t="s">
         <v>23</v>
       </c>
       <c r="K250" s="9" t="s">
@@ -8112,15 +8119,15 @@
     </row>
     <row r="251" spans="3:14">
       <c r="C251" s="1" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="F251" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="I251" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J251" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="I251" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J251" s="9" t="s">
         <v>23</v>
       </c>
       <c r="K251" s="9" t="s">
@@ -8132,18 +8139,18 @@
     </row>
     <row r="252" spans="3:11">
       <c r="C252" s="1" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="E252" s="2" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="F252" s="8" t="s">
-        <v>434</v>
-      </c>
-      <c r="I252" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J252" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="I252" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J252" s="9" t="s">
         <v>67</v>
       </c>
       <c r="K252" s="9" t="s">
@@ -8152,15 +8159,15 @@
     </row>
     <row r="253" spans="4:11">
       <c r="D253" s="1" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="F253" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="I253" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J253" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="I253" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J253" s="9" t="s">
         <v>67</v>
       </c>
       <c r="K253" s="9" t="s">
@@ -8169,15 +8176,15 @@
     </row>
     <row r="254" spans="4:11">
       <c r="D254" s="1" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="F254" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="I254" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J254" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="I254" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J254" s="9" t="s">
         <v>67</v>
       </c>
       <c r="K254" s="9" t="s">
@@ -8186,15 +8193,15 @@
     </row>
     <row r="255" spans="4:11">
       <c r="D255" s="1" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="F255" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="I255" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J255" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="I255" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J255" s="9" t="s">
         <v>67</v>
       </c>
       <c r="K255" s="9" t="s">
@@ -8203,18 +8210,18 @@
     </row>
     <row r="256" spans="4:11">
       <c r="D256" s="1" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="E256" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F256" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="F256" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="I256" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J256" s="7" t="s">
+      <c r="I256" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J256" s="9" t="s">
         <v>67</v>
       </c>
       <c r="K256" s="9" t="s">
@@ -8223,15 +8230,15 @@
     </row>
     <row r="257" ht="28.5" spans="4:11">
       <c r="D257" s="1" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="F257" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="I257" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J257" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="I257" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J257" s="9" t="s">
         <v>67</v>
       </c>
       <c r="K257" s="9" t="s">
@@ -8240,18 +8247,18 @@
     </row>
     <row r="258" spans="4:11">
       <c r="D258" s="1" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="E258" s="2" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="F258" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="I258" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J258" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="I258" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J258" s="9" t="s">
         <v>67</v>
       </c>
       <c r="K258" s="9" t="s">
@@ -8260,35 +8267,35 @@
     </row>
     <row r="259" spans="1:11">
       <c r="A259" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="I259" s="7"/>
-      <c r="J259" s="7"/>
+        <v>448</v>
+      </c>
+      <c r="I259" s="9"/>
+      <c r="J259" s="9"/>
       <c r="K259" s="9"/>
     </row>
     <row r="260" spans="2:11">
       <c r="B260" s="1" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="F260" s="2"/>
-      <c r="I260" s="7"/>
-      <c r="J260" s="7"/>
+      <c r="I260" s="9"/>
+      <c r="J260" s="9"/>
       <c r="K260" s="9"/>
     </row>
     <row r="261" spans="3:11">
       <c r="C261" s="1" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="E261" s="2" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="F261" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="I261" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J261" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="I261" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J261" s="9" t="s">
         <v>67</v>
       </c>
       <c r="K261" s="9" t="s">
@@ -8297,18 +8304,18 @@
     </row>
     <row r="262" spans="3:11">
       <c r="C262" s="1" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="E262" s="2" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F262" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="I262" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J262" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="I262" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J262" s="9" t="s">
         <v>67</v>
       </c>
       <c r="K262" s="9" t="s">
@@ -8317,35 +8324,35 @@
     </row>
     <row r="263" ht="28.5" spans="3:13">
       <c r="C263" s="1" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="F263" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="I263" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J263" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="I263" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J263" s="9" t="s">
         <v>67</v>
       </c>
       <c r="K263" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="M263" t="s">
+      <c r="M263" s="5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="264" spans="3:13">
       <c r="C264" s="1" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="F264" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="I264" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J264" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="I264" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J264" s="9" t="s">
         <v>67</v>
       </c>
       <c r="K264" s="9" t="s">
@@ -8355,15 +8362,15 @@
     </row>
     <row r="265" spans="3:11">
       <c r="C265" s="1" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="F265" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="I265" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J265" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="I265" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J265" s="9" t="s">
         <v>67</v>
       </c>
       <c r="K265" s="9" t="s">
@@ -8375,30 +8382,30 @@
         <v>108</v>
       </c>
       <c r="F266" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="I266" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J266" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="I266" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J266" s="9" t="s">
         <v>67</v>
       </c>
       <c r="K266" s="9"/>
     </row>
     <row r="267" spans="3:11">
       <c r="C267" s="12" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="E267" s="2" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="F267" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="I267" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J267" s="7" t="s">
+      <c r="I267" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J267" s="9" t="s">
         <v>67</v>
       </c>
       <c r="K267" s="9" t="s">
@@ -8407,50 +8414,50 @@
     </row>
     <row r="268" spans="1:11">
       <c r="A268" s="1" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="F268" s="2"/>
-      <c r="I268" s="7"/>
-      <c r="J268" s="7"/>
+      <c r="I268" s="9"/>
+      <c r="J268" s="9"/>
       <c r="K268" s="9"/>
     </row>
     <row r="269" spans="2:10">
       <c r="B269" s="1" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="H269" t="s">
-        <v>458</v>
-      </c>
-      <c r="I269" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J269" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="I269" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J269" s="9" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="270" ht="28.5" spans="3:16">
       <c r="C270" s="1" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="E270" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="F270" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="H270" t="s">
         <v>460</v>
       </c>
-      <c r="F270" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="H270" t="s">
-        <v>458</v>
-      </c>
-      <c r="I270" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J270" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="K270" t="s">
-        <v>24</v>
-      </c>
-      <c r="O270" t="s">
+      <c r="I270" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J270" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="K270" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="O270" s="5" t="s">
         <v>24</v>
       </c>
       <c r="P270" s="5">
@@ -8459,18 +8466,18 @@
     </row>
     <row r="271" ht="28.5" spans="3:16">
       <c r="C271" s="1" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="F271" s="2" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="H271" t="s">
-        <v>458</v>
-      </c>
-      <c r="I271" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J271" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="I271" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J271" s="9" t="s">
         <v>67</v>
       </c>
       <c r="K271" s="9" t="s">
@@ -8485,18 +8492,18 @@
     </row>
     <row r="272" ht="28.5" spans="3:16">
       <c r="C272" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="F272" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="F272" s="2" t="s">
-        <v>461</v>
-      </c>
       <c r="H272" t="s">
-        <v>458</v>
-      </c>
-      <c r="I272" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J272" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="I272" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J272" s="9" t="s">
         <v>67</v>
       </c>
       <c r="K272" s="9" t="s">
@@ -8511,21 +8518,21 @@
     </row>
     <row r="273" ht="28.5" spans="3:16">
       <c r="C273" s="1" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="E273" s="2" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="F273" s="2" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="H273" t="s">
         <v>167</v>
       </c>
-      <c r="I273" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J273" s="7" t="s">
+      <c r="I273" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J273" s="9" t="s">
         <v>67</v>
       </c>
       <c r="K273" s="9" t="s">
@@ -8540,21 +8547,21 @@
     </row>
     <row r="274" ht="28.5" spans="3:16">
       <c r="C274" s="1" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="E274" s="2" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="F274" s="2" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="H274" t="s">
-        <v>468</v>
-      </c>
-      <c r="I274" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J274" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="I274" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J274" s="9" t="s">
         <v>67</v>
       </c>
       <c r="K274" s="9" t="s">
@@ -8569,15 +8576,15 @@
     </row>
     <row r="275" ht="28.5" spans="3:16">
       <c r="C275" s="1" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="F275" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="I275" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J275" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="I275" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J275" s="9" t="s">
         <v>67</v>
       </c>
       <c r="K275" s="9" t="s">
@@ -8592,18 +8599,18 @@
     </row>
     <row r="276" ht="28.5" spans="3:16">
       <c r="C276" s="1" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="F276" s="2" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="H276" t="s">
-        <v>458</v>
-      </c>
-      <c r="I276" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J276" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="I276" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J276" s="9" t="s">
         <v>67</v>
       </c>
       <c r="K276" s="9" t="s">
@@ -8618,17 +8625,17 @@
     </row>
     <row r="277" spans="2:16">
       <c r="B277" s="1" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="C277" s="1"/>
       <c r="F277" s="2"/>
       <c r="H277" t="s">
-        <v>471</v>
-      </c>
-      <c r="I277" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J277" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="I277" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J277" s="9" t="s">
         <v>67</v>
       </c>
       <c r="K277" s="9"/>
@@ -8637,24 +8644,24 @@
     </row>
     <row r="278" ht="28.5" spans="3:16">
       <c r="C278" s="1" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="F278" s="3" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="H278" t="s">
-        <v>471</v>
-      </c>
-      <c r="I278" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J278" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="K278" t="s">
-        <v>24</v>
-      </c>
-      <c r="O278" t="s">
+        <v>473</v>
+      </c>
+      <c r="I278" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J278" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="K278" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="O278" s="5" t="s">
         <v>24</v>
       </c>
       <c r="P278" s="15">
@@ -8663,18 +8670,18 @@
     </row>
     <row r="279" ht="28.5" spans="3:16">
       <c r="C279" s="1" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="F279" s="2" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="H279" t="s">
-        <v>471</v>
-      </c>
-      <c r="I279" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J279" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="I279" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J279" s="9" t="s">
         <v>67</v>
       </c>
       <c r="K279" s="9" t="s">
@@ -8689,18 +8696,18 @@
     </row>
     <row r="280" ht="28.5" spans="3:16">
       <c r="C280" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="F280" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="H280" t="s">
         <v>473</v>
       </c>
-      <c r="F280" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="H280" t="s">
-        <v>471</v>
-      </c>
-      <c r="I280" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J280" s="7" t="s">
+      <c r="I280" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J280" s="9" t="s">
         <v>67</v>
       </c>
       <c r="K280" s="9"/>
@@ -8709,53 +8716,53 @@
     </row>
     <row r="281" ht="28.5" spans="3:10">
       <c r="C281" s="1" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="F281" s="2" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="H281" t="s">
-        <v>471</v>
-      </c>
-      <c r="I281" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J281" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="I281" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J281" s="9" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="282" spans="2:11">
       <c r="B282" s="1" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="C282" s="1"/>
       <c r="F282" s="2" t="s">
         <v>97</v>
       </c>
       <c r="H282" t="s">
-        <v>471</v>
-      </c>
-      <c r="I282" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J282" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K282" t="s">
+        <v>473</v>
+      </c>
+      <c r="I282" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J282" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="K282" s="5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="283" spans="2:15">
       <c r="B283" s="1" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="F283" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="I283" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J283" s="7" t="s">
+      <c r="I283" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J283" s="9" t="s">
         <v>23</v>
       </c>
       <c r="K283" s="9" t="s">
@@ -8765,7 +8772,7 @@
     </row>
     <row r="284" ht="28.5" spans="2:16">
       <c r="B284" s="1" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="F284" s="2" t="s">
         <v>105</v>
@@ -8773,64 +8780,62 @@
       <c r="H284" t="s">
         <v>102</v>
       </c>
-      <c r="I284" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J284" s="7" t="s">
+      <c r="I284" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J284" s="9" t="s">
         <v>23</v>
       </c>
       <c r="K284" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="O284" t="s">
+      <c r="O284" s="5" t="s">
         <v>24</v>
       </c>
       <c r="P284" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="285" ht="28.5" spans="2:16">
+    <row r="285" spans="2:16">
       <c r="B285" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="E285" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="F285" s="2" t="s">
-        <v>105</v>
+        <v>480</v>
+      </c>
+      <c r="E285" s="8" t="s">
+        <v>481</v>
+      </c>
+      <c r="F285" s="8" t="s">
+        <v>32</v>
       </c>
       <c r="H285" t="s">
-        <v>480</v>
-      </c>
-      <c r="I285" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J285" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K285" s="9" t="s">
-        <v>24</v>
-      </c>
+        <v>482</v>
+      </c>
+      <c r="I285" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J285" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K285" s="9"/>
       <c r="O285" s="9"/>
       <c r="P285" s="9"/>
     </row>
     <row r="286" spans="2:11">
       <c r="B286" s="1" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="E286" s="2" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="F286" s="2" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="H286" t="s">
-        <v>468</v>
-      </c>
-      <c r="I286" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J286" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="I286" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J286" s="9" t="s">
         <v>67</v>
       </c>
       <c r="K286" s="9" t="s">
@@ -8839,39 +8844,39 @@
     </row>
     <row r="287" spans="1:11">
       <c r="A287" s="1" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="B287" s="1"/>
       <c r="F287" s="2"/>
-      <c r="I287" s="7"/>
-      <c r="J287" s="7"/>
+      <c r="I287" s="9"/>
+      <c r="J287" s="9"/>
       <c r="K287" s="9" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="288" ht="28.5" spans="2:16">
       <c r="B288" s="1" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="E288" s="2" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="F288" s="3" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="H288" t="s">
-        <v>480</v>
-      </c>
-      <c r="I288" t="s">
-        <v>23</v>
-      </c>
-      <c r="J288" t="s">
+        <v>482</v>
+      </c>
+      <c r="I288" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J288" s="5" t="s">
         <v>23</v>
       </c>
       <c r="K288" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="O288" t="s">
+      <c r="O288" s="5" t="s">
         <v>24</v>
       </c>
       <c r="P288" s="5">
@@ -8880,27 +8885,27 @@
     </row>
     <row r="289" ht="28.5" spans="3:16">
       <c r="C289" s="1" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="E289" s="2" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="F289" s="2" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="H289" t="s">
-        <v>480</v>
-      </c>
-      <c r="I289" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J289" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="I289" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J289" s="9" t="s">
         <v>23</v>
       </c>
       <c r="K289" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="M289" t="s">
+      <c r="M289" s="5" t="s">
         <v>24</v>
       </c>
       <c r="O289" s="9" t="s">
@@ -8912,21 +8917,21 @@
     </row>
     <row r="290" ht="28.5" spans="3:16">
       <c r="C290" s="1" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="E290" s="2" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="F290" s="2" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="H290" t="s">
-        <v>492</v>
-      </c>
-      <c r="I290" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J290" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="I290" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J290" s="9" t="s">
         <v>23</v>
       </c>
       <c r="K290" s="9" t="s">
@@ -8942,22 +8947,22 @@
     </row>
     <row r="291" ht="28.5" spans="2:16">
       <c r="B291" s="1" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="C291" s="1"/>
-      <c r="E291" s="14" t="s">
-        <v>494</v>
+      <c r="E291" s="8" t="s">
+        <v>496</v>
       </c>
       <c r="F291" s="2" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="H291" t="s">
-        <v>495</v>
-      </c>
-      <c r="I291" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J291" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="I291" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J291" s="9" t="s">
         <v>23</v>
       </c>
       <c r="K291" s="9" t="s">
@@ -8972,18 +8977,18 @@
     </row>
     <row r="292" ht="28.5" spans="2:16">
       <c r="B292" s="1" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="F292" s="2" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="H292" t="s">
-        <v>495</v>
-      </c>
-      <c r="I292" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J292" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="I292" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J292" s="9" t="s">
         <v>23</v>
       </c>
       <c r="K292" s="9" t="s">
@@ -8998,18 +9003,18 @@
     </row>
     <row r="293" ht="28.5" spans="2:16">
       <c r="B293" s="1" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="F293" s="2" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="H293" t="s">
         <v>102</v>
       </c>
-      <c r="I293" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J293" s="7" t="s">
+      <c r="I293" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J293" s="9" t="s">
         <v>23</v>
       </c>
       <c r="K293" s="9" t="s">
@@ -9024,18 +9029,18 @@
     </row>
     <row r="294" spans="2:16">
       <c r="B294" s="1" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="F294" s="2" t="s">
         <v>204</v>
       </c>
       <c r="H294" t="s">
-        <v>498</v>
-      </c>
-      <c r="I294" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J294" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="I294" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J294" s="9" t="s">
         <v>67</v>
       </c>
       <c r="K294" s="9" t="s">
@@ -9046,18 +9051,18 @@
     </row>
     <row r="295" spans="2:15">
       <c r="B295" s="1" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="F295" s="8" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="H295" t="s">
-        <v>499</v>
-      </c>
-      <c r="I295" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J295" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="I295" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J295" s="9" t="s">
         <v>67</v>
       </c>
       <c r="K295" s="9" t="s">
@@ -9067,24 +9072,24 @@
     </row>
     <row r="296" ht="28.5" spans="2:16">
       <c r="B296" s="1" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="F296" s="8" t="s">
         <v>105</v>
       </c>
       <c r="H296" t="s">
-        <v>500</v>
-      </c>
-      <c r="I296" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J296" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="I296" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J296" s="9" t="s">
         <v>23</v>
       </c>
       <c r="K296" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="O296" t="s">
+      <c r="O296" s="5" t="s">
         <v>24</v>
       </c>
       <c r="P296" s="5" t="s">
@@ -9093,21 +9098,21 @@
     </row>
     <row r="297" ht="28.5" spans="2:16">
       <c r="B297" s="1" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="E297" s="2" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="F297" s="2" t="s">
         <v>105</v>
       </c>
       <c r="H297" t="s">
-        <v>415</v>
-      </c>
-      <c r="I297" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J297" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="I297" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J297" s="9" t="s">
         <v>23</v>
       </c>
       <c r="K297" s="9" t="s">
@@ -9122,21 +9127,21 @@
     </row>
     <row r="298" ht="28.5" spans="2:16">
       <c r="B298" s="1" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="E298" s="2" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="F298" s="2" t="s">
         <v>105</v>
       </c>
       <c r="H298" t="s">
-        <v>505</v>
-      </c>
-      <c r="I298" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J298" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="I298" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J298" s="9" t="s">
         <v>23</v>
       </c>
       <c r="K298" s="9" t="s">
@@ -9151,21 +9156,21 @@
     </row>
     <row r="299" ht="28.5" spans="2:16">
       <c r="B299" s="1" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="E299" s="2" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="F299" s="2" t="s">
         <v>105</v>
       </c>
       <c r="H299" t="s">
-        <v>508</v>
-      </c>
-      <c r="I299" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J299" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="I299" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J299" s="9" t="s">
         <v>23</v>
       </c>
       <c r="K299" s="9" t="s">
@@ -9180,21 +9185,21 @@
     </row>
     <row r="300" ht="28.5" spans="2:16">
       <c r="B300" s="1" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="E300" s="2" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="F300" s="2" t="s">
         <v>105</v>
       </c>
       <c r="H300" t="s">
-        <v>509</v>
-      </c>
-      <c r="I300" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J300" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="I300" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J300" s="9" t="s">
         <v>23</v>
       </c>
       <c r="K300" s="9" t="s">
@@ -9209,12 +9214,12 @@
     </row>
     <row r="301" spans="1:16">
       <c r="A301" s="1" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="B301" s="1"/>
       <c r="F301" s="2"/>
-      <c r="I301" s="7"/>
-      <c r="J301" s="7"/>
+      <c r="I301" s="9"/>
+      <c r="J301" s="9"/>
       <c r="K301" s="9" t="s">
         <v>24</v>
       </c>
@@ -9223,15 +9228,15 @@
     </row>
     <row r="302" ht="28.5" spans="2:11">
       <c r="B302" s="1" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="F302" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="I302" t="s">
-        <v>23</v>
-      </c>
-      <c r="J302" t="s">
+      <c r="I302" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J302" s="5" t="s">
         <v>23</v>
       </c>
       <c r="K302" s="9" t="s">
@@ -9240,27 +9245,27 @@
     </row>
     <row r="303" ht="28.5" spans="3:16">
       <c r="C303" s="1" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="E303" s="2" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="F303" s="2" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="H303" t="s">
-        <v>515</v>
-      </c>
-      <c r="I303" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J303" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="I303" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J303" s="9" t="s">
         <v>67</v>
       </c>
       <c r="K303" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="O303" t="s">
+      <c r="O303" s="5" t="s">
         <v>24</v>
       </c>
       <c r="P303" s="5" t="s">
@@ -9269,21 +9274,21 @@
     </row>
     <row r="304" ht="28.5" spans="3:16">
       <c r="C304" s="1" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="E304" s="2" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="F304" s="2" t="s">
         <v>105</v>
       </c>
       <c r="H304" t="s">
-        <v>518</v>
-      </c>
-      <c r="I304" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J304" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="I304" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J304" s="9" t="s">
         <v>23</v>
       </c>
       <c r="K304" s="9" t="s">
@@ -9298,18 +9303,18 @@
     </row>
     <row r="305" ht="28.5" spans="3:16">
       <c r="C305" s="1" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="F305" s="2" t="s">
         <v>105</v>
       </c>
       <c r="H305" t="s">
-        <v>519</v>
-      </c>
-      <c r="I305" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J305" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="I305" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J305" s="9" t="s">
         <v>23</v>
       </c>
       <c r="K305" s="9" t="s">
@@ -9320,27 +9325,27 @@
     </row>
     <row r="306" spans="3:16">
       <c r="C306" s="1" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="E306" s="2" t="s">
-        <v>521</v>
-      </c>
-      <c r="F306" s="2" t="s">
-        <v>522</v>
+        <v>523</v>
+      </c>
+      <c r="F306" s="8" t="s">
+        <v>524</v>
       </c>
       <c r="H306" t="s">
-        <v>523</v>
-      </c>
-      <c r="I306" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J306" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="I306" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J306" s="9" t="s">
         <v>67</v>
       </c>
       <c r="K306" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="N306" t="s">
+      <c r="N306" s="5" t="s">
         <v>24</v>
       </c>
       <c r="O306" s="9"/>
@@ -9348,28 +9353,28 @@
     </row>
     <row r="307" ht="28.5" spans="3:16">
       <c r="C307" s="1" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="E307" s="2" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="F307" s="2" t="s">
         <v>105</v>
       </c>
       <c r="H307" t="s">
-        <v>524</v>
-      </c>
-      <c r="I307" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J307" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="I307" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J307" s="9" t="s">
         <v>23</v>
       </c>
       <c r="K307" s="9" t="s">
         <v>24</v>
       </c>
       <c r="N307" s="9"/>
-      <c r="O307" t="s">
+      <c r="O307" s="5" t="s">
         <v>24</v>
       </c>
       <c r="P307" s="5" t="s">
@@ -9378,12 +9383,12 @@
     </row>
     <row r="308" spans="2:16">
       <c r="B308" s="1" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="C308" s="1"/>
       <c r="F308" s="2"/>
-      <c r="I308" s="7"/>
-      <c r="J308" s="7"/>
+      <c r="I308" s="9"/>
+      <c r="J308" s="9"/>
       <c r="K308" s="9" t="s">
         <v>24</v>
       </c>
@@ -9392,21 +9397,21 @@
     </row>
     <row r="309" ht="28.5" spans="3:16">
       <c r="C309" s="1" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="F309" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="I309" t="s">
-        <v>23</v>
-      </c>
-      <c r="J309" t="s">
+      <c r="I309" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J309" s="5" t="s">
         <v>23</v>
       </c>
       <c r="K309" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="O309" t="s">
+      <c r="O309" s="5" t="s">
         <v>24</v>
       </c>
       <c r="P309" s="5" t="s">
@@ -9415,15 +9420,15 @@
     </row>
     <row r="310" ht="28.5" spans="3:16">
       <c r="C310" s="1" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="F310" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="I310" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J310" s="7" t="s">
+      <c r="I310" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J310" s="9" t="s">
         <v>23</v>
       </c>
       <c r="K310" s="9" t="s">
@@ -9438,15 +9443,15 @@
     </row>
     <row r="311" ht="28.5" spans="3:16">
       <c r="C311" s="1" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="F311" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="I311" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J311" s="7" t="s">
+      <c r="I311" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J311" s="9" t="s">
         <v>23</v>
       </c>
       <c r="K311" s="9" t="s">
@@ -9461,21 +9466,21 @@
     </row>
     <row r="312" spans="3:16">
       <c r="C312" s="1" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="F312" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="I312" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J312" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="I312" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J312" s="9" t="s">
         <v>23</v>
       </c>
       <c r="K312" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="N312" t="s">
+      <c r="N312" s="5" t="s">
         <v>24</v>
       </c>
       <c r="O312" s="9"/>
@@ -9483,11 +9488,11 @@
     </row>
     <row r="313" spans="1:14">
       <c r="A313" s="1" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="F313" s="2"/>
-      <c r="I313" s="7"/>
-      <c r="J313" s="7"/>
+      <c r="I313" s="9"/>
+      <c r="J313" s="9"/>
       <c r="K313" s="9" t="s">
         <v>24</v>
       </c>
@@ -9495,7 +9500,7 @@
     </row>
     <row r="314" spans="2:11">
       <c r="B314" s="1" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="F314" s="2"/>
       <c r="K314" s="9" t="s">
@@ -9504,24 +9509,24 @@
     </row>
     <row r="315" ht="28.5" spans="3:16">
       <c r="C315" s="1" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="E315" s="2" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="F315" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="I315" t="s">
-        <v>23</v>
-      </c>
-      <c r="J315" t="s">
+      <c r="I315" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J315" s="5" t="s">
         <v>23</v>
       </c>
       <c r="K315" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="O315" t="s">
+      <c r="O315" s="5" t="s">
         <v>24</v>
       </c>
       <c r="P315" s="5" t="s">
@@ -9530,18 +9535,18 @@
     </row>
     <row r="316" ht="28.5" spans="3:16">
       <c r="C316" s="13" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="E316" s="14" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="F316" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="I316" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J316" s="7" t="s">
+      <c r="I316" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J316" s="9" t="s">
         <v>23</v>
       </c>
       <c r="K316" s="9" t="s">
@@ -9556,18 +9561,18 @@
     </row>
     <row r="317" ht="28.5" spans="3:16">
       <c r="C317" s="13" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="E317" s="14" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="F317" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="I317" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J317" s="7" t="s">
+      <c r="I317" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J317" s="9" t="s">
         <v>23</v>
       </c>
       <c r="K317" s="9" t="s">
@@ -9582,18 +9587,18 @@
     </row>
     <row r="318" spans="3:16">
       <c r="C318" s="13" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="E318" s="14" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="F318" s="2" t="s">
-        <v>539</v>
-      </c>
-      <c r="I318" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J318" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="I318" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J318" s="9" t="s">
         <v>23</v>
       </c>
       <c r="K318" s="9" t="s">

--- a/AutoLoader/Contents/Support/房间名称分类处理.xlsx
+++ b/AutoLoader/Contents/Support/房间名称分类处理.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2044" uniqueCount="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2044" uniqueCount="540">
   <si>
     <t>一级</t>
   </si>
@@ -202,7 +202,7 @@
     <t>*阳台</t>
   </si>
   <si>
-    <t>私有区域；非火灾探测区域；消防广播需要保护；声光手报需要保护</t>
+    <t>私有区域；非火灾探测区域；正常照明；消防广播需要保护；声光手报需要保护</t>
   </si>
   <si>
     <t>公共场所</t>
@@ -1213,15 +1213,12 @@
     <t>非机动车停车场</t>
   </si>
   <si>
-    <t>汽车库</t>
-  </si>
-  <si>
-    <t>停车库，车库，I类汽车库，II类汽车库，机动车库</t>
-  </si>
-  <si>
     <t>机动车库</t>
   </si>
   <si>
+    <t>停车库，车库，I类汽车库，II类汽车库，汽车库</t>
+  </si>
+  <si>
     <t>地下车库</t>
   </si>
   <si>
@@ -1331,9 +1328,6 @@
   </si>
   <si>
     <t>无障碍盆浴间</t>
-  </si>
-  <si>
-    <t>私有区域；非火灾探测区域；正常照明；消防广播需要保护；声光手报需要保护</t>
   </si>
   <si>
     <t>无障碍淋浴间</t>
@@ -1651,41 +1645,41 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="36">
     <numFmt numFmtId="176" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;"/>
+    <numFmt numFmtId="6" formatCode="&quot;￥&quot;#,##0;[Red]&quot;￥&quot;\-#,##0"/>
     <numFmt numFmtId="23" formatCode="\$#,##0_);\(\$#,##0\)"/>
-    <numFmt numFmtId="177" formatCode="#\ ??/??"/>
-    <numFmt numFmtId="178" formatCode="mmmm\-yy"/>
+    <numFmt numFmtId="177" formatCode="mmmm\-yy"/>
     <numFmt numFmtId="5" formatCode="&quot;￥&quot;#,##0;&quot;￥&quot;\-#,##0"/>
-    <numFmt numFmtId="179" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;"/>
-    <numFmt numFmtId="180" formatCode="[$-804]aaa"/>
-    <numFmt numFmtId="181" formatCode="mmmmm"/>
-    <numFmt numFmtId="182" formatCode="\¥#,##0;[Red]\¥\-#,##0"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="183" formatCode="[DBNum1]上午/下午h&quot;时&quot;mm&quot;分&quot;"/>
-    <numFmt numFmtId="184" formatCode="[DBNum1][$-804]m&quot;月&quot;d&quot;日&quot;"/>
-    <numFmt numFmtId="185" formatCode="[$-804]aaaa"/>
-    <numFmt numFmtId="186" formatCode="\¥#,##0.00;[Red]\¥\-#,##0.00"/>
-    <numFmt numFmtId="187" formatCode="\¥#,##0.00;\¥\-#,##0.00"/>
-    <numFmt numFmtId="188" formatCode="yyyy/m/d\ h:mm\ AM/PM"/>
+    <numFmt numFmtId="178" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;"/>
+    <numFmt numFmtId="179" formatCode="[$-804]aaa"/>
+    <numFmt numFmtId="180" formatCode="h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="181" formatCode="[$-804]aaaa"/>
+    <numFmt numFmtId="182" formatCode="yyyy/m/d\ h:mm\ AM/PM"/>
+    <numFmt numFmtId="8" formatCode="&quot;￥&quot;#,##0.00;[Red]&quot;￥&quot;\-#,##0.00"/>
+    <numFmt numFmtId="183" formatCode="mm/dd/yy"/>
+    <numFmt numFmtId="25" formatCode="\$#,##0.00_);\(\$#,##0.00\)"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="184" formatCode="h:mm\ AM/PM"/>
+    <numFmt numFmtId="185" formatCode="dd\-mmm\-yy"/>
+    <numFmt numFmtId="186" formatCode="mmmmm\-yy"/>
+    <numFmt numFmtId="187" formatCode="\¥#,##0.00;[Red]\¥\-#,##0.00"/>
+    <numFmt numFmtId="24" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
+    <numFmt numFmtId="188" formatCode="m/d"/>
     <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
-    <numFmt numFmtId="189" formatCode="yy/m/d"/>
-    <numFmt numFmtId="6" formatCode="&quot;￥&quot;#,##0;[Red]&quot;￥&quot;\-#,##0"/>
+    <numFmt numFmtId="189" formatCode="[DBNum1]h&quot;时&quot;mm&quot;分&quot;"/>
     <numFmt numFmtId="190" formatCode="#\ ?/?"/>
-    <numFmt numFmtId="191" formatCode="dd\-mmm\-yy"/>
-    <numFmt numFmtId="25" formatCode="\$#,##0.00_);\(\$#,##0.00\)"/>
-    <numFmt numFmtId="192" formatCode="\¥#,##0;\¥\-#,##0"/>
-    <numFmt numFmtId="193" formatCode="mm/dd/yy"/>
-    <numFmt numFmtId="194" formatCode="mmmmm\-yy"/>
+    <numFmt numFmtId="191" formatCode="mmmmm"/>
+    <numFmt numFmtId="192" formatCode="#\ ??/??"/>
+    <numFmt numFmtId="193" formatCode="[DBNum1]上午/下午h&quot;时&quot;mm&quot;分&quot;"/>
+    <numFmt numFmtId="194" formatCode="\¥#,##0;\¥\-#,##0"/>
+    <numFmt numFmtId="195" formatCode="\¥#,##0;[Red]\¥\-#,##0"/>
+    <numFmt numFmtId="196" formatCode="\¥#,##0.00;\¥\-#,##0.00"/>
+    <numFmt numFmtId="197" formatCode="#\ ??"/>
+    <numFmt numFmtId="198" formatCode="[DBNum1][$-804]m&quot;月&quot;d&quot;日&quot;"/>
     <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
-    <numFmt numFmtId="195" formatCode="m/d"/>
-    <numFmt numFmtId="8" formatCode="&quot;￥&quot;#,##0.00;[Red]&quot;￥&quot;\-#,##0.00"/>
-    <numFmt numFmtId="196" formatCode="h:mm\ AM/PM"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="197" formatCode="[DBNum1]h&quot;时&quot;mm&quot;分&quot;"/>
-    <numFmt numFmtId="198" formatCode="h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="199" formatCode="#\ ??"/>
-    <numFmt numFmtId="24" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="199" formatCode="yy/m/d"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1724,62 +1718,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1801,8 +1740,63 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1810,6 +1804,22 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1823,31 +1833,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1874,13 +1868,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1892,25 +1886,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1922,37 +1928,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1964,37 +1940,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2012,7 +1958,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2024,13 +2000,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2042,13 +2018,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2067,6 +2061,17 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2096,16 +2101,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2127,17 +2132,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -2146,158 +2140,158 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2677,7 +2671,7 @@
   <dimension ref="A1:P318"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="O1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A298" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A211" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="O306" sqref="O306"/>
     </sheetView>
@@ -3106,7 +3100,7 @@
       <c r="E24" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="F24" s="8" t="s">
         <v>61</v>
       </c>
       <c r="I24" s="9" t="s">
@@ -7668,17 +7662,17 @@
       </c>
     </row>
     <row r="229" spans="2:10">
-      <c r="B229" s="1" t="s">
+      <c r="B229" s="12" t="s">
         <v>398</v>
       </c>
-      <c r="E229" s="2" t="s">
+      <c r="E229" s="8" t="s">
         <v>399</v>
       </c>
       <c r="F229" s="2" t="s">
         <v>97</v>
       </c>
       <c r="H229" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="I229" s="9" t="s">
         <v>23</v>
@@ -7689,13 +7683,13 @@
     </row>
     <row r="230" spans="3:14">
       <c r="C230" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F230" s="8" t="s">
         <v>97</v>
       </c>
       <c r="H230" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="I230" s="9" t="s">
         <v>23</v>
@@ -7710,13 +7704,13 @@
     </row>
     <row r="231" spans="3:14">
       <c r="C231" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="E231" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="E231" s="2" t="s">
+      <c r="F231" s="2" t="s">
         <v>403</v>
-      </c>
-      <c r="F231" s="2" t="s">
-        <v>404</v>
       </c>
       <c r="I231" s="9" t="s">
         <v>23</v>
@@ -7733,16 +7727,16 @@
     </row>
     <row r="232" spans="2:10">
       <c r="B232" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="E232" s="2" t="s">
         <v>405</v>
-      </c>
-      <c r="E232" s="2" t="s">
-        <v>406</v>
       </c>
       <c r="F232" s="2" t="s">
         <v>97</v>
       </c>
       <c r="H232" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="I232" s="9" t="s">
         <v>23</v>
@@ -7753,13 +7747,13 @@
     </row>
     <row r="233" spans="3:11">
       <c r="C233" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F233" s="8" t="s">
         <v>97</v>
       </c>
       <c r="H233" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="I233" s="9" t="s">
         <v>23</v>
@@ -7773,13 +7767,13 @@
     </row>
     <row r="234" spans="3:11">
       <c r="C234" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F234" s="8" t="s">
         <v>97</v>
       </c>
       <c r="H234" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="I234" s="9" t="s">
         <v>23</v>
@@ -7793,16 +7787,16 @@
     </row>
     <row r="235" spans="3:14">
       <c r="C235" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="E235" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="E235" s="2" t="s">
-        <v>410</v>
-      </c>
       <c r="F235" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="H235" t="s">
         <v>404</v>
-      </c>
-      <c r="H235" t="s">
-        <v>405</v>
       </c>
       <c r="I235" s="9" t="s">
         <v>23</v>
@@ -7819,7 +7813,7 @@
     </row>
     <row r="236" spans="1:10">
       <c r="A236" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F236" s="2"/>
       <c r="I236" s="9" t="s">
@@ -7831,7 +7825,7 @@
     </row>
     <row r="237" spans="2:14">
       <c r="B237" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F237" s="2"/>
       <c r="I237" s="9"/>
@@ -7845,13 +7839,13 @@
     </row>
     <row r="238" spans="3:14">
       <c r="C238" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="E238" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="E238" s="2" t="s">
-        <v>414</v>
-      </c>
       <c r="F238" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I238" s="9" t="s">
         <v>23</v>
@@ -7868,16 +7862,16 @@
     </row>
     <row r="239" spans="3:14">
       <c r="C239" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="E239" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="E239" s="2" t="s">
+      <c r="F239" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="H239" t="s">
         <v>416</v>
-      </c>
-      <c r="F239" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="H239" t="s">
-        <v>417</v>
       </c>
       <c r="I239" s="9" t="s">
         <v>23</v>
@@ -7894,13 +7888,13 @@
     </row>
     <row r="240" spans="3:14">
       <c r="C240" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F240" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H240" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="I240" s="9" t="s">
         <v>23</v>
@@ -7917,10 +7911,10 @@
     </row>
     <row r="241" spans="3:14">
       <c r="C241" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="F241" s="2" t="s">
         <v>419</v>
-      </c>
-      <c r="F241" s="2" t="s">
-        <v>420</v>
       </c>
       <c r="I241" s="9" t="s">
         <v>67</v>
@@ -7937,7 +7931,7 @@
     </row>
     <row r="242" spans="2:14">
       <c r="B242" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F242" s="2"/>
       <c r="K242" s="9" t="s">
@@ -7949,10 +7943,10 @@
     </row>
     <row r="243" spans="3:14">
       <c r="C243" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F243" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I243" s="9" t="s">
         <v>23</v>
@@ -7969,10 +7963,10 @@
     </row>
     <row r="244" spans="3:14">
       <c r="C244" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F244" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I244" s="9" t="s">
         <v>23</v>
@@ -7989,7 +7983,7 @@
     </row>
     <row r="245" spans="2:14">
       <c r="B245" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F245" s="2"/>
       <c r="K245" s="9" t="s">
@@ -8001,13 +7995,13 @@
     </row>
     <row r="246" spans="3:14">
       <c r="C246" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="E246" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="E246" s="2" t="s">
+      <c r="F246" s="2" t="s">
         <v>426</v>
-      </c>
-      <c r="F246" s="2" t="s">
-        <v>427</v>
       </c>
       <c r="I246" s="9" t="s">
         <v>23</v>
@@ -8024,10 +8018,10 @@
     </row>
     <row r="247" spans="4:14">
       <c r="D247" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F247" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I247" s="9" t="s">
         <v>23</v>
@@ -8044,7 +8038,7 @@
     </row>
     <row r="248" ht="28.5" spans="4:14">
       <c r="D248" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F248" s="2" t="s">
         <v>30</v>
@@ -8064,7 +8058,7 @@
     </row>
     <row r="249" ht="28.5" spans="4:16">
       <c r="D249" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F249" s="2" t="s">
         <v>89</v>
@@ -8090,10 +8084,10 @@
     </row>
     <row r="250" ht="28.5" spans="3:16">
       <c r="C250" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="E250" s="2" t="s">
         <v>431</v>
-      </c>
-      <c r="E250" s="2" t="s">
-        <v>432</v>
       </c>
       <c r="F250" s="8" t="s">
         <v>76</v>
@@ -8119,10 +8113,10 @@
     </row>
     <row r="251" spans="3:14">
       <c r="C251" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F251" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I251" s="9" t="s">
         <v>23</v>
@@ -8139,13 +8133,13 @@
     </row>
     <row r="252" spans="3:11">
       <c r="C252" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="E252" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="E252" s="2" t="s">
+      <c r="F252" s="8" t="s">
         <v>435</v>
-      </c>
-      <c r="F252" s="8" t="s">
-        <v>436</v>
       </c>
       <c r="I252" s="9" t="s">
         <v>67</v>
@@ -8159,10 +8153,10 @@
     </row>
     <row r="253" spans="4:11">
       <c r="D253" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F253" s="2" t="s">
-        <v>438</v>
+        <v>61</v>
       </c>
       <c r="I253" s="9" t="s">
         <v>67</v>
@@ -8176,10 +8170,10 @@
     </row>
     <row r="254" spans="4:11">
       <c r="D254" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F254" s="2" t="s">
-        <v>438</v>
+        <v>61</v>
       </c>
       <c r="I254" s="9" t="s">
         <v>67</v>
@@ -8193,10 +8187,10 @@
     </row>
     <row r="255" spans="4:11">
       <c r="D255" s="1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="F255" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="I255" s="9" t="s">
         <v>67</v>
@@ -8210,13 +8204,13 @@
     </row>
     <row r="256" spans="4:11">
       <c r="D256" s="1" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E256" s="2" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="F256" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="I256" s="9" t="s">
         <v>67</v>
@@ -8230,10 +8224,10 @@
     </row>
     <row r="257" ht="28.5" spans="4:11">
       <c r="D257" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F257" s="2" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="I257" s="9" t="s">
         <v>67</v>
@@ -8247,13 +8241,13 @@
     </row>
     <row r="258" spans="4:11">
       <c r="D258" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E258" s="2" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F258" s="2" t="s">
-        <v>438</v>
+        <v>61</v>
       </c>
       <c r="I258" s="9" t="s">
         <v>67</v>
@@ -8267,7 +8261,7 @@
     </row>
     <row r="259" spans="1:11">
       <c r="A259" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="I259" s="9"/>
       <c r="J259" s="9"/>
@@ -8275,7 +8269,7 @@
     </row>
     <row r="260" spans="2:11">
       <c r="B260" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F260" s="2"/>
       <c r="I260" s="9"/>
@@ -8284,13 +8278,13 @@
     </row>
     <row r="261" spans="3:11">
       <c r="C261" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="E261" s="2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F261" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="I261" s="9" t="s">
         <v>67</v>
@@ -8304,13 +8298,13 @@
     </row>
     <row r="262" spans="3:11">
       <c r="C262" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E262" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F262" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="I262" s="9" t="s">
         <v>67</v>
@@ -8324,10 +8318,10 @@
     </row>
     <row r="263" ht="28.5" spans="3:13">
       <c r="C263" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F263" s="2" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="I263" s="9" t="s">
         <v>67</v>
@@ -8344,10 +8338,10 @@
     </row>
     <row r="264" spans="3:13">
       <c r="C264" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F264" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="I264" s="9" t="s">
         <v>67</v>
@@ -8362,10 +8356,10 @@
     </row>
     <row r="265" spans="3:11">
       <c r="C265" s="1" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="F265" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="I265" s="9" t="s">
         <v>67</v>
@@ -8382,7 +8376,7 @@
         <v>108</v>
       </c>
       <c r="F266" s="2" t="s">
-        <v>438</v>
+        <v>61</v>
       </c>
       <c r="I266" s="9" t="s">
         <v>67</v>
@@ -8394,10 +8388,10 @@
     </row>
     <row r="267" spans="3:11">
       <c r="C267" s="12" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E267" s="2" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F267" s="2" t="s">
         <v>211</v>
@@ -8414,7 +8408,7 @@
     </row>
     <row r="268" spans="1:11">
       <c r="A268" s="1" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F268" s="2"/>
       <c r="I268" s="9"/>
@@ -8423,10 +8417,10 @@
     </row>
     <row r="269" spans="2:10">
       <c r="B269" s="1" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="H269" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="I269" s="9" t="s">
         <v>67</v>
@@ -8437,16 +8431,16 @@
     </row>
     <row r="270" ht="28.5" spans="3:16">
       <c r="C270" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="E270" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="F270" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="E270" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="F270" s="3" t="s">
-        <v>463</v>
-      </c>
       <c r="H270" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="I270" s="9" t="s">
         <v>67</v>
@@ -8466,13 +8460,13 @@
     </row>
     <row r="271" ht="28.5" spans="3:16">
       <c r="C271" s="1" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="F271" s="2" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="H271" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="I271" s="9" t="s">
         <v>67</v>
@@ -8492,13 +8486,13 @@
     </row>
     <row r="272" ht="28.5" spans="3:16">
       <c r="C272" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F272" s="2" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="H272" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="I272" s="9" t="s">
         <v>67</v>
@@ -8518,13 +8512,13 @@
     </row>
     <row r="273" ht="28.5" spans="3:16">
       <c r="C273" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E273" s="2" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F273" s="2" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="H273" t="s">
         <v>167</v>
@@ -8547,16 +8541,16 @@
     </row>
     <row r="274" ht="28.5" spans="3:16">
       <c r="C274" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="E274" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="F274" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="H274" t="s">
         <v>468</v>
-      </c>
-      <c r="E274" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="F274" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="H274" t="s">
-        <v>470</v>
       </c>
       <c r="I274" s="9" t="s">
         <v>67</v>
@@ -8576,10 +8570,10 @@
     </row>
     <row r="275" ht="28.5" spans="3:16">
       <c r="C275" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F275" s="2" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="I275" s="9" t="s">
         <v>67</v>
@@ -8599,13 +8593,13 @@
     </row>
     <row r="276" ht="28.5" spans="3:16">
       <c r="C276" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="F276" s="2" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="H276" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="I276" s="9" t="s">
         <v>67</v>
@@ -8625,12 +8619,12 @@
     </row>
     <row r="277" spans="2:16">
       <c r="B277" s="1" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C277" s="1"/>
       <c r="F277" s="2"/>
       <c r="H277" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="I277" s="9" t="s">
         <v>67</v>
@@ -8644,13 +8638,13 @@
     </row>
     <row r="278" ht="28.5" spans="3:16">
       <c r="C278" s="1" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="F278" s="3" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="H278" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="I278" s="9" t="s">
         <v>67</v>
@@ -8670,13 +8664,13 @@
     </row>
     <row r="279" ht="28.5" spans="3:16">
       <c r="C279" s="1" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="F279" s="2" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="H279" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="I279" s="9" t="s">
         <v>67</v>
@@ -8696,13 +8690,13 @@
     </row>
     <row r="280" ht="28.5" spans="3:16">
       <c r="C280" s="1" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F280" s="2" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="H280" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="I280" s="9" t="s">
         <v>67</v>
@@ -8716,13 +8710,13 @@
     </row>
     <row r="281" ht="28.5" spans="3:10">
       <c r="C281" s="1" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="F281" s="2" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="H281" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="I281" s="9" t="s">
         <v>67</v>
@@ -8733,14 +8727,14 @@
     </row>
     <row r="282" spans="2:11">
       <c r="B282" s="1" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C282" s="1"/>
       <c r="F282" s="2" t="s">
         <v>97</v>
       </c>
       <c r="H282" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="I282" s="9" t="s">
         <v>23</v>
@@ -8754,7 +8748,7 @@
     </row>
     <row r="283" spans="2:15">
       <c r="B283" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F283" s="2" t="s">
         <v>97</v>
@@ -8772,7 +8766,7 @@
     </row>
     <row r="284" ht="28.5" spans="2:16">
       <c r="B284" s="1" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="F284" s="2" t="s">
         <v>105</v>
@@ -8798,16 +8792,16 @@
     </row>
     <row r="285" spans="2:16">
       <c r="B285" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E285" s="8" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="F285" s="8" t="s">
         <v>32</v>
       </c>
       <c r="H285" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="I285" s="9" t="s">
         <v>28</v>
@@ -8821,16 +8815,16 @@
     </row>
     <row r="286" spans="2:11">
       <c r="B286" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E286" s="2" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="F286" s="2" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H286" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="I286" s="9" t="s">
         <v>67</v>
@@ -8844,7 +8838,7 @@
     </row>
     <row r="287" spans="1:11">
       <c r="A287" s="1" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B287" s="1"/>
       <c r="F287" s="2"/>
@@ -8856,16 +8850,16 @@
     </row>
     <row r="288" ht="28.5" spans="2:16">
       <c r="B288" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="E288" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="F288" s="3" t="s">
         <v>486</v>
       </c>
-      <c r="E288" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="F288" s="3" t="s">
-        <v>488</v>
-      </c>
       <c r="H288" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="I288" s="5" t="s">
         <v>23</v>
@@ -8885,16 +8879,16 @@
     </row>
     <row r="289" ht="28.5" spans="3:16">
       <c r="C289" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="E289" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="F289" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="E289" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="F289" s="2" t="s">
-        <v>491</v>
-      </c>
       <c r="H289" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="I289" s="9" t="s">
         <v>23</v>
@@ -8917,16 +8911,16 @@
     </row>
     <row r="290" ht="28.5" spans="3:16">
       <c r="C290" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="E290" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="F290" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="H290" t="s">
         <v>492</v>
-      </c>
-      <c r="E290" s="2" t="s">
-        <v>493</v>
-      </c>
-      <c r="F290" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="H290" t="s">
-        <v>494</v>
       </c>
       <c r="I290" s="9" t="s">
         <v>23</v>
@@ -8947,17 +8941,17 @@
     </row>
     <row r="291" ht="28.5" spans="2:16">
       <c r="B291" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C291" s="1"/>
       <c r="E291" s="8" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="F291" s="2" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H291" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="I291" s="9" t="s">
         <v>23</v>
@@ -8977,13 +8971,13 @@
     </row>
     <row r="292" ht="28.5" spans="2:16">
       <c r="B292" s="1" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="F292" s="2" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H292" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="I292" s="9" t="s">
         <v>23</v>
@@ -9003,10 +8997,10 @@
     </row>
     <row r="293" ht="28.5" spans="2:16">
       <c r="B293" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="F293" s="2" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H293" t="s">
         <v>102</v>
@@ -9029,13 +9023,13 @@
     </row>
     <row r="294" spans="2:16">
       <c r="B294" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="F294" s="2" t="s">
         <v>204</v>
       </c>
       <c r="H294" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="I294" s="9" t="s">
         <v>67</v>
@@ -9051,13 +9045,13 @@
     </row>
     <row r="295" spans="2:15">
       <c r="B295" s="1" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F295" s="8" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H295" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="I295" s="9" t="s">
         <v>67</v>
@@ -9072,13 +9066,13 @@
     </row>
     <row r="296" ht="28.5" spans="2:16">
       <c r="B296" s="1" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="F296" s="8" t="s">
         <v>105</v>
       </c>
       <c r="H296" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="I296" s="9" t="s">
         <v>23</v>
@@ -9098,16 +9092,16 @@
     </row>
     <row r="297" ht="28.5" spans="2:16">
       <c r="B297" s="1" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="E297" s="2" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="F297" s="2" t="s">
         <v>105</v>
       </c>
       <c r="H297" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="I297" s="9" t="s">
         <v>23</v>
@@ -9127,16 +9121,16 @@
     </row>
     <row r="298" ht="28.5" spans="2:16">
       <c r="B298" s="1" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="E298" s="2" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="F298" s="2" t="s">
         <v>105</v>
       </c>
       <c r="H298" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="I298" s="9" t="s">
         <v>23</v>
@@ -9156,16 +9150,16 @@
     </row>
     <row r="299" ht="28.5" spans="2:16">
       <c r="B299" s="1" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="E299" s="2" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F299" s="2" t="s">
         <v>105</v>
       </c>
       <c r="H299" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="I299" s="9" t="s">
         <v>23</v>
@@ -9185,16 +9179,16 @@
     </row>
     <row r="300" ht="28.5" spans="2:16">
       <c r="B300" s="1" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="E300" s="2" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="F300" s="2" t="s">
         <v>105</v>
       </c>
       <c r="H300" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="I300" s="9" t="s">
         <v>23</v>
@@ -9214,7 +9208,7 @@
     </row>
     <row r="301" spans="1:16">
       <c r="A301" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B301" s="1"/>
       <c r="F301" s="2"/>
@@ -9228,7 +9222,7 @@
     </row>
     <row r="302" ht="28.5" spans="2:11">
       <c r="B302" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="F302" s="2" t="s">
         <v>105</v>
@@ -9245,16 +9239,16 @@
     </row>
     <row r="303" ht="28.5" spans="3:16">
       <c r="C303" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E303" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="F303" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="H303" t="s">
         <v>515</v>
-      </c>
-      <c r="E303" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="F303" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="H303" t="s">
-        <v>517</v>
       </c>
       <c r="I303" s="9" t="s">
         <v>23</v>
@@ -9274,16 +9268,16 @@
     </row>
     <row r="304" ht="28.5" spans="3:16">
       <c r="C304" s="1" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="E304" s="2" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="F304" s="2" t="s">
         <v>105</v>
       </c>
       <c r="H304" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="I304" s="9" t="s">
         <v>23</v>
@@ -9303,13 +9297,13 @@
     </row>
     <row r="305" ht="28.5" spans="3:16">
       <c r="C305" s="1" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="F305" s="2" t="s">
         <v>105</v>
       </c>
       <c r="H305" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="I305" s="9" t="s">
         <v>23</v>
@@ -9325,16 +9319,16 @@
     </row>
     <row r="306" spans="3:16">
       <c r="C306" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="E306" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="F306" s="8" t="s">
         <v>522</v>
       </c>
-      <c r="E306" s="2" t="s">
+      <c r="H306" t="s">
         <v>523</v>
-      </c>
-      <c r="F306" s="8" t="s">
-        <v>524</v>
-      </c>
-      <c r="H306" t="s">
-        <v>525</v>
       </c>
       <c r="I306" s="9" t="s">
         <v>23</v>
@@ -9353,16 +9347,16 @@
     </row>
     <row r="307" ht="28.5" spans="3:16">
       <c r="C307" s="1" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="E307" s="2" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F307" s="2" t="s">
         <v>105</v>
       </c>
       <c r="H307" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="I307" s="9" t="s">
         <v>23</v>
@@ -9383,7 +9377,7 @@
     </row>
     <row r="308" spans="2:16">
       <c r="B308" s="1" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C308" s="1"/>
       <c r="F308" s="2"/>
@@ -9397,7 +9391,7 @@
     </row>
     <row r="309" ht="28.5" spans="3:16">
       <c r="C309" s="1" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="F309" s="2" t="s">
         <v>105</v>
@@ -9420,7 +9414,7 @@
     </row>
     <row r="310" ht="28.5" spans="3:16">
       <c r="C310" s="1" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="F310" s="2" t="s">
         <v>105</v>
@@ -9443,7 +9437,7 @@
     </row>
     <row r="311" ht="28.5" spans="3:16">
       <c r="C311" s="1" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="F311" s="2" t="s">
         <v>105</v>
@@ -9466,10 +9460,10 @@
     </row>
     <row r="312" spans="3:16">
       <c r="C312" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F312" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I312" s="9" t="s">
         <v>23</v>
@@ -9488,7 +9482,7 @@
     </row>
     <row r="313" spans="1:14">
       <c r="A313" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="F313" s="2"/>
       <c r="I313" s="9"/>
@@ -9500,7 +9494,7 @@
     </row>
     <row r="314" spans="2:11">
       <c r="B314" s="1" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="F314" s="2"/>
       <c r="K314" s="9" t="s">
@@ -9509,10 +9503,10 @@
     </row>
     <row r="315" ht="28.5" spans="3:16">
       <c r="C315" s="1" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="E315" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="F315" s="2" t="s">
         <v>105</v>
@@ -9535,10 +9529,10 @@
     </row>
     <row r="316" ht="28.5" spans="3:16">
       <c r="C316" s="13" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="E316" s="14" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="F316" s="2" t="s">
         <v>105</v>
@@ -9561,10 +9555,10 @@
     </row>
     <row r="317" ht="28.5" spans="3:16">
       <c r="C317" s="13" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E317" s="14" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="F317" s="2" t="s">
         <v>105</v>
@@ -9587,13 +9581,13 @@
     </row>
     <row r="318" spans="3:16">
       <c r="C318" s="13" t="s">
+        <v>537</v>
+      </c>
+      <c r="E318" s="14" t="s">
+        <v>538</v>
+      </c>
+      <c r="F318" s="2" t="s">
         <v>539</v>
-      </c>
-      <c r="E318" s="14" t="s">
-        <v>540</v>
-      </c>
-      <c r="F318" s="2" t="s">
-        <v>541</v>
       </c>
       <c r="I318" s="9" t="s">
         <v>23</v>

--- a/AutoLoader/Contents/Support/房间名称分类处理.xlsx
+++ b/AutoLoader/Contents/Support/房间名称分类处理.xlsx
@@ -10,14 +10,14 @@
     <sheet name="房间名称处理" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">房间名称处理!$A$1:$Q$321</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">房间名称处理!$A$1:$Q$326</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2068" uniqueCount="548">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2073" uniqueCount="553">
   <si>
     <t>一级</t>
   </si>
@@ -766,6 +766,18 @@
     <t>地库配电间</t>
   </si>
   <si>
+    <t>强弱电间</t>
+  </si>
+  <si>
+    <t>专变配电房</t>
+  </si>
+  <si>
+    <t>充电桩配电房</t>
+  </si>
+  <si>
+    <t>电表间</t>
+  </si>
+  <si>
     <t>配电室</t>
   </si>
   <si>
@@ -785,6 +797,9 @@
   </si>
   <si>
     <t>高压配电间</t>
+  </si>
+  <si>
+    <t>公变配电房</t>
   </si>
   <si>
     <t>变压器室</t>
@@ -1668,42 +1683,42 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="36">
+    <numFmt numFmtId="23" formatCode="\$#,##0_);\(\$#,##0\)"/>
+    <numFmt numFmtId="5" formatCode="&quot;￥&quot;#,##0;&quot;￥&quot;\-#,##0"/>
+    <numFmt numFmtId="24" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="mmmmm"/>
+    <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
+    <numFmt numFmtId="177" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;"/>
+    <numFmt numFmtId="178" formatCode="h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="179" formatCode="[DBNum1]上午/下午h&quot;时&quot;mm&quot;分&quot;"/>
+    <numFmt numFmtId="8" formatCode="&quot;￥&quot;#,##0.00;[Red]&quot;￥&quot;\-#,##0.00"/>
+    <numFmt numFmtId="180" formatCode="#\ ??/??"/>
+    <numFmt numFmtId="181" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;"/>
+    <numFmt numFmtId="182" formatCode="yy/m/d"/>
+    <numFmt numFmtId="183" formatCode="yyyy/m/d\ h:mm\ AM/PM"/>
+    <numFmt numFmtId="184" formatCode="[DBNum1][$-804]m&quot;月&quot;d&quot;日&quot;"/>
+    <numFmt numFmtId="185" formatCode="\¥#,##0;[Red]\¥\-#,##0"/>
+    <numFmt numFmtId="186" formatCode="[$-804]aaaa"/>
+    <numFmt numFmtId="187" formatCode="[DBNum1]h&quot;时&quot;mm&quot;分&quot;"/>
+    <numFmt numFmtId="188" formatCode="mm/dd/yy"/>
+    <numFmt numFmtId="189" formatCode="[$-804]aaa"/>
+    <numFmt numFmtId="190" formatCode="dd\-mmm\-yy"/>
+    <numFmt numFmtId="191" formatCode="#\ ?/?"/>
+    <numFmt numFmtId="192" formatCode="mmmmm\-yy"/>
+    <numFmt numFmtId="25" formatCode="\$#,##0.00_);\(\$#,##0.00\)"/>
     <numFmt numFmtId="6" formatCode="&quot;￥&quot;#,##0;[Red]&quot;￥&quot;\-#,##0"/>
-    <numFmt numFmtId="23" formatCode="\$#,##0_);\(\$#,##0\)"/>
-    <numFmt numFmtId="176" formatCode="mmmm\-yy"/>
-    <numFmt numFmtId="5" formatCode="&quot;￥&quot;#,##0;&quot;￥&quot;\-#,##0"/>
-    <numFmt numFmtId="177" formatCode="mm/dd/yy"/>
-    <numFmt numFmtId="178" formatCode="#\ ??/??"/>
-    <numFmt numFmtId="24" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
-    <numFmt numFmtId="179" formatCode="h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="180" formatCode="h:mm\ AM/PM"/>
-    <numFmt numFmtId="181" formatCode="[DBNum1]上午/下午h&quot;时&quot;mm&quot;分&quot;"/>
-    <numFmt numFmtId="8" formatCode="&quot;￥&quot;#,##0.00;[Red]&quot;￥&quot;\-#,##0.00"/>
-    <numFmt numFmtId="182" formatCode="[$-804]aaa"/>
-    <numFmt numFmtId="183" formatCode="\¥#,##0;\¥\-#,##0"/>
-    <numFmt numFmtId="184" formatCode="[DBNum1][$-804]m&quot;月&quot;d&quot;日&quot;"/>
-    <numFmt numFmtId="185" formatCode="[DBNum1]h&quot;时&quot;mm&quot;分&quot;"/>
-    <numFmt numFmtId="186" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;"/>
-    <numFmt numFmtId="187" formatCode="m/d"/>
-    <numFmt numFmtId="188" formatCode="[$-804]aaaa"/>
+    <numFmt numFmtId="193" formatCode="\¥#,##0;\¥\-#,##0"/>
+    <numFmt numFmtId="194" formatCode="m/d"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
+    <numFmt numFmtId="195" formatCode="mmmm\-yy"/>
+    <numFmt numFmtId="196" formatCode="h:mm\ AM/PM"/>
+    <numFmt numFmtId="197" formatCode="\¥#,##0.00;[Red]\¥\-#,##0.00"/>
+    <numFmt numFmtId="198" formatCode="\¥#,##0.00;\¥\-#,##0.00"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="189" formatCode="mmmmm"/>
-    <numFmt numFmtId="190" formatCode="\¥#,##0.00;\¥\-#,##0.00"/>
-    <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
-    <numFmt numFmtId="191" formatCode="\¥#,##0.00;[Red]\¥\-#,##0.00"/>
-    <numFmt numFmtId="192" formatCode="dd\-mmm\-yy"/>
-    <numFmt numFmtId="193" formatCode="#\ ?/?"/>
-    <numFmt numFmtId="194" formatCode="yy/m/d"/>
-    <numFmt numFmtId="195" formatCode="mmmmm\-yy"/>
-    <numFmt numFmtId="196" formatCode="yyyy/m/d\ h:mm\ AM/PM"/>
-    <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="197" formatCode="#\ ??"/>
-    <numFmt numFmtId="198" formatCode="\¥#,##0;[Red]\¥\-#,##0"/>
-    <numFmt numFmtId="25" formatCode="\$#,##0.00_);\(\$#,##0.00\)"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="199" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;"/>
+    <numFmt numFmtId="199" formatCode="#\ ??"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1728,7 +1743,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1741,16 +1780,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1763,24 +1826,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1794,26 +1842,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1833,25 +1865,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1859,13 +1881,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1886,25 +1901,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1922,67 +1919,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2000,13 +1943,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2018,19 +2009,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2042,31 +2081,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2084,7 +2099,40 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2100,41 +2148,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2171,157 +2184,159 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2359,14 +2374,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2692,10 +2707,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q321"/>
+  <dimension ref="A1:Q326"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A240" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="B120" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="C262" sqref="C262:D271"/>
     </sheetView>
@@ -2708,8 +2723,7 @@
     <col min="5" max="5" width="50.625" style="2" customWidth="1"/>
     <col min="6" max="6" width="66.375" style="3" customWidth="1"/>
     <col min="7" max="7" width="12.25" style="4" customWidth="1"/>
-    <col min="8" max="8" width="12.3583333333333" customWidth="1"/>
-    <col min="9" max="9" width="12.3583333333333" customWidth="1"/>
+    <col min="8" max="9" width="12.3583333333333" customWidth="1"/>
     <col min="10" max="11" width="9" style="5"/>
     <col min="12" max="13" width="10.875" style="5" customWidth="1"/>
     <col min="14" max="14" width="14.025" style="5" customWidth="1"/>
@@ -5416,184 +5430,98 @@
         <v>25</v>
       </c>
     </row>
-    <row r="133" ht="28.5" spans="3:17">
-      <c r="C133" s="10" t="s">
+    <row r="133" spans="3:17">
+      <c r="C133" t="s">
         <v>249</v>
       </c>
-      <c r="E133" s="8" t="s">
+      <c r="F133" s="8"/>
+      <c r="J133" s="9"/>
+      <c r="K133" s="9"/>
+      <c r="L133" s="9"/>
+      <c r="O133" s="9"/>
+      <c r="P133" s="9"/>
+      <c r="Q133" s="9"/>
+    </row>
+    <row r="134" spans="3:17">
+      <c r="C134" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="F133" s="2" t="s">
+      <c r="F134" s="8"/>
+      <c r="J134" s="9"/>
+      <c r="K134" s="9"/>
+      <c r="L134" s="9"/>
+      <c r="O134" s="9"/>
+      <c r="P134" s="9"/>
+      <c r="Q134" s="9"/>
+    </row>
+    <row r="135" spans="3:17">
+      <c r="C135" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="F135" s="8"/>
+      <c r="J135" s="9"/>
+      <c r="K135" s="9"/>
+      <c r="L135" s="9"/>
+      <c r="O135" s="9"/>
+      <c r="P135" s="9"/>
+      <c r="Q135" s="9"/>
+    </row>
+    <row r="136" spans="3:17">
+      <c r="C136" t="s">
+        <v>252</v>
+      </c>
+      <c r="F136" s="8"/>
+      <c r="J136" s="9"/>
+      <c r="K136" s="9"/>
+      <c r="L136" s="9"/>
+      <c r="O136" s="9"/>
+      <c r="P136" s="9"/>
+      <c r="Q136" s="9"/>
+    </row>
+    <row r="137" ht="28.5" spans="3:17">
+      <c r="C137" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="E137" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="F137" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="H133" t="s">
+      <c r="H137" t="s">
         <v>247</v>
       </c>
-      <c r="J133" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="K133" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="L133" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="O133" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="P133" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q133" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="134" ht="28.5" spans="4:17">
-      <c r="D134" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="F134" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="H134" t="s">
+      <c r="J137" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="K137" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="L137" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O137" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P137" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q137" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="138" ht="28.5" spans="4:17">
+      <c r="D138" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="H138" t="s">
         <v>247</v>
-      </c>
-      <c r="J134" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="K134" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="L134" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="M134" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="O134" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="P134" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q134" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="135" ht="28.5" spans="4:17">
-      <c r="D135" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="E135" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="F135" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="H135" t="s">
-        <v>247</v>
-      </c>
-      <c r="J135" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="K135" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="L135" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="M135" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="O135" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="P135" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q135" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="136" ht="28.5" spans="3:17">
-      <c r="C136" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="E136" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="F136" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="H136" t="s">
-        <v>258</v>
-      </c>
-      <c r="J136" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="K136" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="L136" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="M136" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="O136" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="P136" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q136" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="137" ht="28.5" spans="4:17">
-      <c r="D137" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="F137" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="H137" t="s">
-        <v>258</v>
-      </c>
-      <c r="J137" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="K137" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="L137" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="M137" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="O137" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="P137" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q137" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="138" ht="28.5" spans="3:17">
-      <c r="C138" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="F138" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="H138" t="s">
-        <v>261</v>
       </c>
       <c r="J138" s="9" t="s">
         <v>68</v>
@@ -5619,16 +5547,16 @@
     </row>
     <row r="139" ht="28.5" spans="4:17">
       <c r="D139" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="H139" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="J139" s="9" t="s">
         <v>68</v>
@@ -5652,266 +5580,281 @@
         <v>25</v>
       </c>
     </row>
-    <row r="140" ht="42.75" spans="3:17">
-      <c r="C140" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="E140" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="F140" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="H140" t="s">
-        <v>258</v>
-      </c>
-      <c r="J140" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="K140" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="L140" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="O140" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="P140" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q140" s="9" t="s">
-        <v>25</v>
-      </c>
+    <row r="140" spans="4:17">
+      <c r="D140" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="F140" s="2"/>
+      <c r="J140" s="9"/>
+      <c r="K140" s="9"/>
+      <c r="L140" s="9"/>
+      <c r="M140" s="9"/>
+      <c r="O140" s="9"/>
+      <c r="P140" s="9"/>
+      <c r="Q140" s="9"/>
     </row>
     <row r="141" ht="28.5" spans="3:17">
       <c r="C141" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="H141" t="s">
+        <v>263</v>
+      </c>
+      <c r="J141" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="K141" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="L141" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M141" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O141" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P141" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q141" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="142" ht="28.5" spans="4:17">
+      <c r="D142" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="H142" t="s">
+        <v>263</v>
+      </c>
+      <c r="J142" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="K142" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="L142" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M142" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O142" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P142" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q142" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="143" ht="28.5" spans="3:17">
+      <c r="C143" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="F141" s="2" t="s">
+      <c r="F143" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="H143" t="s">
+        <v>266</v>
+      </c>
+      <c r="J143" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="K143" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="L143" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M143" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O143" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P143" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q143" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="144" ht="28.5" spans="4:17">
+      <c r="D144" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="H144" t="s">
+        <v>266</v>
+      </c>
+      <c r="J144" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="K144" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="L144" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M144" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O144" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P144" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q144" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="145" ht="42.75" spans="3:17">
+      <c r="C145" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="F145" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="H141" t="s">
+      <c r="H145" t="s">
+        <v>263</v>
+      </c>
+      <c r="J145" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="K145" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="L145" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O145" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P145" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q145" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="146" ht="28.5" spans="3:17">
+      <c r="C146" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H146" t="s">
         <v>247</v>
       </c>
-      <c r="J141" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="K141" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="L141" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="O141" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="P141" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q141" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="142" ht="28.5" spans="3:17">
-      <c r="C142" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="F142" s="2" t="s">
+      <c r="J146" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="K146" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="L146" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O146" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P146" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q146" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="147" ht="28.5" spans="3:17">
+      <c r="C147" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="F147" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="H142" t="s">
+      <c r="H147" t="s">
         <v>247</v>
       </c>
-      <c r="J142" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="K142" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="L142" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="O142" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="P142" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q142" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="143" spans="2:15">
-      <c r="B143" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="E143" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="F143" s="2" t="s">
+      <c r="J147" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="K147" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="L147" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O147" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P147" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q147" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="148" spans="2:15">
+      <c r="B148" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="F148" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="H143" t="s">
-        <v>269</v>
-      </c>
-      <c r="J143" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="K143" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="L143" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="O143" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="144" spans="3:15">
-      <c r="C144" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="E144" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="F144" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="H144" s="11" t="s">
-        <v>269</v>
-      </c>
-      <c r="I144" s="11"/>
-      <c r="J144" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="K144" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="L144" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="O144" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="145" spans="3:15">
-      <c r="C145" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="E145" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="F145" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="H145" s="11" t="s">
-        <v>269</v>
-      </c>
-      <c r="I145" s="11"/>
-      <c r="J145" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="K145" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="L145" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="O145" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="146" spans="3:15">
-      <c r="C146" s="1" t="s">
+      <c r="H148" t="s">
         <v>274</v>
       </c>
-      <c r="E146" s="2" t="s">
+      <c r="J148" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="K148" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="L148" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O148" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="149" spans="3:15">
+      <c r="C149" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="F146" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="H146" s="11" t="s">
-        <v>269</v>
-      </c>
-      <c r="I146" s="11"/>
-      <c r="J146" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="K146" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="L146" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="O146" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="147" ht="42.75" spans="3:15">
-      <c r="C147" s="1" t="s">
+      <c r="E149" s="2" t="s">
         <v>276</v>
-      </c>
-      <c r="E147" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="F147" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="H147" s="11" t="s">
-        <v>269</v>
-      </c>
-      <c r="I147" s="11"/>
-      <c r="J147" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="K147" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="L147" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="O147" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="148" spans="3:15">
-      <c r="C148" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="F148" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="H148" s="11" t="s">
-        <v>269</v>
-      </c>
-      <c r="I148" s="11"/>
-      <c r="J148" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="K148" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="L148" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="O148" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="149" spans="3:15">
-      <c r="C149" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="E149" s="8" t="s">
-        <v>280</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>221</v>
       </c>
       <c r="H149" s="11" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="I149" s="11"/>
       <c r="J149" s="9" t="s">
@@ -5927,13 +5870,20 @@
         <v>25</v>
       </c>
     </row>
-    <row r="150" spans="2:15">
-      <c r="B150" s="1" t="s">
-        <v>281</v>
+    <row r="150" spans="3:15">
+      <c r="C150" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>278</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>221</v>
       </c>
+      <c r="H150" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="I150" s="11"/>
       <c r="J150" s="9" t="s">
         <v>68</v>
       </c>
@@ -5947,13 +5897,20 @@
         <v>25</v>
       </c>
     </row>
-    <row r="151" spans="2:15">
-      <c r="B151" s="1" t="s">
-        <v>282</v>
+    <row r="151" spans="3:15">
+      <c r="C151" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>280</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>221</v>
       </c>
+      <c r="H151" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="I151" s="11"/>
       <c r="J151" s="9" t="s">
         <v>68</v>
       </c>
@@ -5967,13 +5924,20 @@
         <v>25</v>
       </c>
     </row>
-    <row r="152" spans="2:15">
-      <c r="B152" s="1" t="s">
-        <v>283</v>
+    <row r="152" ht="42.75" spans="3:15">
+      <c r="C152" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>282</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>221</v>
       </c>
+      <c r="H152" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="I152" s="11"/>
       <c r="J152" s="9" t="s">
         <v>68</v>
       </c>
@@ -5987,48 +5951,44 @@
         <v>25</v>
       </c>
     </row>
-    <row r="153" spans="2:15">
-      <c r="B153" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="D153" s="10" t="s">
-        <v>284</v>
-      </c>
-      <c r="E153" s="8" t="s">
-        <v>285</v>
+    <row r="153" spans="3:15">
+      <c r="C153" s="1" t="s">
+        <v>283</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="H153" t="s">
+      <c r="H153" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="I153" s="11"/>
+      <c r="J153" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="K153" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="L153" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O153" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="154" spans="3:15">
+      <c r="C154" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="J153" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="K153" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="L153" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="O153" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="154" spans="4:15">
-      <c r="D154" s="10" t="s">
-        <v>286</v>
-      </c>
       <c r="E154" s="8" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="H154" t="s">
-        <v>284</v>
-      </c>
+      <c r="H154" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="I154" s="11"/>
       <c r="J154" s="9" t="s">
         <v>68</v>
       </c>
@@ -6044,7 +6004,7 @@
     </row>
     <row r="155" spans="2:15">
       <c r="B155" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>221</v>
@@ -6058,21 +6018,17 @@
       <c r="L155" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="O155" s="9"/>
-    </row>
-    <row r="156" ht="28.5" spans="3:17">
-      <c r="C156" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="E156" s="12" t="s">
-        <v>290</v>
+      <c r="O155" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="156" spans="2:15">
+      <c r="B156" s="1" t="s">
+        <v>287</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="H156" t="s">
-        <v>291</v>
-      </c>
       <c r="J156" s="9" t="s">
         <v>68</v>
       </c>
@@ -6085,25 +6041,13 @@
       <c r="O156" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="P156" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q156" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="157" ht="28.5" spans="4:15">
-      <c r="D157" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="E157" s="2" t="s">
-        <v>293</v>
+    </row>
+    <row r="157" spans="2:15">
+      <c r="B157" s="1" t="s">
+        <v>288</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="H157" t="s">
-        <v>291</v>
+        <v>221</v>
       </c>
       <c r="J157" s="9" t="s">
         <v>68</v>
@@ -6118,41 +6062,47 @@
         <v>25</v>
       </c>
     </row>
-    <row r="158" spans="4:15">
-      <c r="D158" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="E158" s="2" t="s">
-        <v>295</v>
+    <row r="158" spans="2:15">
+      <c r="B158" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="D158" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="E158" s="8" t="s">
+        <v>290</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>221</v>
       </c>
       <c r="H158" t="s">
+        <v>289</v>
+      </c>
+      <c r="J158" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="K158" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="L158" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O158" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="159" spans="4:15">
+      <c r="D159" s="10" t="s">
         <v>291</v>
       </c>
-      <c r="J158" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="K158" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="L158" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="O158" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="159" spans="4:15">
-      <c r="D159" s="1" t="s">
-        <v>296</v>
+      <c r="E159" s="8" t="s">
+        <v>292</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>221</v>
       </c>
       <c r="H159" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="J159" s="9" t="s">
         <v>68</v>
@@ -6167,15 +6117,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="160" ht="28.5" spans="4:17">
-      <c r="D160" s="1" t="s">
-        <v>297</v>
+    <row r="160" spans="2:15">
+      <c r="B160" s="1" t="s">
+        <v>293</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="H160" t="s">
-        <v>291</v>
+        <v>221</v>
       </c>
       <c r="J160" s="9" t="s">
         <v>68</v>
@@ -6186,25 +6133,20 @@
       <c r="L160" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="O160" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="P160" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q160" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="161" spans="4:15">
-      <c r="D161" s="1" t="s">
-        <v>298</v>
+      <c r="O160" s="9"/>
+    </row>
+    <row r="161" ht="28.5" spans="3:17">
+      <c r="C161" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="E161" s="12" t="s">
+        <v>295</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>221</v>
       </c>
       <c r="H161" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="J161" s="9" t="s">
         <v>68</v>
@@ -6218,16 +6160,25 @@
       <c r="O161" s="9" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="162" spans="3:15">
-      <c r="C162" s="1" t="s">
-        <v>299</v>
+      <c r="P161" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q161" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="162" ht="28.5" spans="4:15">
+      <c r="D162" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>298</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="H162" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="J162" s="9" t="s">
         <v>68</v>
@@ -6244,13 +6195,16 @@
     </row>
     <row r="163" spans="4:15">
       <c r="D163" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="E163" s="2" t="s">
         <v>300</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>301</v>
+        <v>221</v>
       </c>
       <c r="H163" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="J163" s="9" t="s">
         <v>68</v>
@@ -6267,13 +6221,13 @@
     </row>
     <row r="164" spans="4:15">
       <c r="D164" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>221</v>
       </c>
       <c r="H164" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="J164" s="9" t="s">
         <v>68</v>
@@ -6288,15 +6242,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="165" spans="4:15">
+    <row r="165" ht="28.5" spans="4:17">
       <c r="D165" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="H165" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="J165" s="9" t="s">
         <v>68</v>
@@ -6308,18 +6262,24 @@
         <v>25</v>
       </c>
       <c r="O165" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P165" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q165" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="166" spans="4:15">
       <c r="D166" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>221</v>
       </c>
       <c r="H166" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="J166" s="9" t="s">
         <v>68</v>
@@ -6336,68 +6296,59 @@
     </row>
     <row r="167" spans="3:15">
       <c r="C167" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="H167" t="s">
+        <v>296</v>
+      </c>
+      <c r="J167" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="K167" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="L167" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O167" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="168" spans="4:15">
+      <c r="D168" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="E167" s="12" t="s">
+      <c r="F168" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="F167" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="H167" t="s">
-        <v>291</v>
-      </c>
-      <c r="J167" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="K167" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="L167" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="O167" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="168" spans="3:15">
-      <c r="C168" s="1" t="s">
+      <c r="H168" t="s">
+        <v>296</v>
+      </c>
+      <c r="J168" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="K168" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="L168" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O168" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="169" spans="4:15">
+      <c r="D169" s="1" t="s">
         <v>307</v>
-      </c>
-      <c r="E168" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="F168" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="H168" t="s">
-        <v>309</v>
-      </c>
-      <c r="J168" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="K168" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="L168" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="O168" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="169" ht="28.5" spans="3:15">
-      <c r="C169" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="E169" s="12" t="s">
-        <v>311</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>221</v>
       </c>
       <c r="H169" t="s">
-        <v>312</v>
+        <v>296</v>
       </c>
       <c r="J169" s="9" t="s">
         <v>68</v>
@@ -6412,15 +6363,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="170" spans="3:15">
-      <c r="C170" s="1" t="s">
-        <v>313</v>
+    <row r="170" spans="4:15">
+      <c r="D170" s="1" t="s">
+        <v>308</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>221</v>
       </c>
       <c r="H170" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="J170" s="9" t="s">
         <v>68</v>
@@ -6435,11 +6386,16 @@
         <v>25</v>
       </c>
     </row>
-    <row r="171" spans="2:15">
-      <c r="B171" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="F171" s="2"/>
+    <row r="171" spans="4:15">
+      <c r="D171" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="F171" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="H171" t="s">
+        <v>296</v>
+      </c>
       <c r="J171" s="9" t="s">
         <v>68</v>
       </c>
@@ -6455,11 +6411,17 @@
     </row>
     <row r="172" spans="3:15">
       <c r="C172" s="1" t="s">
-        <v>315</v>
+        <v>310</v>
+      </c>
+      <c r="E172" s="12" t="s">
+        <v>311</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>221</v>
       </c>
+      <c r="H172" t="s">
+        <v>296</v>
+      </c>
       <c r="J172" s="9" t="s">
         <v>68</v>
       </c>
@@ -6475,11 +6437,17 @@
     </row>
     <row r="173" spans="3:15">
       <c r="C173" s="1" t="s">
-        <v>316</v>
+        <v>312</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>313</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>221</v>
       </c>
+      <c r="H173" t="s">
+        <v>314</v>
+      </c>
       <c r="J173" s="9" t="s">
         <v>68</v>
       </c>
@@ -6493,12 +6461,18 @@
         <v>25</v>
       </c>
     </row>
-    <row r="174" spans="3:15">
+    <row r="174" ht="28.5" spans="3:15">
       <c r="C174" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
+      </c>
+      <c r="E174" s="12" t="s">
+        <v>316</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>221</v>
+      </c>
+      <c r="H174" t="s">
+        <v>317</v>
       </c>
       <c r="J174" s="9" t="s">
         <v>68</v>
@@ -6520,6 +6494,9 @@
       <c r="F175" s="2" t="s">
         <v>221</v>
       </c>
+      <c r="H175" t="s">
+        <v>296</v>
+      </c>
       <c r="J175" s="9" t="s">
         <v>68</v>
       </c>
@@ -6533,13 +6510,11 @@
         <v>25</v>
       </c>
     </row>
-    <row r="176" spans="3:15">
-      <c r="C176" s="1" t="s">
+    <row r="176" spans="2:15">
+      <c r="B176" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="F176" s="2" t="s">
-        <v>221</v>
-      </c>
+      <c r="F176" s="2"/>
       <c r="J176" s="9" t="s">
         <v>68</v>
       </c>
@@ -6593,8 +6568,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="179" spans="4:15">
-      <c r="D179" s="1" t="s">
+    <row r="179" spans="3:15">
+      <c r="C179" s="1" t="s">
         <v>322</v>
       </c>
       <c r="F179" s="2" t="s">
@@ -6613,8 +6588,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="180" spans="4:15">
-      <c r="D180" s="1" t="s">
+    <row r="180" spans="3:15">
+      <c r="C180" s="1" t="s">
         <v>323</v>
       </c>
       <c r="F180" s="2" t="s">
@@ -6633,8 +6608,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="181" spans="4:15">
-      <c r="D181" s="1" t="s">
+    <row r="181" spans="3:15">
+      <c r="C181" s="1" t="s">
         <v>324</v>
       </c>
       <c r="F181" s="2" t="s">
@@ -6673,8 +6648,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="183" spans="4:15">
-      <c r="D183" s="1" t="s">
+    <row r="183" spans="3:15">
+      <c r="C183" s="1" t="s">
         <v>326</v>
       </c>
       <c r="F183" s="2" t="s">
@@ -6693,8 +6668,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="184" spans="3:15">
-      <c r="C184" s="1" t="s">
+    <row r="184" spans="4:15">
+      <c r="D184" s="1" t="s">
         <v>327</v>
       </c>
       <c r="F184" s="2" t="s">
@@ -6713,142 +6688,112 @@
         <v>25</v>
       </c>
     </row>
-    <row r="185" spans="2:15">
-      <c r="B185" s="1" t="s">
+    <row r="185" spans="4:15">
+      <c r="D185" s="1" t="s">
         <v>328</v>
       </c>
       <c r="F185" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="J185" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="K185" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="L185" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O185" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="186" spans="4:15">
+      <c r="D186" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="J185" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="K185" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="M185" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="N185" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="O185" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="186" ht="28.5" spans="3:15">
-      <c r="C186" s="1" t="s">
+      <c r="F186" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="J186" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="K186" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="L186" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O186" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="187" spans="3:15">
+      <c r="C187" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="F186" s="2" t="s">
+      <c r="F187" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="J187" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="K187" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="L187" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O187" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="188" spans="4:15">
+      <c r="D188" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="J186" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="K186" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="M186" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="N186" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="O186" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="187" ht="28.5" spans="3:15">
-      <c r="C187" s="1" t="s">
+      <c r="F188" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="J188" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="K188" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="L188" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O188" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="189" spans="3:15">
+      <c r="C189" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="F187" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="H187" t="s">
+      <c r="F189" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="J189" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="K189" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="L189" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O189" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="190" spans="2:15">
+      <c r="B190" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="J187" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="K187" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="M187" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="N187" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="O187" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="188" ht="28.5" spans="3:15">
-      <c r="C188" s="1" t="s">
+      <c r="F190" s="2" t="s">
         <v>334</v>
-      </c>
-      <c r="E188" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="F188" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="H188" t="s">
-        <v>333</v>
-      </c>
-      <c r="J188" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="K188" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="M188" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="N188" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="O188" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="189" ht="28.5" spans="3:15">
-      <c r="C189" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="F189" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="H189" t="s">
-        <v>333</v>
-      </c>
-      <c r="J189" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="K189" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="M189" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="N189" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="O189" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="190" ht="28.5" spans="3:15">
-      <c r="C190" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="F190" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="H190" t="s">
-        <v>333</v>
       </c>
       <c r="J190" s="9" t="s">
         <v>68</v>
@@ -6868,13 +6813,10 @@
     </row>
     <row r="191" ht="28.5" spans="3:15">
       <c r="C191" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="H191" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="J191" s="9" t="s">
         <v>68</v>
@@ -6894,36 +6836,42 @@
     </row>
     <row r="192" ht="28.5" spans="3:15">
       <c r="C192" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="F192" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="H192" t="s">
+        <v>338</v>
+      </c>
+      <c r="J192" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="K192" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="M192" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N192" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O192" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="193" ht="28.5" spans="3:15">
+      <c r="C193" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="F192" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="H192" t="s">
-        <v>333</v>
-      </c>
-      <c r="J192" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="K192" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="M192" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="N192" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="O192" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="193" ht="28.5" spans="2:15">
-      <c r="B193" s="1" t="s">
+      <c r="E193" s="2" t="s">
         <v>340</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>331</v>
+        <v>336</v>
+      </c>
+      <c r="H193" t="s">
+        <v>338</v>
       </c>
       <c r="J193" s="9" t="s">
         <v>68</v>
@@ -6946,10 +6894,10 @@
         <v>341</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="H194" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="J194" s="9" t="s">
         <v>68</v>
@@ -6972,10 +6920,10 @@
         <v>342</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="H195" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="J195" s="9" t="s">
         <v>68</v>
@@ -6998,7 +6946,10 @@
         <v>343</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>331</v>
+        <v>336</v>
+      </c>
+      <c r="H196" t="s">
+        <v>338</v>
       </c>
       <c r="J196" s="9" t="s">
         <v>68</v>
@@ -7020,170 +6971,179 @@
       <c r="C197" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="E197" s="2" t="s">
+      <c r="F197" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="H197" t="s">
+        <v>338</v>
+      </c>
+      <c r="J197" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="K197" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="M197" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N197" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O197" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="198" ht="28.5" spans="2:15">
+      <c r="B198" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="F197" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="H197" t="s">
-        <v>333</v>
-      </c>
-      <c r="J197" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="K197" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="M197" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="N197" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="O197" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="198" spans="2:15">
-      <c r="B198" s="1" t="s">
+      <c r="F198" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="J198" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="K198" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="M198" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N198" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O198" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="199" ht="28.5" spans="3:15">
+      <c r="C199" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="F198" s="2"/>
-      <c r="J198" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="K198" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="L198" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="O198" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="199" spans="3:15">
-      <c r="C199" s="1" t="s">
+      <c r="F199" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="H199" t="s">
+        <v>338</v>
+      </c>
+      <c r="J199" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="K199" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="M199" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N199" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O199" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="200" ht="28.5" spans="3:15">
+      <c r="C200" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="E199" s="2" t="s">
+      <c r="F200" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="H200" t="s">
+        <v>338</v>
+      </c>
+      <c r="J200" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="K200" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="M200" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N200" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O200" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="201" ht="28.5" spans="3:15">
+      <c r="C201" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="F199" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="J199" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="K199" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="L199" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="O199" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="200" spans="3:15">
-      <c r="C200" s="1" t="s">
+      <c r="F201" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="J201" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="K201" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="M201" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N201" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O201" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="202" ht="28.5" spans="3:15">
+      <c r="C202" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="E200" s="2" t="s">
+      <c r="E202" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="F200" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="J200" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="K200" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="L200" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="O200" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="201" spans="3:15">
-      <c r="C201" s="1" t="s">
+      <c r="F202" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="H202" t="s">
+        <v>338</v>
+      </c>
+      <c r="J202" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="K202" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="M202" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N202" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O202" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="203" spans="2:15">
+      <c r="B203" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="E201" s="2" t="s">
+      <c r="F203" s="2"/>
+      <c r="J203" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="K203" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="L203" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O203" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="204" spans="3:15">
+      <c r="C204" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="F201" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="J201" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="K201" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="L201" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="O201" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="202" spans="4:15">
-      <c r="D202" s="1" t="s">
+      <c r="E204" s="2" t="s">
         <v>353</v>
-      </c>
-      <c r="E202" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="F202" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="J202" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="K202" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="L202" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="O202" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="203" ht="28.5" spans="4:15">
-      <c r="D203" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="E203" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="F203" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="J203" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="K203" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="L203" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="O203" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="204" spans="4:15">
-      <c r="D204" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="E204" s="2" t="s">
-        <v>358</v>
       </c>
       <c r="F204" s="2" t="s">
         <v>221</v>
@@ -7203,17 +7163,14 @@
     </row>
     <row r="205" spans="3:15">
       <c r="C205" s="1" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="F205" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="H205" t="s">
-        <v>361</v>
-      </c>
       <c r="J205" s="9" t="s">
         <v>68</v>
       </c>
@@ -7227,9 +7184,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="206" spans="3:11">
+    <row r="206" spans="3:15">
       <c r="C206" s="1" t="s">
-        <v>362</v>
+        <v>356</v>
+      </c>
+      <c r="E206" s="2" t="s">
+        <v>357</v>
       </c>
       <c r="F206" s="2" t="s">
         <v>221</v>
@@ -7240,13 +7200,19 @@
       <c r="K206" s="9" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="207" spans="3:15">
-      <c r="C207" s="1" t="s">
-        <v>363</v>
+      <c r="L206" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O206" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="207" spans="4:15">
+      <c r="D207" s="1" t="s">
+        <v>358</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="F207" s="2" t="s">
         <v>221</v>
@@ -7264,295 +7230,286 @@
         <v>25</v>
       </c>
     </row>
-    <row r="208" ht="28.5" spans="2:15">
-      <c r="B208" s="1" t="s">
+    <row r="208" ht="28.5" spans="4:15">
+      <c r="D208" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="E208" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="F208" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="J208" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="K208" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="L208" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O208" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="209" spans="4:15">
+      <c r="D209" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="E209" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="F209" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="J209" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="K209" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="L209" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O209" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="210" spans="3:15">
+      <c r="C210" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="E210" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="E208" s="2" t="s">
+      <c r="F210" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="H210" t="s">
         <v>366</v>
       </c>
-      <c r="F208" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="H208" t="s">
+      <c r="J210" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="K210" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="L210" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O210" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="211" spans="3:11">
+      <c r="C211" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="J208" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="K208" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="N208" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="O208" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="209" ht="28.5" spans="4:15">
-      <c r="D209" s="1" t="s">
+      <c r="F211" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="J211" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="K211" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="212" spans="3:15">
+      <c r="C212" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="F209" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="J209" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="K209" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="N209" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="O209" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="210" ht="28.5" spans="4:15">
-      <c r="D210" s="1" t="s">
+      <c r="E212" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="F210" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="J210" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="K210" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="N210" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="O210" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="211" ht="28.5" spans="3:15">
-      <c r="C211" s="1" t="s">
+      <c r="F212" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="J212" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="K212" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="L212" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O212" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="213" ht="28.5" spans="2:15">
+      <c r="B213" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="E211" s="2" t="s">
+      <c r="E213" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="F211" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="J211" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="K211" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="N211" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="O211" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="212" ht="28.5" spans="3:15">
-      <c r="C212" s="1" t="s">
+      <c r="F213" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="H213" t="s">
         <v>372</v>
       </c>
-      <c r="E212" s="2" t="s">
+      <c r="J213" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="K213" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="N213" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O213" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="214" ht="28.5" spans="4:15">
+      <c r="D214" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="F212" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="J212" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="K212" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="N212" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="O212" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="213" ht="28.5" spans="3:15">
-      <c r="C213" s="1" t="s">
+      <c r="F214" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="J214" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="K214" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="N214" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O214" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="215" ht="28.5" spans="4:15">
+      <c r="D215" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="E213" s="2" t="s">
+      <c r="F215" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="J215" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="K215" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="N215" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O215" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="216" ht="28.5" spans="3:15">
+      <c r="C216" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="F213" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="J213" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="K213" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="N213" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="O213" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="214" spans="2:15">
-      <c r="B214" s="1" t="s">
+      <c r="E216" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="E214" s="2" t="s">
+      <c r="F216" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="J216" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="K216" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="N216" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O216" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="217" ht="28.5" spans="3:15">
+      <c r="C217" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="F214" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="J214" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="K214" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="N214" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="O214" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="215" spans="2:15">
-      <c r="B215" s="1" t="s">
+      <c r="E217" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="E215" s="2" t="s">
+      <c r="F217" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="J217" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="K217" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="N217" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O217" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="218" ht="28.5" spans="3:15">
+      <c r="C218" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="F215" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="H215" t="s">
+      <c r="E218" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="J215" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="K215" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="L215" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="O215" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="216" spans="3:15">
-      <c r="C216" s="1" t="s">
+      <c r="F218" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="J218" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="K218" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="N218" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O218" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="219" spans="2:15">
+      <c r="B219" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="E216" s="2" t="s">
+      <c r="E219" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="F216" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="H216" t="s">
-        <v>381</v>
-      </c>
-      <c r="J216" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="K216" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="L216" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="O216" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="217" spans="3:15">
-      <c r="C217" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="E217" s="2" t="s">
+      <c r="F219" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="J219" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="K219" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="N219" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O219" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="220" spans="2:15">
+      <c r="B220" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="F217" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="H217" t="s">
-        <v>380</v>
-      </c>
-      <c r="J217" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="K217" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="L217" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="O217" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="218" spans="3:15">
-      <c r="C218" s="1" t="s">
+      <c r="E220" s="2" t="s">
         <v>384</v>
-      </c>
-      <c r="F218" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="J218" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="K218" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="L218" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="O218" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="219" spans="3:15">
-      <c r="C219" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="E219" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="F219" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="J219" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="K219" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="L219" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="O219" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="220" spans="3:15">
-      <c r="C220" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="E220" s="2" t="s">
-        <v>388</v>
       </c>
       <c r="F220" s="2" t="s">
         <v>171</v>
       </c>
+      <c r="H220" t="s">
+        <v>385</v>
+      </c>
       <c r="J220" s="9" t="s">
         <v>68</v>
       </c>
@@ -7568,14 +7525,17 @@
     </row>
     <row r="221" spans="3:15">
       <c r="C221" s="1" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="F221" s="2" t="s">
         <v>171</v>
       </c>
+      <c r="H221" t="s">
+        <v>386</v>
+      </c>
       <c r="J221" s="9" t="s">
         <v>68</v>
       </c>
@@ -7591,14 +7551,17 @@
     </row>
     <row r="222" spans="3:15">
       <c r="C222" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="F222" s="2" t="s">
         <v>171</v>
       </c>
+      <c r="H222" t="s">
+        <v>385</v>
+      </c>
       <c r="J222" s="9" t="s">
         <v>68</v>
       </c>
@@ -7612,12 +7575,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="223" spans="4:15">
-      <c r="D223" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="E223" s="2" t="s">
-        <v>394</v>
+    <row r="223" spans="3:15">
+      <c r="C223" s="1" t="s">
+        <v>389</v>
       </c>
       <c r="F223" s="2" t="s">
         <v>171</v>
@@ -7635,12 +7595,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="224" spans="4:15">
-      <c r="D224" s="1" t="s">
-        <v>395</v>
+    <row r="224" spans="3:15">
+      <c r="C224" s="1" t="s">
+        <v>390</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="F224" s="2" t="s">
         <v>171</v>
@@ -7658,12 +7618,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="225" spans="4:15">
-      <c r="D225" s="1" t="s">
-        <v>397</v>
+    <row r="225" spans="3:15">
+      <c r="C225" s="1" t="s">
+        <v>392</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="F225" s="2" t="s">
         <v>171</v>
@@ -7681,12 +7641,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="226" spans="4:15">
-      <c r="D226" s="1" t="s">
-        <v>399</v>
+    <row r="226" spans="3:15">
+      <c r="C226" s="1" t="s">
+        <v>394</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="F226" s="2" t="s">
         <v>171</v>
@@ -7704,271 +7664,288 @@
         <v>25</v>
       </c>
     </row>
-    <row r="227" spans="1:11">
-      <c r="A227" s="1" t="s">
+    <row r="227" spans="3:15">
+      <c r="C227" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="E227" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="F227" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="J227" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="K227" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="L227" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O227" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="228" spans="4:15">
+      <c r="D228" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="E228" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="F228" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="J228" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="K228" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="L228" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O228" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="229" spans="4:15">
+      <c r="D229" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="E229" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="F227" s="2"/>
-      <c r="J227" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="K227" s="9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="228" ht="28.5" spans="2:11">
-      <c r="B228" s="1" t="s">
+      <c r="F229" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="J229" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="K229" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="L229" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O229" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="230" spans="4:15">
+      <c r="D230" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="F228" s="2" t="s">
+      <c r="E230" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="F230" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="J230" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="K230" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="L230" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O230" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="231" spans="4:15">
+      <c r="D231" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="E231" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="F231" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="J231" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="K231" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="L231" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O231" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="232" spans="1:11">
+      <c r="A232" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="F232" s="2"/>
+      <c r="J232" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="K232" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="233" ht="28.5" spans="2:11">
+      <c r="B233" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F233" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J228" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K228" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="229" ht="28.5" spans="3:11">
-      <c r="C229" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="F229" s="2" t="s">
+      <c r="J233" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K233" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="234" ht="28.5" spans="3:11">
+      <c r="C234" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="F234" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J229" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K229" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="230" ht="28.5" spans="3:11">
-      <c r="C230" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="F230" s="2" t="s">
+      <c r="J234" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K234" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="235" ht="28.5" spans="3:11">
+      <c r="C235" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="F235" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J230" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K230" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="231" spans="2:11">
-      <c r="B231" s="10" t="s">
-        <v>405</v>
-      </c>
-      <c r="E231" s="8" t="s">
-        <v>406</v>
-      </c>
-      <c r="F231" s="2" t="s">
+      <c r="J235" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K235" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="236" spans="2:11">
+      <c r="B236" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="E236" s="8" t="s">
+        <v>411</v>
+      </c>
+      <c r="F236" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="H231" t="s">
-        <v>405</v>
-      </c>
-      <c r="J231" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K231" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="232" spans="3:15">
-      <c r="C232" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="F232" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="H232" t="s">
-        <v>405</v>
-      </c>
-      <c r="J232" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K232" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="L232" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="O232" s="9"/>
-    </row>
-    <row r="233" spans="3:15">
-      <c r="C233" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="E233" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="F233" s="2" t="s">
+      <c r="H236" t="s">
         <v>410</v>
       </c>
-      <c r="J233" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K233" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="L233" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="O233" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="234" spans="2:11">
-      <c r="B234" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="E234" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="F234" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="H234" t="s">
-        <v>411</v>
-      </c>
-      <c r="J234" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K234" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="235" spans="3:12">
-      <c r="C235" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="F235" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="H235" t="s">
-        <v>411</v>
-      </c>
-      <c r="J235" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K235" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="L235" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="236" spans="3:12">
-      <c r="C236" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="F236" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="H236" t="s">
-        <v>411</v>
-      </c>
       <c r="J236" s="9" t="s">
         <v>28</v>
       </c>
       <c r="K236" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="L236" s="9" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="237" spans="3:15">
       <c r="C237" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="F237" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="H237" t="s">
+        <v>410</v>
+      </c>
+      <c r="J237" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K237" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L237" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O237" s="9"/>
+    </row>
+    <row r="238" spans="3:15">
+      <c r="C238" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="E238" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="F238" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="E237" s="2" t="s">
+      <c r="J238" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K238" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L238" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O238" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="239" spans="2:11">
+      <c r="B239" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="F237" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="H237" t="s">
-        <v>411</v>
-      </c>
-      <c r="J237" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K237" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="L237" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="O237" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="238" spans="1:11">
-      <c r="A238" s="1" t="s">
+      <c r="E239" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="F238" s="2"/>
-      <c r="J238" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K238" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="239" spans="2:15">
-      <c r="B239" s="1" t="s">
+      <c r="F239" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H239" t="s">
+        <v>416</v>
+      </c>
+      <c r="J239" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K239" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="240" spans="3:12">
+      <c r="C240" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="F239" s="2"/>
-      <c r="J239" s="9"/>
-      <c r="K239" s="9"/>
-      <c r="L239" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="O239" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="240" spans="3:15">
-      <c r="C240" s="1" t="s">
+      <c r="F240" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="H240" t="s">
+        <v>416</v>
+      </c>
+      <c r="J240" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K240" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L240" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="241" spans="3:12">
+      <c r="C241" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="E240" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="F240" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="J240" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K240" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="L240" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="O240" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="241" spans="3:15">
-      <c r="C241" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="E241" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="F241" s="2" t="s">
-        <v>410</v>
+      <c r="F241" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="H241" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="J241" s="9" t="s">
         <v>28</v>
@@ -7977,21 +7954,21 @@
         <v>28</v>
       </c>
       <c r="L241" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="O241" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="242" spans="3:15">
       <c r="C242" s="1" t="s">
-        <v>424</v>
+        <v>420</v>
+      </c>
+      <c r="E242" s="2" t="s">
+        <v>421</v>
       </c>
       <c r="F242" s="2" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="H242" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="J242" s="9" t="s">
         <v>28</v>
@@ -8006,31 +7983,25 @@
         <v>25</v>
       </c>
     </row>
-    <row r="243" spans="3:15">
-      <c r="C243" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="F243" s="2" t="s">
-        <v>426</v>
-      </c>
+    <row r="243" spans="1:11">
+      <c r="A243" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="F243" s="2"/>
       <c r="J243" s="9" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="K243" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="L243" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="O243" s="9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="244" spans="2:15">
       <c r="B244" s="1" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="F244" s="2"/>
+      <c r="J244" s="9"/>
+      <c r="K244" s="9"/>
       <c r="L244" s="9" t="s">
         <v>25</v>
       </c>
@@ -8040,10 +8011,13 @@
     </row>
     <row r="245" spans="3:15">
       <c r="C245" s="1" t="s">
-        <v>428</v>
+        <v>424</v>
+      </c>
+      <c r="E245" s="2" t="s">
+        <v>425</v>
       </c>
       <c r="F245" s="2" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="J245" s="9" t="s">
         <v>28</v>
@@ -8060,29 +8034,46 @@
     </row>
     <row r="246" spans="3:15">
       <c r="C246" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="E246" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="F246" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="H246" t="s">
+        <v>428</v>
+      </c>
+      <c r="J246" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K246" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L246" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O246" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="247" spans="3:15">
+      <c r="C247" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="F246" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="J246" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K246" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="L246" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="O246" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="247" spans="2:15">
-      <c r="B247" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="F247" s="2"/>
+      <c r="F247" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="H247" t="s">
+        <v>428</v>
+      </c>
+      <c r="J247" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K247" s="9" t="s">
+        <v>28</v>
+      </c>
       <c r="L247" s="9" t="s">
         <v>25</v>
       </c>
@@ -8092,242 +8083,238 @@
     </row>
     <row r="248" spans="3:15">
       <c r="C248" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="F248" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="E248" s="2" t="s">
+      <c r="J248" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="K248" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="L248" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O248" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="249" spans="2:15">
+      <c r="B249" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="F248" s="2" t="s">
+      <c r="F249" s="2"/>
+      <c r="L249" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O249" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="250" spans="3:15">
+      <c r="C250" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="J248" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K248" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="L248" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="O248" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="249" spans="4:15">
-      <c r="D249" s="1" t="s">
+      <c r="F250" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="J250" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K250" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L250" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O250" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="251" spans="3:15">
+      <c r="C251" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="F249" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="J249" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K249" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="L249" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="O249" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="250" ht="28.5" spans="4:15">
-      <c r="D250" s="1" t="s">
+      <c r="F251" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="J251" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K251" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L251" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O251" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="252" spans="2:15">
+      <c r="B252" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="F250" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J250" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K250" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="L250" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="O250" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="251" ht="28.5" spans="4:17">
-      <c r="D251" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="F251" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="J251" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K251" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="L251" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="O251" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="P251" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q251" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="252" ht="28.5" spans="3:17">
-      <c r="C252" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="E252" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="F252" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="J252" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="K252" s="9" t="s">
-        <v>28</v>
-      </c>
+      <c r="F252" s="2"/>
       <c r="L252" s="9" t="s">
         <v>25</v>
       </c>
       <c r="O252" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="P252" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q252" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="253" spans="3:15">
       <c r="C253" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="E253" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="F253" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="J253" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K253" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L253" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O253" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="254" spans="4:15">
+      <c r="D254" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="F253" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="J253" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K253" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="L253" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="O253" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="254" spans="3:12">
-      <c r="C254" s="1" t="s">
+      <c r="F254" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="J254" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K254" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L254" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O254" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="255" ht="28.5" spans="4:15">
+      <c r="D255" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="E254" s="2" t="s">
+      <c r="F255" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J255" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K255" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L255" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O255" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="256" ht="28.5" spans="4:17">
+      <c r="D256" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="F254" s="8" t="s">
+      <c r="F256" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J256" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K256" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L256" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O256" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P256" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q256" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="257" ht="28.5" spans="3:17">
+      <c r="C257" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="I254" s="7" t="s">
+      <c r="E257" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F257" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J257" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="K257" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L257" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O257" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P257" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q257" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="258" spans="3:15">
+      <c r="C258" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="F258" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="J258" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K258" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L258" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O258" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="259" spans="3:12">
+      <c r="C259" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="E259" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="F259" s="8" t="s">
+        <v>447</v>
+      </c>
+      <c r="I259" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="J254" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="K254" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="L254" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="255" spans="4:12">
-      <c r="D255" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="F255" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J255" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="K255" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="L255" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="256" spans="4:12">
-      <c r="D256" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="F256" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J256" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="K256" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="L256" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="257" spans="4:12">
-      <c r="D257" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="F257" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="J257" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="K257" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="L257" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="258" spans="4:12">
-      <c r="D258" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="E258" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="F258" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="J258" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="K258" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="L258" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="259" ht="28.5" spans="4:12">
-      <c r="D259" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="F259" s="2" t="s">
-        <v>450</v>
       </c>
       <c r="J259" s="9" t="s">
         <v>68</v>
@@ -8341,10 +8328,7 @@
     </row>
     <row r="260" spans="4:12">
       <c r="D260" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="E260" s="2" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="F260" s="2" t="s">
         <v>62</v>
@@ -8359,127 +8343,126 @@
         <v>25</v>
       </c>
     </row>
-    <row r="261" spans="1:12">
-      <c r="A261" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="J261" s="9"/>
-      <c r="K261" s="9"/>
-      <c r="L261" s="9"/>
-    </row>
-    <row r="262" spans="3:12">
-      <c r="C262" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="F262" s="2"/>
-      <c r="I262" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="J262" s="9"/>
-      <c r="K262" s="9"/>
-      <c r="L262" s="9"/>
+    <row r="261" spans="4:12">
+      <c r="D261" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="F261" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J261" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="K261" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="L261" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="262" spans="4:12">
+      <c r="D262" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="F262" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="J262" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="K262" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="L262" s="9" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="263" spans="4:12">
       <c r="D263" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="E263" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="F263" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="J263" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="K263" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="L263" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="264" ht="28.5" spans="4:12">
+      <c r="D264" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="F264" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="E263" s="2" t="s">
+      <c r="J264" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="K264" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="L264" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="265" spans="4:12">
+      <c r="D265" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="F263" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="J263" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="K263" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="L263" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="264" spans="4:12">
-      <c r="D264" s="1" t="s">
+      <c r="E265" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="E264" s="8" t="s">
+      <c r="F265" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J265" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="K265" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="L265" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="266" spans="1:12">
+      <c r="A266" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="F264" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="J264" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="K264" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="L264" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="265" spans="4:12">
-      <c r="D265" s="10" t="s">
+      <c r="J266" s="9"/>
+      <c r="K266" s="9"/>
+      <c r="L266" s="9"/>
+    </row>
+    <row r="267" spans="3:12">
+      <c r="C267" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="E265" s="2"/>
-      <c r="F265" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="J265" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="K265" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="L265" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="266" spans="4:12">
-      <c r="D266" s="10" t="s">
+      <c r="F267" s="2"/>
+      <c r="I267" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="J267" s="9"/>
+      <c r="K267" s="9"/>
+      <c r="L267" s="9"/>
+    </row>
+    <row r="268" spans="4:12">
+      <c r="D268" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="F266" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="J266" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="K266" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="L266" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="267" ht="28.5" spans="4:14">
-      <c r="D267" s="1" t="s">
+      <c r="E268" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="F267" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="J267" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="K267" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="L267" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="N267" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="268" spans="4:14">
-      <c r="D268" s="1" t="s">
-        <v>462</v>
-      </c>
       <c r="F268" s="2" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="J268" s="9" t="s">
         <v>68</v>
@@ -8490,14 +8473,16 @@
       <c r="L268" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="N268" s="9"/>
     </row>
     <row r="269" spans="4:12">
       <c r="D269" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="E269" s="8" t="s">
         <v>463</v>
       </c>
       <c r="F269" s="2" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="J269" s="9" t="s">
         <v>68</v>
@@ -8510,11 +8495,12 @@
       </c>
     </row>
     <row r="270" spans="4:12">
-      <c r="D270" s="1" t="s">
-        <v>109</v>
-      </c>
+      <c r="D270" s="10" t="s">
+        <v>464</v>
+      </c>
+      <c r="E270" s="2"/>
       <c r="F270" s="2" t="s">
-        <v>62</v>
+        <v>451</v>
       </c>
       <c r="J270" s="9" t="s">
         <v>68</v>
@@ -8522,196 +8508,152 @@
       <c r="K270" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="L270" s="9"/>
+      <c r="L270" s="9" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="271" spans="4:12">
       <c r="D271" s="10" t="s">
-        <v>464</v>
-      </c>
-      <c r="E271" s="2" t="s">
         <v>465</v>
       </c>
       <c r="F271" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="J271" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="K271" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="L271" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="272" ht="28.5" spans="4:14">
+      <c r="D272" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="F272" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="J272" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="K272" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="L272" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N272" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="273" spans="4:14">
+      <c r="D273" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F273" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="J273" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="K273" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="L273" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N273" s="9"/>
+    </row>
+    <row r="274" spans="4:12">
+      <c r="D274" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="F274" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="J274" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="K274" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="L274" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="275" spans="4:12">
+      <c r="D275" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F275" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J275" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="K275" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="L275" s="9"/>
+    </row>
+    <row r="276" spans="4:12">
+      <c r="D276" s="10" t="s">
+        <v>469</v>
+      </c>
+      <c r="E276" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="F276" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="J271" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="K271" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="L271" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="272" spans="1:12">
-      <c r="A272" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="F272" s="2"/>
-      <c r="J272" s="9"/>
-      <c r="K272" s="9"/>
-      <c r="L272" s="9"/>
-    </row>
-    <row r="273" spans="2:11">
-      <c r="B273" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="H273" t="s">
-        <v>467</v>
-      </c>
-      <c r="J273" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="K273" s="9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="274" ht="28.5" spans="3:17">
-      <c r="C274" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="E274" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="F274" s="3" t="s">
-        <v>470</v>
-      </c>
-      <c r="H274" t="s">
-        <v>467</v>
-      </c>
-      <c r="J274" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="K274" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="L274" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="P274" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q274" s="5">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="275" ht="28.5" spans="3:17">
-      <c r="C275" s="1" t="s">
+      <c r="J276" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="K276" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="L276" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="277" spans="1:12">
+      <c r="A277" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="F275" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="H275" t="s">
-        <v>467</v>
-      </c>
-      <c r="J275" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="K275" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="L275" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="P275" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q275" s="15">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="276" ht="28.5" spans="3:17">
-      <c r="C276" s="1" t="s">
+      <c r="F277" s="2"/>
+      <c r="J277" s="9"/>
+      <c r="K277" s="9"/>
+      <c r="L277" s="9"/>
+    </row>
+    <row r="278" spans="2:11">
+      <c r="B278" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="F276" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="H276" t="s">
-        <v>467</v>
-      </c>
-      <c r="J276" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="K276" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="L276" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="P276" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q276" s="15">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="277" ht="28.5" spans="3:17">
-      <c r="C277" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="E277" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="F277" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="H277" t="s">
-        <v>168</v>
-      </c>
-      <c r="J277" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="K277" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="L277" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="P277" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q277" s="15">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="278" ht="28.5" spans="3:17">
-      <c r="C278" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="E278" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="F278" s="2" t="s">
-        <v>470</v>
-      </c>
       <c r="H278" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="J278" s="9" t="s">
         <v>68</v>
       </c>
       <c r="K278" s="9" t="s">
         <v>68</v>
-      </c>
-      <c r="L278" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="P278" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q278" s="15">
-        <v>400</v>
       </c>
     </row>
     <row r="279" ht="28.5" spans="3:17">
       <c r="C279" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="F279" s="2" t="s">
-        <v>470</v>
+        <v>473</v>
+      </c>
+      <c r="E279" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="F279" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="H279" t="s">
+        <v>472</v>
       </c>
       <c r="J279" s="9" t="s">
         <v>68</v>
@@ -8719,25 +8661,25 @@
       <c r="K279" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="L279" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="P279" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q279" s="15">
+      <c r="L279" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="P279" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q279" s="5">
         <v>400</v>
       </c>
     </row>
     <row r="280" ht="28.5" spans="3:17">
       <c r="C280" s="1" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="F280" s="2" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="H280" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="J280" s="9" t="s">
         <v>68</v>
@@ -8751,18 +8693,19 @@
       <c r="P280" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="Q280" s="15">
+      <c r="Q280" s="13">
         <v>400</v>
       </c>
     </row>
-    <row r="281" spans="2:17">
-      <c r="B281" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="C281" s="1"/>
-      <c r="F281" s="2"/>
+    <row r="281" ht="28.5" spans="3:17">
+      <c r="C281" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="F281" s="2" t="s">
+        <v>475</v>
+      </c>
       <c r="H281" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="J281" s="9" t="s">
         <v>68</v>
@@ -8770,19 +8713,28 @@
       <c r="K281" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="L281" s="9"/>
-      <c r="P281" s="9"/>
-      <c r="Q281" s="15"/>
+      <c r="L281" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P281" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q281" s="13">
+        <v>400</v>
+      </c>
     </row>
     <row r="282" ht="28.5" spans="3:17">
       <c r="C282" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="F282" s="3" t="s">
-        <v>470</v>
+        <v>478</v>
+      </c>
+      <c r="E282" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="F282" s="2" t="s">
+        <v>475</v>
       </c>
       <c r="H282" t="s">
-        <v>480</v>
+        <v>168</v>
       </c>
       <c r="J282" s="9" t="s">
         <v>68</v>
@@ -8790,25 +8742,28 @@
       <c r="K282" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="L282" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="P282" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q282" s="15">
+      <c r="L282" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P282" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q282" s="13">
         <v>400</v>
       </c>
     </row>
     <row r="283" ht="28.5" spans="3:17">
       <c r="C283" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="E283" s="2" t="s">
         <v>481</v>
       </c>
       <c r="F283" s="2" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="H283" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J283" s="9" t="s">
         <v>68</v>
@@ -8822,19 +8777,16 @@
       <c r="P283" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="Q283" s="15">
+      <c r="Q283" s="13">
         <v>400</v>
       </c>
     </row>
     <row r="284" ht="28.5" spans="3:17">
       <c r="C284" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="F284" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="H284" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="J284" s="9" t="s">
         <v>68</v>
@@ -8842,19 +8794,25 @@
       <c r="K284" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="L284" s="9"/>
-      <c r="P284" s="9"/>
-      <c r="Q284" s="15"/>
-    </row>
-    <row r="285" ht="28.5" spans="3:11">
+      <c r="L284" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P284" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q284" s="13">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="285" ht="28.5" spans="3:17">
       <c r="C285" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="F285" s="2" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="H285" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="J285" s="9" t="s">
         <v>68</v>
@@ -8862,352 +8820,348 @@
       <c r="K285" s="9" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="286" spans="2:12">
+      <c r="L285" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P285" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q285" s="13">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="286" spans="2:17">
       <c r="B286" s="1" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C286" s="1"/>
-      <c r="F286" s="2" t="s">
-        <v>98</v>
-      </c>
+      <c r="F286" s="2"/>
       <c r="H286" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="J286" s="9" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="K286" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="L286" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="287" spans="2:16">
-      <c r="B287" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L286" s="9"/>
+      <c r="P286" s="9"/>
+      <c r="Q286" s="13"/>
+    </row>
+    <row r="287" ht="28.5" spans="3:17">
+      <c r="C287" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="F287" s="2" t="s">
-        <v>98</v>
+      <c r="F287" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="H287" t="s">
+        <v>485</v>
       </c>
       <c r="J287" s="9" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="K287" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="L287" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="P287" s="9"/>
-    </row>
-    <row r="288" ht="28.5" spans="2:17">
-      <c r="B288" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L287" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="P287" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q287" s="13">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="288" ht="28.5" spans="3:17">
+      <c r="C288" s="1" t="s">
         <v>486</v>
       </c>
       <c r="F288" s="2" t="s">
-        <v>106</v>
+        <v>475</v>
       </c>
       <c r="H288" t="s">
-        <v>103</v>
+        <v>485</v>
       </c>
       <c r="J288" s="9" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="K288" s="9" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="L288" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="P288" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q288" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="289" ht="28.5" spans="2:17">
-      <c r="B289" s="10" t="s">
+      <c r="P288" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q288" s="13">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="289" ht="28.5" spans="3:17">
+      <c r="C289" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="E289" s="8" t="s">
-        <v>488</v>
-      </c>
-      <c r="F289" s="8" t="s">
-        <v>470</v>
+      <c r="F289" s="2" t="s">
+        <v>475</v>
       </c>
       <c r="H289" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="J289" s="9" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="K289" s="9" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="L289" s="9"/>
       <c r="P289" s="9"/>
-      <c r="Q289" s="9"/>
-    </row>
-    <row r="290" spans="2:12">
-      <c r="B290" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="E290" s="2" t="s">
+      <c r="Q289" s="13"/>
+    </row>
+    <row r="290" ht="28.5" spans="3:11">
+      <c r="C290" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="F290" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="H290" t="s">
+        <v>485</v>
+      </c>
+      <c r="J290" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="K290" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="291" spans="2:12">
+      <c r="B291" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="C291" s="1"/>
+      <c r="F291" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H291" t="s">
+        <v>485</v>
+      </c>
+      <c r="J291" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K291" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L291" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="292" spans="2:16">
+      <c r="B292" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="F290" s="2" t="s">
+      <c r="F292" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J292" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K292" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L292" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P292" s="9"/>
+    </row>
+    <row r="293" ht="28.5" spans="2:17">
+      <c r="B293" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="H290" t="s">
-        <v>477</v>
-      </c>
-      <c r="J290" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="K290" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="L290" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="291" spans="1:12">
-      <c r="A291" s="1" t="s">
+      <c r="F293" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H293" t="s">
+        <v>103</v>
+      </c>
+      <c r="J293" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K293" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L293" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P293" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q293" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="294" ht="28.5" spans="2:17">
+      <c r="B294" s="10" t="s">
         <v>492</v>
       </c>
-      <c r="B291" s="1"/>
-      <c r="F291" s="2"/>
-      <c r="J291" s="9"/>
-      <c r="K291" s="9"/>
-      <c r="L291" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="292" ht="28.5" spans="2:17">
-      <c r="B292" s="1" t="s">
+      <c r="E294" s="8" t="s">
         <v>493</v>
       </c>
-      <c r="E292" s="2" t="s">
+      <c r="F294" s="8" t="s">
+        <v>475</v>
+      </c>
+      <c r="H294" t="s">
         <v>494</v>
       </c>
-      <c r="F292" s="3" t="s">
+      <c r="J294" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="K294" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="L294" s="9"/>
+      <c r="P294" s="9"/>
+      <c r="Q294" s="9"/>
+    </row>
+    <row r="295" spans="2:12">
+      <c r="B295" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="E295" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="H292" t="s">
-        <v>489</v>
-      </c>
-      <c r="J292" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="K292" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="L292" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="P292" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q292" s="5">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="293" ht="28.5" spans="3:17">
-      <c r="C293" s="1" t="s">
+      <c r="F295" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="E293" s="2" t="s">
+      <c r="H295" t="s">
+        <v>482</v>
+      </c>
+      <c r="J295" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="K295" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="L295" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="296" spans="1:12">
+      <c r="A296" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="F293" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="H293" t="s">
-        <v>489</v>
-      </c>
-      <c r="J293" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K293" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="L293" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="N293" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="P293" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q293" s="15">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="294" ht="28.5" spans="3:17">
-      <c r="C294" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="E294" s="2" t="s">
-        <v>500</v>
-      </c>
-      <c r="F294" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="H294" t="s">
-        <v>501</v>
-      </c>
-      <c r="J294" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K294" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="L294" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="N294" s="9"/>
-      <c r="P294" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q294" s="15">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="295" ht="28.5" spans="2:17">
-      <c r="B295" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="C295" s="1"/>
-      <c r="E295" s="8" t="s">
-        <v>503</v>
-      </c>
-      <c r="F295" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="H295" t="s">
-        <v>504</v>
-      </c>
-      <c r="J295" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K295" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="L295" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="P295" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q295" s="15">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="296" ht="28.5" spans="2:17">
-      <c r="B296" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="F296" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="H296" t="s">
-        <v>504</v>
-      </c>
-      <c r="J296" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K296" s="9" t="s">
-        <v>28</v>
-      </c>
+      <c r="B296" s="1"/>
+      <c r="F296" s="2"/>
+      <c r="J296" s="9"/>
+      <c r="K296" s="9"/>
       <c r="L296" s="9" t="s">
         <v>25</v>
-      </c>
-      <c r="P296" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q296" s="15">
-        <v>200</v>
       </c>
     </row>
     <row r="297" ht="28.5" spans="2:17">
       <c r="B297" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="E297" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="F297" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="H297" t="s">
+        <v>494</v>
+      </c>
+      <c r="J297" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K297" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L297" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P297" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q297" s="5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="298" ht="28.5" spans="3:17">
+      <c r="C298" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="E298" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="F298" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="H298" t="s">
+        <v>494</v>
+      </c>
+      <c r="J298" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K298" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L298" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N298" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="P298" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q298" s="13">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="299" ht="28.5" spans="3:17">
+      <c r="C299" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="E299" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="F299" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="H299" t="s">
         <v>506</v>
       </c>
-      <c r="F297" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="H297" t="s">
-        <v>103</v>
-      </c>
-      <c r="J297" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K297" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="L297" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="P297" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q297" s="15">
+      <c r="J299" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K299" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L299" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N299" s="9"/>
+      <c r="P299" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q299" s="13">
         <v>200</v>
       </c>
-    </row>
-    <row r="298" spans="2:17">
-      <c r="B298" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="F298" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="H298" t="s">
-        <v>507</v>
-      </c>
-      <c r="J298" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="K298" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="L298" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="P298" s="9"/>
-      <c r="Q298" s="15"/>
-    </row>
-    <row r="299" spans="2:16">
-      <c r="B299" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="F299" s="8" t="s">
-        <v>491</v>
-      </c>
-      <c r="H299" t="s">
-        <v>508</v>
-      </c>
-      <c r="J299" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="K299" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="L299" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="P299" s="9"/>
     </row>
     <row r="300" ht="28.5" spans="2:17">
       <c r="B300" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="F300" s="8" t="s">
-        <v>106</v>
+        <v>507</v>
+      </c>
+      <c r="C300" s="1"/>
+      <c r="E300" s="8" t="s">
+        <v>508</v>
+      </c>
+      <c r="F300" s="2" t="s">
+        <v>500</v>
       </c>
       <c r="H300" t="s">
         <v>509</v>
@@ -9221,25 +9175,22 @@
       <c r="L300" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="P300" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q300" s="5" t="s">
-        <v>25</v>
+      <c r="P300" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q300" s="13">
+        <v>200</v>
       </c>
     </row>
     <row r="301" ht="28.5" spans="2:17">
       <c r="B301" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="E301" s="2" t="s">
-        <v>511</v>
-      </c>
       <c r="F301" s="2" t="s">
-        <v>106</v>
+        <v>500</v>
       </c>
       <c r="H301" t="s">
-        <v>423</v>
+        <v>509</v>
       </c>
       <c r="J301" s="9" t="s">
         <v>28</v>
@@ -9253,169 +9204,175 @@
       <c r="P301" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="Q301" s="9" t="s">
-        <v>25</v>
+      <c r="Q301" s="13">
+        <v>200</v>
       </c>
     </row>
     <row r="302" ht="28.5" spans="2:17">
       <c r="B302" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="F302" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="H302" t="s">
+        <v>103</v>
+      </c>
+      <c r="J302" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K302" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L302" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P302" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q302" s="13">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="303" spans="2:17">
+      <c r="B303" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="E302" s="2" t="s">
+      <c r="F303" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="H303" t="s">
+        <v>512</v>
+      </c>
+      <c r="J303" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="K303" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="L303" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P303" s="9"/>
+      <c r="Q303" s="13"/>
+    </row>
+    <row r="304" spans="2:16">
+      <c r="B304" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="F302" s="2" t="s">
+      <c r="F304" s="8" t="s">
+        <v>496</v>
+      </c>
+      <c r="H304" t="s">
+        <v>513</v>
+      </c>
+      <c r="J304" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="K304" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="L304" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P304" s="9"/>
+    </row>
+    <row r="305" ht="28.5" spans="2:17">
+      <c r="B305" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="F305" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="H302" t="s">
+      <c r="H305" t="s">
         <v>514</v>
       </c>
-      <c r="J302" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K302" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="L302" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="P302" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q302" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="303" ht="28.5" spans="2:17">
-      <c r="B303" s="1" t="s">
+      <c r="J305" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K305" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L305" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P305" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q305" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="306" ht="28.5" spans="2:17">
+      <c r="B306" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="E303" s="2" t="s">
+      <c r="E306" s="2" t="s">
         <v>516</v>
-      </c>
-      <c r="F303" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="H303" t="s">
-        <v>517</v>
-      </c>
-      <c r="J303" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K303" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="L303" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="P303" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q303" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="304" ht="28.5" spans="2:17">
-      <c r="B304" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="E304" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="F304" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="H304" t="s">
-        <v>518</v>
-      </c>
-      <c r="J304" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K304" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="L304" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="P304" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q304" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="305" spans="1:17">
-      <c r="A305" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="B305" s="1"/>
-      <c r="F305" s="2"/>
-      <c r="J305" s="9"/>
-      <c r="K305" s="9"/>
-      <c r="L305" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="P305" s="9"/>
-      <c r="Q305" s="9"/>
-    </row>
-    <row r="306" ht="28.5" spans="2:12">
-      <c r="B306" s="1" t="s">
-        <v>521</v>
       </c>
       <c r="F306" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="J306" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="K306" s="5" t="s">
+      <c r="H306" t="s">
+        <v>428</v>
+      </c>
+      <c r="J306" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K306" s="9" t="s">
         <v>28</v>
       </c>
       <c r="L306" s="9" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="307" ht="28.5" spans="3:17">
-      <c r="C307" s="1" t="s">
-        <v>522</v>
+      <c r="P306" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q306" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="307" ht="28.5" spans="2:17">
+      <c r="B307" s="1" t="s">
+        <v>517</v>
       </c>
       <c r="E307" s="2" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="F307" s="2" t="s">
-        <v>470</v>
+        <v>106</v>
       </c>
       <c r="H307" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="J307" s="9" t="s">
         <v>28</v>
       </c>
       <c r="K307" s="9" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="L307" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="P307" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q307" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="308" ht="28.5" spans="3:17">
-      <c r="C308" s="1" t="s">
-        <v>525</v>
+      <c r="P307" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q307" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="308" ht="28.5" spans="2:17">
+      <c r="B308" s="1" t="s">
+        <v>520</v>
       </c>
       <c r="E308" s="2" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="F308" s="2" t="s">
         <v>106</v>
       </c>
       <c r="H308" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="J308" s="9" t="s">
         <v>28</v>
@@ -9433,15 +9390,18 @@
         <v>25</v>
       </c>
     </row>
-    <row r="309" ht="28.5" spans="3:17">
-      <c r="C309" s="1" t="s">
-        <v>528</v>
+    <row r="309" ht="28.5" spans="2:17">
+      <c r="B309" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="E309" s="2" t="s">
+        <v>524</v>
       </c>
       <c r="F309" s="2" t="s">
         <v>106</v>
       </c>
       <c r="H309" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="J309" s="9" t="s">
         <v>28</v>
@@ -9452,111 +9412,112 @@
       <c r="L309" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="P309" s="9"/>
-      <c r="Q309" s="9"/>
-    </row>
-    <row r="310" spans="3:17">
-      <c r="C310" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="E310" s="2" t="s">
-        <v>530</v>
-      </c>
-      <c r="F310" s="8" t="s">
-        <v>531</v>
-      </c>
-      <c r="H310" t="s">
-        <v>532</v>
-      </c>
-      <c r="J310" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K310" s="9" t="s">
-        <v>68</v>
-      </c>
+      <c r="P309" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q309" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="310" spans="1:17">
+      <c r="A310" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B310" s="1"/>
+      <c r="F310" s="2"/>
+      <c r="J310" s="9"/>
+      <c r="K310" s="9"/>
       <c r="L310" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="O310" s="5" t="s">
         <v>25</v>
       </c>
       <c r="P310" s="9"/>
       <c r="Q310" s="9"/>
     </row>
-    <row r="311" ht="28.5" spans="3:17">
-      <c r="C311" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="E311" s="2" t="s">
-        <v>534</v>
+    <row r="311" ht="28.5" spans="2:12">
+      <c r="B311" s="1" t="s">
+        <v>526</v>
       </c>
       <c r="F311" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="H311" t="s">
-        <v>533</v>
-      </c>
-      <c r="J311" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K311" s="9" t="s">
+      <c r="J311" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K311" s="5" t="s">
         <v>28</v>
       </c>
       <c r="L311" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="O311" s="9"/>
-      <c r="P311" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q311" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="312" spans="2:17">
-      <c r="B312" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="C312" s="1"/>
-      <c r="F312" s="2"/>
-      <c r="J312" s="9"/>
-      <c r="K312" s="9"/>
+    </row>
+    <row r="312" ht="28.5" spans="3:17">
+      <c r="C312" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="E312" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="F312" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="H312" t="s">
+        <v>529</v>
+      </c>
+      <c r="J312" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K312" s="9" t="s">
+        <v>68</v>
+      </c>
       <c r="L312" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="P312" s="9"/>
-      <c r="Q312" s="9"/>
+      <c r="P312" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q312" s="5" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="313" ht="28.5" spans="3:17">
       <c r="C313" s="1" t="s">
-        <v>536</v>
+        <v>530</v>
+      </c>
+      <c r="E313" s="2" t="s">
+        <v>531</v>
       </c>
       <c r="F313" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="J313" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="K313" s="5" t="s">
+      <c r="H313" t="s">
+        <v>532</v>
+      </c>
+      <c r="J313" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K313" s="9" t="s">
         <v>28</v>
       </c>
       <c r="L313" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="P313" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q313" s="5" t="s">
+      <c r="P313" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q313" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="314" ht="28.5" spans="3:17">
       <c r="C314" s="1" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="F314" s="2" t="s">
         <v>106</v>
       </c>
+      <c r="H314" t="s">
+        <v>533</v>
+      </c>
       <c r="J314" s="9" t="s">
         <v>28</v>
       </c>
@@ -9566,42 +9527,49 @@
       <c r="L314" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="P314" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q314" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="315" ht="28.5" spans="3:17">
+      <c r="P314" s="9"/>
+      <c r="Q314" s="9"/>
+    </row>
+    <row r="315" spans="3:17">
       <c r="C315" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="E315" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="F315" s="8" t="s">
+        <v>536</v>
+      </c>
+      <c r="H315" t="s">
+        <v>537</v>
+      </c>
+      <c r="J315" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K315" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="L315" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O315" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="P315" s="9"/>
+      <c r="Q315" s="9"/>
+    </row>
+    <row r="316" ht="28.5" spans="3:17">
+      <c r="C316" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="F315" s="2" t="s">
+      <c r="E316" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="F316" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="J315" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K315" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="L315" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="P315" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q315" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="316" spans="3:17">
-      <c r="C316" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="F316" s="2" t="s">
-        <v>410</v>
+      <c r="H316" t="s">
+        <v>538</v>
       </c>
       <c r="J316" s="9" t="s">
         <v>28</v>
@@ -9612,30 +9580,48 @@
       <c r="L316" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="O316" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="P316" s="9"/>
-      <c r="Q316" s="9"/>
-    </row>
-    <row r="317" spans="1:15">
-      <c r="A317" s="1" t="s">
+      <c r="O316" s="9"/>
+      <c r="P316" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q316" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="317" spans="2:17">
+      <c r="B317" s="1" t="s">
         <v>540</v>
       </c>
+      <c r="C317" s="1"/>
       <c r="F317" s="2"/>
       <c r="J317" s="9"/>
       <c r="K317" s="9"/>
       <c r="L317" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="O317" s="9"/>
-    </row>
-    <row r="318" spans="2:12">
-      <c r="B318" s="1" t="s">
+      <c r="P317" s="9"/>
+      <c r="Q317" s="9"/>
+    </row>
+    <row r="318" ht="28.5" spans="3:17">
+      <c r="C318" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="F318" s="2"/>
+      <c r="F318" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="J318" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K318" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="L318" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P318" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q318" s="5" t="s">
         <v>25</v>
       </c>
     </row>
@@ -9643,34 +9629,28 @@
       <c r="C319" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="E319" s="2" t="s">
-        <v>543</v>
-      </c>
       <c r="F319" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="J319" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="K319" s="5" t="s">
+      <c r="J319" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K319" s="9" t="s">
         <v>28</v>
       </c>
       <c r="L319" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="P319" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q319" s="5" t="s">
+      <c r="P319" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q319" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="320" ht="28.5" spans="3:17">
-      <c r="C320" s="13" t="s">
-        <v>544</v>
-      </c>
-      <c r="E320" s="14" t="s">
-        <v>545</v>
+      <c r="C320" s="1" t="s">
+        <v>543</v>
       </c>
       <c r="F320" s="2" t="s">
         <v>106</v>
@@ -9691,35 +9671,130 @@
         <v>25</v>
       </c>
     </row>
-    <row r="321" ht="28.5" spans="3:17">
-      <c r="C321" s="13" t="s">
+    <row r="321" spans="3:17">
+      <c r="C321" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="F321" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="J321" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K321" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L321" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O321" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="P321" s="9"/>
+      <c r="Q321" s="9"/>
+    </row>
+    <row r="322" spans="1:15">
+      <c r="A322" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="F322" s="2"/>
+      <c r="J322" s="9"/>
+      <c r="K322" s="9"/>
+      <c r="L322" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O322" s="9"/>
+    </row>
+    <row r="323" spans="2:12">
+      <c r="B323" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="E321" s="14" t="s">
+      <c r="F323" s="2"/>
+      <c r="L323" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="324" ht="28.5" spans="3:17">
+      <c r="C324" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="F321" s="2" t="s">
+      <c r="E324" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="F324" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="J321" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K321" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="L321" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="P321" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q321" s="9" t="s">
+      <c r="J324" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K324" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L324" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P324" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q324" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="325" ht="28.5" spans="3:17">
+      <c r="C325" s="14" t="s">
+        <v>549</v>
+      </c>
+      <c r="E325" s="15" t="s">
+        <v>550</v>
+      </c>
+      <c r="F325" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="J325" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K325" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L325" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P325" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q325" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="326" ht="28.5" spans="3:17">
+      <c r="C326" s="14" t="s">
+        <v>551</v>
+      </c>
+      <c r="E326" s="15" t="s">
+        <v>552</v>
+      </c>
+      <c r="F326" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="J326" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K326" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L326" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P326" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q326" s="9" t="s">
         <v>25</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
-  <autoFilter ref="A1:Q321">
+  <autoFilter ref="A1:Q326">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AutoLoader/Contents/Support/房间名称分类处理.xlsx
+++ b/AutoLoader/Contents/Support/房间名称分类处理.xlsx
@@ -10,14 +10,14 @@
     <sheet name="房间名称处理" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">房间名称处理!$A$1:$Q$326</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">房间名称处理!$A$1:$Q$351</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2073" uniqueCount="553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2203" uniqueCount="589">
   <si>
     <t>一级</t>
   </si>
@@ -529,7 +529,7 @@
     <t>库房</t>
   </si>
   <si>
-    <t>仓库，仓库类似场所</t>
+    <t>仓库，仓库类似场所，*库房</t>
   </si>
   <si>
     <t>公共区域；感烟火灾探测器；正常照明；消防广播需要保护；声光手报需要保护</t>
@@ -673,18 +673,24 @@
     <t>观察工作间</t>
   </si>
   <si>
+    <t>维修间</t>
+  </si>
+  <si>
+    <t>*维修间</t>
+  </si>
+  <si>
     <t>控制室</t>
   </si>
   <si>
+    <t>公共区域；感烟火灾探测器；机房照明；消防广播需要保护；声光手报需要保护</t>
+  </si>
+  <si>
     <t>调度中心</t>
   </si>
   <si>
     <t>总调度室</t>
   </si>
   <si>
-    <t>公共区域；感烟火灾探测器；机房照明；消防广播需要保护；声光手报需要保护</t>
-  </si>
-  <si>
     <t>办公</t>
   </si>
   <si>
@@ -835,6 +841,9 @@
     <t>电缆室</t>
   </si>
   <si>
+    <t>*电缆室</t>
+  </si>
+  <si>
     <t>电子设备间</t>
   </si>
   <si>
@@ -847,7 +856,7 @@
     <t>网络通信机房</t>
   </si>
   <si>
-    <t>网络机房，MDF机房</t>
+    <t>*网络机房，MDF机房</t>
   </si>
   <si>
     <t>有线电视机房</t>
@@ -859,22 +868,25 @@
     <t>无线覆盖机房</t>
   </si>
   <si>
-    <t>宏站机房</t>
+    <t>宏站机房，*信号机房</t>
   </si>
   <si>
     <t>运营商机房</t>
   </si>
   <si>
-    <t>通讯机房，接入机房，移动进线机房，移动机房，电信接入机房，电信机房，联通接入机房，联通机房，电信间，电信房</t>
+    <t>*通讯机房，接入机房，移动进线机房，*移动机房，电信接入机房，*电信机房，联通接入机房，联通机房，*电信房</t>
   </si>
   <si>
     <t>电信间</t>
   </si>
   <si>
+    <t>*电信间</t>
+  </si>
+  <si>
     <t>计算机网络机房</t>
   </si>
   <si>
-    <t>计算机房，计算机机房，数据机房</t>
+    <t>计算机房，计算机机房，*数据机房，*IT机房，*信息机房</t>
   </si>
   <si>
     <t>涡轮机房</t>
@@ -976,6 +988,18 @@
     <t>报警阀间</t>
   </si>
   <si>
+    <t>*报警阀间</t>
+  </si>
+  <si>
+    <t>气体灭火设备间</t>
+  </si>
+  <si>
+    <t>钢瓶间</t>
+  </si>
+  <si>
+    <t>*钢瓶间</t>
+  </si>
+  <si>
     <t>水处理房间</t>
   </si>
   <si>
@@ -1015,9 +1039,6 @@
     <t>细粉类水处理药剂车间</t>
   </si>
   <si>
-    <t>设备间</t>
-  </si>
-  <si>
     <t>燃气机房</t>
   </si>
   <si>
@@ -1171,7 +1192,7 @@
     <t>垃圾间</t>
   </si>
   <si>
-    <t>垃圾房</t>
+    <t>垃圾房，*垃圾房，*垃圾间</t>
   </si>
   <si>
     <t>湿垃圾房</t>
@@ -1180,10 +1201,10 @@
     <t>干垃圾房</t>
   </si>
   <si>
-    <t>*干垃圾</t>
-  </si>
-  <si>
-    <t>*湿垃圾</t>
+    <t>*干垃圾房，*干垃圾</t>
+  </si>
+  <si>
+    <t>*湿垃圾房，*湿垃圾</t>
   </si>
   <si>
     <t>独立垃圾收集存储间</t>
@@ -1471,12 +1492,18 @@
     <t>文件整理室</t>
   </si>
   <si>
+    <t>财务室</t>
+  </si>
+  <si>
     <t>发行室</t>
   </si>
   <si>
     <t>会议室</t>
   </si>
   <si>
+    <t>*会议室，*洽谈区</t>
+  </si>
+  <si>
     <t>视频会议室</t>
   </si>
   <si>
@@ -1498,7 +1525,7 @@
     <t>食堂</t>
   </si>
   <si>
-    <t>*食堂，*饭堂</t>
+    <t>*食堂，*饭堂，*就餐*</t>
   </si>
   <si>
     <t>中餐</t>
@@ -1525,7 +1552,7 @@
     <t>燃气餐饮</t>
   </si>
   <si>
-    <t>*中餐，*美食广场</t>
+    <t>*中餐，*美食广场，餐饮（燃气）</t>
   </si>
   <si>
     <t>私有区域；感烟火灾探测器；可燃气体探测器；疏散指示；疏散照明面积判断；消防广播允许布置；声光手报允许布置</t>
@@ -1534,7 +1561,7 @@
     <t>无燃气餐饮</t>
   </si>
   <si>
-    <t>*电餐，*西餐，*轻餐</t>
+    <t>*电餐，*西餐，*轻餐，餐饮（无燃气）</t>
   </si>
   <si>
     <t>西餐</t>
@@ -1543,7 +1570,7 @@
     <t>零售</t>
   </si>
   <si>
-    <t>*百货，商铺，*商业,，*商铺</t>
+    <t>*百货，商铺，*商业，*商铺</t>
   </si>
   <si>
     <t>商铺</t>
@@ -1582,7 +1609,7 @@
     <t>电玩游戏厅</t>
   </si>
   <si>
-    <t>*游戏厅，*电玩室，*电玩</t>
+    <t>*游戏厅，*电玩室，*电玩，电玩*，*电玩*</t>
   </si>
   <si>
     <t>游戏厅</t>
@@ -1676,6 +1703,87 @@
   </si>
   <si>
     <t>滑雪，雪场</t>
+  </si>
+  <si>
+    <t>教育建筑</t>
+  </si>
+  <si>
+    <t>幼儿园</t>
+  </si>
+  <si>
+    <t>幼儿生活用房</t>
+  </si>
+  <si>
+    <t>托儿室</t>
+  </si>
+  <si>
+    <t>托儿班，托小班，托大班</t>
+  </si>
+  <si>
+    <t>公共区域；感烟火灾探测器；正常照明；消防广播允许布置；声光手报需要保护</t>
+  </si>
+  <si>
+    <t>乳儿室</t>
+  </si>
+  <si>
+    <t>乳儿班</t>
+  </si>
+  <si>
+    <t>喂奶室</t>
+  </si>
+  <si>
+    <t>幼儿生活单元</t>
+  </si>
+  <si>
+    <t>多功能活动室</t>
+  </si>
+  <si>
+    <t>幼儿园服务管理用房</t>
+  </si>
+  <si>
+    <t>晨检厅</t>
+  </si>
+  <si>
+    <t>配奶室</t>
+  </si>
+  <si>
+    <t>校长室</t>
+  </si>
+  <si>
+    <t>学校</t>
+  </si>
+  <si>
+    <t>教学活动用房</t>
+  </si>
+  <si>
+    <t>教室</t>
+  </si>
+  <si>
+    <t>*教室</t>
+  </si>
+  <si>
+    <t>学校管理用房</t>
+  </si>
+  <si>
+    <t>教师值班室</t>
+  </si>
+  <si>
+    <t>教师办公室</t>
+  </si>
+  <si>
+    <t>教具制作室</t>
+  </si>
+  <si>
+    <t>学校生活用房</t>
+  </si>
+  <si>
+    <t>寝室</t>
+  </si>
+  <si>
+    <t>学生寝室，*寝室</t>
+  </si>
+  <si>
+    <t>公共区域；感烟火灾探测器；疏散照明；正常照明；消防广播需要保护；声光手报需要保护</t>
   </si>
 </sst>
 </file>
@@ -1683,42 +1791,42 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="36">
+    <numFmt numFmtId="176" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;"/>
+    <numFmt numFmtId="6" formatCode="&quot;￥&quot;#,##0;[Red]&quot;￥&quot;\-#,##0"/>
+    <numFmt numFmtId="177" formatCode="#\ ??/??"/>
     <numFmt numFmtId="23" formatCode="\$#,##0_);\(\$#,##0\)"/>
+    <numFmt numFmtId="178" formatCode="mmmm\-yy"/>
     <numFmt numFmtId="5" formatCode="&quot;￥&quot;#,##0;&quot;￥&quot;\-#,##0"/>
     <numFmt numFmtId="24" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
+    <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
+    <numFmt numFmtId="179" formatCode="[DBNum1][$-804]m&quot;月&quot;d&quot;日&quot;"/>
+    <numFmt numFmtId="180" formatCode="\¥#,##0.00;[Red]\¥\-#,##0.00"/>
+    <numFmt numFmtId="181" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;"/>
+    <numFmt numFmtId="182" formatCode="[$-804]aaa"/>
+    <numFmt numFmtId="183" formatCode="h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="25" formatCode="\$#,##0.00_);\(\$#,##0.00\)"/>
+    <numFmt numFmtId="184" formatCode="#\ ?/?"/>
+    <numFmt numFmtId="185" formatCode="yy/m/d"/>
+    <numFmt numFmtId="186" formatCode="yyyy/m/d\ h:mm\ AM/PM"/>
+    <numFmt numFmtId="187" formatCode="mm/dd/yy"/>
+    <numFmt numFmtId="188" formatCode="mmmmm"/>
+    <numFmt numFmtId="189" formatCode="m/d"/>
+    <numFmt numFmtId="190" formatCode="h:mm\ AM/PM"/>
+    <numFmt numFmtId="191" formatCode="mmmmm\-yy"/>
+    <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
+    <numFmt numFmtId="192" formatCode="\¥#,##0.00;\¥\-#,##0.00"/>
+    <numFmt numFmtId="193" formatCode="#\ ??"/>
+    <numFmt numFmtId="194" formatCode="[DBNum1]上午/下午h&quot;时&quot;mm&quot;分&quot;"/>
+    <numFmt numFmtId="195" formatCode="[$-804]aaaa"/>
+    <numFmt numFmtId="196" formatCode="[DBNum1]h&quot;时&quot;mm&quot;分&quot;"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="197" formatCode="\¥#,##0;\¥\-#,##0"/>
+    <numFmt numFmtId="198" formatCode="dd\-mmm\-yy"/>
+    <numFmt numFmtId="199" formatCode="\¥#,##0;[Red]\¥\-#,##0"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="mmmmm"/>
-    <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
-    <numFmt numFmtId="177" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;"/>
-    <numFmt numFmtId="178" formatCode="h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="179" formatCode="[DBNum1]上午/下午h&quot;时&quot;mm&quot;分&quot;"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="8" formatCode="&quot;￥&quot;#,##0.00;[Red]&quot;￥&quot;\-#,##0.00"/>
-    <numFmt numFmtId="180" formatCode="#\ ??/??"/>
-    <numFmt numFmtId="181" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;"/>
-    <numFmt numFmtId="182" formatCode="yy/m/d"/>
-    <numFmt numFmtId="183" formatCode="yyyy/m/d\ h:mm\ AM/PM"/>
-    <numFmt numFmtId="184" formatCode="[DBNum1][$-804]m&quot;月&quot;d&quot;日&quot;"/>
-    <numFmt numFmtId="185" formatCode="\¥#,##0;[Red]\¥\-#,##0"/>
-    <numFmt numFmtId="186" formatCode="[$-804]aaaa"/>
-    <numFmt numFmtId="187" formatCode="[DBNum1]h&quot;时&quot;mm&quot;分&quot;"/>
-    <numFmt numFmtId="188" formatCode="mm/dd/yy"/>
-    <numFmt numFmtId="189" formatCode="[$-804]aaa"/>
-    <numFmt numFmtId="190" formatCode="dd\-mmm\-yy"/>
-    <numFmt numFmtId="191" formatCode="#\ ?/?"/>
-    <numFmt numFmtId="192" formatCode="mmmmm\-yy"/>
-    <numFmt numFmtId="25" formatCode="\$#,##0.00_);\(\$#,##0.00\)"/>
-    <numFmt numFmtId="6" formatCode="&quot;￥&quot;#,##0;[Red]&quot;￥&quot;\-#,##0"/>
-    <numFmt numFmtId="193" formatCode="\¥#,##0;\¥\-#,##0"/>
-    <numFmt numFmtId="194" formatCode="m/d"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
-    <numFmt numFmtId="195" formatCode="mmmm\-yy"/>
-    <numFmt numFmtId="196" formatCode="h:mm\ AM/PM"/>
-    <numFmt numFmtId="197" formatCode="\¥#,##0.00;[Red]\¥\-#,##0.00"/>
-    <numFmt numFmtId="198" formatCode="\¥#,##0.00;\¥\-#,##0.00"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="199" formatCode="#\ ??"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1751,25 +1859,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1780,24 +1880,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1811,29 +1896,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
@@ -1842,16 +1904,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1879,10 +1933,64 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1907,7 +2015,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1919,7 +2039,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1931,7 +2063,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1943,25 +2153,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1974,108 +2184,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2095,11 +2203,71 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2122,66 +2290,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -2195,148 +2303,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2707,12 +2815,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q326"/>
+  <dimension ref="A1:Q351"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="B120" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C262" sqref="C262:D271"/>
+      <selection pane="bottomLeft" activeCell="J335" sqref="J335"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4161,7 +4269,7 @@
       <c r="D74" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="E74" s="2" t="s">
+      <c r="E74" s="8" t="s">
         <v>154</v>
       </c>
       <c r="F74" s="8" t="s">
@@ -4291,7 +4399,7 @@
       <c r="C81" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="E81" s="2" t="s">
+      <c r="E81" s="8" t="s">
         <v>170</v>
       </c>
       <c r="F81" s="2" t="s">
@@ -5011,53 +5119,52 @@
         <v>25</v>
       </c>
     </row>
-    <row r="117" spans="2:11">
-      <c r="B117" s="1" t="s">
+    <row r="117" spans="3:12">
+      <c r="C117" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="F117" s="2"/>
+      <c r="E117" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>212</v>
+      </c>
       <c r="J117" s="9" t="s">
         <v>68</v>
       </c>
       <c r="K117" s="9" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="118" spans="3:15">
-      <c r="C118" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="E118" s="8" t="s">
+      <c r="L117" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="118" spans="2:11">
+      <c r="B118" s="1" t="s">
         <v>220</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="H118" t="s">
-        <v>222</v>
-      </c>
       <c r="J118" s="9" t="s">
         <v>68</v>
       </c>
       <c r="K118" s="9" t="s">
         <v>68</v>
-      </c>
-      <c r="L118" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="O118" s="9" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="119" spans="3:15">
       <c r="C119" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E119" s="8" t="s">
         <v>223</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>221</v>
       </c>
       <c r="H119" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J119" s="9" t="s">
         <v>68</v>
@@ -5072,47 +5179,41 @@
         <v>25</v>
       </c>
     </row>
-    <row r="120" ht="57" spans="4:17">
-      <c r="D120" s="1" t="s">
+    <row r="120" spans="3:15">
+      <c r="C120" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="H120" t="s">
         <v>224</v>
       </c>
-      <c r="E120" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="F120" s="2" t="s">
+      <c r="J120" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="K120" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="L120" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O120" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="121" ht="57" spans="4:17">
+      <c r="D121" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="H120" t="s">
-        <v>222</v>
-      </c>
-      <c r="J120" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="K120" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="L120" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="O120" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="P120" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q120" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="121" ht="28.5" spans="3:17">
-      <c r="C121" s="1" t="s">
+      <c r="E121" s="2" t="s">
         <v>227</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="H121" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J121" s="9" t="s">
         <v>68</v>
@@ -5135,16 +5236,13 @@
     </row>
     <row r="122" ht="28.5" spans="3:17">
       <c r="C122" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="F122" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="E122" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="F122" s="2" t="s">
-        <v>226</v>
-      </c>
       <c r="H122" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J122" s="9" t="s">
         <v>68</v>
@@ -5165,7 +5263,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="123" ht="57" spans="3:17">
+    <row r="123" ht="28.5" spans="3:17">
       <c r="C123" s="1" t="s">
         <v>230</v>
       </c>
@@ -5173,10 +5271,10 @@
         <v>231</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="H123" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J123" s="9" t="s">
         <v>68</v>
@@ -5197,7 +5295,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="124" ht="28.5" spans="3:17">
+    <row r="124" ht="57" spans="3:17">
       <c r="C124" s="1" t="s">
         <v>232</v>
       </c>
@@ -5205,10 +5303,10 @@
         <v>233</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="H124" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J124" s="9" t="s">
         <v>68</v>
@@ -5229,15 +5327,18 @@
         <v>25</v>
       </c>
     </row>
-    <row r="125" spans="3:16">
+    <row r="125" ht="28.5" spans="3:17">
       <c r="C125" s="1" t="s">
         <v>234</v>
       </c>
+      <c r="E125" s="2" t="s">
+        <v>235</v>
+      </c>
       <c r="F125" s="2" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="H125" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J125" s="9" t="s">
         <v>68</v>
@@ -5251,20 +5352,22 @@
       <c r="O125" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="P125" s="9"/>
-    </row>
-    <row r="126" ht="28.5" spans="4:17">
-      <c r="D126" s="1" t="s">
+      <c r="P125" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q125" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="126" spans="3:16">
+      <c r="C126" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="E126" s="2" t="s">
+      <c r="F126" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="F126" s="2" t="s">
-        <v>226</v>
-      </c>
       <c r="H126" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J126" s="9" t="s">
         <v>68</v>
@@ -5278,14 +5381,9 @@
       <c r="O126" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="P126" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q126" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="127" spans="4:15">
+      <c r="P126" s="9"/>
+    </row>
+    <row r="127" ht="28.5" spans="4:17">
       <c r="D127" s="1" t="s">
         <v>238</v>
       </c>
@@ -5293,10 +5391,10 @@
         <v>239</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="H127" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J127" s="9" t="s">
         <v>68</v>
@@ -5310,19 +5408,25 @@
       <c r="O127" s="9" t="s">
         <v>25</v>
       </c>
+      <c r="P127" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q127" s="9" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="128" spans="4:15">
-      <c r="D128" s="10" t="s">
+      <c r="D128" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="E128" s="8" t="s">
+      <c r="E128" s="2" t="s">
         <v>241</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>221</v>
       </c>
       <c r="H128" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J128" s="9" t="s">
         <v>68</v>
@@ -5338,17 +5442,17 @@
       </c>
     </row>
     <row r="129" spans="4:15">
-      <c r="D129" s="1" t="s">
+      <c r="D129" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="E129" s="2" t="s">
+      <c r="E129" s="8" t="s">
         <v>243</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>221</v>
       </c>
       <c r="H129" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J129" s="9" t="s">
         <v>68</v>
@@ -5363,16 +5467,19 @@
         <v>25</v>
       </c>
     </row>
-    <row r="130" ht="28.5" spans="1:15">
-      <c r="A130" s="1" t="s">
+    <row r="130" spans="4:15">
+      <c r="D130" s="1" t="s">
         <v>244</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="F130" s="8" t="s">
+      <c r="F130" s="2" t="s">
         <v>221</v>
       </c>
+      <c r="H130" t="s">
+        <v>224</v>
+      </c>
       <c r="J130" s="9" t="s">
         <v>68</v>
       </c>
@@ -5386,65 +5493,76 @@
         <v>25</v>
       </c>
     </row>
-    <row r="131" spans="2:11">
-      <c r="B131" s="1" t="s">
+    <row r="131" ht="28.5" spans="1:15">
+      <c r="A131" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="F131" s="2"/>
+      <c r="E131" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="F131" s="8" t="s">
+        <v>221</v>
+      </c>
       <c r="J131" s="9" t="s">
         <v>68</v>
       </c>
       <c r="K131" s="9" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="132" spans="3:17">
-      <c r="C132" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="E132" s="2" t="s">
+      <c r="L131" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O131" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="132" spans="2:11">
+      <c r="B132" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="F132" s="8" t="s">
+      <c r="F132" s="2"/>
+      <c r="J132" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="K132" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="133" spans="3:17">
+      <c r="C133" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="F133" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="H132" t="s">
-        <v>247</v>
-      </c>
-      <c r="J132" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="K132" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="L132" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="O132" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="P132" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q132" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="133" spans="3:17">
-      <c r="C133" t="s">
+      <c r="H133" t="s">
         <v>249</v>
       </c>
-      <c r="F133" s="8"/>
-      <c r="J133" s="9"/>
-      <c r="K133" s="9"/>
-      <c r="L133" s="9"/>
-      <c r="O133" s="9"/>
-      <c r="P133" s="9"/>
-      <c r="Q133" s="9"/>
+      <c r="J133" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="K133" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="L133" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O133" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P133" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q133" s="9" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="134" spans="3:17">
-      <c r="C134" s="7" t="s">
-        <v>250</v>
+      <c r="C134" t="s">
+        <v>251</v>
       </c>
       <c r="F134" s="8"/>
       <c r="J134" s="9"/>
@@ -5455,8 +5573,8 @@
       <c r="Q134" s="9"/>
     </row>
     <row r="135" spans="3:17">
-      <c r="C135" s="10" t="s">
-        <v>251</v>
+      <c r="C135" s="7" t="s">
+        <v>252</v>
       </c>
       <c r="F135" s="8"/>
       <c r="J135" s="9"/>
@@ -5467,8 +5585,8 @@
       <c r="Q135" s="9"/>
     </row>
     <row r="136" spans="3:17">
-      <c r="C136" t="s">
-        <v>252</v>
+      <c r="C136" s="10" t="s">
+        <v>253</v>
       </c>
       <c r="F136" s="8"/>
       <c r="J136" s="9"/>
@@ -5478,50 +5596,30 @@
       <c r="P136" s="9"/>
       <c r="Q136" s="9"/>
     </row>
-    <row r="137" ht="28.5" spans="3:17">
-      <c r="C137" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="E137" s="8" t="s">
+    <row r="137" spans="3:17">
+      <c r="C137" t="s">
         <v>254</v>
       </c>
-      <c r="F137" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="H137" t="s">
-        <v>247</v>
-      </c>
-      <c r="J137" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="K137" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="L137" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="O137" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="P137" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q137" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="138" ht="28.5" spans="4:17">
-      <c r="D138" s="1" t="s">
+      <c r="F137" s="8"/>
+      <c r="J137" s="9"/>
+      <c r="K137" s="9"/>
+      <c r="L137" s="9"/>
+      <c r="O137" s="9"/>
+      <c r="P137" s="9"/>
+      <c r="Q137" s="9"/>
+    </row>
+    <row r="138" ht="28.5" spans="3:17">
+      <c r="C138" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="E138" s="2" t="s">
+      <c r="E138" s="8" t="s">
         <v>256</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>257</v>
+        <v>228</v>
       </c>
       <c r="H138" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="J138" s="9" t="s">
         <v>68</v>
@@ -5530,9 +5628,6 @@
         <v>68</v>
       </c>
       <c r="L138" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="M138" s="9" t="s">
         <v>25</v>
       </c>
       <c r="O138" s="9" t="s">
@@ -5547,16 +5642,16 @@
     </row>
     <row r="139" ht="28.5" spans="4:17">
       <c r="D139" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E139" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="E139" s="2" t="s">
+      <c r="F139" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="F139" s="2" t="s">
-        <v>257</v>
-      </c>
       <c r="H139" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="J139" s="9" t="s">
         <v>68</v>
@@ -5580,63 +5675,66 @@
         <v>25</v>
       </c>
     </row>
-    <row r="140" spans="4:17">
-      <c r="D140" s="10" t="s">
+    <row r="140" ht="28.5" spans="4:17">
+      <c r="D140" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="F140" s="2"/>
-      <c r="J140" s="9"/>
-      <c r="K140" s="9"/>
-      <c r="L140" s="9"/>
-      <c r="M140" s="9"/>
-      <c r="O140" s="9"/>
-      <c r="P140" s="9"/>
-      <c r="Q140" s="9"/>
-    </row>
-    <row r="141" ht="28.5" spans="3:17">
-      <c r="C141" s="1" t="s">
+      <c r="E140" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="E141" s="2" t="s">
+      <c r="F140" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="H140" t="s">
+        <v>249</v>
+      </c>
+      <c r="J140" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="K140" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="L140" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M140" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O140" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P140" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q140" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="141" spans="4:17">
+      <c r="D141" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="F141" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="H141" t="s">
+      <c r="F141" s="2"/>
+      <c r="J141" s="9"/>
+      <c r="K141" s="9"/>
+      <c r="L141" s="9"/>
+      <c r="M141" s="9"/>
+      <c r="O141" s="9"/>
+      <c r="P141" s="9"/>
+      <c r="Q141" s="9"/>
+    </row>
+    <row r="142" ht="28.5" spans="3:17">
+      <c r="C142" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="J141" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="K141" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="L141" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="M141" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="O141" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="P141" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q141" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="142" ht="28.5" spans="4:17">
-      <c r="D142" s="1" t="s">
+      <c r="E142" s="2" t="s">
         <v>264</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="H142" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="J142" s="9" t="s">
         <v>68</v>
@@ -5660,16 +5758,16 @@
         <v>25</v>
       </c>
     </row>
-    <row r="143" ht="28.5" spans="3:17">
-      <c r="C143" s="1" t="s">
+    <row r="143" ht="28.5" spans="4:17">
+      <c r="D143" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="H143" t="s">
         <v>265</v>
       </c>
-      <c r="F143" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="H143" t="s">
-        <v>266</v>
-      </c>
       <c r="J143" s="9" t="s">
         <v>68</v>
       </c>
@@ -5692,18 +5790,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="144" ht="28.5" spans="4:17">
-      <c r="D144" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="E144" s="2" t="s">
+    <row r="144" ht="28.5" spans="3:17">
+      <c r="C144" s="1" t="s">
         <v>267</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="H144" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="J144" s="9" t="s">
         <v>68</v>
@@ -5727,18 +5822,18 @@
         <v>25</v>
       </c>
     </row>
-    <row r="145" ht="42.75" spans="3:17">
-      <c r="C145" s="1" t="s">
+    <row r="145" ht="28.5" spans="4:17">
+      <c r="D145" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="E145" s="2" t="s">
+      <c r="E145" s="8" t="s">
         <v>269</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>226</v>
+        <v>259</v>
       </c>
       <c r="H145" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="J145" s="9" t="s">
         <v>68</v>
@@ -5749,6 +5844,9 @@
       <c r="L145" s="9" t="s">
         <v>25</v>
       </c>
+      <c r="M145" s="9" t="s">
+        <v>25</v>
+      </c>
       <c r="O145" s="9" t="s">
         <v>25</v>
       </c>
@@ -5759,15 +5857,18 @@
         <v>25</v>
       </c>
     </row>
-    <row r="146" ht="28.5" spans="3:17">
+    <row r="146" ht="42.75" spans="3:17">
       <c r="C146" s="1" t="s">
         <v>270</v>
       </c>
+      <c r="E146" s="2" t="s">
+        <v>271</v>
+      </c>
       <c r="F146" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="H146" t="s">
-        <v>247</v>
+        <v>265</v>
       </c>
       <c r="J146" s="9" t="s">
         <v>68</v>
@@ -5790,13 +5891,13 @@
     </row>
     <row r="147" ht="28.5" spans="3:17">
       <c r="C147" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="H147" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="J147" s="9" t="s">
         <v>68</v>
@@ -5817,18 +5918,18 @@
         <v>25</v>
       </c>
     </row>
-    <row r="148" spans="2:15">
-      <c r="B148" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="E148" s="2" t="s">
+    <row r="148" ht="28.5" spans="3:17">
+      <c r="C148" s="1" t="s">
         <v>273</v>
       </c>
+      <c r="E148" s="8" t="s">
+        <v>274</v>
+      </c>
       <c r="F148" s="2" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="H148" t="s">
-        <v>274</v>
+        <v>249</v>
       </c>
       <c r="J148" s="9" t="s">
         <v>68</v>
@@ -5842,21 +5943,26 @@
       <c r="O148" s="9" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="149" spans="3:15">
-      <c r="C149" s="1" t="s">
+      <c r="P148" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q148" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="149" spans="2:15">
+      <c r="B149" s="1" t="s">
         <v>275</v>
       </c>
       <c r="E149" s="2" t="s">
         <v>276</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="H149" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="I149" s="11"/>
+        <v>237</v>
+      </c>
+      <c r="H149" t="s">
+        <v>277</v>
+      </c>
       <c r="J149" s="9" t="s">
         <v>68</v>
       </c>
@@ -5872,16 +5978,16 @@
     </row>
     <row r="150" spans="3:15">
       <c r="C150" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="E150" s="2" t="s">
         <v>278</v>
+      </c>
+      <c r="E150" s="8" t="s">
+        <v>279</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>221</v>
       </c>
       <c r="H150" s="11" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="I150" s="11"/>
       <c r="J150" s="9" t="s">
@@ -5899,16 +6005,16 @@
     </row>
     <row r="151" spans="3:15">
       <c r="C151" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>221</v>
       </c>
       <c r="H151" s="11" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="I151" s="11"/>
       <c r="J151" s="9" t="s">
@@ -5924,18 +6030,18 @@
         <v>25</v>
       </c>
     </row>
-    <row r="152" ht="42.75" spans="3:15">
+    <row r="152" spans="3:15">
       <c r="C152" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="E152" s="2" t="s">
         <v>282</v>
+      </c>
+      <c r="E152" s="8" t="s">
+        <v>283</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>221</v>
       </c>
       <c r="H152" s="11" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="I152" s="11"/>
       <c r="J152" s="9" t="s">
@@ -5951,15 +6057,18 @@
         <v>25</v>
       </c>
     </row>
-    <row r="153" spans="3:15">
+    <row r="153" ht="28.5" spans="3:15">
       <c r="C153" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
+      </c>
+      <c r="E153" s="8" t="s">
+        <v>285</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>221</v>
       </c>
       <c r="H153" s="11" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="I153" s="11"/>
       <c r="J153" s="9" t="s">
@@ -5976,17 +6085,17 @@
       </c>
     </row>
     <row r="154" spans="3:15">
-      <c r="C154" s="10" t="s">
-        <v>284</v>
+      <c r="C154" s="1" t="s">
+        <v>286</v>
       </c>
       <c r="E154" s="8" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>221</v>
       </c>
       <c r="H154" s="11" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="I154" s="11"/>
       <c r="J154" s="9" t="s">
@@ -6002,13 +6111,20 @@
         <v>25</v>
       </c>
     </row>
-    <row r="155" spans="2:15">
-      <c r="B155" s="1" t="s">
-        <v>286</v>
+    <row r="155" spans="3:15">
+      <c r="C155" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="E155" s="8" t="s">
+        <v>289</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>221</v>
       </c>
+      <c r="H155" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="I155" s="11"/>
       <c r="J155" s="9" t="s">
         <v>68</v>
       </c>
@@ -6024,7 +6140,7 @@
     </row>
     <row r="156" spans="2:15">
       <c r="B156" s="1" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>221</v>
@@ -6044,7 +6160,7 @@
     </row>
     <row r="157" spans="2:15">
       <c r="B157" s="1" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>221</v>
@@ -6064,20 +6180,11 @@
     </row>
     <row r="158" spans="2:15">
       <c r="B158" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="D158" s="10" t="s">
-        <v>289</v>
-      </c>
-      <c r="E158" s="8" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="H158" t="s">
-        <v>289</v>
-      </c>
       <c r="J158" s="9" t="s">
         <v>68</v>
       </c>
@@ -6091,18 +6198,21 @@
         <v>25</v>
       </c>
     </row>
-    <row r="159" spans="4:15">
+    <row r="159" spans="2:15">
+      <c r="B159" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="D159" s="10" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="E159" s="8" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>221</v>
       </c>
       <c r="H159" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="J159" s="9" t="s">
         <v>68</v>
@@ -6117,13 +6227,19 @@
         <v>25</v>
       </c>
     </row>
-    <row r="160" spans="2:15">
-      <c r="B160" s="1" t="s">
-        <v>293</v>
+    <row r="160" spans="4:15">
+      <c r="D160" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="E160" s="8" t="s">
+        <v>296</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>221</v>
       </c>
+      <c r="H160" t="s">
+        <v>293</v>
+      </c>
       <c r="J160" s="9" t="s">
         <v>68</v>
       </c>
@@ -6133,21 +6249,17 @@
       <c r="L160" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="O160" s="9"/>
-    </row>
-    <row r="161" ht="28.5" spans="3:17">
-      <c r="C161" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="E161" s="12" t="s">
-        <v>295</v>
+      <c r="O160" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="161" spans="2:15">
+      <c r="B161" s="1" t="s">
+        <v>297</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="H161" t="s">
-        <v>296</v>
-      </c>
       <c r="J161" s="9" t="s">
         <v>68</v>
       </c>
@@ -6157,28 +6269,20 @@
       <c r="L161" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="O161" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="P161" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q161" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="162" ht="28.5" spans="4:15">
-      <c r="D162" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="E162" s="2" t="s">
+      <c r="O161" s="9"/>
+    </row>
+    <row r="162" ht="28.5" spans="3:17">
+      <c r="C162" s="1" t="s">
         <v>298</v>
       </c>
+      <c r="E162" s="12" t="s">
+        <v>299</v>
+      </c>
       <c r="F162" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="H162" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="J162" s="9" t="s">
         <v>68</v>
@@ -6192,19 +6296,25 @@
       <c r="O162" s="9" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="163" spans="4:15">
+      <c r="P162" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q162" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="163" ht="28.5" spans="4:15">
       <c r="D163" s="1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="E163" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="H163" t="s">
         <v>300</v>
-      </c>
-      <c r="F163" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="H163" t="s">
-        <v>296</v>
       </c>
       <c r="J163" s="9" t="s">
         <v>68</v>
@@ -6221,13 +6331,16 @@
     </row>
     <row r="164" spans="4:15">
       <c r="D164" s="1" t="s">
-        <v>301</v>
+        <v>303</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>304</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>221</v>
       </c>
       <c r="H164" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="J164" s="9" t="s">
         <v>68</v>
@@ -6242,15 +6355,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="165" ht="28.5" spans="4:17">
+    <row r="165" spans="4:15">
       <c r="D165" s="1" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="H165" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="J165" s="9" t="s">
         <v>68</v>
@@ -6264,45 +6377,45 @@
       <c r="O165" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="P165" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q165" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="166" spans="4:15">
+    </row>
+    <row r="166" ht="28.5" spans="4:17">
       <c r="D166" s="1" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="F166" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="H166" t="s">
+        <v>300</v>
+      </c>
+      <c r="J166" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="K166" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="L166" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O166" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P166" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q166" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="167" spans="4:15">
+      <c r="D167" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="F167" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="H166" t="s">
-        <v>296</v>
-      </c>
-      <c r="J166" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="K166" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="L166" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="O166" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="167" spans="3:15">
-      <c r="C167" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="F167" s="2" t="s">
-        <v>235</v>
-      </c>
       <c r="H167" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="J167" s="9" t="s">
         <v>68</v>
@@ -6317,15 +6430,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="168" spans="4:15">
-      <c r="D168" s="1" t="s">
-        <v>305</v>
+    <row r="168" spans="3:15">
+      <c r="C168" s="1" t="s">
+        <v>308</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>306</v>
+        <v>237</v>
       </c>
       <c r="H168" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="J168" s="9" t="s">
         <v>68</v>
@@ -6342,13 +6455,13 @@
     </row>
     <row r="169" spans="4:15">
       <c r="D169" s="1" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>221</v>
+        <v>310</v>
       </c>
       <c r="H169" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="J169" s="9" t="s">
         <v>68</v>
@@ -6365,13 +6478,13 @@
     </row>
     <row r="170" spans="4:15">
       <c r="D170" s="1" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>221</v>
       </c>
       <c r="H170" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="J170" s="9" t="s">
         <v>68</v>
@@ -6388,13 +6501,13 @@
     </row>
     <row r="171" spans="4:15">
       <c r="D171" s="1" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>221</v>
       </c>
       <c r="H171" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="J171" s="9" t="s">
         <v>68</v>
@@ -6409,18 +6522,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="172" spans="3:15">
-      <c r="C172" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="E172" s="12" t="s">
-        <v>311</v>
+    <row r="172" spans="4:15">
+      <c r="D172" s="1" t="s">
+        <v>313</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>221</v>
       </c>
       <c r="H172" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="J172" s="9" t="s">
         <v>68</v>
@@ -6437,16 +6547,16 @@
     </row>
     <row r="173" spans="3:15">
       <c r="C173" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="E173" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
+      </c>
+      <c r="E173" s="12" t="s">
+        <v>315</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>221</v>
       </c>
       <c r="H173" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="J173" s="9" t="s">
         <v>68</v>
@@ -6461,18 +6571,18 @@
         <v>25</v>
       </c>
     </row>
-    <row r="174" ht="28.5" spans="3:15">
+    <row r="174" spans="3:15">
       <c r="C174" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="E174" s="12" t="s">
         <v>316</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>317</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>221</v>
       </c>
       <c r="H174" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="J174" s="9" t="s">
         <v>68</v>
@@ -6487,15 +6597,18 @@
         <v>25</v>
       </c>
     </row>
-    <row r="175" spans="3:15">
+    <row r="175" ht="28.5" spans="3:15">
       <c r="C175" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
+      </c>
+      <c r="E175" s="12" t="s">
+        <v>320</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>221</v>
       </c>
       <c r="H175" t="s">
-        <v>296</v>
+        <v>321</v>
       </c>
       <c r="J175" s="9" t="s">
         <v>68</v>
@@ -6510,11 +6623,19 @@
         <v>25</v>
       </c>
     </row>
-    <row r="176" spans="2:15">
-      <c r="B176" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="F176" s="2"/>
+    <row r="176" spans="3:15">
+      <c r="C176" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="E176" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="H176" t="s">
+        <v>300</v>
+      </c>
       <c r="J176" s="9" t="s">
         <v>68</v>
       </c>
@@ -6529,8 +6650,8 @@
       </c>
     </row>
     <row r="177" spans="3:15">
-      <c r="C177" s="1" t="s">
-        <v>320</v>
+      <c r="C177" s="10" t="s">
+        <v>324</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>221</v>
@@ -6548,9 +6669,13 @@
         <v>25</v>
       </c>
     </row>
-    <row r="178" spans="3:15">
-      <c r="C178" s="1" t="s">
-        <v>321</v>
+    <row r="178" spans="2:15">
+      <c r="B178" s="10"/>
+      <c r="D178" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="E178" s="8" t="s">
+        <v>326</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>221</v>
@@ -6568,9 +6693,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="179" spans="3:15">
-      <c r="C179" s="1" t="s">
-        <v>322</v>
+    <row r="179" spans="2:15">
+      <c r="B179" s="1" t="s">
+        <v>327</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>221</v>
@@ -6590,7 +6715,7 @@
     </row>
     <row r="180" spans="3:15">
       <c r="C180" s="1" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>221</v>
@@ -6610,7 +6735,7 @@
     </row>
     <row r="181" spans="3:15">
       <c r="C181" s="1" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>221</v>
@@ -6630,7 +6755,7 @@
     </row>
     <row r="182" spans="3:15">
       <c r="C182" s="1" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>221</v>
@@ -6650,7 +6775,7 @@
     </row>
     <row r="183" spans="3:15">
       <c r="C183" s="1" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>221</v>
@@ -6668,9 +6793,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="184" spans="4:15">
-      <c r="D184" s="1" t="s">
-        <v>327</v>
+    <row r="184" spans="3:15">
+      <c r="C184" s="1" t="s">
+        <v>332</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>221</v>
@@ -6688,9 +6813,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="185" spans="4:15">
-      <c r="D185" s="1" t="s">
-        <v>328</v>
+    <row r="185" spans="3:15">
+      <c r="C185" s="1" t="s">
+        <v>333</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>221</v>
@@ -6708,9 +6833,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="186" spans="4:15">
-      <c r="D186" s="1" t="s">
-        <v>329</v>
+    <row r="186" spans="3:15">
+      <c r="C186" s="1" t="s">
+        <v>334</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>221</v>
@@ -6728,9 +6853,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="187" spans="3:15">
-      <c r="C187" s="1" t="s">
-        <v>330</v>
+    <row r="187" spans="4:15">
+      <c r="D187" s="1" t="s">
+        <v>335</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>221</v>
@@ -6750,7 +6875,7 @@
     </row>
     <row r="188" spans="4:15">
       <c r="D188" s="1" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>221</v>
@@ -6768,9 +6893,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="189" spans="3:15">
-      <c r="C189" s="1" t="s">
-        <v>332</v>
+    <row r="189" spans="4:15">
+      <c r="D189" s="1" t="s">
+        <v>337</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>221</v>
@@ -6788,12 +6913,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="190" spans="2:15">
-      <c r="B190" s="1" t="s">
-        <v>333</v>
+    <row r="190" spans="3:15">
+      <c r="C190" s="1" t="s">
+        <v>338</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>334</v>
+        <v>221</v>
       </c>
       <c r="J190" s="9" t="s">
         <v>68</v>
@@ -6801,22 +6926,19 @@
       <c r="K190" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="M190" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="N190" s="9" t="s">
+      <c r="L190" s="9" t="s">
         <v>25</v>
       </c>
       <c r="O190" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="191" ht="28.5" spans="3:15">
-      <c r="C191" s="1" t="s">
-        <v>335</v>
+    <row r="191" spans="4:15">
+      <c r="D191" s="1" t="s">
+        <v>339</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>336</v>
+        <v>221</v>
       </c>
       <c r="J191" s="9" t="s">
         <v>68</v>
@@ -6824,25 +6946,19 @@
       <c r="K191" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="M191" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="N191" s="9" t="s">
+      <c r="L191" s="9" t="s">
         <v>25</v>
       </c>
       <c r="O191" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="192" ht="28.5" spans="3:15">
-      <c r="C192" s="1" t="s">
-        <v>337</v>
+    <row r="192" spans="2:15">
+      <c r="B192" s="1" t="s">
+        <v>340</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="H192" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="J192" s="9" t="s">
         <v>68</v>
@@ -6862,16 +6978,10 @@
     </row>
     <row r="193" ht="28.5" spans="3:15">
       <c r="C193" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="E193" s="2" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="H193" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="J193" s="9" t="s">
         <v>68</v>
@@ -6891,13 +7001,13 @@
     </row>
     <row r="194" ht="28.5" spans="3:15">
       <c r="C194" s="1" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="H194" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="J194" s="9" t="s">
         <v>68</v>
@@ -6917,13 +7027,16 @@
     </row>
     <row r="195" ht="28.5" spans="3:15">
       <c r="C195" s="1" t="s">
-        <v>342</v>
+        <v>346</v>
+      </c>
+      <c r="E195" s="2" t="s">
+        <v>347</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="H195" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="J195" s="9" t="s">
         <v>68</v>
@@ -6943,13 +7056,13 @@
     </row>
     <row r="196" ht="28.5" spans="3:15">
       <c r="C196" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="F196" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="F196" s="2" t="s">
-        <v>336</v>
-      </c>
       <c r="H196" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="J196" s="9" t="s">
         <v>68</v>
@@ -6969,13 +7082,13 @@
     </row>
     <row r="197" ht="28.5" spans="3:15">
       <c r="C197" s="1" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="H197" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="J197" s="9" t="s">
         <v>68</v>
@@ -6993,12 +7106,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="198" ht="28.5" spans="2:15">
-      <c r="B198" s="1" t="s">
+    <row r="198" ht="28.5" spans="3:15">
+      <c r="C198" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="F198" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="H198" t="s">
         <v>345</v>
-      </c>
-      <c r="F198" s="2" t="s">
-        <v>336</v>
       </c>
       <c r="J198" s="9" t="s">
         <v>68</v>
@@ -7018,13 +7134,13 @@
     </row>
     <row r="199" ht="28.5" spans="3:15">
       <c r="C199" s="1" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="H199" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="J199" s="9" t="s">
         <v>68</v>
@@ -7042,15 +7158,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="200" ht="28.5" spans="3:15">
-      <c r="C200" s="1" t="s">
-        <v>347</v>
+    <row r="200" ht="28.5" spans="2:15">
+      <c r="B200" s="1" t="s">
+        <v>352</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="H200" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="J200" s="9" t="s">
         <v>68</v>
@@ -7070,10 +7183,13 @@
     </row>
     <row r="201" ht="28.5" spans="3:15">
       <c r="C201" s="1" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>336</v>
+        <v>343</v>
+      </c>
+      <c r="H201" t="s">
+        <v>345</v>
       </c>
       <c r="J201" s="9" t="s">
         <v>68</v>
@@ -7093,16 +7209,13 @@
     </row>
     <row r="202" ht="28.5" spans="3:15">
       <c r="C202" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="E202" s="2" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="H202" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="J202" s="9" t="s">
         <v>68</v>
@@ -7120,33 +7233,41 @@
         <v>25</v>
       </c>
     </row>
-    <row r="203" spans="2:15">
-      <c r="B203" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="F203" s="2"/>
+    <row r="203" ht="28.5" spans="3:15">
+      <c r="C203" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="F203" s="2" t="s">
+        <v>343</v>
+      </c>
       <c r="J203" s="9" t="s">
         <v>68</v>
       </c>
       <c r="K203" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="L203" s="9" t="s">
+      <c r="M203" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N203" s="9" t="s">
         <v>25</v>
       </c>
       <c r="O203" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="204" spans="3:15">
+    <row r="204" ht="28.5" spans="3:15">
       <c r="C204" s="1" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>221</v>
+        <v>343</v>
+      </c>
+      <c r="H204" t="s">
+        <v>345</v>
       </c>
       <c r="J204" s="9" t="s">
         <v>68</v>
@@ -7154,23 +7275,21 @@
       <c r="K204" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="L204" s="9" t="s">
+      <c r="M204" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N204" s="9" t="s">
         <v>25</v>
       </c>
       <c r="O204" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="205" spans="3:15">
-      <c r="C205" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="E205" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="F205" s="2" t="s">
-        <v>221</v>
-      </c>
+    <row r="205" spans="2:15">
+      <c r="B205" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="F205" s="2"/>
       <c r="J205" s="9" t="s">
         <v>68</v>
       </c>
@@ -7186,10 +7305,10 @@
     </row>
     <row r="206" spans="3:15">
       <c r="C206" s="1" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="F206" s="2" t="s">
         <v>221</v>
@@ -7207,12 +7326,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="207" spans="4:15">
-      <c r="D207" s="1" t="s">
-        <v>358</v>
+    <row r="207" spans="3:15">
+      <c r="C207" s="1" t="s">
+        <v>361</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="F207" s="2" t="s">
         <v>221</v>
@@ -7230,12 +7349,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="208" ht="28.5" spans="4:15">
-      <c r="D208" s="1" t="s">
-        <v>360</v>
+    <row r="208" spans="3:15">
+      <c r="C208" s="1" t="s">
+        <v>363</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="F208" s="2" t="s">
         <v>221</v>
@@ -7255,10 +7374,10 @@
     </row>
     <row r="209" spans="4:15">
       <c r="D209" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="F209" s="2" t="s">
         <v>221</v>
@@ -7276,19 +7395,16 @@
         <v>25</v>
       </c>
     </row>
-    <row r="210" spans="3:15">
-      <c r="C210" s="1" t="s">
-        <v>364</v>
+    <row r="210" ht="28.5" spans="4:15">
+      <c r="D210" s="1" t="s">
+        <v>367</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="F210" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="H210" t="s">
-        <v>366</v>
-      </c>
       <c r="J210" s="9" t="s">
         <v>68</v>
       </c>
@@ -7302,9 +7418,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="211" spans="3:11">
-      <c r="C211" s="1" t="s">
-        <v>367</v>
+    <row r="211" spans="4:15">
+      <c r="D211" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="E211" s="2" t="s">
+        <v>370</v>
       </c>
       <c r="F211" s="2" t="s">
         <v>221</v>
@@ -7315,17 +7434,26 @@
       <c r="K211" s="9" t="s">
         <v>68</v>
       </c>
+      <c r="L211" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O211" s="9" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="212" spans="3:15">
       <c r="C212" s="1" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="F212" s="2" t="s">
         <v>221</v>
       </c>
+      <c r="H212" t="s">
+        <v>373</v>
+      </c>
       <c r="J212" s="9" t="s">
         <v>68</v>
       </c>
@@ -7339,18 +7467,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="213" ht="28.5" spans="2:15">
-      <c r="B213" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="E213" s="2" t="s">
-        <v>371</v>
+    <row r="213" spans="3:11">
+      <c r="C213" s="1" t="s">
+        <v>374</v>
       </c>
       <c r="F213" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="H213" t="s">
-        <v>372</v>
+        <v>221</v>
       </c>
       <c r="J213" s="9" t="s">
         <v>68</v>
@@ -7358,19 +7480,16 @@
       <c r="K213" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="N213" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="O213" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="214" ht="28.5" spans="4:15">
-      <c r="D214" s="1" t="s">
-        <v>373</v>
+    </row>
+    <row r="214" spans="3:15">
+      <c r="C214" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="E214" s="2" t="s">
+        <v>376</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>336</v>
+        <v>221</v>
       </c>
       <c r="J214" s="9" t="s">
         <v>68</v>
@@ -7378,19 +7497,25 @@
       <c r="K214" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="N214" s="9" t="s">
+      <c r="L214" s="9" t="s">
         <v>25</v>
       </c>
       <c r="O214" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="215" ht="28.5" spans="4:15">
-      <c r="D215" s="1" t="s">
-        <v>374</v>
+    <row r="215" ht="28.5" spans="2:15">
+      <c r="B215" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="E215" s="2" t="s">
+        <v>378</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>336</v>
+        <v>343</v>
+      </c>
+      <c r="H215" t="s">
+        <v>379</v>
       </c>
       <c r="J215" s="9" t="s">
         <v>68</v>
@@ -7405,15 +7530,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="216" ht="28.5" spans="3:15">
-      <c r="C216" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="E216" s="2" t="s">
-        <v>376</v>
+    <row r="216" ht="28.5" spans="4:15">
+      <c r="D216" s="1" t="s">
+        <v>380</v>
       </c>
       <c r="F216" s="2" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="J216" s="9" t="s">
         <v>68</v>
@@ -7428,15 +7550,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="217" ht="28.5" spans="3:15">
-      <c r="C217" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="E217" s="2" t="s">
-        <v>378</v>
+    <row r="217" ht="28.5" spans="4:15">
+      <c r="D217" s="1" t="s">
+        <v>381</v>
       </c>
       <c r="F217" s="2" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="J217" s="9" t="s">
         <v>68</v>
@@ -7453,13 +7572,13 @@
     </row>
     <row r="218" ht="28.5" spans="3:15">
       <c r="C218" s="1" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="F218" s="2" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="J218" s="9" t="s">
         <v>68</v>
@@ -7474,15 +7593,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="219" spans="2:15">
-      <c r="B219" s="1" t="s">
-        <v>381</v>
+    <row r="219" ht="28.5" spans="3:15">
+      <c r="C219" s="1" t="s">
+        <v>384</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="F219" s="2" t="s">
-        <v>306</v>
+        <v>343</v>
       </c>
       <c r="J219" s="9" t="s">
         <v>68</v>
@@ -7497,18 +7616,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="220" spans="2:15">
-      <c r="B220" s="1" t="s">
-        <v>383</v>
+    <row r="220" ht="28.5" spans="3:15">
+      <c r="C220" s="1" t="s">
+        <v>386</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="F220" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="H220" t="s">
-        <v>385</v>
+        <v>343</v>
       </c>
       <c r="J220" s="9" t="s">
         <v>68</v>
@@ -7516,25 +7632,22 @@
       <c r="K220" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="L220" s="9" t="s">
+      <c r="N220" s="9" t="s">
         <v>25</v>
       </c>
       <c r="O220" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="221" spans="3:15">
-      <c r="C221" s="1" t="s">
-        <v>386</v>
+    <row r="221" spans="2:15">
+      <c r="B221" s="1" t="s">
+        <v>388</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="F221" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="H221" t="s">
-        <v>386</v>
+        <v>310</v>
       </c>
       <c r="J221" s="9" t="s">
         <v>68</v>
@@ -7542,25 +7655,25 @@
       <c r="K221" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="L221" s="9" t="s">
+      <c r="N221" s="9" t="s">
         <v>25</v>
       </c>
       <c r="O221" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="222" spans="3:15">
-      <c r="C222" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="E222" s="2" t="s">
-        <v>388</v>
+    <row r="222" spans="2:15">
+      <c r="B222" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="E222" s="8" t="s">
+        <v>391</v>
       </c>
       <c r="F222" s="2" t="s">
         <v>171</v>
       </c>
       <c r="H222" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="J222" s="9" t="s">
         <v>68</v>
@@ -7577,11 +7690,17 @@
     </row>
     <row r="223" spans="3:15">
       <c r="C223" s="1" t="s">
-        <v>389</v>
+        <v>393</v>
+      </c>
+      <c r="E223" s="8" t="s">
+        <v>394</v>
       </c>
       <c r="F223" s="2" t="s">
         <v>171</v>
       </c>
+      <c r="H223" t="s">
+        <v>393</v>
+      </c>
       <c r="J223" s="9" t="s">
         <v>68</v>
       </c>
@@ -7597,14 +7716,17 @@
     </row>
     <row r="224" spans="3:15">
       <c r="C224" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="E224" s="2" t="s">
-        <v>391</v>
+        <v>392</v>
+      </c>
+      <c r="E224" s="8" t="s">
+        <v>395</v>
       </c>
       <c r="F224" s="2" t="s">
         <v>171</v>
       </c>
+      <c r="H224" t="s">
+        <v>392</v>
+      </c>
       <c r="J224" s="9" t="s">
         <v>68</v>
       </c>
@@ -7620,10 +7742,7 @@
     </row>
     <row r="225" spans="3:15">
       <c r="C225" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="E225" s="2" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="F225" s="2" t="s">
         <v>171</v>
@@ -7643,10 +7762,10 @@
     </row>
     <row r="226" spans="3:15">
       <c r="C226" s="1" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="F226" s="2" t="s">
         <v>171</v>
@@ -7666,10 +7785,10 @@
     </row>
     <row r="227" spans="3:15">
       <c r="C227" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="F227" s="2" t="s">
         <v>171</v>
@@ -7687,12 +7806,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="228" spans="4:15">
-      <c r="D228" s="1" t="s">
-        <v>398</v>
+    <row r="228" spans="3:15">
+      <c r="C228" s="1" t="s">
+        <v>401</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="F228" s="2" t="s">
         <v>171</v>
@@ -7710,12 +7829,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="229" spans="4:15">
-      <c r="D229" s="1" t="s">
-        <v>400</v>
+    <row r="229" spans="3:15">
+      <c r="C229" s="1" t="s">
+        <v>403</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="F229" s="2" t="s">
         <v>171</v>
@@ -7735,10 +7854,10 @@
     </row>
     <row r="230" spans="4:15">
       <c r="D230" s="1" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="F230" s="2" t="s">
         <v>171</v>
@@ -7758,10 +7877,10 @@
     </row>
     <row r="231" spans="4:15">
       <c r="D231" s="1" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="F231" s="2" t="s">
         <v>171</v>
@@ -7779,49 +7898,67 @@
         <v>25</v>
       </c>
     </row>
-    <row r="232" spans="1:11">
-      <c r="A232" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="F232" s="2"/>
+    <row r="232" spans="4:15">
+      <c r="D232" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="E232" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="F232" s="2" t="s">
+        <v>171</v>
+      </c>
       <c r="J232" s="9" t="s">
         <v>68</v>
       </c>
       <c r="K232" s="9" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="233" ht="28.5" spans="2:11">
-      <c r="B233" s="1" t="s">
-        <v>407</v>
+      <c r="L232" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O232" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="233" spans="4:15">
+      <c r="D233" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="E233" s="2" t="s">
+        <v>412</v>
       </c>
       <c r="F233" s="2" t="s">
-        <v>31</v>
+        <v>171</v>
       </c>
       <c r="J233" s="9" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="K233" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="234" ht="28.5" spans="3:11">
-      <c r="C234" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="F234" s="2" t="s">
-        <v>31</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="L233" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O233" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="234" spans="1:11">
+      <c r="A234" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="F234" s="2"/>
       <c r="J234" s="9" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="K234" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="235" ht="28.5" spans="3:11">
-      <c r="C235" s="1" t="s">
-        <v>409</v>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="235" ht="28.5" spans="2:11">
+      <c r="B235" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="F235" s="2" t="s">
         <v>31</v>
@@ -7833,175 +7970,177 @@
         <v>28</v>
       </c>
     </row>
-    <row r="236" spans="2:11">
-      <c r="B236" s="10" t="s">
-        <v>410</v>
-      </c>
-      <c r="E236" s="8" t="s">
-        <v>411</v>
+    <row r="236" ht="28.5" spans="3:11">
+      <c r="C236" s="1" t="s">
+        <v>415</v>
       </c>
       <c r="F236" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J236" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K236" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="237" ht="28.5" spans="3:11">
+      <c r="C237" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="F237" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J237" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K237" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="238" spans="2:11">
+      <c r="B238" s="10" t="s">
+        <v>417</v>
+      </c>
+      <c r="E238" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="F238" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="H236" t="s">
-        <v>410</v>
-      </c>
-      <c r="J236" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K236" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="237" spans="3:15">
-      <c r="C237" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="F237" s="8" t="s">
+      <c r="H238" t="s">
+        <v>417</v>
+      </c>
+      <c r="J238" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K238" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="239" spans="3:15">
+      <c r="C239" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="F239" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="H237" t="s">
-        <v>410</v>
-      </c>
-      <c r="J237" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K237" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="L237" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="O237" s="9"/>
-    </row>
-    <row r="238" spans="3:15">
-      <c r="C238" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="E238" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="F238" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="J238" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K238" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="L238" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="O238" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="239" spans="2:11">
-      <c r="B239" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="E239" s="2" t="s">
+      <c r="H239" t="s">
         <v>417</v>
       </c>
-      <c r="F239" s="2" t="s">
+      <c r="J239" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K239" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L239" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O239" s="9"/>
+    </row>
+    <row r="240" spans="3:15">
+      <c r="C240" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="E240" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="F240" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="J240" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K240" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L240" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O240" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="241" spans="2:11">
+      <c r="B241" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="E241" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="F241" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="H239" t="s">
-        <v>416</v>
-      </c>
-      <c r="J239" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K239" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="240" spans="3:12">
-      <c r="C240" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="F240" s="8" t="s">
+      <c r="H241" t="s">
+        <v>423</v>
+      </c>
+      <c r="J241" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K241" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="242" spans="3:12">
+      <c r="C242" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="F242" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="H240" t="s">
-        <v>416</v>
-      </c>
-      <c r="J240" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K240" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="L240" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="241" spans="3:12">
-      <c r="C241" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="F241" s="8" t="s">
+      <c r="H242" t="s">
+        <v>423</v>
+      </c>
+      <c r="J242" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K242" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L242" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="243" spans="3:12">
+      <c r="C243" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="F243" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="H241" t="s">
-        <v>416</v>
-      </c>
-      <c r="J241" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K241" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="L241" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="242" spans="3:15">
-      <c r="C242" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="E242" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="F242" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="H242" t="s">
-        <v>416</v>
-      </c>
-      <c r="J242" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K242" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="L242" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="O242" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="243" spans="1:11">
-      <c r="A243" s="1" t="s">
+      <c r="H243" t="s">
+        <v>423</v>
+      </c>
+      <c r="J243" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K243" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L243" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="244" spans="3:15">
+      <c r="C244" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="E244" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="F244" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="F243" s="2"/>
-      <c r="J243" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K243" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="244" spans="2:15">
-      <c r="B244" s="1" t="s">
+      <c r="H244" t="s">
         <v>423</v>
       </c>
-      <c r="F244" s="2"/>
-      <c r="J244" s="9"/>
-      <c r="K244" s="9"/>
+      <c r="J244" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K244" s="9" t="s">
+        <v>28</v>
+      </c>
       <c r="L244" s="9" t="s">
         <v>25</v>
       </c>
@@ -8009,48 +8148,25 @@
         <v>25</v>
       </c>
     </row>
-    <row r="245" spans="3:15">
-      <c r="C245" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="E245" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="F245" s="2" t="s">
-        <v>415</v>
-      </c>
+    <row r="245" spans="1:11">
+      <c r="A245" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="F245" s="2"/>
       <c r="J245" s="9" t="s">
         <v>28</v>
       </c>
       <c r="K245" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="L245" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="O245" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="246" spans="3:15">
-      <c r="C246" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="E246" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="F246" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="H246" t="s">
-        <v>428</v>
-      </c>
-      <c r="J246" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K246" s="9" t="s">
-        <v>28</v>
-      </c>
+    </row>
+    <row r="246" spans="2:15">
+      <c r="B246" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="F246" s="2"/>
+      <c r="J246" s="9"/>
+      <c r="K246" s="9"/>
       <c r="L246" s="9" t="s">
         <v>25</v>
       </c>
@@ -8060,13 +8176,13 @@
     </row>
     <row r="247" spans="3:15">
       <c r="C247" s="1" t="s">
-        <v>429</v>
+        <v>431</v>
+      </c>
+      <c r="E247" s="2" t="s">
+        <v>432</v>
       </c>
       <c r="F247" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="H247" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="J247" s="9" t="s">
         <v>28</v>
@@ -8083,16 +8199,22 @@
     </row>
     <row r="248" spans="3:15">
       <c r="C248" s="1" t="s">
-        <v>430</v>
+        <v>433</v>
+      </c>
+      <c r="E248" s="2" t="s">
+        <v>434</v>
       </c>
       <c r="F248" s="2" t="s">
-        <v>431</v>
+        <v>422</v>
+      </c>
+      <c r="H248" t="s">
+        <v>435</v>
       </c>
       <c r="J248" s="9" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="K248" s="9" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="L248" s="9" t="s">
         <v>25</v>
@@ -8101,11 +8223,22 @@
         <v>25</v>
       </c>
     </row>
-    <row r="249" spans="2:15">
-      <c r="B249" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="F249" s="2"/>
+    <row r="249" spans="3:15">
+      <c r="C249" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="F249" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="H249" t="s">
+        <v>435</v>
+      </c>
+      <c r="J249" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K249" s="9" t="s">
+        <v>28</v>
+      </c>
       <c r="L249" s="9" t="s">
         <v>25</v>
       </c>
@@ -8115,16 +8248,16 @@
     </row>
     <row r="250" spans="3:15">
       <c r="C250" s="1" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="F250" s="2" t="s">
-        <v>415</v>
+        <v>438</v>
       </c>
       <c r="J250" s="9" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="K250" s="9" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="L250" s="9" t="s">
         <v>25</v>
@@ -8133,19 +8266,11 @@
         <v>25</v>
       </c>
     </row>
-    <row r="251" spans="3:15">
-      <c r="C251" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="F251" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="J251" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K251" s="9" t="s">
-        <v>28</v>
-      </c>
+    <row r="251" spans="2:15">
+      <c r="B251" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="F251" s="2"/>
       <c r="L251" s="9" t="s">
         <v>25</v>
       </c>
@@ -8153,11 +8278,19 @@
         <v>25</v>
       </c>
     </row>
-    <row r="252" spans="2:15">
-      <c r="B252" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="F252" s="2"/>
+    <row r="252" spans="3:15">
+      <c r="C252" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="F252" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="J252" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K252" s="9" t="s">
+        <v>28</v>
+      </c>
       <c r="L252" s="9" t="s">
         <v>25</v>
       </c>
@@ -8167,13 +8300,10 @@
     </row>
     <row r="253" spans="3:15">
       <c r="C253" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="E253" s="2" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="F253" s="2" t="s">
-        <v>438</v>
+        <v>422</v>
       </c>
       <c r="J253" s="9" t="s">
         <v>28</v>
@@ -8188,19 +8318,11 @@
         <v>25</v>
       </c>
     </row>
-    <row r="254" spans="4:15">
-      <c r="D254" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="F254" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="J254" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K254" s="9" t="s">
-        <v>28</v>
-      </c>
+    <row r="254" spans="2:15">
+      <c r="B254" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="F254" s="2"/>
       <c r="L254" s="9" t="s">
         <v>25</v>
       </c>
@@ -8208,147 +8330,156 @@
         <v>25</v>
       </c>
     </row>
-    <row r="255" ht="28.5" spans="4:15">
-      <c r="D255" s="1" t="s">
-        <v>440</v>
+    <row r="255" spans="3:15">
+      <c r="C255" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="E255" s="2" t="s">
+        <v>444</v>
       </c>
       <c r="F255" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="J255" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K255" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L255" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O255" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="256" spans="4:15">
+      <c r="D256" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="F256" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="J256" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K256" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L256" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O256" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="257" ht="28.5" spans="4:15">
+      <c r="D257" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="F257" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J255" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K255" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="L255" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="O255" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="256" ht="28.5" spans="4:17">
-      <c r="D256" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="F256" s="2" t="s">
+      <c r="J257" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K257" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L257" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O257" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="258" ht="28.5" spans="4:17">
+      <c r="D258" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="F258" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="J256" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K256" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="L256" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="O256" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="P256" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q256" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="257" ht="28.5" spans="3:17">
-      <c r="C257" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="E257" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="F257" s="8" t="s">
+      <c r="J258" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K258" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L258" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O258" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P258" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q258" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="259" ht="28.5" spans="3:17">
+      <c r="C259" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="E259" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="F259" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="J257" s="9" t="s">
+      <c r="J259" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="K257" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="L257" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="O257" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="P257" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q257" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="258" spans="3:15">
-      <c r="C258" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="F258" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="J258" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K258" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="L258" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="O258" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="259" spans="3:12">
-      <c r="C259" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="E259" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="F259" s="8" t="s">
-        <v>447</v>
-      </c>
-      <c r="I259" s="7" t="s">
+      <c r="K259" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L259" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O259" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P259" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q259" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="260" spans="3:15">
+      <c r="C260" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="F260" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="J260" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K260" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L260" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O260" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="261" spans="3:12">
+      <c r="C261" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="E261" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="F261" s="8" t="s">
+        <v>454</v>
+      </c>
+      <c r="I261" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="J259" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="K259" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="L259" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="260" spans="4:12">
-      <c r="D260" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="F260" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J260" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="K260" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="L260" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="261" spans="4:12">
-      <c r="D261" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="F261" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="J261" s="9" t="s">
         <v>68</v>
@@ -8362,10 +8493,10 @@
     </row>
     <row r="262" spans="4:12">
       <c r="D262" s="1" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="F262" s="2" t="s">
-        <v>451</v>
+        <v>62</v>
       </c>
       <c r="J262" s="9" t="s">
         <v>68</v>
@@ -8379,13 +8510,10 @@
     </row>
     <row r="263" spans="4:12">
       <c r="D263" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="E263" s="2" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="F263" s="2" t="s">
-        <v>451</v>
+        <v>62</v>
       </c>
       <c r="J263" s="9" t="s">
         <v>68</v>
@@ -8397,12 +8525,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="264" ht="28.5" spans="4:12">
+    <row r="264" spans="4:12">
       <c r="D264" s="1" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="F264" s="2" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="J264" s="9" t="s">
         <v>68</v>
@@ -8416,164 +8544,163 @@
     </row>
     <row r="265" spans="4:12">
       <c r="D265" s="1" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="E265" s="2" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="F265" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="J265" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="K265" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="L265" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="266" ht="28.5" spans="4:12">
+      <c r="D266" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="F266" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="J266" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="K266" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="L266" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="267" spans="4:12">
+      <c r="D267" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="E267" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="F267" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="J265" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="K265" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="L265" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="266" spans="1:12">
-      <c r="A266" s="1" t="s">
+      <c r="J267" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="K267" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="L267" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="268" spans="1:12">
+      <c r="A268" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="J268" s="9"/>
+      <c r="K268" s="9"/>
+      <c r="L268" s="9"/>
+    </row>
+    <row r="269" spans="3:12">
+      <c r="C269" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="F269" s="2"/>
+      <c r="I269" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="J269" s="9"/>
+      <c r="K269" s="9"/>
+      <c r="L269" s="9"/>
+    </row>
+    <row r="270" spans="4:12">
+      <c r="D270" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E270" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="F270" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="J266" s="9"/>
-      <c r="K266" s="9"/>
-      <c r="L266" s="9"/>
-    </row>
-    <row r="267" spans="3:12">
-      <c r="C267" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="F267" s="2"/>
-      <c r="I267" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="J267" s="9"/>
-      <c r="K267" s="9"/>
-      <c r="L267" s="9"/>
-    </row>
-    <row r="268" spans="4:12">
-      <c r="D268" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="E268" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="F268" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="J268" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="K268" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="L268" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="269" spans="4:12">
-      <c r="D269" s="1" t="s">
+      <c r="J270" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="K270" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="L270" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="271" spans="4:12">
+      <c r="D271" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="E271" s="8" t="s">
+        <v>470</v>
+      </c>
+      <c r="F271" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="J271" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="K271" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="L271" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="272" spans="4:12">
+      <c r="D272" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="E272" s="2"/>
+      <c r="F272" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="J272" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="K272" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="L272" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="273" spans="4:12">
+      <c r="D273" s="10" t="s">
+        <v>472</v>
+      </c>
+      <c r="F273" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="J273" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="K273" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="L273" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="274" ht="28.5" spans="4:14">
+      <c r="D274" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="F274" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="E269" s="8" t="s">
-        <v>463</v>
-      </c>
-      <c r="F269" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="J269" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="K269" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="L269" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="270" spans="4:12">
-      <c r="D270" s="10" t="s">
-        <v>464</v>
-      </c>
-      <c r="E270" s="2"/>
-      <c r="F270" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="J270" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="K270" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="L270" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="271" spans="4:12">
-      <c r="D271" s="10" t="s">
-        <v>465</v>
-      </c>
-      <c r="F271" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="J271" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="K271" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="L271" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="272" ht="28.5" spans="4:14">
-      <c r="D272" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="F272" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="J272" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="K272" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="L272" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="N272" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="273" spans="4:14">
-      <c r="D273" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="F273" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="J273" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="K273" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="L273" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="N273" s="9"/>
-    </row>
-    <row r="274" spans="4:12">
-      <c r="D274" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="F274" s="2" t="s">
-        <v>451</v>
-      </c>
       <c r="J274" s="9" t="s">
         <v>68</v>
       </c>
@@ -8583,129 +8710,115 @@
       <c r="L274" s="9" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="275" spans="4:12">
+      <c r="N274" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="275" spans="4:14">
       <c r="D275" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="F275" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="J275" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="K275" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="L275" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N275" s="9"/>
+    </row>
+    <row r="276" spans="4:12">
+      <c r="D276" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="F276" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="J276" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="K276" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="L276" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="277" spans="4:12">
+      <c r="D277" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F275" s="2" t="s">
+      <c r="F277" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="J275" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="K275" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="L275" s="9"/>
-    </row>
-    <row r="276" spans="4:12">
-      <c r="D276" s="10" t="s">
-        <v>469</v>
-      </c>
-      <c r="E276" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="F276" s="2" t="s">
+      <c r="J277" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="K277" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="L277" s="9"/>
+    </row>
+    <row r="278" spans="4:12">
+      <c r="D278" s="10" t="s">
+        <v>476</v>
+      </c>
+      <c r="E278" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="F278" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="J276" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="K276" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="L276" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="277" spans="1:12">
-      <c r="A277" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="F277" s="2"/>
-      <c r="J277" s="9"/>
-      <c r="K277" s="9"/>
-      <c r="L277" s="9"/>
-    </row>
-    <row r="278" spans="2:11">
-      <c r="B278" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="H278" t="s">
-        <v>472</v>
-      </c>
       <c r="J278" s="9" t="s">
         <v>68</v>
       </c>
       <c r="K278" s="9" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="279" ht="28.5" spans="3:17">
-      <c r="C279" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="E279" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="F279" s="3" t="s">
-        <v>475</v>
-      </c>
-      <c r="H279" t="s">
-        <v>472</v>
-      </c>
-      <c r="J279" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="K279" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="L279" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="P279" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q279" s="5">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="280" ht="28.5" spans="3:17">
-      <c r="C280" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="F280" s="2" t="s">
-        <v>475</v>
+      <c r="L278" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="279" spans="1:12">
+      <c r="A279" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="F279" s="2"/>
+      <c r="J279" s="9"/>
+      <c r="K279" s="9"/>
+      <c r="L279" s="9"/>
+    </row>
+    <row r="280" spans="2:11">
+      <c r="B280" s="1" t="s">
+        <v>479</v>
       </c>
       <c r="H280" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="J280" s="9" t="s">
         <v>68</v>
       </c>
       <c r="K280" s="9" t="s">
         <v>68</v>
-      </c>
-      <c r="L280" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="P280" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q280" s="13">
-        <v>400</v>
       </c>
     </row>
     <row r="281" ht="28.5" spans="3:17">
       <c r="C281" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="F281" s="2" t="s">
-        <v>475</v>
+        <v>480</v>
+      </c>
+      <c r="E281" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="F281" s="3" t="s">
+        <v>482</v>
       </c>
       <c r="H281" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="J281" s="9" t="s">
         <v>68</v>
@@ -8713,28 +8826,25 @@
       <c r="K281" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="L281" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="P281" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q281" s="13">
+      <c r="L281" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="P281" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q281" s="5">
         <v>400</v>
       </c>
     </row>
     <row r="282" ht="28.5" spans="3:17">
       <c r="C282" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="E282" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="F282" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="H282" t="s">
         <v>479</v>
-      </c>
-      <c r="F282" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="H282" t="s">
-        <v>168</v>
       </c>
       <c r="J282" s="9" t="s">
         <v>68</v>
@@ -8754,16 +8864,13 @@
     </row>
     <row r="283" ht="28.5" spans="3:17">
       <c r="C283" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="E283" s="2" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="F283" s="2" t="s">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="H283" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="J283" s="9" t="s">
         <v>68</v>
@@ -8783,10 +8890,16 @@
     </row>
     <row r="284" ht="28.5" spans="3:17">
       <c r="C284" s="1" t="s">
-        <v>483</v>
+        <v>485</v>
+      </c>
+      <c r="E284" s="2" t="s">
+        <v>486</v>
       </c>
       <c r="F284" s="2" t="s">
-        <v>475</v>
+        <v>482</v>
+      </c>
+      <c r="H284" t="s">
+        <v>168</v>
       </c>
       <c r="J284" s="9" t="s">
         <v>68</v>
@@ -8806,13 +8919,16 @@
     </row>
     <row r="285" ht="28.5" spans="3:17">
       <c r="C285" s="1" t="s">
-        <v>484</v>
+        <v>487</v>
+      </c>
+      <c r="E285" s="2" t="s">
+        <v>488</v>
       </c>
       <c r="F285" s="2" t="s">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="H285" t="s">
-        <v>472</v>
+        <v>489</v>
       </c>
       <c r="J285" s="9" t="s">
         <v>68</v>
@@ -8830,14 +8946,12 @@
         <v>400</v>
       </c>
     </row>
-    <row r="286" spans="2:17">
-      <c r="B286" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="C286" s="1"/>
-      <c r="F286" s="2"/>
-      <c r="H286" t="s">
-        <v>485</v>
+    <row r="286" ht="28.5" spans="3:17">
+      <c r="C286" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="F286" s="2" t="s">
+        <v>482</v>
       </c>
       <c r="J286" s="9" t="s">
         <v>68</v>
@@ -8845,19 +8959,25 @@
       <c r="K286" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="L286" s="9"/>
-      <c r="P286" s="9"/>
-      <c r="Q286" s="13"/>
+      <c r="L286" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P286" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q286" s="13">
+        <v>400</v>
+      </c>
     </row>
     <row r="287" ht="28.5" spans="3:17">
-      <c r="C287" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="F287" s="3" t="s">
-        <v>475</v>
+      <c r="C287" s="10" t="s">
+        <v>491</v>
+      </c>
+      <c r="F287" s="2" t="s">
+        <v>482</v>
       </c>
       <c r="H287" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="J287" s="9" t="s">
         <v>68</v>
@@ -8865,10 +8985,10 @@
       <c r="K287" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="L287" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="P287" s="5" t="s">
+      <c r="L287" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P287" s="9" t="s">
         <v>25</v>
       </c>
       <c r="Q287" s="13">
@@ -8877,13 +8997,13 @@
     </row>
     <row r="288" ht="28.5" spans="3:17">
       <c r="C288" s="1" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="F288" s="2" t="s">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="H288" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="J288" s="9" t="s">
         <v>68</v>
@@ -8901,15 +9021,14 @@
         <v>400</v>
       </c>
     </row>
-    <row r="289" ht="28.5" spans="3:17">
-      <c r="C289" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="F289" s="2" t="s">
-        <v>475</v>
-      </c>
+    <row r="289" spans="2:17">
+      <c r="B289" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="C289" s="1"/>
+      <c r="F289" s="2"/>
       <c r="H289" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="J289" s="9" t="s">
         <v>68</v>
@@ -8921,15 +9040,18 @@
       <c r="P289" s="9"/>
       <c r="Q289" s="13"/>
     </row>
-    <row r="290" ht="28.5" spans="3:11">
+    <row r="290" ht="28.5" spans="3:17">
       <c r="C290" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="F290" s="2" t="s">
-        <v>475</v>
+        <v>493</v>
+      </c>
+      <c r="E290" s="8" t="s">
+        <v>494</v>
+      </c>
+      <c r="F290" s="3" t="s">
+        <v>482</v>
       </c>
       <c r="H290" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="J290" s="9" t="s">
         <v>68</v>
@@ -8937,260 +9059,243 @@
       <c r="K290" s="9" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="291" spans="2:12">
-      <c r="B291" s="1" t="s">
+      <c r="L290" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="P290" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q290" s="13">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="291" ht="28.5" spans="3:17">
+      <c r="C291" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="F291" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="H291" t="s">
+        <v>493</v>
+      </c>
+      <c r="J291" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="K291" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="L291" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P291" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q291" s="13">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="292" ht="28.5" spans="3:17">
+      <c r="C292" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="F292" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="H292" t="s">
+        <v>493</v>
+      </c>
+      <c r="J292" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="K292" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="L292" s="9"/>
+      <c r="P292" s="9"/>
+      <c r="Q292" s="13"/>
+    </row>
+    <row r="293" ht="28.5" spans="3:11">
+      <c r="C293" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="F293" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="H293" t="s">
+        <v>493</v>
+      </c>
+      <c r="J293" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="K293" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="294" spans="2:12">
+      <c r="B294" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="C294" s="1"/>
+      <c r="F294" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H294" t="s">
+        <v>493</v>
+      </c>
+      <c r="J294" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K294" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L294" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="295" spans="2:16">
+      <c r="B295" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="F295" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J295" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K295" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L295" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P295" s="9"/>
+    </row>
+    <row r="296" ht="28.5" spans="2:17">
+      <c r="B296" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="F296" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H296" t="s">
+        <v>103</v>
+      </c>
+      <c r="J296" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K296" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L296" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P296" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q296" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="297" ht="28.5" spans="2:17">
+      <c r="B297" s="10" t="s">
+        <v>501</v>
+      </c>
+      <c r="E297" s="8" t="s">
+        <v>502</v>
+      </c>
+      <c r="F297" s="8" t="s">
+        <v>482</v>
+      </c>
+      <c r="H297" t="s">
+        <v>503</v>
+      </c>
+      <c r="J297" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="K297" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="L297" s="9"/>
+      <c r="P297" s="9"/>
+      <c r="Q297" s="9"/>
+    </row>
+    <row r="298" spans="2:12">
+      <c r="B298" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="C291" s="1"/>
-      <c r="F291" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="H291" t="s">
-        <v>485</v>
-      </c>
-      <c r="J291" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K291" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="L291" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="292" spans="2:16">
-      <c r="B292" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="F292" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="J292" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K292" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="L292" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="P292" s="9"/>
-    </row>
-    <row r="293" ht="28.5" spans="2:17">
-      <c r="B293" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="F293" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="H293" t="s">
-        <v>103</v>
-      </c>
-      <c r="J293" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K293" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="L293" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="P293" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q293" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="294" ht="28.5" spans="2:17">
-      <c r="B294" s="10" t="s">
-        <v>492</v>
-      </c>
-      <c r="E294" s="8" t="s">
-        <v>493</v>
-      </c>
-      <c r="F294" s="8" t="s">
-        <v>475</v>
-      </c>
-      <c r="H294" t="s">
-        <v>494</v>
-      </c>
-      <c r="J294" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="K294" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="L294" s="9"/>
-      <c r="P294" s="9"/>
-      <c r="Q294" s="9"/>
-    </row>
-    <row r="295" spans="2:12">
-      <c r="B295" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="E295" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="F295" s="2" t="s">
-        <v>496</v>
-      </c>
-      <c r="H295" t="s">
-        <v>482</v>
-      </c>
-      <c r="J295" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="K295" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="L295" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="296" spans="1:12">
-      <c r="A296" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="B296" s="1"/>
-      <c r="F296" s="2"/>
-      <c r="J296" s="9"/>
-      <c r="K296" s="9"/>
-      <c r="L296" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="297" ht="28.5" spans="2:17">
-      <c r="B297" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="E297" s="2" t="s">
-        <v>499</v>
-      </c>
-      <c r="F297" s="3" t="s">
-        <v>500</v>
-      </c>
-      <c r="H297" t="s">
-        <v>494</v>
-      </c>
-      <c r="J297" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="K297" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="L297" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="P297" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q297" s="5">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="298" ht="28.5" spans="3:17">
-      <c r="C298" s="1" t="s">
-        <v>501</v>
-      </c>
       <c r="E298" s="2" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="F298" s="2" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="H298" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="J298" s="9" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="K298" s="9" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="L298" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="N298" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="P298" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q298" s="13">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="299" ht="28.5" spans="3:17">
-      <c r="C299" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="E299" s="2" t="s">
-        <v>505</v>
-      </c>
-      <c r="F299" s="2" t="s">
-        <v>500</v>
-      </c>
-      <c r="H299" t="s">
+    </row>
+    <row r="299" spans="1:12">
+      <c r="A299" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="J299" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K299" s="9" t="s">
-        <v>28</v>
-      </c>
+      <c r="B299" s="1"/>
+      <c r="F299" s="2"/>
+      <c r="J299" s="9"/>
+      <c r="K299" s="9"/>
       <c r="L299" s="9" t="s">
         <v>25</v>
-      </c>
-      <c r="N299" s="9"/>
-      <c r="P299" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q299" s="13">
-        <v>200</v>
       </c>
     </row>
     <row r="300" ht="28.5" spans="2:17">
       <c r="B300" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="C300" s="1"/>
-      <c r="E300" s="8" t="s">
+      <c r="E300" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="F300" s="2" t="s">
-        <v>500</v>
+      <c r="F300" s="3" t="s">
+        <v>509</v>
       </c>
       <c r="H300" t="s">
-        <v>509</v>
-      </c>
-      <c r="J300" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K300" s="9" t="s">
+        <v>503</v>
+      </c>
+      <c r="J300" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K300" s="5" t="s">
         <v>28</v>
       </c>
       <c r="L300" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="P300" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q300" s="13">
+      <c r="P300" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q300" s="5">
         <v>200</v>
       </c>
     </row>
-    <row r="301" ht="28.5" spans="2:17">
-      <c r="B301" s="1" t="s">
+    <row r="301" ht="28.5" spans="3:17">
+      <c r="C301" s="1" t="s">
         <v>510</v>
       </c>
+      <c r="E301" s="8" t="s">
+        <v>511</v>
+      </c>
       <c r="F301" s="2" t="s">
-        <v>500</v>
+        <v>512</v>
       </c>
       <c r="H301" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="J301" s="9" t="s">
         <v>28</v>
@@ -9199,6 +9304,9 @@
         <v>28</v>
       </c>
       <c r="L301" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N301" s="5" t="s">
         <v>25</v>
       </c>
       <c r="P301" s="9" t="s">
@@ -9208,15 +9316,18 @@
         <v>200</v>
       </c>
     </row>
-    <row r="302" ht="28.5" spans="2:17">
-      <c r="B302" s="1" t="s">
-        <v>511</v>
+    <row r="302" ht="28.5" spans="3:17">
+      <c r="C302" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E302" s="8" t="s">
+        <v>514</v>
       </c>
       <c r="F302" s="2" t="s">
-        <v>500</v>
+        <v>509</v>
       </c>
       <c r="H302" t="s">
-        <v>103</v>
+        <v>515</v>
       </c>
       <c r="J302" s="9" t="s">
         <v>28</v>
@@ -9227,6 +9338,7 @@
       <c r="L302" s="9" t="s">
         <v>25</v>
       </c>
+      <c r="N302" s="9"/>
       <c r="P302" s="9" t="s">
         <v>25</v>
       </c>
@@ -9234,58 +9346,71 @@
         <v>200</v>
       </c>
     </row>
-    <row r="303" spans="2:17">
+    <row r="303" ht="28.5" spans="2:17">
       <c r="B303" s="1" t="s">
-        <v>512</v>
+        <v>516</v>
+      </c>
+      <c r="C303" s="1"/>
+      <c r="E303" s="8" t="s">
+        <v>517</v>
       </c>
       <c r="F303" s="2" t="s">
-        <v>205</v>
+        <v>509</v>
       </c>
       <c r="H303" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="J303" s="9" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="K303" s="9" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="L303" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="P303" s="9"/>
-      <c r="Q303" s="13"/>
-    </row>
-    <row r="304" spans="2:16">
+      <c r="P303" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q303" s="13">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="304" ht="28.5" spans="2:17">
       <c r="B304" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="F304" s="8" t="s">
-        <v>496</v>
+        <v>519</v>
+      </c>
+      <c r="F304" s="2" t="s">
+        <v>509</v>
       </c>
       <c r="H304" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="J304" s="9" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="K304" s="9" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="L304" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="P304" s="9"/>
+      <c r="P304" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q304" s="13">
+        <v>200</v>
+      </c>
     </row>
     <row r="305" ht="28.5" spans="2:17">
       <c r="B305" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="F305" s="8" t="s">
-        <v>106</v>
+        <v>520</v>
+      </c>
+      <c r="F305" s="2" t="s">
+        <v>509</v>
       </c>
       <c r="H305" t="s">
-        <v>514</v>
+        <v>103</v>
       </c>
       <c r="J305" s="9" t="s">
         <v>28</v>
@@ -9296,83 +9421,65 @@
       <c r="L305" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="P305" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q305" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="306" ht="28.5" spans="2:17">
+      <c r="P305" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q305" s="13">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="306" spans="2:17">
       <c r="B306" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="E306" s="2" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="F306" s="2" t="s">
-        <v>106</v>
+        <v>205</v>
       </c>
       <c r="H306" t="s">
-        <v>428</v>
+        <v>521</v>
       </c>
       <c r="J306" s="9" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="K306" s="9" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="L306" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="P306" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q306" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="307" ht="28.5" spans="2:17">
+      <c r="P306" s="9"/>
+      <c r="Q306" s="13"/>
+    </row>
+    <row r="307" spans="2:16">
       <c r="B307" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="E307" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="F307" s="2" t="s">
-        <v>106</v>
+        <v>522</v>
+      </c>
+      <c r="F307" s="8" t="s">
+        <v>505</v>
       </c>
       <c r="H307" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="J307" s="9" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="K307" s="9" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="L307" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="P307" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q307" s="9" t="s">
-        <v>25</v>
-      </c>
+      <c r="P307" s="9"/>
     </row>
     <row r="308" ht="28.5" spans="2:17">
       <c r="B308" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="E308" s="2" t="s">
-        <v>521</v>
-      </c>
-      <c r="F308" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="F308" s="8" t="s">
         <v>106</v>
       </c>
       <c r="H308" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="J308" s="9" t="s">
         <v>28</v>
@@ -9383,25 +9490,25 @@
       <c r="L308" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="P308" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q308" s="9" t="s">
+      <c r="P308" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q308" s="5" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="309" ht="28.5" spans="2:17">
       <c r="B309" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="E309" s="2" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="F309" s="2" t="s">
         <v>106</v>
       </c>
       <c r="H309" t="s">
-        <v>523</v>
+        <v>435</v>
       </c>
       <c r="J309" s="9" t="s">
         <v>28</v>
@@ -9419,129 +9526,136 @@
         <v>25</v>
       </c>
     </row>
-    <row r="310" spans="1:17">
-      <c r="A310" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="B310" s="1"/>
-      <c r="F310" s="2"/>
-      <c r="J310" s="9"/>
-      <c r="K310" s="9"/>
+    <row r="310" ht="28.5" spans="2:17">
+      <c r="B310" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="E310" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="F310" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H310" t="s">
+        <v>528</v>
+      </c>
+      <c r="J310" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K310" s="9" t="s">
+        <v>28</v>
+      </c>
       <c r="L310" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="P310" s="9"/>
-      <c r="Q310" s="9"/>
-    </row>
-    <row r="311" ht="28.5" spans="2:12">
+      <c r="P310" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q310" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="311" ht="28.5" spans="2:17">
       <c r="B311" s="1" t="s">
-        <v>526</v>
+        <v>529</v>
+      </c>
+      <c r="E311" s="8" t="s">
+        <v>530</v>
       </c>
       <c r="F311" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="J311" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="K311" s="5" t="s">
+      <c r="H311" t="s">
+        <v>531</v>
+      </c>
+      <c r="J311" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K311" s="9" t="s">
         <v>28</v>
       </c>
       <c r="L311" s="9" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="312" ht="28.5" spans="3:17">
-      <c r="C312" s="1" t="s">
-        <v>527</v>
+      <c r="P311" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q311" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="312" ht="28.5" spans="2:17">
+      <c r="B312" s="1" t="s">
+        <v>532</v>
       </c>
       <c r="E312" s="2" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="F312" s="2" t="s">
-        <v>475</v>
+        <v>106</v>
       </c>
       <c r="H312" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="J312" s="9" t="s">
         <v>28</v>
       </c>
       <c r="K312" s="9" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="L312" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="P312" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q312" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="313" ht="28.5" spans="3:17">
-      <c r="C313" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="E313" s="2" t="s">
-        <v>531</v>
-      </c>
-      <c r="F313" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="H313" t="s">
-        <v>532</v>
-      </c>
-      <c r="J313" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K313" s="9" t="s">
-        <v>28</v>
-      </c>
+      <c r="P312" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q312" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="313" spans="1:17">
+      <c r="A313" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="B313" s="1"/>
+      <c r="F313" s="2"/>
+      <c r="J313" s="9"/>
+      <c r="K313" s="9"/>
       <c r="L313" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="P313" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q313" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="314" ht="28.5" spans="3:17">
-      <c r="C314" s="1" t="s">
-        <v>533</v>
+      <c r="P313" s="9"/>
+      <c r="Q313" s="9"/>
+    </row>
+    <row r="314" ht="28.5" spans="2:12">
+      <c r="B314" s="1" t="s">
+        <v>535</v>
       </c>
       <c r="F314" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="H314" t="s">
-        <v>533</v>
-      </c>
-      <c r="J314" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K314" s="9" t="s">
+      <c r="J314" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K314" s="5" t="s">
         <v>28</v>
       </c>
       <c r="L314" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="P314" s="9"/>
-      <c r="Q314" s="9"/>
-    </row>
-    <row r="315" spans="3:17">
+    </row>
+    <row r="315" ht="28.5" spans="3:17">
       <c r="C315" s="1" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="E315" s="2" t="s">
-        <v>535</v>
-      </c>
-      <c r="F315" s="8" t="s">
-        <v>536</v>
+        <v>537</v>
+      </c>
+      <c r="F315" s="2" t="s">
+        <v>482</v>
       </c>
       <c r="H315" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="J315" s="9" t="s">
         <v>28</v>
@@ -9552,24 +9666,25 @@
       <c r="L315" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="O315" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="P315" s="9"/>
-      <c r="Q315" s="9"/>
+      <c r="P315" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q315" s="5" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="316" ht="28.5" spans="3:17">
       <c r="C316" s="1" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="E316" s="2" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="F316" s="2" t="s">
         <v>106</v>
       </c>
       <c r="H316" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="J316" s="9" t="s">
         <v>28</v>
@@ -9580,58 +9695,76 @@
       <c r="L316" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="O316" s="9"/>
-      <c r="P316" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q316" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="317" spans="2:17">
-      <c r="B317" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="C317" s="1"/>
-      <c r="F317" s="2"/>
-      <c r="J317" s="9"/>
-      <c r="K317" s="9"/>
+      <c r="P316" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q316" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="317" ht="28.5" spans="3:17">
+      <c r="C317" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="F317" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H317" t="s">
+        <v>542</v>
+      </c>
+      <c r="J317" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K317" s="9" t="s">
+        <v>28</v>
+      </c>
       <c r="L317" s="9" t="s">
         <v>25</v>
       </c>
       <c r="P317" s="9"/>
       <c r="Q317" s="9"/>
     </row>
-    <row r="318" ht="28.5" spans="3:17">
+    <row r="318" spans="3:17">
       <c r="C318" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="F318" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="J318" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="K318" s="5" t="s">
-        <v>28</v>
+        <v>543</v>
+      </c>
+      <c r="E318" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="F318" s="8" t="s">
+        <v>545</v>
+      </c>
+      <c r="H318" t="s">
+        <v>546</v>
+      </c>
+      <c r="J318" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K318" s="9" t="s">
+        <v>68</v>
       </c>
       <c r="L318" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="P318" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q318" s="5" t="s">
-        <v>25</v>
-      </c>
+      <c r="O318" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="P318" s="9"/>
+      <c r="Q318" s="9"/>
     </row>
     <row r="319" ht="28.5" spans="3:17">
       <c r="C319" s="1" t="s">
-        <v>542</v>
+        <v>547</v>
+      </c>
+      <c r="E319" s="2" t="s">
+        <v>548</v>
       </c>
       <c r="F319" s="2" t="s">
         <v>106</v>
       </c>
+      <c r="H319" t="s">
+        <v>547</v>
+      </c>
       <c r="J319" s="9" t="s">
         <v>28</v>
       </c>
@@ -9641,160 +9774,591 @@
       <c r="L319" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="P319" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q319" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="320" ht="28.5" spans="3:17">
-      <c r="C320" s="1" t="s">
-        <v>543</v>
-      </c>
-      <c r="F320" s="2" t="s">
+      <c r="O319" s="9"/>
+      <c r="P319" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q319" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="320" spans="2:17">
+      <c r="B320" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="C320" s="1"/>
+      <c r="F320" s="2"/>
+      <c r="J320" s="9"/>
+      <c r="K320" s="9"/>
+      <c r="L320" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P320" s="9"/>
+      <c r="Q320" s="9"/>
+    </row>
+    <row r="321" ht="28.5" spans="3:17">
+      <c r="C321" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="F321" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="J320" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K320" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="L320" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="P320" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q320" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="321" spans="3:17">
-      <c r="C321" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="F321" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="J321" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K321" s="9" t="s">
+      <c r="J321" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K321" s="5" t="s">
         <v>28</v>
       </c>
       <c r="L321" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="O321" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="P321" s="9"/>
-      <c r="Q321" s="9"/>
-    </row>
-    <row r="322" spans="1:15">
-      <c r="A322" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="F322" s="2"/>
-      <c r="J322" s="9"/>
-      <c r="K322" s="9"/>
+      <c r="P321" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q321" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="322" ht="28.5" spans="3:17">
+      <c r="C322" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="F322" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="J322" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K322" s="9" t="s">
+        <v>28</v>
+      </c>
       <c r="L322" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="O322" s="9"/>
-    </row>
-    <row r="323" spans="2:12">
-      <c r="B323" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="F323" s="2"/>
+      <c r="P322" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q322" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="323" ht="28.5" spans="3:17">
+      <c r="C323" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="F323" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="J323" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K323" s="9" t="s">
+        <v>28</v>
+      </c>
       <c r="L323" s="9" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="324" ht="28.5" spans="3:17">
+      <c r="P323" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q323" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="324" spans="3:17">
       <c r="C324" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="E324" s="2" t="s">
-        <v>548</v>
+        <v>553</v>
       </c>
       <c r="F324" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="J324" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K324" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L324" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O324" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="P324" s="9"/>
+      <c r="Q324" s="9"/>
+    </row>
+    <row r="325" spans="1:15">
+      <c r="A325" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="F325" s="2"/>
+      <c r="J325" s="9"/>
+      <c r="K325" s="9"/>
+      <c r="L325" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O325" s="9"/>
+    </row>
+    <row r="326" spans="2:12">
+      <c r="B326" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="F326" s="2"/>
+      <c r="L326" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="327" ht="28.5" spans="3:17">
+      <c r="C327" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="E327" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="F327" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="J324" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="K324" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="L324" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="P324" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q324" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="325" ht="28.5" spans="3:17">
-      <c r="C325" s="14" t="s">
-        <v>549</v>
-      </c>
-      <c r="E325" s="15" t="s">
-        <v>550</v>
-      </c>
-      <c r="F325" s="2" t="s">
+      <c r="J327" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K327" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L327" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P327" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q327" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="328" ht="28.5" spans="3:17">
+      <c r="C328" s="14" t="s">
+        <v>558</v>
+      </c>
+      <c r="E328" s="15" t="s">
+        <v>559</v>
+      </c>
+      <c r="F328" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="J325" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K325" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="L325" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="P325" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q325" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="326" ht="28.5" spans="3:17">
-      <c r="C326" s="14" t="s">
-        <v>551</v>
-      </c>
-      <c r="E326" s="15" t="s">
-        <v>552</v>
-      </c>
-      <c r="F326" s="2" t="s">
+      <c r="J328" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K328" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L328" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P328" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q328" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="329" ht="28.5" spans="3:17">
+      <c r="C329" s="14" t="s">
+        <v>560</v>
+      </c>
+      <c r="E329" s="15" t="s">
+        <v>561</v>
+      </c>
+      <c r="F329" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="J326" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K326" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="L326" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="P326" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q326" s="9" t="s">
+      <c r="J329" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K329" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L329" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P329" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q329" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1">
+      <c r="A330" s="10" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="331" spans="2:2">
+      <c r="B331" s="10" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="332" spans="3:17">
+      <c r="C332" s="10" t="s">
+        <v>564</v>
+      </c>
+      <c r="F332" s="8"/>
+      <c r="L332" s="9"/>
+      <c r="P332" s="9"/>
+      <c r="Q332" s="9"/>
+    </row>
+    <row r="333" spans="4:17">
+      <c r="D333" s="10" t="s">
+        <v>565</v>
+      </c>
+      <c r="E333" s="8" t="s">
+        <v>566</v>
+      </c>
+      <c r="F333" s="8" t="s">
+        <v>567</v>
+      </c>
+      <c r="J333" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K333" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="L333" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P333" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q333" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="334" spans="4:17">
+      <c r="D334" s="10" t="s">
+        <v>568</v>
+      </c>
+      <c r="E334" s="8" t="s">
+        <v>569</v>
+      </c>
+      <c r="F334" s="8" t="s">
+        <v>567</v>
+      </c>
+      <c r="J334" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K334" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="L334" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P334" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q334" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="335" spans="4:17">
+      <c r="D335" s="10" t="s">
+        <v>570</v>
+      </c>
+      <c r="F335" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="J335" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="K335" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="L335" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P335" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q335" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="336" spans="3:17">
+      <c r="C336" s="10" t="s">
+        <v>571</v>
+      </c>
+      <c r="F336" s="8"/>
+      <c r="K336" s="9"/>
+      <c r="L336" s="9"/>
+      <c r="P336" s="9"/>
+      <c r="Q336" s="9"/>
+    </row>
+    <row r="337" spans="4:17">
+      <c r="D337" s="10" t="s">
+        <v>572</v>
+      </c>
+      <c r="F337" s="8" t="s">
+        <v>567</v>
+      </c>
+      <c r="J337" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K337" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="L337" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P337" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q337" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="338" spans="3:17">
+      <c r="C338" s="10" t="s">
+        <v>573</v>
+      </c>
+      <c r="F338" s="8"/>
+      <c r="K338" s="9"/>
+      <c r="L338" s="9"/>
+      <c r="P338" s="9"/>
+      <c r="Q338" s="9"/>
+    </row>
+    <row r="339" spans="4:17">
+      <c r="D339" s="10" t="s">
+        <v>574</v>
+      </c>
+      <c r="F339" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="J339" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="K339" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="L339" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P339" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q339" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="340" spans="4:17">
+      <c r="D340" s="10" t="s">
+        <v>575</v>
+      </c>
+      <c r="F340" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="J340" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="K340" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="L340" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P340" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q340" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="341" spans="4:17">
+      <c r="D341" s="10" t="s">
+        <v>576</v>
+      </c>
+      <c r="F341" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="J341" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="K341" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="L341" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P341" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q341" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="342" spans="2:2">
+      <c r="B342" s="10" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="343" spans="3:3">
+      <c r="C343" s="10" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="344" spans="4:17">
+      <c r="D344" s="10" t="s">
+        <v>579</v>
+      </c>
+      <c r="E344" s="8" t="s">
+        <v>580</v>
+      </c>
+      <c r="F344" s="8" t="s">
+        <v>567</v>
+      </c>
+      <c r="J344" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K344" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="L344" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P344" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q344" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="345" spans="3:3">
+      <c r="C345" s="10" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="346" spans="4:17">
+      <c r="D346" s="10" t="s">
+        <v>582</v>
+      </c>
+      <c r="F346" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="J346" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="K346" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="L346" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P346" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q346" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="347" spans="4:17">
+      <c r="D347" s="10" t="s">
+        <v>583</v>
+      </c>
+      <c r="F347" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="J347" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="K347" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="L347" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P347" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q347" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="348" spans="4:17">
+      <c r="D348" s="10" t="s">
+        <v>584</v>
+      </c>
+      <c r="F348" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="J348" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="K348" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="L348" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P348" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q348" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="349" spans="4:17">
+      <c r="D349" s="10" t="s">
+        <v>576</v>
+      </c>
+      <c r="F349" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="J349" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="K349" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="L349" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P349" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q349" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="350" spans="3:3">
+      <c r="C350" s="10" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="351" ht="28.5" spans="4:17">
+      <c r="D351" s="10" t="s">
+        <v>586</v>
+      </c>
+      <c r="E351" s="8" t="s">
+        <v>587</v>
+      </c>
+      <c r="F351" s="8" t="s">
+        <v>588</v>
+      </c>
+      <c r="J351" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="K351" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="L351" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P351" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q351" s="9" t="s">
         <v>25</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
-  <autoFilter ref="A1:Q326">
+  <autoFilter ref="A1:Q351">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AutoLoader/Contents/Support/房间名称分类处理.xlsx
+++ b/AutoLoader/Contents/Support/房间名称分类处理.xlsx
@@ -268,13 +268,13 @@
     <t>消防电梯前室</t>
   </si>
   <si>
-    <t>消防前室，*消防电梯前室*</t>
+    <t>消防前室，*消防电梯前室</t>
   </si>
   <si>
     <t>电梯前室</t>
   </si>
   <si>
-    <t>*电梯前室*</t>
+    <t>*电梯前室</t>
   </si>
   <si>
     <t>合用前室</t>
@@ -1968,42 +1968,42 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="36">
-    <numFmt numFmtId="176" formatCode="\¥#,##0.00;[Red]\¥\-#,##0.00"/>
+    <numFmt numFmtId="176" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;"/>
+    <numFmt numFmtId="6" formatCode="&quot;￥&quot;#,##0;[Red]&quot;￥&quot;\-#,##0"/>
+    <numFmt numFmtId="177" formatCode="\¥#,##0.00;[Red]\¥\-#,##0.00"/>
+    <numFmt numFmtId="23" formatCode="\$#,##0_);\(\$#,##0\)"/>
+    <numFmt numFmtId="178" formatCode="#\ ??/??"/>
+    <numFmt numFmtId="179" formatCode="mmmm\-yy"/>
+    <numFmt numFmtId="5" formatCode="&quot;￥&quot;#,##0;&quot;￥&quot;\-#,##0"/>
     <numFmt numFmtId="24" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
-    <numFmt numFmtId="177" formatCode="#\ ?/?"/>
-    <numFmt numFmtId="6" formatCode="&quot;￥&quot;#,##0;[Red]&quot;￥&quot;\-#,##0"/>
+    <numFmt numFmtId="180" formatCode="[DBNum1]上午/下午h&quot;时&quot;mm&quot;分&quot;"/>
+    <numFmt numFmtId="181" formatCode="[$-804]aaa"/>
+    <numFmt numFmtId="8" formatCode="&quot;￥&quot;#,##0.00;[Red]&quot;￥&quot;\-#,##0.00"/>
+    <numFmt numFmtId="182" formatCode="[DBNum1][$-804]m&quot;月&quot;d&quot;日&quot;"/>
+    <numFmt numFmtId="183" formatCode="[$-804]aaaa"/>
+    <numFmt numFmtId="184" formatCode="yyyy/m/d\ h:mm\ AM/PM"/>
+    <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
+    <numFmt numFmtId="185" formatCode="#\ ?/?"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="186" formatCode="yy/m/d"/>
+    <numFmt numFmtId="187" formatCode="dd\-mmm\-yy"/>
+    <numFmt numFmtId="188" formatCode="\¥#,##0;[Red]\¥\-#,##0"/>
+    <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
+    <numFmt numFmtId="189" formatCode="mmmmm"/>
+    <numFmt numFmtId="190" formatCode="h:mm\ AM/PM"/>
+    <numFmt numFmtId="191" formatCode="h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="192" formatCode="\¥#,##0;\¥\-#,##0"/>
+    <numFmt numFmtId="193" formatCode="mmmmm\-yy"/>
+    <numFmt numFmtId="194" formatCode="\¥#,##0.00;\¥\-#,##0.00"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="25" formatCode="\$#,##0.00_);\(\$#,##0.00\)"/>
-    <numFmt numFmtId="178" formatCode="\¥#,##0;[Red]\¥\-#,##0"/>
-    <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
-    <numFmt numFmtId="179" formatCode="[$-804]aaa"/>
+    <numFmt numFmtId="195" formatCode="#\ ??"/>
+    <numFmt numFmtId="196" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;"/>
+    <numFmt numFmtId="197" formatCode="[DBNum1]h&quot;时&quot;mm&quot;分&quot;"/>
+    <numFmt numFmtId="198" formatCode="mm/dd/yy"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="[DBNum1]上午/下午h&quot;时&quot;mm&quot;分&quot;"/>
-    <numFmt numFmtId="8" formatCode="&quot;￥&quot;#,##0.00;[Red]&quot;￥&quot;\-#,##0.00"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="181" formatCode="[DBNum1][$-804]m&quot;月&quot;d&quot;日&quot;"/>
-    <numFmt numFmtId="182" formatCode="h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="183" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;"/>
-    <numFmt numFmtId="184" formatCode="yyyy/m/d\ h:mm\ AM/PM"/>
-    <numFmt numFmtId="23" formatCode="\$#,##0_);\(\$#,##0\)"/>
-    <numFmt numFmtId="185" formatCode="mm/dd/yy"/>
-    <numFmt numFmtId="186" formatCode="yy/m/d"/>
-    <numFmt numFmtId="187" formatCode="m/d"/>
-    <numFmt numFmtId="188" formatCode="mmmm\-yy"/>
-    <numFmt numFmtId="189" formatCode="dd\-mmm\-yy"/>
-    <numFmt numFmtId="190" formatCode="#\ ??/??"/>
-    <numFmt numFmtId="191" formatCode="[$-804]aaaa"/>
-    <numFmt numFmtId="192" formatCode="#\ ??"/>
-    <numFmt numFmtId="193" formatCode="mmmmm\-yy"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="194" formatCode="[DBNum1]h&quot;时&quot;mm&quot;分&quot;"/>
-    <numFmt numFmtId="195" formatCode="\¥#,##0;\¥\-#,##0"/>
-    <numFmt numFmtId="5" formatCode="&quot;￥&quot;#,##0;&quot;￥&quot;\-#,##0"/>
-    <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
-    <numFmt numFmtId="196" formatCode="\¥#,##0.00;\¥\-#,##0.00"/>
-    <numFmt numFmtId="197" formatCode="mmmmm"/>
-    <numFmt numFmtId="198" formatCode="h:mm\ AM/PM"/>
-    <numFmt numFmtId="199" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="199" formatCode="m/d"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -2028,13 +2028,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -2048,10 +2041,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2063,8 +2057,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2079,17 +2074,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2101,14 +2089,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -2117,9 +2097,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2127,7 +2106,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2142,17 +2136,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2163,11 +2157,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2192,13 +2192,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2210,7 +2258,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2222,61 +2312,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2288,25 +2324,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2318,7 +2342,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2330,43 +2354,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2383,23 +2383,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2430,9 +2415,50 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2451,177 +2477,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2995,12 +2995,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q388"/>
+  <dimension ref="A1:Q387"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A149" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A358" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E279" sqref="E279:F279"/>
+      <selection pane="bottomLeft" activeCell="C367" sqref="C367:C369"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3675,7 +3675,7 @@
       <c r="D34" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="E34" s="8" t="s">
         <v>83</v>
       </c>
       <c r="F34" s="8" t="s">
@@ -3702,7 +3702,7 @@
       <c r="D35" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="E35" s="8" t="s">
         <v>85</v>
       </c>
       <c r="F35" s="8" t="s">
@@ -6386,8 +6386,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="159" spans="4:15">
-      <c r="D159" s="10" t="s">
+    <row r="159" spans="3:15">
+      <c r="C159" s="10" t="s">
         <v>292</v>
       </c>
       <c r="E159" s="8" t="s">
@@ -6412,8 +6412,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="160" spans="4:15">
-      <c r="D160" s="10" t="s">
+    <row r="160" spans="3:15">
+      <c r="C160" s="10" t="s">
         <v>294</v>
       </c>
       <c r="E160" s="8" t="s">
@@ -8792,8 +8792,8 @@
       <c r="K268" s="9"/>
       <c r="L268" s="9"/>
     </row>
-    <row r="269" spans="3:12">
-      <c r="C269" s="1" t="s">
+    <row r="269" spans="2:12">
+      <c r="B269" s="1" t="s">
         <v>466</v>
       </c>
       <c r="F269" s="2"/>
@@ -8804,8 +8804,8 @@
       <c r="K269" s="9"/>
       <c r="L269" s="9"/>
     </row>
-    <row r="270" spans="4:15">
-      <c r="D270" s="1" t="s">
+    <row r="270" spans="3:15">
+      <c r="C270" s="1" t="s">
         <v>467</v>
       </c>
       <c r="E270" s="2" t="s">
@@ -8827,8 +8827,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="271" spans="4:15">
-      <c r="D271" s="1" t="s">
+    <row r="271" spans="3:15">
+      <c r="C271" s="1" t="s">
         <v>469</v>
       </c>
       <c r="E271" s="8" t="s">
@@ -8850,11 +8850,10 @@
         <v>25</v>
       </c>
     </row>
-    <row r="272" spans="4:15">
-      <c r="D272" s="10" t="s">
+    <row r="272" spans="3:15">
+      <c r="C272" s="10" t="s">
         <v>471</v>
       </c>
-      <c r="E272" s="2"/>
       <c r="F272" s="2" t="s">
         <v>458</v>
       </c>
@@ -8871,8 +8870,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="273" spans="4:15">
-      <c r="D273" s="10" t="s">
+    <row r="273" spans="3:15">
+      <c r="C273" s="10" t="s">
         <v>472</v>
       </c>
       <c r="F273" s="2" t="s">
@@ -8891,8 +8890,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="274" ht="28.5" spans="4:14">
-      <c r="D274" s="1" t="s">
+    <row r="274" ht="28.5" spans="3:14">
+      <c r="C274" s="1" t="s">
         <v>473</v>
       </c>
       <c r="F274" s="2" t="s">
@@ -8911,8 +8910,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="275" spans="4:15">
-      <c r="D275" s="1" t="s">
+    <row r="275" spans="3:15">
+      <c r="C275" s="1" t="s">
         <v>474</v>
       </c>
       <c r="F275" s="2" t="s">
@@ -8932,8 +8931,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="276" spans="4:15">
-      <c r="D276" s="1" t="s">
+    <row r="276" spans="3:15">
+      <c r="C276" s="1" t="s">
         <v>475</v>
       </c>
       <c r="F276" s="2" t="s">
@@ -8952,8 +8951,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="277" spans="4:15">
-      <c r="D277" s="1" t="s">
+    <row r="277" spans="3:15">
+      <c r="C277" s="1" t="s">
         <v>107</v>
       </c>
       <c r="F277" s="2" t="s">
@@ -8970,8 +8969,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="278" spans="4:12">
-      <c r="D278" s="10" t="s">
+    <row r="278" spans="3:12">
+      <c r="C278" s="10" t="s">
         <v>476</v>
       </c>
       <c r="E278" s="2" t="s">
@@ -8990,11 +8989,11 @@
         <v>25</v>
       </c>
     </row>
-    <row r="279" spans="3:15">
-      <c r="C279" s="10" t="s">
+    <row r="279" spans="2:15">
+      <c r="B279" s="10" t="s">
         <v>478</v>
       </c>
-      <c r="D279" s="10"/>
+      <c r="C279" s="10"/>
       <c r="E279" s="8" t="s">
         <v>479</v>
       </c>
@@ -9014,9 +9013,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="280" spans="3:15">
-      <c r="C280" s="10"/>
-      <c r="D280" s="10" t="s">
+    <row r="280" spans="2:15">
+      <c r="B280" s="10"/>
+      <c r="C280" s="10" t="s">
         <v>480</v>
       </c>
       <c r="E280" s="8" t="s">
@@ -9038,9 +9037,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="281" spans="3:15">
-      <c r="C281" s="10"/>
-      <c r="D281" s="10" t="s">
+    <row r="281" spans="2:15">
+      <c r="B281" s="10"/>
+      <c r="C281" s="10" t="s">
         <v>482</v>
       </c>
       <c r="E281" s="8" t="s">
@@ -10875,8 +10874,7 @@
     </row>
     <row r="367" spans="2:11">
       <c r="B367" s="10"/>
-      <c r="C367" s="10"/>
-      <c r="D367" s="10" t="s">
+      <c r="C367" s="10" t="s">
         <v>614</v>
       </c>
       <c r="E367" s="8" t="s">
@@ -10894,8 +10892,7 @@
     </row>
     <row r="368" spans="2:11">
       <c r="B368" s="10"/>
-      <c r="C368" s="10"/>
-      <c r="D368" s="10" t="s">
+      <c r="C368" s="10" t="s">
         <v>616</v>
       </c>
       <c r="E368" s="8" t="s">
@@ -10913,8 +10910,7 @@
     </row>
     <row r="369" spans="2:11">
       <c r="B369" s="10"/>
-      <c r="C369" s="10"/>
-      <c r="D369" s="10" t="s">
+      <c r="C369" s="10" t="s">
         <v>618</v>
       </c>
       <c r="E369" s="8" t="s">
@@ -11099,25 +11095,41 @@
         <v>638</v>
       </c>
     </row>
-    <row r="382" spans="3:4">
-      <c r="C382" s="10"/>
-      <c r="D382" s="10"/>
-    </row>
-    <row r="383" spans="2:5">
-      <c r="B383" s="10" t="s">
+    <row r="382" spans="2:5">
+      <c r="B382" s="10" t="s">
         <v>639</v>
       </c>
-      <c r="E383" s="10" t="s">
+      <c r="E382" s="10" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="384" spans="2:12">
-      <c r="B384" s="10"/>
+    <row r="383" spans="2:12">
+      <c r="B383" s="10"/>
+      <c r="C383" s="10" t="s">
+        <v>641</v>
+      </c>
+      <c r="E383" s="8" t="s">
+        <v>642</v>
+      </c>
+      <c r="F383" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J383" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K383" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L383" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="384" spans="3:12">
       <c r="C384" s="10" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="E384" s="8" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="F384" s="2" t="s">
         <v>98</v>
@@ -11134,10 +11146,7 @@
     </row>
     <row r="385" spans="3:12">
       <c r="C385" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="E385" s="8" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="F385" s="2" t="s">
         <v>98</v>
@@ -11154,7 +11163,7 @@
     </row>
     <row r="386" spans="3:12">
       <c r="C386" s="10" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="F386" s="2" t="s">
         <v>98</v>
@@ -11171,7 +11180,7 @@
     </row>
     <row r="387" spans="3:12">
       <c r="C387" s="10" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="F387" s="2" t="s">
         <v>98</v>
@@ -11183,23 +11192,6 @@
         <v>28</v>
       </c>
       <c r="L387" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="388" spans="3:12">
-      <c r="C388" s="10" t="s">
-        <v>647</v>
-      </c>
-      <c r="F388" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="J388" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K388" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="L388" s="9" t="s">
         <v>25</v>
       </c>
     </row>

--- a/AutoLoader/Contents/Support/房间名称分类处理.xlsx
+++ b/AutoLoader/Contents/Support/房间名称分类处理.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2394" uniqueCount="648">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2403" uniqueCount="648">
   <si>
     <t>一级</t>
   </si>
@@ -1968,42 +1968,42 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="36">
-    <numFmt numFmtId="176" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;"/>
+    <numFmt numFmtId="176" formatCode="\¥#,##0.00;[Red]\¥\-#,##0.00"/>
+    <numFmt numFmtId="23" formatCode="\$#,##0_);\(\$#,##0\)"/>
+    <numFmt numFmtId="177" formatCode="mmmm\-yy"/>
+    <numFmt numFmtId="5" formatCode="&quot;￥&quot;#,##0;&quot;￥&quot;\-#,##0"/>
+    <numFmt numFmtId="178" formatCode="#\ ?/?"/>
+    <numFmt numFmtId="179" formatCode="h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="180" formatCode="[DBNum1]上午/下午h&quot;时&quot;mm&quot;分&quot;"/>
+    <numFmt numFmtId="181" formatCode="m/d"/>
+    <numFmt numFmtId="182" formatCode="mmmmm\-yy"/>
+    <numFmt numFmtId="183" formatCode="[$-804]aaa"/>
+    <numFmt numFmtId="184" formatCode="[$-804]aaaa"/>
     <numFmt numFmtId="6" formatCode="&quot;￥&quot;#,##0;[Red]&quot;￥&quot;\-#,##0"/>
-    <numFmt numFmtId="177" formatCode="\¥#,##0.00;[Red]\¥\-#,##0.00"/>
-    <numFmt numFmtId="23" formatCode="\$#,##0_);\(\$#,##0\)"/>
-    <numFmt numFmtId="178" formatCode="#\ ??/??"/>
-    <numFmt numFmtId="179" formatCode="mmmm\-yy"/>
-    <numFmt numFmtId="5" formatCode="&quot;￥&quot;#,##0;&quot;￥&quot;\-#,##0"/>
+    <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
+    <numFmt numFmtId="185" formatCode="yy/m/d"/>
+    <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
+    <numFmt numFmtId="186" formatCode="mmmmm"/>
+    <numFmt numFmtId="187" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;"/>
+    <numFmt numFmtId="188" formatCode="[DBNum1][$-804]m&quot;月&quot;d&quot;日&quot;"/>
+    <numFmt numFmtId="189" formatCode="mm/dd/yy"/>
+    <numFmt numFmtId="190" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="191" formatCode="#\ ??"/>
     <numFmt numFmtId="24" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
-    <numFmt numFmtId="180" formatCode="[DBNum1]上午/下午h&quot;时&quot;mm&quot;分&quot;"/>
-    <numFmt numFmtId="181" formatCode="[$-804]aaa"/>
+    <numFmt numFmtId="192" formatCode="yyyy/m/d\ h:mm\ AM/PM"/>
+    <numFmt numFmtId="193" formatCode="#\ ??/??"/>
+    <numFmt numFmtId="194" formatCode="\¥#,##0;[Red]\¥\-#,##0"/>
     <numFmt numFmtId="8" formatCode="&quot;￥&quot;#,##0.00;[Red]&quot;￥&quot;\-#,##0.00"/>
-    <numFmt numFmtId="182" formatCode="[DBNum1][$-804]m&quot;月&quot;d&quot;日&quot;"/>
-    <numFmt numFmtId="183" formatCode="[$-804]aaaa"/>
-    <numFmt numFmtId="184" formatCode="yyyy/m/d\ h:mm\ AM/PM"/>
-    <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
-    <numFmt numFmtId="185" formatCode="#\ ?/?"/>
+    <numFmt numFmtId="195" formatCode="h:mm\ AM/PM"/>
+    <numFmt numFmtId="196" formatCode="\¥#,##0;\¥\-#,##0"/>
+    <numFmt numFmtId="25" formatCode="\$#,##0.00_);\(\$#,##0.00\)"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="197" formatCode="[DBNum1]h&quot;时&quot;mm&quot;分&quot;"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="186" formatCode="yy/m/d"/>
-    <numFmt numFmtId="187" formatCode="dd\-mmm\-yy"/>
-    <numFmt numFmtId="188" formatCode="\¥#,##0;[Red]\¥\-#,##0"/>
-    <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
-    <numFmt numFmtId="189" formatCode="mmmmm"/>
-    <numFmt numFmtId="190" formatCode="h:mm\ AM/PM"/>
-    <numFmt numFmtId="191" formatCode="h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="192" formatCode="\¥#,##0;\¥\-#,##0"/>
-    <numFmt numFmtId="193" formatCode="mmmmm\-yy"/>
-    <numFmt numFmtId="194" formatCode="\¥#,##0.00;\¥\-#,##0.00"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="25" formatCode="\$#,##0.00_);\(\$#,##0.00\)"/>
-    <numFmt numFmtId="195" formatCode="#\ ??"/>
-    <numFmt numFmtId="196" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;"/>
-    <numFmt numFmtId="197" formatCode="[DBNum1]h&quot;时&quot;mm&quot;分&quot;"/>
-    <numFmt numFmtId="198" formatCode="mm/dd/yy"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="199" formatCode="m/d"/>
+    <numFmt numFmtId="198" formatCode="dd\-mmm\-yy"/>
+    <numFmt numFmtId="199" formatCode="\¥#,##0.00;\¥\-#,##0.00"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -2057,78 +2057,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2144,7 +2074,69 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2158,14 +2150,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2192,7 +2192,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2204,133 +2354,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2342,31 +2366,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2398,6 +2398,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -2424,15 +2448,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2444,21 +2459,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2480,85 +2480,85 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2567,40 +2567,40 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2609,19 +2609,19 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2995,12 +2995,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q387"/>
+  <dimension ref="A1:Q386"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A358" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A364" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C367" sqref="C367:C369"/>
+      <selection pane="bottomLeft" activeCell="C216" sqref="C216:C217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -7718,8 +7718,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="216" ht="28.5" spans="4:15">
-      <c r="D216" s="1" t="s">
+    <row r="216" ht="28.5" spans="3:15">
+      <c r="C216" s="1" t="s">
         <v>380</v>
       </c>
       <c r="F216" s="2" t="s">
@@ -7738,8 +7738,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="217" ht="28.5" spans="4:15">
-      <c r="D217" s="1" t="s">
+    <row r="217" ht="28.5" spans="3:15">
+      <c r="C217" s="1" t="s">
         <v>381</v>
       </c>
       <c r="F217" s="2" t="s">
@@ -8814,6 +8814,9 @@
       <c r="F270" s="2" t="s">
         <v>458</v>
       </c>
+      <c r="I270" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="J270" s="9" t="s">
         <v>68</v>
       </c>
@@ -8837,6 +8840,9 @@
       <c r="F271" s="2" t="s">
         <v>458</v>
       </c>
+      <c r="I271" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="J271" s="9" t="s">
         <v>68</v>
       </c>
@@ -8857,6 +8863,9 @@
       <c r="F272" s="2" t="s">
         <v>458</v>
       </c>
+      <c r="I272" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="J272" s="9" t="s">
         <v>68</v>
       </c>
@@ -8877,6 +8886,9 @@
       <c r="F273" s="2" t="s">
         <v>458</v>
       </c>
+      <c r="I273" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="J273" s="9" t="s">
         <v>68</v>
       </c>
@@ -8897,6 +8909,9 @@
       <c r="F274" s="2" t="s">
         <v>462</v>
       </c>
+      <c r="I274" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="J274" s="9" t="s">
         <v>68</v>
       </c>
@@ -8917,6 +8932,9 @@
       <c r="F275" s="2" t="s">
         <v>458</v>
       </c>
+      <c r="I275" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="J275" s="9" t="s">
         <v>68</v>
       </c>
@@ -8938,6 +8956,9 @@
       <c r="F276" s="2" t="s">
         <v>458</v>
       </c>
+      <c r="I276" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="J276" s="9" t="s">
         <v>68</v>
       </c>
@@ -8958,6 +8979,9 @@
       <c r="F277" s="2" t="s">
         <v>62</v>
       </c>
+      <c r="I277" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="J277" s="9" t="s">
         <v>68</v>
       </c>
@@ -8978,6 +9002,9 @@
       </c>
       <c r="F278" s="2" t="s">
         <v>210</v>
+      </c>
+      <c r="I278" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="J278" s="9" t="s">
         <v>68</v>
@@ -10954,12 +10981,32 @@
       </c>
       <c r="O372" s="9"/>
     </row>
-    <row r="374" spans="3:12">
-      <c r="C374" s="10" t="s">
+    <row r="373" spans="3:12">
+      <c r="C373" s="10" t="s">
         <v>623</v>
       </c>
+      <c r="E373" s="8" t="s">
+        <v>624</v>
+      </c>
+      <c r="F373" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="J373" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="K373" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="L373" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="374" spans="4:12">
+      <c r="D374" s="10" t="s">
+        <v>625</v>
+      </c>
       <c r="E374" s="8" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="F374" s="8" t="s">
         <v>219</v>
@@ -10976,10 +11023,10 @@
     </row>
     <row r="375" spans="4:12">
       <c r="D375" s="10" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="E375" s="8" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="F375" s="8" t="s">
         <v>219</v>
@@ -10994,39 +11041,40 @@
         <v>25</v>
       </c>
     </row>
-    <row r="376" spans="4:12">
-      <c r="D376" s="10" t="s">
-        <v>627</v>
-      </c>
-      <c r="E376" s="8" t="s">
-        <v>628</v>
-      </c>
-      <c r="F376" s="8" t="s">
+    <row r="376" spans="3:4">
+      <c r="C376" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="D376" s="10"/>
+    </row>
+    <row r="377" spans="3:12">
+      <c r="C377" s="10"/>
+      <c r="D377" s="10" t="s">
+        <v>630</v>
+      </c>
+      <c r="E377" s="8" t="s">
+        <v>631</v>
+      </c>
+      <c r="F377" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="J376" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="K376" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="L376" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="377" spans="3:4">
-      <c r="C377" s="10" t="s">
-        <v>629</v>
-      </c>
-      <c r="D377" s="10"/>
+      <c r="J377" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="K377" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="L377" s="9" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="378" spans="3:12">
       <c r="C378" s="10"/>
       <c r="D378" s="10" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="E378" s="8" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="F378" s="8" t="s">
         <v>219</v>
@@ -11044,10 +11092,10 @@
     <row r="379" spans="3:12">
       <c r="C379" s="10"/>
       <c r="D379" s="10" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="E379" s="8" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="F379" s="8" t="s">
         <v>219</v>
@@ -11062,54 +11110,53 @@
         <v>25</v>
       </c>
     </row>
-    <row r="380" spans="3:12">
+    <row r="380" ht="28.5" spans="3:6">
       <c r="C380" s="10"/>
       <c r="D380" s="10" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="E380" s="8" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="F380" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="J380" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="K380" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="L380" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="381" ht="28.5" spans="3:6">
-      <c r="C381" s="10"/>
-      <c r="D381" s="10" t="s">
-        <v>636</v>
-      </c>
-      <c r="E381" s="8" t="s">
-        <v>637</v>
-      </c>
-      <c r="F381" s="8" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="382" spans="2:5">
-      <c r="B382" s="10" t="s">
+    <row r="381" spans="2:5">
+      <c r="B381" s="10" t="s">
         <v>639</v>
       </c>
-      <c r="E382" s="10" t="s">
+      <c r="E381" s="10" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="383" spans="2:12">
-      <c r="B383" s="10"/>
+    <row r="382" spans="2:12">
+      <c r="B382" s="10"/>
+      <c r="C382" s="10" t="s">
+        <v>641</v>
+      </c>
+      <c r="E382" s="8" t="s">
+        <v>642</v>
+      </c>
+      <c r="F382" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J382" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K382" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L382" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="383" spans="3:12">
       <c r="C383" s="10" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="E383" s="8" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="F383" s="2" t="s">
         <v>98</v>
@@ -11126,10 +11173,7 @@
     </row>
     <row r="384" spans="3:12">
       <c r="C384" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="E384" s="8" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="F384" s="2" t="s">
         <v>98</v>
@@ -11146,7 +11190,7 @@
     </row>
     <row r="385" spans="3:12">
       <c r="C385" s="10" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="F385" s="2" t="s">
         <v>98</v>
@@ -11163,7 +11207,7 @@
     </row>
     <row r="386" spans="3:12">
       <c r="C386" s="10" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="F386" s="2" t="s">
         <v>98</v>
@@ -11175,23 +11219,6 @@
         <v>28</v>
       </c>
       <c r="L386" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="387" spans="3:12">
-      <c r="C387" s="10" t="s">
-        <v>647</v>
-      </c>
-      <c r="F387" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="J387" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K387" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="L387" s="9" t="s">
         <v>25</v>
       </c>
     </row>
